--- a/experimental results/e4000_MountainCar.xlsx
+++ b/experimental results/e4000_MountainCar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="120">
   <si>
     <t>01_i_domain_name</t>
   </si>
@@ -73,505 +73,265 @@
     <t>[26]</t>
   </si>
   <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9218233863603327, -0.0035535791596351747)', '(-0.9220517257777701, -0.00022833941743737778)', '(-0.9189541969518581, 0.0030975288259119426)', '(-0.9125394186851653, 0.006414778266692843)', '(-0.9028258753676639, 0.009713543317501409)', '(-0.8898431751058048, 0.012982700261859154)', '(-0.8736338947717459, 0.01620928033405885)', '(-0.8542559253286085, 0.019377969443137424)', '(-0.8317851907169016, 0.022470734611706917)', '(-0.806318567544585, 0.025466623172316624)', '(-0.7779767834915886, 0.02834178405299634)', '(-0.7469070251603745, 0.031069758331214045)', '(-0.7132849493249899, 0.033622075835384665)', '(-0.6773157755452194, 0.03596917377977048)', '(-0.6392341538430778, 0.03808162170214155)', '(-0.5993025574449958, 0.03993159639808199)', '(-0.5578080510706295, 0.04149450637436636)', '(-0.5150574252783384, 0.042750625792291004)', '(-0.4713708526034495, 0.04368657267488889)', '(-0.42707438858565366, 0.044296464017795856)', '(-0.38249178252597527, 0.04458260605967837)', '(-0.3379361528370632, 0.044555629688912086)', '(-0.29370210251835244, 0.04423405031871074)', '(-0.25005879740018666, 0.04364330511816579)', '(-0.2072444138363474, 0.04281438356383925)', '(-0.16546220567353775, 0.04178220816280964)', '(-0.12487827045351196, 0.04058393522002579)', '(-0.08562093852955714, 0.03925733192395482)', '(-0.0477815859314673, 0.03783935259808984)', '(-0.011416592633862854, 0.036364993297604446)', '(0.023449866829517586, 0.03486645946338044)', '(0.05682251007479906, 0.033372643245281476)', '(0.08873138941674544, 0.03190887934194638)', '(0.1192283211359566, 0.030496931719211175)', '(0.1483834782482403, 0.029155157112283708)', '(0.1762822706121197, 0.027898792363879397)', '(0.20302258929661893, 0.02674031868449922)', '(0.22871245371349563, 0.025689864416876693)', '(0.2534680707087256, 0.024755616995229966)', '(0.277412294001126, 0.023944223292400365)', '(0.30067345877445956, 0.023261164773333568)', '(0.32338455833398094, 0.02271109955952139)', '(0.34568272599307187, 0.022298167659090904)', '(0.36770898437237853, 0.022026258379306676)', '(0.3896082248898301, 0.02189924051745156)', '(0.41152938141707174, 0.02192115652724165)', '(0.43362576307007966, 0.0220963816530079)', '(0.4560555112065998, 0.022429748136520128)', '(0.47798214431001407, 0.021926633103414254)', '(0.4995677195585184, 0.021585575248504373)', '(0.5209732179706682, 0.021405498412149747)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86]</t>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9218233863603327, -0.0035535791596351747)', '(-0.9220517257777701, -0.00022833941743737778)', '(-0.9189541969518581, 0.0030975288259119426)', '(-0.9125394186851653, 0.006414778266692843)', '(-0.9028258753676639, 0.009713543317501409)', '(-0.8898431751058048, 0.012982700261859154)', '(-0.8736338947717459, 0.01620928033405885)', '(-0.8542559253286085, 0.019377969443137424)', '(-0.8317851907169016, 0.022470734611706917)', '(-0.806318567544585, 0.025466623172316624)', '(-0.7779767834915886, 0.02834178405299634)', '(-0.7469070251603745, 0.031069758331214045)', '(-0.7132849493249899, 0.033622075835384665)', '(-0.6773157755452194, 0.03596917377977048)']</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
   </si>
   <si>
     <t>Omitted</t>
   </si>
   <si>
-    <t>['[1,1,1]', '[1,1,2]', '[1,0,2]']</t>
+    <t>['[0,1,1]', '[1,1,1]', '[2,1,0]', '[0,2,1]', '[2,0,1]', '[1,1,2]', '[0,0,0]', '[1,2,0]', '[1,0,2]', '[2,2,2]']</t>
   </si>
   <si>
     <t>[4, 8, 13, 16, 21, 26, 33, 36, 38]</t>
   </si>
   <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8606674595669251, 0.004725559805083185)', '(-0.8528232180613048, 0.007844241505620405)', '(-0.8418921088176619, 0.010931109243642965)', '(-0.827920388520719, 0.013971720296942772)', '(-0.8109703684131692, 0.016950020107549896)', '(-0.7911222967358279, 0.019848071677341247)', '(-0.7684763634394032, 0.02264593329642471)', '(-0.7431546434351952, 0.025321720004207904)', '(-0.7153027641180324, 0.027851879317162792)', '(-0.6850910629310946, 0.030211701186937865)', '(-0.6527149980226806, 0.032376064908413923)', '(-0.6183945960141227, 0.03432040200855787)', '(-0.5823727700839778, 0.036021825930144934)', '(-0.5449124197106594, 0.03746035037331839)', '(-0.5062923259087532, 0.03862009380190625)', '(-0.4668019721728886, 0.039490353735864576)', '(-0.4267355362334863, 0.04006643593940228)', '(-0.3863853934668388, 0.04035014276664748)', '(-0.3460355332091297, 0.040349860257709085)', '(-0.3059553035147998, 0.0400802296943299)', '(-0.2663938654725413, 0.03956143804225852)', '(-0.22757566133716933, 0.038818204135371966)', '(-0.18969709500471676, 0.03787856633245256)', '(-0.15292450617031178, 0.03677258883440499)', '(-0.11739340812985141, 0.03553109804046037)', '(-0.08320886730609259, 0.03418454082375883)', '(-0.05044683831814986, 0.032762028987942726)', '(-0.019156233994066463, 0.0312906043240834)', '(0.010638497508577628, 0.02979473150264409)', '(0.03893450215147692, 0.02829600464289929)', '(0.06574754123823093, 0.02681303908675401)', '(0.09110905368131761, 0.02536151244308668)', '(0.11506337086167776, 0.02395431718036014)', '(0.13766516019164843, 0.022601789329970663)', '(0.15897714281289943, 0.021311982621250995)', '(0.17906810606671525, 0.02009096325381583)', '(0.19801121259984944, 0.018943106533134194)', '(0.21588259471662613, 0.017871382116776684)', '(0.23276021402350416, 0.01687761930687803)', '(0.24872296158783758, 0.015962747564333423)', '(0.26384997182849523, 0.01512701024065764)', '(0.2782201233612675, 0.014370151532772291)', '(0.29191170136799605, 0.013691578006728553)', '(0.3050021982231112, 0.013090496855115175)', '(0.31756823170639886, 0.012566033483287666)', '(0.3296855628807198, 0.012117331174320952)', '(0.3414291984321817, 0.011743635551461882)', '(0.35287356483998383, 0.011444366407802112)', '(0.3640927440949338, 0.011219179254949953)', '(0.3751607627840502, 0.011068018689116402)', '(0.38615192818937133, 0.010991165405321131)', '(0.39714120660914376, 0.010989278419772406)', '(0.40820464039987175, 0.011063433790727982)', '(0.4194198012569603, 0.011215160857088558)', '(0.43086627799120636, 0.011446476734246048)', '(0.4426261974973739, 0.011759919506167563)', '(0.45478477771170744, 0.012158580214333524)', '(0.4674309110572797, 0.012646133345572266)', '(0.47965777609068205, 0.012226865033402371)', '(0.49155603726888947, 0.01189826117820739)', '(0.5032143478576674, 0.011658310588777962)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101]</t>
-  </si>
-  <si>
-    <t>['[0,1,1]', '[2,1,0]', '[1,1,2]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49, 76, 98, 100, 103]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41688812962687327, -0.0034780326196833782)', '(-0.42115289174160425, -0.004264762114730997)', '(-0.42617395914261486, -0.00502106740101063)', '(-0.4319153539455495, -0.005741394802934639)', '(-0.4393357370306727, -0.007420383085123208)', '(-0.44738138362155394, -0.008045646590881266)', '(-0.4559936926770704, -0.008612309055516451)', '(-0.4651095709102948, -0.009115878233224382)', '(-0.47566187061981946, -0.010552299709524673)', '(-0.4865724591373637, -0.010910588517544246)', '(-0.4977601743175313, -0.011187715180167567)', '(-0.5101414849951025, -0.012381310677571153)', '(-0.5236236979370857, -0.013482212941983254)', '(-0.5371057239615282, -0.013482026024442526)', '(-0.5514864755929504, -0.014380751631422203)', '(-0.5666583133894763, -0.015171837796525913)', '(-0.5825081020777473, -0.01584978868827105)', '(-0.5989183671059618, -0.01641026502821452)', '(-0.6147685299661801, -0.015850162860218328)', '(-0.630943413043882, -0.01617488307770189)', '(-0.647327054695926, -0.016383641652044006)', '(-0.6638038967627455, -0.016476842066819552)', '(-0.6792599331860142, -0.015456036423268621)', '(-0.6935904826369591, -0.014330549450944896)', '(-0.7067006432533479, -0.013110160616388785)', '(-0.7195055660885832, -0.012804922835235223)', '(-0.7319243255666845, -0.012418759478101378)', '(-0.7438803892029979, -0.011956063636313368)', '(-0.754301992712396, -0.010421603509398058)', '(-0.7641281891600165, -0.009826196447620535)', '(-0.7723029408869763, -0.008174751726959811)', '(-0.7797807196814492, -0.007477778794472976)', '(-0.7855207721248553, -0.005740052443406065)', '(-0.7894924075039262, -0.003971635379070979)', '(-0.7926746968135555, -0.0031822893096292836)', '(-0.7940510537706393, -0.0013763569570838523)', '(-0.7946143556210978, -0.0005633018504584962)', '(-0.7943616961416005, 0.00025265947949737054)', '(-0.7922943782283864, 0.0020673179132139697)', '(-0.7884231015754104, 0.0038712766529760806)', '(-0.7837680888217157, 0.004655012753694719)', '(-0.7773539749938986, 0.006414113827817123)', '(-0.7692152655554051, 0.008138709438493518)', '(-0.760396661112913, 0.008818604442492049)', '(-0.7499477260338634, 0.010448935079049666)', '(-0.7379286619646062, 0.012019064069257242)', '(-0.7244106209908786, 0.013518040973727524)', '(-0.710475952688466, 0.013934668302412639)', '(-0.6962119814859157, 0.014263971202550282)', '(-0.6797104998870089, 0.01650148159890673)', '(-0.6610805149096872, 0.018629984977321715)', '(-0.6404484031964321, 0.020632111713255085)', '(-0.6179577580799361, 0.022490645116495997)', '(-0.5937688343315372, 0.024188923748398997)', '(-0.5680575134811612, 0.025711320850375963)', '(-0.5410137398252319, 0.02704377365592927)', '(-0.5128394133478003, 0.028174326477431684)', '(-0.4837457680755906, 0.02909364527220963)', '(-0.4539503087770331, 0.029795459298557522)', '(-0.42367342036138994, 0.030276888415643133)', '(-0.3931347976123862, 0.030538622749003742)', '(-0.3625498635102124, 0.03058493410217379)', '(-0.3321263494674633, 0.030423514042749143)', '(-0.30206119963194006, 0.030065149835523216)', '(-0.2725379356352816, 0.02952326399665844)', '(-0.2437245814348906, 0.028813354200391023)', '(-0.21577220512146028, 0.02795237631343032)', '(-0.1888140910039872, 0.026958114117473085)', '(-0.1629655156526979, 0.025848575351289288)', '(-0.13832406938867023, 0.024641446264027672)', '(-0.11497044193846463, 0.023353627450205597)', '(-0.09296957808381197, 0.02200086385465266)', '(-0.07237210533781677, 0.0205974727459952)', '(-0.05421593933214164, 0.018156166005675132)', '(-0.039526778270367116, 0.01468916106177452)', '(-0.028320061175024124, 0.011206717095342992)', '(-0.020604326714778468, 0.007715734460245656)', '(-0.016383817719410075, 0.004220508995368395)', '(-0.015660289500267162, 0.0007235282191429145)', '(-0.01843400278605354, -0.0027737132857863773)', '(-0.02370389415587932, -0.00526989136982578)', '(-0.03146746709977151, -0.007763572943892193)', '(-0.04171990854745284, -0.010252441447681332)', '(-0.05445279434718649, -0.012732885799733645)', '(-0.06965239681063279, -0.015199602463446309)', '(-0.08729761869128456, -0.017645221880651773)', '(-0.10735759464868679, -0.02005997595740222)', '(-0.12878902398326383, -0.021431429334577055)', '(-0.1515361636939202, -0.022747139710656374)', '(-0.17552938593644374, -0.02399322224252355)', '(-0.201683925292294, -0.026154539355850274)', '(-0.22989464626908104, -0.028210720976787024)', '(-0.2610339851488009, -0.03113933887971982)', '(-0.29494514547811673, -0.033911160329315855)', '(-0.3314398479352389, -0.03649470245712216)', '(-0.369297234147683, -0.03785738621244408)', '(-0.40927099267625655, -0.039973758528573516)', '(-0.45008549662947683, -0.040814503953220276)', '(-0.49244689162448885, -0.042361394995012014)', '(-0.5360415857987022, -0.043594694174213355)', '(-0.5795429805673498, -0.043501394768647575)', '(-0.6216267608069072, -0.04208378023955734)', '(-0.6619858829088614, -0.040359122101954255)', '(-0.700336661127138, -0.03835077821827659)', '(-0.7364231451602187, -0.03608648403308066)', '(-0.7700197041116927, -0.03359655895147403)', '(-0.8009319047663039, -0.030912200654611248)', '(-0.8289959073373803, -0.02806400257107631)', '(-0.8540766885939878, -0.025080781256607475)', '(-0.8760654403578316, -0.02198875176384386)', '(-0.8948764884591897, -0.018811048101357992)', '(-0.9104440451842936, -0.015567556725103904)', '(-0.9227190595424579, -0.012275014358164343)', '(-0.9316663750871188, -0.008947315544660855)', '(-0.9372623523017863, -0.005595977214667563)', '(-0.939493066214728, -0.00223071391294163)', '(-0.9383531515524207, 0.0011399146623072534)', '(-0.9338453367678724, 0.004507814784548307)', '(-0.9259806825477962, 0.007864654220076216)', '(-0.9147795168881757, 0.011201165659620517)', '(-0.9002730341711276, 0.014506482717048137)', '(-0.8825054966875097, 0.01776753748361795)', '(-0.8615369412393321, 0.02096855544817751)', '(-0.8374462496413413, 0.024090691597990828)', '(-0.8103343909395283, 0.027111858701813027)', '(-0.7803275884857701, 0.03000680245375817)', '(-0.7475801133499296, 0.032747475135840524)', '(-0.7122763667831544, 0.03530374656677517)', '(-0.6746319007186687, 0.03764446606448572)', '(-0.6348930489940817, 0.03973885172458705)', '(-0.5933349125475104, 0.04155813644657139)', '(-0.5502575620110582, 0.04307735053645215)', '(-0.505980483652618, 0.0442770783584402)', '(-0.4608354809684535, 0.04514500268416452)', '(-0.4151584264802226, 0.045677054488230916)', '(-0.36928040451737776, 0.045878021962844864)', '(-0.32351886780774064, 0.04576153670963712)', '(-0.2781694318716167, 0.045349435936123936)', '(-0.23349885118612845, 0.04467058068548824)', '(-0.1897395760116923, 0.04375927517443614)', '(-0.1470861066311767, 0.042653469380515625)', '(-0.10569317469811436, 0.04139293193306233)', '(-0.06567561789690389, 0.04001755680121047)', '(-0.027109693391353613, 0.03856592450555028)', '(0.009964494581955627, 0.03707418797330924)', '(0.04553979949754736, 0.035575304915591736)', '(0.07963839922149411, 0.03409859972394675)', '(0.11230801078635975, 0.03266961156486564)', '(0.14361818235261176, 0.031310171566252015)', '(0.17365683096357848, 0.03003864861096671)', '(0.2025271381934664, 0.02887030722988794)', '(0.23034486755311942, 0.027817729359653025)', '(0.25723612931456935, 0.02689126176144995)', '(0.2833355901922753, 0.026099460877705923)', '(0.3087851059218108, 0.02544951572953554)', '(0.33373274251371005, 0.024947636591899244)', '(0.35833214499428157, 0.02459940248057153)', '(0.3827422090273712, 0.024410064033089676)', '(0.40712700938903135, 0.02438480036166012)', '(0.43165593850979567, 0.024528929120764296)', '(0.4565040070710994, 0.024848068561303713)', '(0.48085225595345643, 0.02434824888235705)', '(0.5048807839448967, 0.02402852799144023)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165]</t>
-  </si>
-  <si>
-    <t>['[0,2,1]', '[0,0,0]', '[1,1,2]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 74, 75, 76, 77, 93, 94, 97, 98, 99, 100, 101, 111, 112, 113, 114, 116]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46195598448582437, -0.008934427180277368)', '(-0.47135010198763444, -0.009394117501810082)', '(-0.4811344818689669, -0.009784379881332466)', '(-0.4912364832135895, -0.010102001344622562)', '(-0.5015808206276465, -0.01034433741405706)', '(-0.5120901726466438, -0.010509352018997255)', '(-0.5236858220405293, -0.011595649393885483)', '(-0.5362808185861054, -0.012594996545576175)', '(-0.5497807227543096, -0.013499904168204135)', '(-0.5640844641668106, -0.014303741412501014)', '(-0.5780853089115225, -0.014000844744711983)', '(-0.5916793220116702, -0.013594013100147673)', '(-0.6057662735618006, -0.014086951550130442)', '(-0.6192431909222812, -0.013476917360480605)', '(-0.6320125778158626, -0.012769386893581395)', '(-0.6439831208450931, -0.011970543029230504)', '(-0.6550702810709481, -0.011087160225854932)', '(-0.665196771987928, -0.010126490916979935)', '(-0.6752929301820363, -0.01009615819410829)', '(-0.6852902474104309, -0.009997317228394566)', '(-0.69412187915975, -0.008831631749319148)', '(-0.7027296452778802, -0.008607766118130196)', '(-0.710057666734382, -0.0073280214565018525)', '(-0.7170590432455791, -0.007001376511197094)', '(-0.722689563695558, -0.005630520449978878)', '(-0.7269141112434762, -0.0042245475479180845)', '(-0.7297066007815012, -0.002792489538025065)', '(-0.7310499156758343, -0.0013433148943331973)', '(-0.7319358582008177, -0.0008859425249834276)', '(-0.7313590347396498, 0.000576823461167958)', '(-0.7293229558214056, 0.0020360789182442014)', '(-0.7258400478211158, 0.0034829080002898843)', '(-0.7219316921374961, 0.003908355683619648)', '(-0.7166220671563864, 0.0053096249811096265)', '(-0.7099443279633955, 0.006677739192990933)', '(-0.7029406643844814, 0.007003663578913999)', '(-0.6946558968365673, 0.00828476754791417)', '(-0.6851437728447124, 0.00951212399185487)', '(-0.674466935316021, 0.010676837528691425)', '(-0.6616968246575448, 0.012770110658476217)', '(-0.6469203542676649, 0.014776470389879844)', '(-0.6302399274923947, 0.016680426775270246)', '(-0.6117732659643313, 0.01846666152806333)', '(-0.5916529810763678, 0.02012028488796358)', '(-0.5700258280907781, 0.02162715298558973)', '(-0.5470515969319694, 0.022974231158808645)', '(-0.5229016147007634, 0.024149982231205982)', '(-0.4977568611724769, 0.025144753528286455)', '(-0.4718057279155559, 0.025951133256921003)', '(-0.44524148137335895, 0.026564246542196992)', '(-0.4182595170607693, 0.02698196431258962)', '(-0.39105451276808767, 0.027205004292681658)', '(-0.3638176007430804, 0.027236912025007262)', '(-0.336733680682328, 0.027083920060752407)', '(-0.30997898677612473, 0.026754693906203254)', '(-0.2837190041573145, 0.026259982618810226)', '(-0.258106805197324, 0.025612198959990517)', '(-0.23328184720028816, 0.024824957997035817)', '(-0.20936924341073532, 0.02391260378955285)', '(-0.1864794918257216, 0.022889751585013725)', '(-0.16470862336945827, 0.021770868456263342)', '(-0.14413871394558442, 0.020569909423873857)', '(-0.12483869421800156, 0.01930001972758285)', '(-0.10786538638687948, 0.016973307831122074)', '(-0.09326232368371065, 0.014603062703168822)', '(-0.0810620467011835, 0.01220027698252716)', '(-0.07128820894866517, 0.00977383775251833)', '(-0.06495741617964909, 0.006330792769016073)', '(-0.06207930444938775, 0.0028781117302613436)', '(-0.06265796218832403, -0.0005786577389362826)', '(-0.06569258209918605, -0.0030346199108620174)', '(-0.07117880939638169, -0.00548622729719564)', '(-0.07910825568611508, -0.007929446289733393)', '(-0.08946762799615268, -0.010359372310037604)', '(-0.10223748947631482, -0.01276986148016214)', '(-0.11739067923556794, -0.01515318975925312)', '(-0.13489043327133293, -0.01749975403576501)', '(-0.15468826696097696, -0.019797833689644013)', '(-0.17672170199883747, -0.022033435037860517)', '(-0.2009119460171205, -0.024190244018283052)', '(-0.2271616594297397, -0.0262497134126192)', '(-0.25535296813678104, -0.02819130870704133)', '(-0.28534589840046315, -0.029992930263682084)', '(-0.3169774165190173, -0.031631518118554115)', '(-0.35106124596397753, -0.03408382944496023)', '(-0.38738209261551537, -0.036320846651537814)', '(-0.4246963665093903, -0.03731427389387495)', '(-0.4627415726641094, -0.03804520615471913)', '(-0.5012406764182326, -0.038499103754123104)', '(-0.5399073402092058, -0.03866666379097326)', '(-0.5784517385575005, -0.03854439834829468)', '(-0.6175865939185035, -0.03913485536100297)', '(-0.6550258440201998, -0.03743925010169637)', '(-0.6905047325109299, -0.03547888849073009)', '(-0.7237834824870146, -0.03327874997608466)', '(-0.7546494831575851, -0.030866000670570392)', '(-0.7829180711332175, -0.028268587975632427)', '(-0.8084320936395158, -0.025514022506298268)', '(-0.8310605094396896, -0.022628415800173742)', '(-0.8506963143431999, -0.019635804903510322)', '(-0.8682540775145664, -0.01755776317136646)', '(-0.8836635057737133, -0.01540942825914693)', '(-0.8968678107384649, -0.013204304964751562)', '(-0.9078220747415936, -0.010954264003128704)', '(-0.9174917104815127, -0.009669635739919129)', '(-0.9248482357026159, -0.007356525221103221)', '(-0.9288712839494007, -0.004023048246784825)', '(-0.9295501975538878, -0.0006789136044871797)', '(-0.9268832116019019, 0.002666985951985927)', '(-0.9208773151339938, 0.006005896467908023)', '(-0.9115487945946461, 0.009328520539347773)', '(-0.8989244395801238, 0.012624355014522349)', '(-0.8830433635170942, 0.015881076063029628)', '(-0.8639593593577226, 0.019084004159371653)', '(-0.8417436710106925, 0.022215688347030152)', '(-0.8164880149640521, 0.025255656046640415)', '(-0.7883076355919358, 0.028180379372116204)', '(-0.7573441269948467, 0.0309635085970892)', '(-0.7237677119446088, 0.03357641505023792)', '(-0.6877786451733429, 0.03598906677126588)', '(-0.6496074155312965, 0.03817122964204632)', '(-0.6095134696657595, 0.040093945865537016)', '(-0.567782274292153, 0.04173119537360646)', '(-0.5247206721861325, 0.0430616021060205)', '(-0.4806506558715891, 0.044070016314543395)', '(-0.4359018599743242, 0.04474879589726492)', '(-0.3908032295421365, 0.04509863043218771)', '(-0.3456744286886628, 0.04512880085347367)', '(-0.30081759068858543, 0.04485683800007741)', '(-0.25650996963351996, 0.044307621055065464)', '(-0.21299794317159101, 0.043512026461928956)', '(-0.17049265729015578, 0.04250528588143525)', '(-0.1291674265148655, 0.04132523077529028)', '(-0.08915683518502654, 0.04001059132983898)', '(-0.05055735012535621, 0.03859948505967033)', '(-0.013429164635154894, 0.03712818549020132)', '(0.02220104943335153, 0.03563021406850642)', '(0.05633680642658277, 0.034135756993231244)', '(0.08900818416007322, 0.03267137773349044)', '(0.12026816120776593, 0.03125997704769271)', '(0.15018910545044967, 0.029920944242683753)', '(0.17885954920712677, 0.028670443756677093)', '(0.20638133621801585, 0.02752178701088909)', '(0.2328671844301601, 0.026485848212144253)', '(0.2584386767842722, 0.02557149235411209)', '(0.2832246694712218, 0.024785992686949632)', '(0.30736009210341314, 0.02413542263219132)', '(0.3309851052961626, 0.023625013192749438)', '(0.3542445766208543, 0.023259471324691708)', '(0.3772878342608949, 0.023043257640040598)', '(0.40026865766729625, 0.022980823406401337)', '(0.4233454649773836, 0.02307680731008739)', '(0.44668165700772533, 0.023336192030341728)', '(0.47044607646561387, 0.02376441945788854)', '(0.49381353791796667, 0.023367461452352814)', '(0.516957907242244, 0.02314436932427733)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166]</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 46, 47, 48, 49, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46095598448582437, -0.007934427180277367)', '(-0.46935747202864825, -0.008401487542823898)', '(-0.47816397639950403, -0.008806504370855768)', '(-0.4873101875839997, -0.009146211184495674)', '(-0.4967280258927914, -0.009417838308791716)', '(-0.5063471766263759, -0.009619150733584481)', '(-0.515095656598203, -0.008748479971827133)', '(-0.5229079030462414, -0.007812246448038358)', '(-0.5297253310347104, -0.006817427988469026)', '(-0.5354968124443936, -0.005771481409683198)', '(-0.5401790775251818, -0.004682265080788152)', '(-0.5437370416130275, -0.0035579640878456932)', '(-0.5461440605685216, -0.0024070189554941538)', '(-0.5473821187770801, -0.001238058208558544)', '(-0.5474419532193772, -5.9834442297043754e-05)', '(-0.5463231162817601, 0.001118836937617063)', '(-0.5440339787742904, 0.0022891375074696797)', '(-0.5405916732289778, 0.0034423055453125582)', '(-0.5360219761462668, 0.0045696970827110266)', '(-0.5303591266280903, 0.005662849518176479)', '(-0.5236455779529627, 0.006713548675127499)', '(-0.5159316782601764, 0.007713899692786325)', '(-0.5082752767271224, 0.007656401533054006)', '(-0.5007337609611988, 0.007541515765923494)', '(-0.4923635983538175, 0.008370162607381305)', '(-0.48322735689181245, 0.009136241462005014)', '(-0.473393161369414, 0.00983419552239846)', '(-0.4629340858975478, 0.010459075471866214)', '(-0.45192748809692246, 0.011006597800625368)', '(-0.44045429272534603, 0.011473195371576414)', '(-0.42959823480603776, 0.010856057919308298)', '(-0.4194378737960846, 0.01016036100995316)', '(-0.4100460679300157, 0.009391805866068933)', '(-0.40148953073496774, 0.008556537195047946)', '(-0.39382846665970067, 0.007661064075267069)', '(-0.38711628007163795, 0.006712186588062716)', '(-0.38139934984758994, 0.005716930224048036)', '(-0.3767168604909709, 0.004682489356619031)', '(-0.3731006801727865, 0.0036161803181843644)', '(-0.3705752762889596, 0.0025254038838269603)', '(-0.3681576599867641, 0.002417616302195518)', '(-0.3658640567955448, 0.0022936031912192912)', '(-0.3637098053041546, 0.0021542514913902295)', '(-0.36170926306669937, 0.002000542237455204)', '(-0.3598757200634519, 0.0018335430032474362)', '(-0.35822131996117296, 0.0016544001022789623)', '(-0.3567569893437747, 0.0014643306173982447)', '(-0.35549237502165515, 0.001264614322119543)', '(-0.35443578947699245, 0.0010565855446627033)', '(-0.35359416446315733, 0.0008416250138351237)', '(-0.35297301274898424, 0.000621151714173114)', '(-0.35357639798223656, -0.0006033852332523275)', '(-0.3554003728045072, -0.0018239748222706725)', '(-0.35843298047028815, -0.0030326076657809613)', '(-0.3626542613262392, -0.004221280855951002)', '(-0.36803626882335644, -0.005382007497117274)', '(-0.3745431025812143, -0.006506833757857896)', '(-0.38213096844549527, -0.007587865864280978)', '(-0.39074827731538453, -0.008617308869889274)', '(-0.4003357956168949, -0.009587518301510386)', '(-0.41082686053553163, -0.010491064918636694)', '(-0.4221476724061837, -0.011320811870652118)', '(-0.4342176749487604, -0.012070002542576671)', '(-0.4469500313573783, -0.012732356408617912)', '(-0.46025220069553296, -0.01330216933815462)', '(-0.47402661479533575, -0.013774414099802778)', '(-0.48817145115677973, -0.014144836361443956)', '(-0.5025814925064578, -0.01441004134967804)', '(-0.5171490590563846, -0.014567566549926882)', '(-0.5317649954620489, -0.014615936405664316)', '(-0.5463196913450977, -0.014554695883048753)', '(-0.56070411228566, -0.014384420940562201)', '(-0.5748108175721616, -0.014106705286501592)', '(-0.588534941776644, -0.01372412420448241)', '(-0.6017751193327647, -0.013240177556120735)', '(-0.6144343345493938, -0.012659215216628997)', '(-0.626420683620115, -0.011986349070721308)', '(-0.6366480398521254, -0.010227356232010282)', '(-0.6450436872121625, -0.00839564736003713)', '(-0.6515485151333449, -0.006504827921182369)', '(-0.6561171121897429, -0.004568597056397989)', '(-0.6597177962574949, -0.0036006840677520356)', '(-0.6623257252801988, -0.0026079290227038745)', '(-0.6639229786447443, -0.0015972533645454646)', '(-0.6644986111625305, -0.0005756325177863038)', '(-0.664048684045246, 0.0004499271172845286)', '(-0.6625762756765963, 0.0014724083686497242)', '(-0.6600914732106428, 0.002484802465953507)', '(-0.6566113441902107, 0.0034801290204320113)', '(-0.6521598855936086, 0.004451458596602158)', '(-0.6467679461015654, 0.00539193949204318)', '(-0.6394731160404155, 0.007294830061149986)', '(-0.6303266260493594, 0.009146489991056104)', '(-0.6193932840863994, 0.010933341962960029)', '(-0.6067513320522866, 0.012641952034112763)', '(-0.5924921838881616, 0.014259148164124954)', '(-0.5767200059380493, 0.01577217795011235)', '(-0.5595511030058943, 0.017168902932155054)', '(-0.5411130801117388, 0.01843802289415548)', '(-0.5215437603663301, 0.019569319745408677)', '(-0.5009898531375282, 0.020553907228801956)', '(-0.4796053828424877, 0.021384470295040484)', '(-0.4575499059386841, 0.022055476903803585)', '(-0.43498656039492856, 0.022563345543755532)', '(-0.41208000639315917, 0.022906554001769382)', '(-0.3889943276660501, 0.02308567872710909)', '(-0.365890968500557, 0.023103359165493036)', '(-0.342926781372823, 0.022964187127734)', '(-0.3202522544239717, 0.022674526948851297)', '(-0.2980099771946587, 0.022242277229313004)', '(-0.2763333884107035, 0.021676588783955224)', '(-0.25534583270690614, 0.02098755570379737)', '(-0.2351599356618142, 0.020185897045091942)', '(-0.21587728994909394, 0.019282645712720252)', '(-0.19858843104925106, 0.0172888588998429)', '(-0.18336887040655828, 0.015219560642692793)', '(-0.17028048174609486, 0.013088388660463418)', '(-0.15937292664640576, 0.010907555099689097)', '(-0.15068502669917525, 0.008687899947230508)', '(-0.14424600503323662, 0.0064390216659386155)', '(-0.14007653573084192, 0.0041694693023947085)', '(-0.13818955465722596, 0.0018869810736159543)', '(-0.13859079894786858, -0.00040124429064260746)', '(-0.14127905480080677, -0.0026882558529381945)', '(-0.14624610459919868, -0.004967049798391913)', '(-0.1534763752598611, -0.007230270660662436)', '(-0.16294630068414934, -0.009469925424288239)', '(-0.17462342287464355, -0.01167712219049422)', '(-0.18846526912852923, -0.013841846253885693)', '(-0.20441805691425605, -0.015952787785726823)', '(-0.2224152933818026, -0.017997236467546564)', '(-0.24237635225145973, -0.019961058869657117)', '(-0.2642051258051422, -0.021828773553682457)', '(-0.287788862030437, -0.023583736225294787)', '(-0.3129973043392923, -0.0252084423088553)', '(-0.33968225118319423, -0.026684946843901953)', '(-0.36767764298282163, -0.027995391799627393)', '(-0.3968002624592788, -0.029122619476457168)', '(-0.4268511013453772, -0.030050838886098385)', '(-0.45761740296079695, -0.03076630161541979)', '(-0.4888753396038159, -0.03125793664301898)', '(-0.5203932312726091, -0.03151789166879317)', '(-0.5519351641532871, -0.03154193288067812)', '(-0.5832648299955333, -0.03132966584224617)', '(-0.6141493862554751, -0.030884556259941836)', '(-0.6443631348662922, -0.030213748610817055)', '(-0.6736908350034524, -0.02932770013716026)', '(-0.7019304996371288, -0.0282396646336764)', '(-0.7288955720554402, -0.02696507241831134)', '(-0.7544164306240493, -0.0255208585686091)', '(-0.7783412214305775, -0.023924790806528172)', '(-0.8005360637201157, -0.022194842289538174)', '(-0.8208847084210628, -0.020348644700947053)', '(-0.8392877538056226, -0.018403045384559884)', '(-0.8556615344555513, -0.01637378064992865)', '(-0.8699368016207806, -0.014275267165229269)', '(-0.8820573069997015, -0.012120505378920943)', '(-0.891978390451971, -0.009921083452269516)', '(-0.8996656575482134, -0.007687267096242346)', '(-0.9050938171104537, -0.005428159562240317)', '(-0.9082457333876526, -0.003151916277198945)', '(-0.9081117330509829, 0.0001340003366697034)', '(-0.9046922231977905, 0.003419509853192355)', '(-0.8979977171994875, 0.006694505998302994)', '(-0.8880494895989705, 0.009948227600517025)', '(-0.8748808313816413, 0.013168658217329134)', '(-0.8585388467980497, 0.01634198458359165)', '(-0.8390866982852019, 0.019452148512847857)', '(-0.8166061661300849, 0.022480532155116993)', '(-0.7912003452598652, 0.02540582087021966)', '(-0.762996256073634, 0.02820408918623115)', '(-0.7321471052308357, 0.030849150842798302)', '(-0.6988339038545142, 0.033313201376321544)', '(-0.6632661443125479, 0.035567759541966185)', '(-0.6256812620597222, 0.037584882252825726)', '(-0.5863426727404428, 0.0393385893192794)', '(-0.5455362781359123, 0.0408063946045305)', '(-0.5035654710086319, 0.04197080712728036)', '(-0.4607448232317469, 0.04282064777688501)', '(-0.41739279154921277, 0.043352031682534174)', '(-0.37382389579628506, 0.043568895752927744)', '(-0.3303408933145351, 0.04348300248174998)', '(-0.2872274772997844, 0.04311341601475074)', '(-0.24474196510222362, 0.04248551219756075)', '(-0.20311232699403373, 0.04162963810818989)', '(-0.16253275803504927, 0.04057956895898445)', '(-0.12316184064389579, 0.039370917391153476)', '(-0.0851222064162897, 0.03803963422760608)', '(-0.0485014990702755, 0.036620707346014206)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>['[1,1,2]', '[0,1,1]', '[0,0,0]']</t>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8606674595669251, 0.004725559805083185)', '(-0.8528232180613048, 0.007844241505620405)', '(-0.8418921088176619, 0.010931109243642965)', '(-0.827920388520719, 0.013971720296942772)', '(-0.8109703684131692, 0.016950020107549896)', '(-0.7911222967358279, 0.019848071677341247)', '(-0.7684763634394032, 0.02264593329642471)', '(-0.7431546434351952, 0.025321720004207904)', '(-0.7153027641180324, 0.027851879317162792)']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41688812962687327, -0.0034780326196833782)', '(-0.42115289174160425, -0.004264762114730997)', '(-0.42617395914261486, -0.00502106740101063)', '(-0.4319153539455495, -0.005741394802934639)', '(-0.4393357370306727, -0.007420383085123208)', '(-0.44738138362155394, -0.008045646590881266)', '(-0.4559936926770704, -0.008612309055516451)', '(-0.4651095709102948, -0.009115878233224382)', '(-0.47566187061981946, -0.010552299709524673)', '(-0.4865724591373637, -0.010910588517544246)', '(-0.4977601743175313, -0.011187715180167567)', '(-0.5101414849951025, -0.012381310677571153)', '(-0.5236236979370857, -0.013482212941983254)', '(-0.5371057239615282, -0.013482026024442526)', '(-0.5514864755929504, -0.014380751631422203)', '(-0.5666583133894763, -0.015171837796525913)', '(-0.5825081020777473, -0.01584978868827105)', '(-0.5989183671059618, -0.01641026502821452)', '(-0.6147685299661801, -0.015850162860218328)', '(-0.630943413043882, -0.01617488307770189)', '(-0.647327054695926, -0.016383641652044006)', '(-0.6638038967627455, -0.016476842066819552)', '(-0.6792599331860142, -0.015456036423268621)', '(-0.6935904826369591, -0.014330549450944896)', '(-0.7067006432533479, -0.013110160616388785)', '(-0.7195055660885832, -0.012804922835235223)', '(-0.7319243255666845, -0.012418759478101378)', '(-0.7438803892029979, -0.011956063636313368)', '(-0.754301992712396, -0.010421603509398058)', '(-0.7641281891600165, -0.009826196447620535)', '(-0.7723029408869763, -0.008174751726959811)', '(-0.7797807196814492, -0.007477778794472976)', '(-0.7855207721248553, -0.005740052443406065)', '(-0.7894924075039262, -0.003971635379070979)', '(-0.7926746968135555, -0.0031822893096292836)', '(-0.7940510537706393, -0.0013763569570838523)', '(-0.7946143556210978, -0.0005633018504584962)', '(-0.7943616961416005, 0.00025265947949737054)', '(-0.7922943782283864, 0.0020673179132139697)', '(-0.7884231015754104, 0.0038712766529760806)', '(-0.7837680888217157, 0.004655012753694719)', '(-0.7773539749938986, 0.006414113827817123)', '(-0.7692152655554051, 0.008138709438493518)', '(-0.760396661112913, 0.008818604442492049)', '(-0.7499477260338634, 0.010448935079049666)', '(-0.7379286619646062, 0.012019064069257242)', '(-0.7244106209908786, 0.013518040973727524)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46195598448582437, -0.008934427180277368)', '(-0.47135010198763444, -0.009394117501810082)', '(-0.4811344818689669, -0.009784379881332466)', '(-0.4912364832135895, -0.010102001344622562)', '(-0.5015808206276465, -0.01034433741405706)', '(-0.5120901726466438, -0.010509352018997255)', '(-0.5236858220405293, -0.011595649393885483)', '(-0.5362808185861054, -0.012594996545576175)', '(-0.5497807227543096, -0.013499904168204135)', '(-0.5640844641668106, -0.014303741412501014)', '(-0.5780853089115225, -0.014000844744711983)', '(-0.5916793220116702, -0.013594013100147673)', '(-0.6057662735618006, -0.014086951550130442)', '(-0.6192431909222812, -0.013476917360480605)', '(-0.6320125778158626, -0.012769386893581395)', '(-0.6439831208450931, -0.011970543029230504)', '(-0.6550702810709481, -0.011087160225854932)', '(-0.665196771987928, -0.010126490916979935)', '(-0.6752929301820363, -0.01009615819410829)', '(-0.6852902474104309, -0.009997317228394566)', '(-0.69412187915975, -0.008831631749319148)', '(-0.7027296452778802, -0.008607766118130196)', '(-0.710057666734382, -0.0073280214565018525)', '(-0.7170590432455791, -0.007001376511197094)', '(-0.722689563695558, -0.005630520449978878)', '(-0.7269141112434762, -0.0042245475479180845)', '(-0.7297066007815012, -0.002792489538025065)', '(-0.7310499156758343, -0.0013433148943331973)', '(-0.7319358582008177, -0.0008859425249834276)', '(-0.7313590347396498, 0.000576823461167958)', '(-0.7293229558214056, 0.0020360789182442014)', '(-0.7258400478211158, 0.0034829080002898843)', '(-0.7219316921374961, 0.003908355683619648)', '(-0.7166220671563864, 0.0053096249811096265)', '(-0.7099443279633955, 0.006677739192990933)', '(-0.7029406643844814, 0.007003663578913999)', '(-0.6946558968365673, 0.00828476754791417)', '(-0.6851437728447124, 0.00951212399185487)', '(-0.674466935316021, 0.010676837528691425)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46095598448582437, -0.007934427180277367)', '(-0.46935747202864825, -0.008401487542823898)', '(-0.47816397639950403, -0.008806504370855768)', '(-0.4873101875839997, -0.009146211184495674)', '(-0.4967280258927914, -0.009417838308791716)', '(-0.5063471766263759, -0.009619150733584481)', '(-0.515095656598203, -0.008748479971827133)', '(-0.5229079030462414, -0.007812246448038358)', '(-0.5297253310347104, -0.006817427988469026)', '(-0.5354968124443936, -0.005771481409683198)', '(-0.5401790775251818, -0.004682265080788152)', '(-0.5437370416130275, -0.0035579640878456932)', '(-0.5461440605685216, -0.0024070189554941538)', '(-0.5473821187770801, -0.001238058208558544)', '(-0.5474419532193772, -5.9834442297043754e-05)', '(-0.5463231162817601, 0.001118836937617063)', '(-0.5440339787742904, 0.0022891375074696797)', '(-0.5405916732289778, 0.0034423055453125582)', '(-0.5360219761462668, 0.0045696970827110266)', '(-0.5303591266280903, 0.005662849518176479)', '(-0.5236455779529627, 0.006713548675127499)', '(-0.5159316782601764, 0.007713899692786325)', '(-0.5082752767271224, 0.007656401533054006)', '(-0.5007337609611988, 0.007541515765923494)', '(-0.4923635983538175, 0.008370162607381305)', '(-0.48322735689181245, 0.009136241462005014)', '(-0.473393161369414, 0.00983419552239846)', '(-0.4629340858975478, 0.010459075471866214)', '(-0.45192748809692246, 0.011006597800625368)', '(-0.44045429272534603, 0.011473195371576414)', '(-0.42959823480603776, 0.010856057919308298)', '(-0.4194378737960846, 0.01016036100995316)', '(-0.4100460679300157, 0.009391805866068933)', '(-0.40148953073496774, 0.008556537195047946)', '(-0.39382846665970067, 0.007661064075267069)', '(-0.38711628007163795, 0.006712186588062716)', '(-0.38139934984758994, 0.005716930224048036)', '(-0.3767168604909709, 0.004682489356619031)', '(-0.3731006801727865, 0.0036161803181843644)']</t>
   </si>
   <si>
     <t>[0,1,1]</t>
   </si>
   <si>
-    <t>[36, 41, 47, 53, 57, 71, 72, 76]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9337192727731162, 0.0013380390268734593)', '(-0.9290247098351072, 0.004694562938008918)', '(-0.9209856125557981, 0.008039097279309052)', '(-0.9106235908387478, 0.010362021717050357)', '(-0.8969684900013378, 0.01365510083740995)', '(-0.8800630191924388, 0.016905470808899068)', '(-0.8599652764388335, 0.02009774275360532)', '(-0.8367516522799827, 0.023213624158850713)', '(-0.8105199313997219, 0.026231720880260795)', '(-0.7823923593776596, 0.02812757202206227)', '(-0.7515130327410057, 0.030879326636653912)', '(-0.7180544588793234, 0.0334585738616823)', '(-0.6822187919265739, 0.03583566695274951)', '(-0.6442378671907141, 0.037980924735859754)', '(-0.6043717725646539, 0.03986609462606018)', '(-0.5639057916656358, 0.040465980899018116)', '(-0.5221382443141405, 0.0417675473514954)', '(-0.4793816509122265, 0.04275659340191394)', '(-0.43595571422374213, 0.04342593668848439)', '(-0.3931795529830958, 0.04277616124064634)', '(-0.35035677009875904, 0.04282278288433675)', '(-0.3077755930920714, 0.04258117700668761)', '(-0.26570234113063834, 0.04207325196143306)', '(-0.22437603688262167, 0.04132630424801667)', '(-0.1840044209378458, 0.04037161594477588)', '(-0.1447614812137501, 0.0392429397240957)', '(-0.10678646987214876, 0.037975011341601334)', '(-0.07018426427687019, 0.03660220559527857)', '(-0.03502684750698816, 0.03515741676988203)', '(-0.0013556410323291995, 0.03367120647465896)', '(0.03081558611713061, 0.03217122714945981)', '(0.061497488664231506, 0.0306819025471009)', '(0.09072181750345774, 0.029224328839226238)', '(0.11753816873541098, 0.026816351231953243)', '(0.14200833748032232, 0.02447016874491133)', '(0.16520196717396995, 0.023193629693647647)', '(0.18719639505279817, 0.02199442787882821)', '(0.20807479821094768, 0.02087840315814951)', '(0.22692465966879233, 0.018849861457844633)', '(0.24483180659338785, 0.01790714692459553)', '(0.26188353095806616, 0.01705172436467832)', '(0.27816793466258194, 0.016284403704515785)', '(0.29377347479611704, 0.015605540133535094)', '(0.3087886827130557, 0.01501520791693864)', '(0.32330203293805426, 0.01451335022499858)', '(0.3374019406970162, 0.014099907758961935)', '(0.35117686978454044, 0.01377492908752425)', '(0.3647155353207104, 0.01353866553616996)', '(0.37810718858462633, 0.01339165326391595)', '(0.39144197345048576, 0.013334784865859444)', '(0.40481134593529816, 0.013369372484812389)', '(0.4183085499506268, 0.013497204015328635)', '(0.43202914349051774, 0.01372059353989098)', '(0.4460715701305565, 0.014042426640038715)', '(0.4605377707851595, 0.014466200654603021)', '(0.4755338300678704, 0.014996059282710915)', '(0.490170650178051, 0.014636820110180578)', '(0.5045571793678061, 0.01438652918975507)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95]</t>
-  </si>
-  <si>
-    <t>['[2,0,1]', '[0,1,1]', '[1,0,2]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 76, 86, 98, 108, 110, 111, 113, 118, 122, 123, 125, 126, 128, 129, 130, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 160, 165, 166, 168, 170, 172, 173, 174, 175, 177, 178, 179, 184, 187, 188, 189, 190]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9019149393743275, 0.012682658162821355)', '(-0.8859660001372127, 0.015948939237114802)', '(-0.8678038540030382, 0.018162146134174547)', '(-0.8474951017981166, 0.020308752204921586)', '(-0.8241217513053435, 0.02337335049277313)', '(-0.798787647797887, 0.02533410350745641)', '(-0.770616213925553, 0.028171433872334038)', '(-0.7407571184540424, 0.02985909547151063)', '(-0.708382122999281, 0.03237499545476135)', '(-0.6736911505707147, 0.03469097242856637)', '(-0.6369121405078122, 0.03677901006290255)', '(-0.5992995539059889, 0.03761258660182332)', '(-0.5611240792759848, 0.038175474630004064)', '(-0.5216677589552856, 0.03945632032069927)', '(-0.4812259211784043, 0.0404418377768813)', '(-0.44110102461539197, 0.04012489656301231)', '(-0.4005885639676957, 0.04051246064769624)', '(-0.35997788206152176, 0.04061068190617394)', '(-0.3195456673663519, 0.04043221469516982)', '(-0.27955004269463885, 0.03999562467171306)', '(-0.24022558649857878, 0.039324456196060065)', '(-0.2017795285829489, 0.03844605791562989)', '(-0.16438924435671054, 0.03739028422623837)', '(-0.12820105417301836, 0.036188190183692195)', '(-0.09333023247841352, 0.034870821694604835)', '(-0.05986205580652244, 0.03346817667189107)', '(-0.028853673376659107, 0.031008382429863337)', '(0.0006640692192757675, 0.029517742595934874)', '(0.02768181677632319, 0.027017747557047424)', '(0.052208180063622545, 0.024526363287299357)', '(0.07426514477476434, 0.022056964711141793)', '(0.09488390050966544, 0.020618755734901104)', '(0.11410325744167488, 0.01921935693200944)', '(0.1319676596933408, 0.017864402251665915)', '(0.14752544015907262, 0.015557780465731839)', '(0.15982409236165945, 0.012298652202586823)', '(0.16890464833747046, 0.009080555975811005)', '(0.17479934438822237, 0.005894696050751906)', '(0.17752997669289972, 0.0027306323046773495)', '(0.17710687179199672, -0.00042310490090299076)', '(0.17352842013302644, -0.003578451658970285)', '(0.16678114790705728, -0.00674727222596916)', '(0.1578403310449741, -0.008940816862083163)', '(0.14667459379430825, -0.011165737250665851)', '(0.1332470027098059, -0.01342759108450235)', '(0.11851650707706415, -0.014730495632741761)', '(0.1024423730968942, -0.01607413398016995)', '(0.08498537523575626, -0.017456997861137937)', '(0.06610919147000303, -0.01887618376575323)', '(0.04578201403741798, -0.02032717743258505)', '(0.02397837947973226, -0.021803634557685723)', '(0.0006812104634190928, -0.023297169016313166)', '(-0.024115953332359316, -0.02479716379577841)', '(-0.050406577215434664, -0.026290623883075348)', '(-0.0781686712686156, -0.027762094053180926)', '(-0.10736233843152301, -0.02919366716290741)', '(-0.13892744770962073, -0.031565109278097726)', '(-0.17277854759903577, -0.03385109988941503)', '(-0.2088012598968661, -0.03602271229783032)', '(-0.24784932462735995, -0.03904806473049385)', '(-0.289737568257577, -0.04188824363021707)', '(-0.3342393821374426, -0.04450181387986556)', '(-0.3810862286957688, -0.04684684655832623)', '(-0.4299696536057029, -0.04888342490993408)', '(-0.4805460993845049, -0.050576445778802)', '(-0.5304445432384411, -0.04989844385393623)', '(-0.580291647444267, -0.04984710420582583)', '(-0.628715602073041, -0.04842395462877406)', '(-0.6763641824849153, -0.04764858041187421)', '(-0.7229067109277624, -0.04654252844284715)', '(-0.767041920118618, -0.0441352091908557)', '(-0.8095093415987996, -0.042467421480181566)', '(-0.8490858613556592, -0.03957651975685962)', '(-0.8855910785747938, -0.03650521721913455)', '(-0.9188843979849679, -0.03329331941017405)', '(-0.948860664476487, -0.02997626649151903)', '(-0.976444933360673, -0.02758426888418595)', '(-1.000585307869219, -0.02414037450854617)', '(-1.0212500854622122, -0.020664777592993136)', '(-1.0384224335298142, -0.01717234806760196)', '(-1.0530956478276512, -0.014673214297836922)', '(-1.065269253475146, -0.012173605647494722)', '(-1.0739465323200577, -0.008677278844911677)', '(-1.0801318563112046, -0.006185323991146797)', '(-1.083829372898915, -0.003697516587710503)', '(-1.0840419705661533, -0.00021259766723834414)', '(-1.0817698246922225, 0.0022721458739307235)', '(-1.0770111132423346, 0.004758711449887914)', '(-1.0697623946735841, 0.007248718568750339)', '(-1.0600194021045057, 0.009742992569078335)', '(-1.0477782588058286, 0.012241143298677126)', '(-1.0330371193008905, 0.014741139504938152)', '(-1.015798235282327, 0.01723888401856362)', '(-0.996070434631364, 0.019727800650962954)', '(-0.9738719836710241, 0.02219845096033986)', '(-0.9492337763775501, 0.024638207293474018)', '(-0.921202759358116, 0.028031017019434137)', '(-0.8908482163762108, 0.030354542981905236)', '(-0.8582636758197022, 0.03258454055650861)', '(-0.8225700787354089, 0.03569359708429327)', '(-0.784922969556572, 0.03764710917883679)', '(-0.7455106153161205, 0.039412354240451516)', '(-0.7035541666803374, 0.041956448635783086)', '(-0.6603126650378521, 0.04324150164248525)', '(-0.6160743152679945, 0.04423834976985759)', '(-0.5701512615620256, 0.04592305370596893)', '(-0.5228801980665849, 0.04727106349544065)', '(-0.47461452389845793, 0.04826567416812699)', '(-0.42671491076956397, 0.04789961312889394)', '(-0.37853173901762566, 0.048183171751938335)', '(-0.3304025491987965, 0.04812918981882915)', '(-0.2836425589698557, 0.04675999022894082)', '(-0.23753078353220208, 0.04611177543765359)', '(-0.19231068196459022, 0.04522010156761187)', '(-0.14918593045455716, 0.04312475151003307)', '(-0.10831494567596472, 0.04087098477859245)', '(-0.06881313174485884, 0.039501813931105884)', '(-0.03075823520571045, 0.03805489653914839)', '(0.004807297060246109, 0.03556553226595656)', '(0.03887308931037796, 0.03406579225013185)', '(0.07145586236948932, 0.032582773059111364)', '(0.10259585762236825, 0.031139995252878926)', '(0.13235333747878925, 0.029757479856421)', '(0.15980531259312986, 0.02745197511434061)', '(0.18503912650935808, 0.025233813916228233)', '(0.2091483439704385, 0.02410921746108041)', '(0.23123373614305373, 0.022085392172615244)', '(0.2523969163632442, 0.02116318022019045)', '(0.2717431753303579, 0.019346258967113724)', '(0.29037518093884057, 0.01863200560848264)', '(0.30739727191225075, 0.017022090973410172)', '(0.3229091756589303, 0.015511903746679559)', '(0.3370052076105308, 0.014096031951600524)', '(0.34977373859847666, 0.01276853098794581)', '(0.36229687027041424, 0.012523131671937571)', '(0.3736569019552191, 0.011360031684804857)', '(0.3839299123690994, 0.010273010413880308)', '(0.39318578983288655, 0.009255877463787138)', '(0.4024883321820222, 0.009302542349135634)', '(0.4119023993957053, 0.009414067213683115)', '(0.4214943332530284, 0.009591933857323097)', '(0.431332403038194, 0.009838069785165623)', '(0.4404872777915189, 0.009154874753324915)', '(0.45002525482753664, 0.009537977036017725)', '(0.4600158999603315, 0.009990645132794828)', '(0.4695325601011624, 0.009516660140830937)', '(0.4786454992830117, 0.009112939181849312)', '(0.4874223099298574, 0.008776810646845686)', '(0.49592832940709675, 0.008506019477239335)', '(0.5052270587980321, 0.00929872939093534)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191]</t>
-  </si>
-  <si>
-    <t>['[0,0,0]', '[0,1,1]', '[1,1,1]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 62, 65, 66, 67, 68, 69, 70, 86, 98, 100, 103, 105, 106, 108, 110, 111, 113, 114, 116, 118, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 143, 145, 146, 150, 153, 165, 166, 168, 169, 170, 172, 173, 184, 185, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9029149393743275, 0.011682658162821356)', '(-0.8879628439967714, 0.014952095377556106)', '(-0.8707906166867573, 0.017172227310014065)', '(-0.8514603875808815, 0.019330229105875733)', '(-0.8290489363142832, 0.022411451266598312)', '(-0.8046540216097546, 0.02439491470452863)', '(-0.7783922259113999, 0.026261795698354712)', '(-0.750400205558703, 0.027992020352696843)', '(-0.7198354168624966, 0.030564788696206335)', '(-0.6868824067077017, 0.032953010154794925)', '(-0.6527531607498468, 0.03412924595785498)', '(-0.6176793126825655, 0.035073848067281296)', '(-0.581909191452468, 0.0357701212300975)', '(-0.5457039691352896, 0.03620522231717835)', '(-0.5083330793564325, 0.037370889778857205)', '(-0.47107664228125584, 0.03725643707517664)', '(-0.43421249325819683, 0.03686414902305901)', '(-0.397010735575, 0.037201757683196834)', '(-0.36073573140617016, 0.03627500416882984)', '(-0.3246341786510798, 0.03610155275509039)', '(-0.28993781611720854, 0.03469636253387124)', '(-0.2558538763904418, 0.034083939726766724)', '(-0.22256895158758763, 0.03328492480285419)', '(-0.1912471358217916, 0.03132181576579604)', '(-0.16202501031595606, 0.02922212550583552)', '(-0.13501331793408272, 0.027011692381873332)', '(-0.11029934218692079, 0.02471397574716193)', '(-0.08794974384689003, 0.022349598340030762)', '(-0.0680136286536575, 0.019936115193232535)', '(-0.05152565290615392, 0.01648797574750358)', '(-0.03850786903744567, 0.013017783868708253)', '(-0.028973421583632565, 0.009534447453813108)', '(-0.02292953615862785, 0.006043885425004713)', '(-0.020379738224791357, 0.0025497979338364946)', '(-0.021325269241796303, -0.000945531017004946)', '(-0.025765685873581273, -0.004440416631784972)', '(-0.03269863767933955, -0.006932951805758279)', '(-0.042119570617481464, -0.009420932938141908)', '(-0.054020571941614935, -0.011901001324133471)', '(-0.0683888150571273, -0.014368243115512356)', '(-0.08520462589310689, -0.016815810835979588)', '(-0.10443920739294224, -0.019234581499835358)', '(-0.1260520795464366, -0.021612872153494347)', '(-0.14898831906378499, -0.022936239517348377)', '(-0.1741789663114284, -0.02519064724764341)', '(-0.2015360031934702, -0.027357036882041816)', '(-0.2309498525348125, -0.02941384934134231)', '(-0.26328727446824307, -0.03233742193343058)', '(-0.29838455505949707, -0.035097280591254)', '(-0.3360453329458477, -0.037660777886350666)', '(-0.3760397065622688, -0.039994373616421136)', '(-0.4181049805369647, -0.0420652739746959)', '(-0.4619483160777476, -0.04384333554078288)', '(-0.5072513984723713, -0.04530308239462369)', '(-0.5536770370543772, -0.04642563858200584)', '(-0.5988773946842534, -0.045200357629876196)', '(-0.6435179496320578, -0.04464055494780435)', '(-0.6862783863582971, -0.04276043672623932)', '(-0.7278665866307753, -0.041588200272478275)', '(-0.7670168793174462, -0.03915029268667088)', '(-0.8034995242051126, -0.0364826448876664)', '(-0.8381210582249825, -0.03462153401986994)', '(-0.8697184506371611, -0.03159739241217857)', '(-0.8991619121199688, -0.029443461482807604)', '(-0.9263478867530226, -0.027185974633053844)', '(-0.950196371787206, -0.023848485034183377)', '(-0.9716499657487564, -0.02145359396155048)', '(-0.989667494003984, -0.01801752825522765)', '(-1.0052221641343346, -0.015554670130350667)', '(-1.0182966298326706, -0.013074465698335962)', '(-1.027880486357562, -0.009583856524891294)', '(-1.0349685396339283, -0.0070880532763663035)', '(-1.0395582751447427, -0.004589735510814343)', '(-1.040648667160381, -0.0010903920156383018)', '(-1.0392395416491735, 0.0014091255112073388)', '(-1.0343311285656813, 0.0049084130834922786)', '(-1.0269245776303224, 0.007406550935358932)', '(-1.0160226489463073, 0.010901928684015063)', '(-1.0016316458835244, 0.014391003062782874)', '(-0.9847639643027641, 0.01686768158076027)', '(-0.9654400066408375, 0.019323957661926624)', '(-0.9436908710791649, 0.021749135561672576)', '(-0.9185612985217009, 0.02512957255746412)', '(-0.8911155840701198, 0.02744571445158107)', '(-0.8614389663100875, 0.02967661776003226)', '(-0.8286406009330733, 0.032798365377014194)', '(-0.7938606378192582, 0.03477996311381517)', '(-0.7572686031764635, 0.036592034642794743)', '(-0.7190640948990625, 0.03820450827740101)', '(-0.678476179944432, 0.04058791495463053)', '(-0.6357680299017846, 0.04270815004264743)', '(-0.5922343980029671, 0.043533631898817524)', '(-0.5481896287181925, 0.04404476928477455)', '(-0.5039605952807836, 0.044229033437408874)', '(-0.4598787630072736, 0.04408183227351004)', '(-0.4162719255578999, 0.043606837449373693)', '(-0.37245620298540993, 0.04381572257248992)', '(-0.3297356040414349, 0.042720598943975)', '(-0.28838838713140685, 0.041347216910028094)', '(-0.2486624562295922, 0.03972593090181464)', '(-0.21077257066786545, 0.03788988556172676)', '(-0.17489933478459288, 0.035873235883272576)', '(-0.1401897870670866, 0.034709547717506284)', '(-0.10776238092294146, 0.03242740614414513)', '(-0.07770546544470594, 0.03005691547823552)', '(-0.049080927965851805, 0.028624537478854135)', '(-0.021929338867506927, 0.027151589098344878)', '(0.0037276583587664627, 0.02565699722627339)', '(0.026884811907075166, 0.023157153548308704)', '(0.04855009247083934, 0.021665280563764176)', '(0.06874184369334323, 0.020191751222503884)', '(0.08648656798719229, 0.017744724293849067)', '(0.10281497043934806, 0.016328402452155784)', '(0.11576135586297114, 0.012946385423623068)', '(0.1253569899505159, 0.009595634087544765)', '(0.1316273369842704, 0.006270347033754517)', '(0.1345900791153003, 0.002962742131029891)', '(0.13425385561729636, -0.00033622349800394155)', '(0.13061767692312998, -0.0036361786941663935)', '(0.12367099080024162, -0.0069466861228883545)', '(0.11439440327515371, -0.009276587525087903)', '(0.10276359492118367, -0.011630808353970037)', '(0.08875065259366367, -0.014012942327520001)', '(0.0723258006529468, -0.01642485194071687)', '(0.053459567185197336, -0.018866233467749467)', '(0.03312541652111573, -0.020334150664081604)', '(0.010303600249907209, -0.022821816271208523)', '(-0.015017021769392201, -0.02532062201929941)', '(-0.04283510721964646, -0.027818085450254257)', '(-0.07213257903835582, -0.02929747181870937)', '(-0.10387174394791746, -0.03173916490956164)', '(-0.1379905078259034, -0.03411876387798596)', '(-0.17439809797341554, -0.036407590147512124)', '(-0.21397125705536446, -0.03957315908194893)', '(-0.2565467946231141, -0.04257553756774962)', '(-0.3019177346024763, -0.04537093997936218)', '(-0.349831407247731, -0.04791367264525468)', '(-0.39999010416308, -0.05015869691534904)', '(-0.4520547646390225, -0.05206466047594249)', '(-0.5036518949116477, -0.05159713027262522)', '(-0.5543985375206153, -0.05074664260896754)', '(-0.6039145104710173, -0.04951597295040204)', '(-0.652833926982739, -0.048919416511721686)', '(-0.7008081805696875, -0.04797425358694849)', '(-0.7465150903920887, -0.04570690982240123)', '(-0.7906719879724193, -0.044156897580330576)', '(-0.8330333723364595, -0.04236138436404014)', '(-0.8733932448596546, -0.040359872523195145)', '(-0.9115853267271313, -0.03819208186747666)', '(-0.9464814656857139, -0.03489613895858257)', '(-0.9789908560644005, -0.03250939037868658)', '(-1.008052400813092, -0.0290615447486915)', '(-1.0346311646154942, -0.0265787638024023)', '(-1.0587117047408086, -0.02408054012531425)', '(-1.0802937361948117, -0.021582031454003104)', '(-1.0983880803002022, -0.018094344105390556)', '(-1.1140118468024898, -0.015623766502287518)', '(-1.1261856670705348, -0.012173820268044954)']</t>
-  </si>
-  <si>
-    <t>['[0,1,1]', '[1,1,2]', '[0,0,0]']</t>
-  </si>
-  <si>
-    <t>[36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 154, 156, 157, 168, 169, 170, 171, 172, 173, 174, 175, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9360573117999896, -0.0030218166439570067)', '(-0.9367168075668335, -0.0006594957668438796)', '(-0.934012368296359, 0.002704439270474528)', '(-0.9289506720479335, 0.005061696248425579)', '(-0.9215446342764929, 0.007406037771440515)', '(-0.9118141255032138, 0.009730508773279044)', '(-0.8987869953337667, 0.013027130169447107)', '(-0.8835035878692284, 0.015283407464538226)', '(-0.8660156224624486, 0.017487965406779896)', '(-0.8453879563629935, 0.020627666099455145)', '(-0.8227046448993737, 0.02268331146361982)', '(-0.7980671917061165, 0.02463745319325721)', '(-0.7715960767158997, 0.026471114990216843)', '(-0.7424318856595977, 0.02916419105630196)', '(-0.7107418256060766, 0.031690060053521166)', '(-0.6777207742782939, 0.033021051327782616)', '(-0.6435845556528812, 0.03413621862541274)', '(-0.6085677512580951, 0.03501680439478601)', '(-0.5729205585028189, 0.035647192755276245)', '(-0.5359048006970585, 0.037015757805760344)', '(-0.49879676866716194, 0.037108032029896536)', '(-0.4618745800989318, 0.03692218856823017)', '(-0.4254126819614842, 0.0364618981374476)', '(-0.38967657678404216, 0.03573610517744202)', '(-0.35391808379879364, 0.03575849298524853)', '(-0.3193779433125341, 0.03454014048625951)', '(-0.28527542216951923, 0.03410252114301487)', '(-0.25281188804932403, 0.03246353412019519)', '(-0.2221631359989472, 0.030648752050376833)', '(-0.19347937609816682, 0.028683759900780363)', '(-0.16688617235950626, 0.02659320373866057)', '(-0.14248613527516724, 0.024400037084339028)', '(-0.12036115401361643, 0.022124981261550807)', '(-0.10057495924874807, 0.019786194764868353)', '(-0.08417582781385616, 0.016399131434891915)', '(-0.07119740642440874, 0.012978421389447426)', '(-0.06166217446595337, 0.009535231958455365)', '(-0.055584289331286056, 0.006077885134667318)', '(-0.05297172651519943, 0.002612562816086626)', '(-0.053827662534335456, -0.0008559360191360294)', '(-0.05715107338086194, -0.0033234108465264867)', '(-0.06293782889512806, -0.005786755514266113)', '(-0.07118015347794084, -0.008242324582812781)', '(-0.08186569491701524, -0.010685541439074405)', '(-0.09497621716950595, -0.013110522252490703)', '(-0.11048594369793359, -0.015509726528427635)', '(-0.1283595925723486, -0.017873648874415025)', '(-0.1485501635570286, -0.020190570984679985)', '(-0.1709965607057485, -0.022446397148719904)', '(-0.19562116064110766, -0.02462459993535915)', '(-0.22232746463985759, -0.026706303998749934)', '(-0.2509979986021348, -0.02867053396227722)', '(-0.28249264448666894, -0.03149464588453416)', '(-0.31664197993128423, -0.03414933544461529)', '(-0.3532456736998709, -0.03660369376858668)', '(-0.39207212115855433, -0.03882644745868341)', '(-0.4328596197733887, -0.04078749861483436)', '(-0.47531928816265456, -0.042459668389265875)', '(-0.5191397880152322, -0.04382049985257759)', '(-0.5639937292773102, -0.044853941262078006)', '(-0.6085454493812587, -0.04455172010394847)', '(-0.6524669429853612, -0.04392149360410253)', '(-0.6954458223325314, -0.042978879347170186)', '(-0.7371921873615063, -0.04174636502897489)', '(-0.7774439996831352, -0.040251812321628916)', '(-0.8149707276475492, -0.037526727964414065)', '(-0.850580014439763, -0.035609286792213875)', '(-0.8841117445520394, -0.03353173011227645)', '(-0.9154367694325384, -0.031325024880498945)', '(-0.9444545746160524, -0.029017805183514093)', '(-0.9710901989088311, -0.026635624292778614)', '(-0.9952907043079308, -0.024200505399099643)', '(-1.016021459614113, -0.02073075530618222)', '(-1.0342631413745673, -0.018241681760454202)', '(-1.050006705012148, -0.015743563637580612)', '(-1.0632503574268362, -0.013243652414688226)', '(-1.073996908322885, -0.010746550896048876)', '(-1.0822515346799988, -0.008254626357113796)', '(-1.087019972096766, -0.004768437416767182)', '(-1.089306228838221, -0.0022862567414550505)', '(-1.0891124068992897, 0.00019382193893131752)', '(-1.0864383235515962, 0.002674083347693498)', '(-1.0812815433868903, 0.005156780164705799)', '(-1.0736378211723783, 0.007643722214512141)', '(-1.0635019595737327, 0.010135861598645556)', '(-1.050869088008368, 0.012632871565364712)', '(-1.0357363680935239, 0.015132719914844127)', '(-1.0181051258186744, 0.01763124227484953)', '(-0.9979833991548951, 0.020121726663779305)', '(-0.9753888708992069, 0.022594528255688147)', '(-0.9503521291164813, 0.02503674178272568)', '(-0.9229201613557336, 0.027431967760747626)', '(-0.8931599449660168, 0.029760216389716855)', '(-0.8611619472853621, 0.03199799768065467)', '(-0.826043301535856, 0.035118645749506065)', '(-0.7879549947120068, 0.038088306823849276)', '(-0.7480854134267864, 0.03986958128522047)', '(-0.7066565965918924, 0.041428816834893994)', '(-0.6639228237385153, 0.04273377285337705)', '(-0.6201674310987417, 0.04375539263977363)', '(-0.5756978623165968, 0.04446956878214487)', '(-0.5308391393418989, 0.04485872297469793)', '(-0.48592611790908025, 0.04491302143281861)', '(-0.4412950402989584, 0.044631077610121854)', '(-0.39727498772094555, 0.044020052578012836)', '(-0.3541798476807566, 0.04309514004018896)', '(-0.31230134544934485, 0.04187850223141176)', '(-0.2709035566304546, 0.041397788818890245)', '(-0.23122459930855624, 0.03967895732189839)', '(-0.19346789775318404, 0.03775670155537219)', '(-0.15780179956829538, 0.03566609818488865)', '(-0.12336075354132804, 0.034441046026967334)', '(-0.09025045150371208, 0.03311030203761595)', '(-0.059549075002286164, 0.030701376501425917)', '(-0.031307910948928465, 0.0282411640533577)', '(-0.004555727915137045, 0.02675218303379142)', '(0.019696688604909307, 0.024252416520046352)', '(0.04145346840000083, 0.02175677979509152)', '(0.06172955518111684, 0.02027608678111601)', '(0.07954838814032264, 0.01781883295920579)', '(0.09493807327141557, 0.015389685131092932)', '(0.10692847372855946, 0.011990400457143897)', '(0.11554640404049932, 0.008617930311939859)', '(0.12081303482138994, 0.005266630780890626)', '(0.12274207858492237, 0.0019290437635324266)', '(0.12133870410062676, -0.0014033744842956056)', '(0.11659914334884244, -0.0047395607517843235)', '(0.10951097721114207, -0.007088166137700375)', '(0.10005651927705204, -0.009454457934090027)', '(0.0882138454238929, -0.011842673853159146)', '(0.07395820576111706, -0.01425563966277585)', '(0.057263849503833605, -0.01669435625728345)', '(0.0381062930290568, -0.019157556474776807)', '(0.01646505477866339, -0.021641238250393408)', '(-0.007673134238961678, -0.02413818901762507)', '(-0.034310660919708025, -0.026637526680746343)', '(-0.06343495554809445, -0.02912429462838642)', '(-0.09501411670824354, -0.0315791611601491)', '(-0.12899240223025185, -0.0339782855220083)', '(-0.16528582291108923, -0.03629342068083738)', '(-0.20477814624592214, -0.0394923233348329)', '(-0.2473133627487826, -0.04253521650286047)', '(-0.29269147673094836, -0.04537811398216574)', '(-0.34066617589705317, -0.04797469916610482)', '(-0.3909450299274494, -0.0502788540303962)', '(-0.4431927332309125, -0.052247703303463115)', '(-0.4960376506916043, -0.05284491746069184)', '(-0.5490890411411615, -0.05305139044955716)', '(-0.6019494408715933, -0.052860399730431815)', '(-0.6542276067223297, -0.0522781658507364)', '(-0.7055509411421124, -0.05132333441978268)', '(-0.7555763997771282, -0.05002545863501584)', '(-0.8039991042696838, -0.04842270449255558)', '(-0.850558198271558, -0.046559094001874225)', '(-0.8950398266103967, -0.04448162833883876)', '(-0.9372774233258783, -0.042237596715481524)', '(-0.9761497201353883, -0.03887229680950997)', '(-1.0125785899666415, -0.036428869831253166)', '(-1.0465209304985261, -0.03394234053188452)', '(-1.077963276180834, -0.0314423456823079)', '(-1.106916262766604, -0.02895298658577017)', '(-1.133409263304096, -0.02649300053749188)', '(-1.1574854139470578, -0.024076150642961834)']</t>
-  </si>
-  <si>
-    <t>[36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 166, 167, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9360573117999896, -0.0030218166439570067)', '(-0.9367168075668335, -0.0006594957668438796)', '(-0.935012368296359, 0.001704439270474528)', '(-0.9309481846489488, 0.004064183647410224)', '(-0.9245344978752764, 0.006413686773672407)', '(-0.9157881795741478, 0.008746318301128618)', '(-0.9047336279802948, 0.011054551593852992)', '(-0.8914039515070985, 0.013329676473196323)', '(-0.8758423964617849, 0.01556155504531365)', '(-0.8581039598323714, 0.01773843662941338)', '(-0.8382571100974193, 0.019846849734952092)', '(-0.816385520053144, 0.02187159004427527)', '(-0.7925896973489069, 0.023795822704237055)', '(-0.7669883831816513, 0.025601314167255584)', '(-0.7397195804446665, 0.02726880273698486)', '(-0.7109410728586698, 0.02877850758599668)', '(-0.6808303092725909, 0.03011076358607885)', '(-0.6495835544692153, 0.031246754803375545)', '(-0.6174142497673608, 0.0321693047018545)', '(-0.5845505814374838, 0.032863668329876985)', '(-0.5512323177969243, 0.03331826364055953)', '(-0.5177070398981933, 0.0335252778987309)', '(-0.484225947716431, 0.033481092181762304)', '(-0.4510394655616916, 0.0331864821547394)', '(-0.41839289074366875, 0.03264657481802286)', '(-0.38652232511518586, 0.031870565628482915)', '(-0.35565110071246064, 0.0308712244027252)', '(-0.3259868627133661, 0.029664237999094595)', '(-0.2977194124977596, 0.02826745021560651)', '(-0.27101934906841385, 0.026700063429345694)', '(-0.24603748640922343, 0.024981862659190425)', '(-0.22290497372100315, 0.02313251268822027)', '(-0.20173400861878021, 0.021170965102222945)', '(-0.18261901145706394, 0.019114997161716277)', '(-0.16663812095645833, 0.015980890500605617)', '(-0.1538512894941023, 0.012786831462356053)', '(-0.14430286197942005, 0.00954842751468225)', '(-0.13802380796965322, 0.006279054009766841)', '(-0.1350334797559844, 0.0029903282136688166)', '(-0.1353408085862506, -0.00030732883026622334)', '(-0.13894488507129704, -0.003604076485046442)', '(-0.14483489922204276, -0.005890014150745732)', '(-0.1529926100143071, -0.008157710792264341)', '(-0.16339158535595166, -0.01039897534164455)', '(-0.17599618719861573, -0.012604601842664074)', '(-0.19076034447527454, -0.014764157276658816)', '(-0.20762617142002507, -0.016865826944750528)', '(-0.22652250478763622, -0.01889633336761115)', '(-0.24736344963018225, -0.020840944842546037)', '(-0.27004703809617303, -0.02268358846599078)', '(-0.2954541171092081, -0.025407079013035072)', '(-0.3234417825472718, -0.027987665438063688)', '(-0.3538420258018972, -0.030400243254625443)', '(-0.3864611196343125, -0.03261909383241532)', '(-0.4210799754465317, -0.0346188558122192)', '(-0.4574556577740065, -0.03637568232747481)', '(-0.49532416447200495, -0.037868506697998475)', '(-0.5344044765472126, -0.03908031207520763)', '(-0.5744037600587718, -0.03999928351155919)', '(-0.6150234797442076, -0.040619719685435776)', '(-0.6549660787971531, -0.039942599052945484)', '(-0.6939487301016581, -0.038982651304505095)', '(-0.7317086483054406, -0.03775991820378244)', '(-0.7680071827929059, -0.03629853448746531)', '(-0.8026325434928734, -0.03462536069996741)', '(-0.8354011411372451, -0.03276859764437165)', '(-0.8661576368993529, -0.030756495762107833)', '(-0.8947738813166807, -0.028616244417327755)', '(-0.9211469740102517, -0.02637309269357104)', '(-0.9451966951798715, -0.02404972116961984)', '(-0.9668625528272441, -0.021665857647372583)', '(-0.9861006639886604, -0.019238111161416313)', '(-1.002880652046686, -0.01677998805802556)', '(-1.0171827024382993, -0.014302050391613285)', '(-1.0289948810092395, -0.01181217857094012)', '(-1.0383107861974883, -0.009315905188248744)', '(-1.0451275797972754, -0.0068167935997871)', '(-1.0494444216007006, -0.004316841803425126)', '(-1.05126132019871, -0.0018168985980094774)', '(-1.0505784045793765, 0.0006829156193334279)', '(-1.0473956175483485, 0.00318278703102782)', '(-1.0417128309586614, 0.005682786589687187)', '(-1.0335303827855948, 0.008182448173066521)', '(-1.0228500357224406, 0.010680347063154141)', '(-1.009676354711746, 0.013173681010694539)', '(-0.9940184951869585, 0.01565785952478745)', '(-0.9758923833741863, 0.01812611181277225)', '(-0.9553232535759618, 0.020569129798224436)', '(-0.932348484112032, 0.022974769463929807)', '(-0.9070206434202023, 0.025327840691829667)', '(-0.8794106217190134, 0.027610021701188883)', '(-0.8496106841152732, 0.029799937603740192)', '(-0.8177372424518952, 0.03187344166337804)', '(-0.7839331117776979, 0.03380413067419732)', '(-0.7483690008093238, 0.03556411096837405)', '(-0.7112439923210001, 0.03712500848832368)', '(-0.6727848059575099, 0.038459186363490216)', '(-0.6332437060198908, 0.03954109993761916)', '(-0.5928950183018308, 0.04034868771806002)', '(-0.5520303442147675, 0.04086467408706329)', '(-0.5109526918252623, 0.04107765238950525)', '(-0.46996986231363413, 0.04098282951162814)', '(-0.4293875166961062, 0.040582345617527917)', '(-0.389502385809969, 0.039885130886137196)', '(-0.35059606938569327, 0.038906316424275715)', '(-0.3129298007611485, 0.03766626862454477)', '(-0.276740445188113, 0.0361893555730355)', '(-0.24223787064779062, 0.03450257454032239)', '(-0.20960370102430934, 0.03263416962348128)', '(-0.17899134982451761, 0.030612351199791717)', '(-0.15052714988051444, 0.028464199944003187)', '(-0.12431234518788675, 0.026214804692627682)', '(-0.10042569361661169, 0.023886651571275067)', '(-0.07892643781280045, 0.021499255803811228)', '(-0.05985742826256307, 0.019069009550237378)', '(-0.04424821915348935, 0.015609209109073718)', '(-0.0321170159395597, 0.012131203213929652)', '(-0.023474217294814553, 0.008642798644745146)', '(-0.01832522202426781, 0.005148995270546745)', '(-0.01667244980030435, 0.0016527722239634587)', '(-0.018516551059180913, -0.0018441012588765624)', '(-0.02285679610486395, -0.0043402450456830385)', '(-0.029691166080394717, -0.006834369975530769)', '(-0.0390156250013464, -0.009324458920951685)', '(-0.0508229785006455, -0.011807353499299102)', '(-0.06510132977895533, -0.01427835127830983)', '(-0.08183215286041752, -0.01673082308146219)', '(-0.10098801790751294, -0.019155865047095412)', '(-0.12253002384469236, -0.021542005937179424)', '(-0.14640502004367806, -0.0238749961989857)', '(-0.17254273054599112, -0.026137710502313075)', '(-0.2008529291535347, -0.028310198607543594)', '(-0.23122284804735002, -0.030369918893815323)', '(-0.26451503110539526, -0.033292183058045245)', '(-0.30056052073704004, -0.03604548963164477)', '(-0.339156740061468, -0.03859621932442799)', '(-0.3800667591856782, -0.04091001912421019)', '(-0.4230203096016075, -0.042953550415929305)', '(-0.46771680414217964, -0.04469649454057213)', '(-0.5138304530114794, -0.046113648869299806)', '(-0.5600173538145667, -0.04618690080308725)', '(-0.6059316583591131, -0.04591430454454636)', '(-0.651234725897812, -0.04530306753869888)', '(-0.6956037451471946, -0.04436901924938261)', '(-0.7387392197395064, -0.04313547459231182)', '(-0.780370856652361, -0.04163163691285451)', '(-0.8202615879698311, -0.03989073131747014)', '(-0.8582096581131619, -0.037948070143330785)', '(-0.8940488892870194, -0.035839231173857594)', '(-0.927647374676911, -0.033598485389891596)', '(-0.9589049316792235, -0.03125755700231246)', '(-0.987749677472387, -0.028844745793163477)', '(-1.0141340760560118, -0.02638439858362481)', '(-1.038030762985144, -0.023896686929132174)', '(-1.059428395192269, -0.021397632207124914)', '(-1.0783277101379656, -0.018899314945696605)', '(-1.0947379193885145, -0.016410209250548948)', '(-1.1086735115439348, -0.0139355921554203)', '(-1.1201515003767146, -0.011477988832779836)', '(-1.129189126220057, -0.009037625843342511)', '(-1.135802000967347, -0.006612874747290069)', '(-1.1400026778197385, -0.004200676852391405)', '(-1.1417996242965387, -0.0017969464768001733)']</t>
+    <t>[36, 41, 47]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9337192727731162, 0.0013380390268734593)', '(-0.9290247098351072, 0.004694562938008918)', '(-0.9209856125557981, 0.008039097279309052)', '(-0.9106235908387478, 0.010362021717050357)', '(-0.8969684900013378, 0.01365510083740995)', '(-0.8800630191924388, 0.016905470808899068)', '(-0.8599652764388335, 0.02009774275360532)', '(-0.8367516522799827, 0.023213624158850713)', '(-0.8105199313997219, 0.026231720880260795)', '(-0.7823923593776596, 0.02812757202206227)', '(-0.7515130327410057, 0.030879326636653912)', '(-0.7180544588793234, 0.0334585738616823)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[1,1,1]', '[2,1,0]', '[0,2,1]', '[2,0,1]', '[0,1,1]', '[0,0,0]', '[1,2,0]', '[1,0,2]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>[36, 38, 41, 44, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9019149393743275, 0.012682658162821355)', '(-0.8859660001372127, 0.015948939237114802)', '(-0.8678038540030382, 0.018162146134174547)', '(-0.8474951017981166, 0.020308752204921586)', '(-0.8241217513053435, 0.02337335049277313)', '(-0.798787647797887, 0.02533410350745641)', '(-0.770616213925553, 0.028171433872334038)', '(-0.7407571184540424, 0.02985909547151063)']</t>
+  </si>
+  <si>
+    <t>[36, 38, 41, 42, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9029149393743275, 0.011682658162821356)', '(-0.8879628439967714, 0.014952095377556106)', '(-0.8707906166867573, 0.017172227310014065)', '(-0.8514603875808815, 0.019330229105875733)', '(-0.8290489363142832, 0.022411451266598312)', '(-0.8046540216097546, 0.02439491470452863)', '(-0.7783922259113999, 0.026261795698354712)', '(-0.750400205558703, 0.027992020352696843)']</t>
+  </si>
+  <si>
+    <t>[36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9360573117999896, -0.0030218166439570067)', '(-0.9367168075668335, -0.0006594957668438796)', '(-0.934012368296359, 0.002704439270474528)', '(-0.9289506720479335, 0.005061696248425579)', '(-0.9215446342764929, 0.007406037771440515)', '(-0.9118141255032138, 0.009730508773279044)', '(-0.8987869953337667, 0.013027130169447107)', '(-0.8835035878692284, 0.015283407464538226)', '(-0.8660156224624486, 0.017487965406779896)', '(-0.8453879563629935, 0.020627666099455145)', '(-0.8227046448993737, 0.02268331146361982)', '(-0.7980671917061165, 0.02463745319325721)', '(-0.7715960767158997, 0.026471114990216843)']</t>
+  </si>
+  <si>
+    <t>[36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9360573117999896, -0.0030218166439570067)', '(-0.9367168075668335, -0.0006594957668438796)', '(-0.935012368296359, 0.001704439270474528)', '(-0.9309481846489488, 0.004064183647410224)', '(-0.9245344978752764, 0.006413686773672407)', '(-0.9157881795741478, 0.008746318301128618)', '(-0.9047336279802948, 0.011054551593852992)', '(-0.8914039515070985, 0.013329676473196323)', '(-0.8758423964617849, 0.01556155504531365)', '(-0.8581039598323714, 0.01773843662941338)', '(-0.8382571100974193, 0.019846849734952092)', '(-0.816385520053144, 0.02187159004427527)', '(-0.7925896973489069, 0.023795822704237055)']</t>
   </si>
   <si>
     <t>[0,2,1]</t>
   </si>
   <si>
-    <t>['[2,0,1]', '[0,2,1]', '[1,0,2]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 76, 84, 86, 98, 108, 110, 111, 113, 118, 122, 123, 125, 126, 128, 129, 130, 133, 135, 136, 137, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 160, 165, 166, 168, 170, 172, 173, 174, 175, 177, 178, 179, 184]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9019149393743275, 0.012682658162821355)', '(-0.8859660001372127, 0.015948939237114802)', '(-0.8678038540030382, 0.018162146134174547)', '(-0.8474951017981166, 0.020308752204921586)', '(-0.8241217513053435, 0.02337335049277313)', '(-0.798787647797887, 0.02533410350745641)', '(-0.770616213925553, 0.028171433872334038)', '(-0.7407571184540424, 0.02985909547151063)', '(-0.708382122999281, 0.03237499545476135)', '(-0.6736911505707147, 0.03469097242856637)', '(-0.6369121405078122, 0.03677901006290255)', '(-0.5992995539059889, 0.03761258660182332)', '(-0.5611240792759848, 0.038175474630004064)', '(-0.5216677589552856, 0.03945632032069927)', '(-0.4812259211784043, 0.0404418377768813)', '(-0.44110102461539197, 0.04012489656301231)', '(-0.4005885639676957, 0.04051246064769624)', '(-0.35997788206152176, 0.04061068190617394)', '(-0.3195456673663519, 0.04043221469516982)', '(-0.27955004269463885, 0.03999562467171306)', '(-0.24022558649857878, 0.039324456196060065)', '(-0.2017795285829489, 0.03844605791562989)', '(-0.16438924435671054, 0.03739028422623837)', '(-0.12820105417301836, 0.036188190183692195)', '(-0.09333023247841352, 0.034870821694604835)', '(-0.05986205580652244, 0.03346817667189107)', '(-0.028853673376659107, 0.031008382429863337)', '(0.0006640692192757675, 0.029517742595934874)', '(0.02768181677632319, 0.027017747557047424)', '(0.052208180063622545, 0.024526363287299357)', '(0.07426514477476434, 0.022056964711141793)', '(0.09488390050966544, 0.020618755734901104)', '(0.11410325744167488, 0.01921935693200944)', '(0.1319676596933408, 0.017864402251665915)', '(0.14752544015907262, 0.015557780465731839)', '(0.15982409236165945, 0.012298652202586823)', '(0.16890464833747046, 0.009080555975811005)', '(0.17479934438822237, 0.005894696050751906)', '(0.17752997669289972, 0.0027306323046773495)', '(0.17710687179199672, -0.00042310490090299076)', '(0.17352842013302644, -0.003578451658970285)', '(0.16678114790705728, -0.00674727222596916)', '(0.1588403310449741, -0.007940816862083162)', '(0.14867802397139285, -0.010162307073581265)', '(0.13726030425159078, -0.011417719719802075)', '(0.12455156083088213, -0.012708743420708638)', '(0.11051531857878236, -0.01403624225209977)', '(0.09511522568408545, -0.015400092894696907)', '(0.07831622177527828, -0.01679900390880718)', '(0.06008590213404605, -0.018230319641232232)', '(0.04039608868518485, -0.019689813448861195)', '(0.019224611023763716, -0.021171477661421134)', '(-0.00344270995126144, -0.022667320975025156)', '(-0.027609897589639013, -0.024167187638377573)', '(-0.053268514182515214, -0.025658616592876205)', '(-0.08039527638869808, -0.027126762206182858)', '(-0.10994967713805001, -0.02955440074935193)', '(-0.14086930602006464, -0.03091962888201464)', '(-0.17406899097858616, -0.03319968495852151)', '(-0.20943547710234747, -0.035366486123761316)', '(-0.24782452349153636, -0.038389046389188886)', '(-0.2890538746852148, -0.041229351193678467)', '(-0.33290070937817823, -0.04384683469296342)', '(-0.3791010290011829, -0.046200319623004665)', '(-0.42735145734373775, -0.048250428342554816)', '(-0.47731375189877984, -0.04996229455504211)', '(-0.5276220696951177, -0.050308317796337876)', '(-0.5769002135183763, -0.049278143823258604)', '(-0.6257802979870887, -0.04888008446871235)', '(-0.6739059672130376, -0.048125669225949)', '(-0.7199421484922773, -0.046036181279239745)', '(-0.7645894426527119, -0.04464729416043455)', '(-0.8065826965029405, -0.04199325385022855)', '(-0.8456994799192407, -0.03911678341630019)', '(-0.8817592891745283, -0.03605980925528761)', '(-0.9146207399687265, -0.03286145079419824)', '(-0.9451773346833324, -0.030556594714605957)', '(-0.9723501096222352, -0.027172774938902827)', '(-0.996085644273043, -0.023735534650807785)', '(-1.0163505111890034, -0.02026486691596047)', '(-1.0341260752912134, -0.017775564102209863)', '(-1.049403561361285, -0.015277486070071714)', '(-1.0611811021790665, -0.011777540817781417)', '(-1.070460842495856, -0.009279740316789395)', '(-1.0772466686250237, -0.006785826129167802)', '(-1.0805426460582166, -0.003295977433192775)', '(-1.0813511218862144, -0.0008084758279978395)', '(-1.0796727089846936, 0.0016784129015207905)', '(-1.07550615135505, 0.004166557629643717)', '(-1.0678486037975883, 0.007657547557461581)', '(-1.0576958524479698, 0.010152751349618412)', '(-1.0440443409070659, 0.013651511540903908)', '(-1.027892941221098, 0.016151399685967807)', '(-1.0082457328780703, 0.019647208343027786)', '(-0.9851155741171959, 0.023130158760874382)', '(-0.958528649598748, 0.026586924518447953)', '(-0.9295296542138712, 0.028998995384876696)', '(-0.8981848125345602, 0.03134484167931111)', '(-0.8645856422927427, 0.03359917024181742)', '(-0.8278523376445781, 0.03673330464816463)', '(-0.7891410452754988, 0.0387112923690793)', '(-0.7486422481829392, 0.04049879709255955)', '(-0.7055809532667295, 0.04306129491620974)', '(-0.661221590189629, 0.04435936307710056)', '(-0.6158591311274798, 0.045362459062149196)', '(-0.5688135204435503, 0.047045610683929484)', '(-0.5204298381198902, 0.04838368232366004)', '(-0.4710699224693112, 0.04935991565057902)', '(-0.4221023446450258, 0.0489675778242854)', '(-0.37288428181978944, 0.049218062825236344)', '(-0.3237584555569629, 0.049125826262826515)', '(-0.2760432468940181, 0.0477152086629448)', '(-0.22901867498601342, 0.04702457190800469)', '(-0.18292689462720862, 0.04609178035880478)', '(-0.1389680172912216, 0.04395887733598701)', '(-0.09729500737418224, 0.04167300991703936)', '(-0.05701625532487814, 0.0402787520493041)', '(-0.018201020256133092, 0.03881523506874505)', '(0.018117940754540998, 0.03631896101067409)', '(0.05294059377861951, 0.03482265302407851)', '(0.08629471102824109, 0.033354117249621576)', '(0.11823213766760546, 0.031937426639364365)', '(0.14882518438316023, 0.030593046715554774)', '(0.17716329479986984, 0.02833811041670962)', '(0.2033462728992178, 0.026182978099347966)', '(0.2284801865504178, 0.025133913651199977)', '(0.2516787495972551, 0.02319856304683732)', '(0.2740566958895475, 0.022377946292292374)', '(0.29473305980284237, 0.020676363913294887)', '(0.31482465105260893, 0.020091591249766554)', '(0.33345081940910987, 0.01862616835650095)', '(0.3507269735432543, 0.01727615413414442)', '(0.36676393246525546, 0.016036958922001174)', '(0.3816675512619276, 0.014903618796672099)', '(0.39653856076195915, 0.01487100950003155)', '(0.41047952867838067, 0.013940967916421538)', '(0.42358829276853716, 0.013108764090156481)', '(0.43595818123268226, 0.01236988846414513)', '(0.4486783121156927, 0.012720130883010449)', '(0.4618412585972097, 0.013162946481517026)', '(0.47554366901134215, 0.013702410414132438)', '(0.48888691327935707, 0.013343244268014932)', '(0.5029702888537798, 0.014083375574422722)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184]</t>
-  </si>
-  <si>
-    <t>['[0,0,0]', '[0,1,1]', '[0,2,1]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 62, 65, 66, 67, 68, 69, 70, 83, 84, 86, 98, 100, 103, 105, 106, 108, 110, 111, 113, 114, 116, 118, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 143, 145, 146, 150, 153, 161, 162, 163, 164, 165, 166, 168, 169, 170, 172, 173, 174, 175, 184, 185, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9350573117999896, -0.0020218166439570067)', '(-0.9347192727731162, 0.00033803902687345923)', '(-0.9310222162156864, 0.0036970565574297788)', '(-0.9239754668535854, 0.007046749362100901)', '(-0.9145975975371489, 0.009377869316436586)', '(-0.9029149393743275, 0.011682658162821356)', '(-0.8879628439967714, 0.014952095377556106)', '(-0.8707906166867573, 0.017172227310014065)', '(-0.8514603875808815, 0.019330229105875733)', '(-0.8290489363142832, 0.022411451266598312)', '(-0.8046540216097546, 0.02439491470452863)', '(-0.7783922259113999, 0.026261795698354712)', '(-0.750400205558703, 0.027992020352696843)', '(-0.7198354168624966, 0.030564788696206335)', '(-0.6868824067077017, 0.032953010154794925)', '(-0.6527531607498468, 0.03412924595785498)', '(-0.6176793126825655, 0.035073848067281296)', '(-0.581909191452468, 0.0357701212300975)', '(-0.5457039691352896, 0.03620522231717835)', '(-0.5083330793564325, 0.037370889778857205)', '(-0.47107664228125584, 0.03725643707517664)', '(-0.43421249325819683, 0.03686414902305901)', '(-0.397010735575, 0.037201757683196834)', '(-0.36073573140617016, 0.03627500416882984)', '(-0.3246341786510798, 0.03610155275509039)', '(-0.28993781611720854, 0.03469636253387124)', '(-0.2558538763904418, 0.034083939726766724)', '(-0.22256895158758763, 0.03328492480285419)', '(-0.1912471358217916, 0.03132181576579604)', '(-0.16202501031595606, 0.02922212550583552)', '(-0.13501331793408272, 0.027011692381873332)', '(-0.11029934218692079, 0.02471397574716193)', '(-0.08794974384689003, 0.022349598340030762)', '(-0.0680136286536575, 0.019936115193232535)', '(-0.05152565290615392, 0.01648797574750358)', '(-0.03850786903744567, 0.013017783868708253)', '(-0.028973421583632565, 0.009534447453813108)', '(-0.02292953615862785, 0.006043885425004713)', '(-0.020379738224791357, 0.0025497979338364946)', '(-0.021325269241796303, -0.000945531017004946)', '(-0.025765685873581273, -0.004440416631784972)', '(-0.03269863767933955, -0.006932951805758279)', '(-0.042119570617481464, -0.009420932938141908)', '(-0.054020571941614935, -0.011901001324133471)', '(-0.0683888150571273, -0.014368243115512356)', '(-0.08520462589310689, -0.016815810835979588)', '(-0.10343920739294224, -0.01823458149983536)', '(-0.12305438046393016, -0.01961517307098793)', '(-0.14500112763513895, -0.021946747171208782)', '(-0.16921504634810428, -0.024213918712965327)', '(-0.19561369425176178, -0.026398647903657497)', '(-0.22409407722724978, -0.028480382975487988)', '(-0.2555304661825353, -0.031436388955285485)', '(-0.289767553492971, -0.034237087310435746)', '(-0.3266180392713763, -0.03685048577840526)', '(-0.3658613842888075, -0.03924334501743122)', '(-0.4072440988472705, -0.04138271455846298)', '(-0.4504818594881023, -0.04323776064083184)', '(-0.49526361006413994, -0.04478175057603762)', '(-0.5412576185390753, -0.04599400847493534)', '(-0.5861192476329689, -0.044861629093893615)', '(-0.6305147176366278, -0.044395470003658954)', '(-0.6731219968012239, -0.042607279164596064)', '(-0.7146450830974403, -0.041523086296216496)', '(-0.7538124892740182, -0.03916740617657785)', '(-0.7903873166285403, -0.03657482735452216)', '(-0.8251681170455473, -0.034780800417006964)', '(-0.8569833055318539, -0.03181518848630658)', '(-0.8866946091186456, -0.029711303586791703)', '(-0.9141901697832812, -0.027495560664635557)', '(-0.9383821270765387, -0.024191957293257557)', '(-0.9602061145497903, -0.021823987473251677)', '(-0.9786147544146677, -0.018408639864877403)', '(-0.9945761233729042, -0.015961368958236556)', '(-1.0080685791058095, -0.013492455732905325)', '(-1.0180782396787913, -0.010009660572981726)', '(-1.0255974334477278, -0.007519193768936597)', '(-1.0306218742374473, -0.005024440789719621)', '(-1.0321494053622788, -0.001527531124831451)', '(-1.0311794835797774, 0.000969921782501344)', '(-1.0267124477498715, 0.004467035829905999)', '(-1.019750131378293, 0.006962316371578492)', '(-1.009296285528687, 0.010453845849606028)', '(-0.9953585829672017, 0.013937702561485374)', '(-0.9779510514082486, 0.017407531558953082)', '(-0.9580972707511509, 0.01985378065709761)', '(-0.9358322717560381, 0.02226499899511283)', '(-0.910205504800813, 0.02562676695522515)', '(-0.882286909626201, 0.027918595174611906)', '(-0.8521680743954326, 0.030118835230768387)', '(-0.8189650810361314, 0.0332029933593012)', '(-0.7838255615471854, 0.035139519488946044)', '(-0.7469266347282454, 0.03689892681894006)', '(-0.7084752751229174, 0.03845135960532797)', '(-0.667707344580794, 0.04076793054212349)', '(-0.6248919548859851, 0.0428153896948088)', '(-0.5813285045973294, 0.04356345028865574)', '(-0.5373342425649409, 0.043994262032388556)', '(-0.49323699368079776, 0.044097248884143105)', '(-0.4493671434194469, 0.04386985026135085)', '(-0.40604944008337485, 0.04331770333607206)', '(-0.36259519691593173, 0.04345424316744314)', '(-0.32030207271396416, 0.04229312420196754)', '(-0.2794408919730389, 0.040861180740925256)', '(-0.24025148846753197, 0.03918940350550692)', '(-0.20294035504276356, 0.03731113342476841)', '(-0.16768002867175874, 0.03526032637100482)', '(-0.13361000483550467, 0.034070023836254085)', '(-0.1018418246339912, 0.031768180201513466)', '(-0.07245786699412529, 0.02938395763986591)', '(-0.04451507745647122, 0.02794278953765407)', '(-0.01805002811935981, 0.026465049337111413)', '(0.006918685611760959, 0.024968713731120768)', '(0.029387937840917793, 0.022469252229156834)', '(0.050366899850752586, 0.020978962009834796)', '(0.06987434687929688, 0.019507447028544293)', '(0.086936520342479, 0.01706217346318213)', '(0.10058323995795906, 0.013646719615480052)', '(0.11084291469988816, 0.0102596747419291)', '(0.1177395396974392, 0.006896624997551025)', '(0.12129050421597178, 0.003550964518532587)', '(0.12150515378688512, 0.00021464957091333822)', '(0.11838406183972931, -0.003121091947155806)', '(0.11191898594322049, -0.006465075896508822)', '(0.1040935071099802, -0.007825478833240298)', '(0.0948889397734274, -0.009204567336552798)', '(0.0842849842478229, -0.010603955525604506)', '(0.07226052335377674, -0.012024460894046156)', '(0.05879457558333097, -0.01346594777044577)', '(0.04386741611746827, -0.0149271594658627)', '(0.02646187436424616, -0.01740554175322211)', '(0.006564206071233595, -0.019897668293012566)', '(-0.01583297748842907, -0.022397183559662664)', '(-0.04072734139255002, -0.02489436390412095)', '(-0.06710306794076232, -0.02637572654821229)', '(-0.09592830858733506, -0.028825240646572742)', '(-0.12715073655782083, -0.031222427970485765)', '(-0.15969347703389614, -0.0325427404760753)', '(-0.19345476547362803, -0.0337612884397319)', '(-0.23030671129150143, -0.03685194581787341)', '(-0.27008530708229916, -0.03977859579079772)', '(-0.3125871854978404, -0.04250187841554124)', '(-0.3575680494611404, -0.04498086396329996)', '(-0.40474328941484117, -0.04717523995370078)', '(-0.4537911761748858, -0.04904788676004461)', '(-0.5043588012949711, -0.05056762512008528)', '(-0.5540706461110569, -0.049711844816085815)', '(-0.6035542700750147, -0.04948362396395773)', '(-0.6524439617024869, -0.048889691627472164)', '(-0.6993911987138269, -0.04694723701134007)', '(-0.7450802639888215, -0.045689065274994625)', '(-0.7892277745691879, -0.0441475105803664)', '(-0.8315873257285664, -0.04235955115937849)', '(-0.8719518823161434, -0.04036455658757703)', '(-0.9091540531303944, -0.03720217081425102)', '(-0.9440675575683914, -0.03491350443799706)', '(-0.9755997632956861, -0.031532205727294677)', '(-1.0046894178763022, -0.029089654580616124)', '(-1.0312993730138278, -0.026609955137525693)', '(-1.0554121710731585, -0.02411279805933084)', '(-1.0760257282438415, -0.020613557170682868)', '(-1.0941486290561324, -0.018122900812291055)', '(-1.1087962884361393, -0.014647659380006874)']</t>
-  </si>
-  <si>
-    <t>['[0,2,1]', '[1,1,2]', '[0,0,0]']</t>
-  </si>
-  <si>
-    <t>[36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 77, 83, 84, 85, 86, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 120, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 154, 156, 164, 165, 166, 168, 169, 170, 171, 172, 173, 174, 175, 177, 178, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9330354951560327, -0.005376623263477371)', '(-0.9360573117999896, -0.0030218166439570067)', '(-0.9367168075668335, -0.0006594957668438796)', '(-0.934012368296359, 0.002704439270474528)', '(-0.9289506720479335, 0.005061696248425579)', '(-0.9215446342764929, 0.007406037771440515)', '(-0.9118141255032138, 0.009730508773279044)', '(-0.8987869953337667, 0.013027130169447107)', '(-0.8835035878692284, 0.015283407464538226)', '(-0.8660156224624486, 0.017487965406779896)', '(-0.8453879563629935, 0.020627666099455145)', '(-0.8227046448993737, 0.02268331146361982)', '(-0.7980671917061165, 0.02463745319325721)', '(-0.7715960767158997, 0.026471114990216843)', '(-0.7424318856595977, 0.02916419105630196)', '(-0.7107418256060766, 0.031690060053521166)', '(-0.6777207742782939, 0.033021051327782616)', '(-0.6435845556528812, 0.03413621862541274)', '(-0.6085677512580951, 0.03501680439478601)', '(-0.5729205585028189, 0.035647192755276245)', '(-0.5359048006970585, 0.037015757805760344)', '(-0.49879676866716194, 0.037108032029896536)', '(-0.4618745800989318, 0.03692218856823017)', '(-0.4254126819614842, 0.0364618981374476)', '(-0.38967657678404216, 0.03573610517744202)', '(-0.35391808379879364, 0.03575849298524853)', '(-0.3193779433125341, 0.03454014048625951)', '(-0.28527542216951923, 0.03410252114301487)', '(-0.25281188804932403, 0.03246353412019519)', '(-0.2221631359989472, 0.030648752050376833)', '(-0.19347937609816682, 0.028683759900780363)', '(-0.16688617235950626, 0.02659320373866057)', '(-0.14248613527516724, 0.024400037084339028)', '(-0.12036115401361643, 0.022124981261550807)', '(-0.10057495924874807, 0.019786194764868353)', '(-0.08417582781385616, 0.016399131434891915)', '(-0.07119740642440874, 0.012978421389447426)', '(-0.06166217446595337, 0.009535231958455365)', '(-0.055584289331286056, 0.006077885134667318)', '(-0.05297172651519943, 0.002612562816086626)', '(-0.053827662534335456, -0.0008559360191360294)', '(-0.05615107338086194, -0.0023234108465264866)', '(-0.060939097416477614, -0.00478802403561567)', '(-0.06818545997803799, -0.007246362561560379)', '(-0.07787970052623447, -0.009694240548196476)', '(-0.09000601686522204, -0.012126316338987576)', '(-0.10454174840807853, -0.01453573154285649)', '(-0.12045553345587084, -0.015913785047792305)', '(-0.1377078548331441, -0.017252321377273252)', '(-0.15624985438262493, -0.018541999549480832)', '(-0.17602218867391634, -0.019772334291291424)', '(-0.19795398014667498, -0.021931791472758658)', '(-0.22195773625630352, -0.02400375610962854)', '(-0.24792743652528657, -0.02596970026898304)', '(-0.27673691908670883, -0.028809482561422253)', '(-0.30823320219985595, -0.031496283113147144)', '(-0.3422346714770821, -0.03400146927722611)', '(-0.3785302449757588, -0.03629557349867674)', '(-0.4168798105683479, -0.03834956559258906)', '(-0.457016164878737, -0.040136354310389116)', '(-0.49864857464714574, -0.041632409768408735)', '(-0.5414679362387372, -0.04281936159159151)', '(-0.5851533433059489, -0.043685407067211725)', '(-0.6283797104613079, -0.04322636715535904)', '(-0.6708330987532924, -0.04245338829198447)', '(-0.7122177880174202, -0.04138468926412776)', '(-0.7512621286235844, -0.03904434060616428)', '(-0.7887286812345645, -0.03746655261098011)', '(-0.8244098926867149, -0.03568121145215039)', '(-0.8581290111778112, -0.033719118491096225)', '(-0.8897396156110098, -0.03161060443319864)', '(-0.9191239932624417, -0.02938437765143182)', '(-0.9461906438281926, -0.027066650565750916)', '(-0.9698711957753019, -0.023680551947109305)', '(-0.9911187144576772, -0.021247518682375333)', '(-1.0099015291761368, -0.018782814718459752)', '(-1.0261999762501661, -0.016298447074029287)', '(-1.040003381788465, -0.013803405538298969)', '(-1.0513073695599895, -0.011303987771524433)', '(-1.0591115473484354, -0.0078041777884458145)', '(-1.064417321829064, -0.005305774480628576)', '(-1.0672264314235285, -0.0028091095944645203)', '(-1.0675400526658272, -0.0003136212422987293)', '(-1.065358327908795, 0.0021817247570322246)', '(-1.0606803126394178, 0.004678015269377229)', '(-1.0535043421708636, 0.007175970468554008)', '(-1.0438288191646004, 0.009675523006263391)', '(-1.0306534238262497, 0.013175395338350599)', '(-1.0149811070725385, 0.015672316753711207)', '(-0.9958204575992975, 0.01916064947324106)', '(-0.973189444948801, 0.022631012650496444)', '(-0.9481197980888846, 0.025069646859916365)', '(-0.9206597750805163, 0.02746002300836823)', '(-0.8908777320957009, 0.02978204298481544)', '(-0.8588655914784759, 0.03201214061722501)', '(-0.8237419738442956, 0.03512361763418029)', '(-0.7856593715158439, 0.03808260232845176)', '(-0.7458076175120927, 0.03985175400375123)', '(-0.7044100178675171, 0.04139759964457558)', '(-0.6617218634839822, 0.04268815438353493)', '(-0.6180271774676914, 0.043694686016290805)', '(-0.5736337129106323, 0.04439346455705916)', '(-0.5288663939369118, 0.04476731897372043)', '(-0.48405956946998563, 0.04480682446692616)', '(-0.43954859413540154, 0.0445109753345841)', '(-0.3956613364876131, 0.043887257647788454)', '(-0.3527102241640525, 0.04295111232356058)', '(-0.31098536670263466, 0.04172485746141783)', '(-0.26974916350334743, 0.04123620319928723)', '(-0.23023806848068812, 0.03951109502265932)', '(-0.19265395145806363, 0.03758411702262449)', '(-0.15716377909639775, 0.035490172361665885)', '(-0.12290083646167699, 0.034262942634720774)', '(-0.0899698832102702, 0.03293095325140678)', '(-0.05944841743815321, 0.030521465772116996)', '(-0.03138729815216139, 0.028061119285991826)', '(-0.004815103974764631, 0.026572194177396757)', '(0.019257351031892276, 0.024072455006656907)', '(0.04083397689094758, 0.021576625859055305)', '(0.06092933770699333, 0.02009536081604575)', '(0.07856634669073778, 0.017637008983744446)', '(0.09277247733159343, 0.014206130640855644)', '(0.10357481031026608, 0.010802332978672662)', '(0.11099686247368701, 0.007422052163420922)', '(0.1150562420484752, 0.004059379574788194)', '(0.11576307568178958, 0.0007068336333143762)', '(0.11311916236904848, -0.002643913312741097)', '(0.1071178272046209, -0.006001335164427579)', '(0.0997444700684475, -0.00737335713617341)', '(0.09098220605434536, -0.008762264014102145)', '(0.08081249014571415, -0.010169715908631211)', '(0.06821588499504377, -0.012596605150670383)', '(0.054171448220327746, -0.014044436774716028)', '(0.03865995248979493, -0.015511495730532813)', '(0.021665252079154346, -0.016994700410640586)', '(0.002175830370232057, -0.01948942170892229)', '(-0.01981353807870409, -0.021989368448936147)', '(-0.04429849134456611, -0.02448495326586202)', '(-0.07126140057401553, -0.026962909229449432)', '(-0.10066739745224648, -0.029405996878230947)', '(-0.13146025154637336, -0.030792854094126895)', '(-0.16356119233566346, -0.032100940789290114)', '(-0.19686716048358352, -0.03330596814792006)', '(-0.23324964335144435, -0.03638248286786084)', '(-0.27254463598649564, -0.03929499263505129)', '(-0.3145495017573764, -0.04200486577088077)', '(-0.3590214618434497, -0.04447196008607328)', '(-0.40567821047362695, -0.04665674863017725)', '(-0.4542010316214309, -0.048522821147803916)', '(-0.5042405839830614, -0.050039552361630456)', '(-0.55442524118491, -0.0501846572018486)', '(-0.6043790293057905, -0.04995378812088052)', '(-0.6537328783183866, -0.04935384901259608)', '(-0.7021353261239619, -0.048402447805575316)', '(-0.7492618604075995, -0.0471265342836376)', '(-0.7948222719310812, -0.04556041152348176)', '(-0.8385656507392385, -0.04374337880815728)', '(-0.8792829327428082, -0.04071728200356974)', '(-0.9178107609565777, -0.038527828213769384)', '(-0.954024571919976, -0.03621381096339838)', '(-0.9878354122050005, -0.033810840285024485)', '(-1.0191857912919928, -0.03135037908699225)', '(-1.0480449925956254, -0.028859201303632516)', '(-1.074404201978519, -0.02635920938289357)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37671412782933006, 0.0007811358628622474)', '(-0.3769993195420769, -0.0002851917127468485)', '(-0.377348903829009, -0.00034958428693212217)', '(-0.37776050772784336, -0.0004116038988343791)', '(-0.3782313357928559, -0.00047082806501251356)', '(-0.3787581883718443, -0.0005268525789883717)', '(-0.37933748258379846, -0.0005792942119542007)', '(-0.3799652758819847, -0.0006277932981862667)', '(-0.38063729207062746, -0.0006720161886427658)', '(-0.38134894962687, -0.0007116575562425144)', '(-0.38209539216332095, -0.0007464425364509496)', '(-0.3848715208503894, -0.0027761286870684365)', '(-0.3896583272883067, -0.004786806437917266)', '(-0.3964228718893358, -0.00676454460102911)', '(-0.4051182634086455, -0.008695391519309715)', '(-0.41568366576933957, -0.010565402360694073)', '(-0.42804436699357906, -0.012360701224239504)', '(-0.4421119512070868, -0.014067584213507713)', '(-0.45778461760659234, -0.01567266639950552)', '(-0.4749476893511153, -0.017163071744522956)', '(-0.4934743501433182, -0.018526660792202873)', '(-0.5132266367068801, -0.019752286563561837)', '(-0.5340567017594472, -0.02083006505256716)', '(-0.5558083452325261, -0.021751643473078893)', '(-0.5783187926881453, -0.02251044745561923)', '(-0.6014206808130108, -0.023101888124865518)', '(-0.6249441924416298, -0.023523511628618987)', '(-0.6487192696542526, -0.023775077212622828)', '(-0.6725778246992234, -0.023858555044970815)', '(-0.6963558658407732, -0.023778041141549803)', '(-0.7198954590530541, -0.023539593212280843)', '(-0.7430464563201274, -0.02315099726707333)', '(-0.7656679360194597, -0.022621479699332293)', '(-0.7876293188236866, -0.02196138280422692)', '(-0.8088111418748463, -0.0211818230511597)', '(-0.8291054928284745, -0.020294350953628193)', '(-0.8484161221697499, -0.01931062934127551)', '(-0.8666582658457438, -0.018242143675993888)', '(-0.8837582201187559, -0.017099954273012176)', '(-0.8996527164963829, -0.015894496377627007)', '(-0.9142881469102914, -0.014635430413908428)', '(-0.9266196885586295, -0.012331541648338145)', '(-0.9366130184087352, -0.009993329850105719)', '(-0.9442426666390789, -0.0076296482303436)', '(-0.9494906166113486, -0.005247949972269714)', '(-0.9523451995590706, -0.0028545829477220055)', '(-0.9528003172672371, -0.0004551177081665147)', '(-0.9508550137257086, 0.0019453035415285262)', '(-0.9465134064870917, 0.004341607238616925)', '(-0.9397849793944157, 0.006728427092675947)', '(-0.9306852294726268, 0.009099749921789003)', '(-0.9192366510864185, 0.011448578386208231)', '(-0.905470029034718, 0.013766622051700525)', '(-0.8894259983784782, 0.016044030656239713)', '(-0.8711568121477857, 0.018269186230692534)', '(-0.8507282388404958, 0.020428573307289942)', '(-0.8282214906977536, 0.022506748142742124)', '(-0.8037350628424654, 0.024486427855288248)', '(-0.7773863450928512, 0.026348717749614222)', '(-0.7493128559799087, 0.028073489112942468)', '(-0.719672946006683, 0.02963990997322578)', '(-0.6886458281408093, 0.03102711786587362)', '(-0.6564308206228524, 0.03221500751795688)', '(-0.6232457312270185, 0.03318508939583386)', '(-0.5893243712997142, 0.03392135992730442)', '(-0.5549132573571098, 0.03441111394260429)', '(-0.5202676301013047, 0.03464562725580514)', '(-0.48564698602088235, 0.034620644080422376)', '(-0.4513103657973129, 0.03433662022356945)', '(-0.41751166892677904, 0.03379869687053382)', '(-0.38449526122963584, 0.03301640769714319)', '(-0.35249211170242634, 0.03200314952720949)', '(-0.32171664231432767, 0.030775469388098678)', '(-0.2923644069828097, 0.029352235331517998)', '(-0.26461064369357123, 0.027753763289238426)', '(-0.2386096757293628, 0.026000967964208428)', '(-0.21449508140797405, 0.024114594321388766)', '(-0.19238051088318764, 0.02211457052478641)', '(-0.17236100470593976, 0.02001950617724787)', '(-0.15551466072349004, 0.016846343982449708)', '(-0.14190113710026447, 0.013613523623225578)', '(-0.13156448466827705, 0.010336652431987427)', '(-0.12453561844229777, 0.007028866225979283)', '(-0.12083429468977193, 0.0037013237525258453)', '(-0.1204705014162563, 0.00036379327351563273)', '(-0.12344520478012036, -0.002974703363864058)', '(-0.12775042296842537, -0.004305218188305006)', '(-0.13337427557467124, -0.005623852606245858)', '(-0.14030066107110709, -0.006926385496435856)', '(-0.1485088485071577, -0.008208187436050623)', '(-0.157972995654741, -0.009464147147583287)', '(-0.16866160927917717, -0.010688613624436197)', '(-0.18053696686125922, -0.01187535758208205)', '(-0.19355452281053093, -0.013017555949271713)', '(-0.20766232579580457, -0.01410780298527364)', '(-0.22280047700516464, -0.015138151209360079)', '(-0.23890066159677242, -0.01610018459160779)', '(-0.2558857869314303, -0.016985125334657895)', '(-0.2736697609958151, -0.01778397406438476)', '(-0.2921574423774313, -0.018487681381616237)', '(-0.31124478898076907, -0.019087346603337767)', '(-0.3328192262783481, -0.021574437297579033)', '(-0.35674766227902716, -0.023928436000679055)', '(-0.382875875946408, -0.026128213667380853)', '(-0.4110284388828845, -0.02815256293647652)', '(-0.44100932248064373, -0.029980883597759217)', '(-0.47260330878000983, -0.03159398629936612)', '(-0.505578270899609, -0.03297496211959919)', '(-0.5396883209795938, -0.03411005007998484)', '(-0.5746777463217707, -0.034989425342176896)', '(-0.610285576891086, -0.03560783056931526)', '(-0.6462505601475868, -0.03596498325650073)', '(-0.6823162724098215, -0.036065712262234796)', '(-0.7172360770606038, -0.03491980465078224)', '(-0.7507839155044208, -0.033547838443817)', '(-0.7827567496611351, -0.03197283415671429)', '(-0.8129758804319496, -0.030219130770814465)', '(-0.8412872046397736, -0.028311324207824017)', '(-0.8675605420819357, -0.02627333744216207)', '(-0.8916882093922783, -0.024127667310342642)', '(-0.913583038400215, -0.02189482900793676)', '(-0.9331760369655844, -0.01959299856536931)', '(-0.9504138751346786, -0.017237838169094227)', '(-0.9652563547058073, -0.014842479571128765)', '(-0.9776739912040916, -0.012417636498284274)', '(-0.9876458080236392, -0.009971816819547594)', '(-0.9951574159511717, -0.007511607927532457)', '(-1.0001994290228746, -0.005042013071702983)', '(-1.0027662502203558, -0.002566821197481153)', '(-1.0028552476351185, -8.899741476270937e-05)', '(-1.000466332647612, 0.002388914987506539)', '(-0.9956019452742733, 0.004864387373338711)', '(-0.9882674468523911, 0.007334498421882156)', '(-0.9784719152983312, 0.00979553155405986)', '(-0.9662293319273625, 0.012242583370968778)', '(-0.9515601399728216, 0.014669191954540839)', '(-0.9344931423690988, 0.017066997603722926)', '(-0.9150676892611096, 0.019425453107989148)', '(-0.8933360837795993, 0.021731605481510284)', '(-0.8693661083462237, 0.023969975433375524)', '(-0.8432435446454809, 0.026122563700742837)', '(-0.8150745311770257, 0.02816901346845519)', '(-0.7849875770682022, 0.03008695410882348)', '(-0.7531350348097489, 0.03185254225845339)', '(-0.7196938335716606, 0.033441201238088275)', '(-0.6848652941164762, 0.03482853945518434)', '(-0.648873889609651, 0.03599140450682527)', '(-0.6119648841245714, 0.036909005485079624)', '(-0.5744008682390865, 0.03756401588548481)', '(-0.5364573099647104, 0.03794355827437609)', '(-0.49841733659892073, 0.038039973365789674)', '(-0.4605660444405557, 0.03785129215836502)', '(-0.4231846853833726, 0.03738135905718309)', '(-0.38654509323819874, 0.03663959214517388)', '(-0.35090468579185013, 0.035640407446348624)', '(-0.31650231579999916, 0.034402369991850965)', '(-0.2835551559965815, 0.032947159803417655)', '(-0.2522567038099762, 0.03129845218660527)', '(-0.22277589503728762, 0.02948080877268862)', '(-0.19525723389828933, 0.027518661138998275)', '(-0.16982178702049738, 0.025435446877791965)', '(-0.14656885359637112, 0.02325293342412627)', '(-0.12557811170126024, 0.020990741895110885)', '(-0.10691204726485172, 0.018666064436408513)', '(-0.09161849181672656, 0.01529355544812516)', '(-0.07973109745054056, 0.011887394366185996)', '(-0.07127252662259384, 0.008458570827946724)', '(-0.06625702573834388, 0.005015500884249959)', '(-0.06469229982152842, 0.0015647259168154572)', '(-0.0665806391985476, -0.001888339377019176)', '(-0.06991927312121633, -0.0033386339226687276)', '(-0.07470311047136852, -0.004783837350152184)', '(-0.08092442890707893, -0.0062213184357104165)', '(-0.08857243489984905, -0.00764800599277011)', '(-0.09763270185228402, -0.009060266952434974)', '(-0.1080864966366947, -0.010453794784410674)']</t>
+    <t>['[1,1,2]', '[1,1,1]', '[2,1,0]', '[0,1,1]', '[2,0,1]', '[0,2,1]', '[0,0,0]', '[1,2,0]', '[1,0,2]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37671412782933006, 0.0007811358628622474)', '(-0.3769993195420769, -0.0002851917127468485)', '(-0.377348903829009, -0.00034958428693212217)', '(-0.37776050772784336, -0.0004116038988343791)', '(-0.3782313357928559, -0.00047082806501251356)', '(-0.3787581883718443, -0.0005268525789883717)', '(-0.37933748258379846, -0.0005792942119542007)', '(-0.3799652758819847, -0.0006277932981862667)', '(-0.38063729207062746, -0.0006720161886427658)', '(-0.38134894962687, -0.0007116575562425144)', '(-0.38209539216332095, -0.0007464425364509496)', '(-0.3848715208503894, -0.0027761286870684365)', '(-0.3896583272883067, -0.004786806437917266)', '(-0.3964228718893358, -0.00676454460102911)', '(-0.4051182634086455, -0.008695391519309715)', '(-0.41568366576933957, -0.010565402360694073)', '(-0.42804436699357906, -0.012360701224239504)', '(-0.4421119512070868, -0.014067584213507713)', '(-0.45778461760659234, -0.01567266639950552)', '(-0.4749476893511153, -0.017163071744522956)', '(-0.4934743501433182, -0.018526660792202873)', '(-0.5132266367068801, -0.019752286563561837)', '(-0.5340567017594472, -0.02083006505256716)', '(-0.5558083452325261, -0.021751643473078893)', '(-0.5783187926881453, -0.02251044745561923)', '(-0.6014206808130108, -0.023101888124865518)']</t>
   </si>
   <si>
     <t>[1,0,2]</t>
   </si>
   <si>
-    <t>['[1,1,1]', '[1,0,2]', '[0,2,1]']</t>
-  </si>
-  <si>
-    <t>['[1,1,2]', '[2,1,0]', '[1,0,2]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49, 76, 83, 84, 86, 92, 93, 98, 100, 162]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41688812962687327, -0.0034780326196833782)', '(-0.42115289174160425, -0.004264762114730997)', '(-0.42617395914261486, -0.00502106740101063)', '(-0.4319153539455495, -0.005741394802934639)', '(-0.4393357370306727, -0.007420383085123208)', '(-0.44738138362155394, -0.008045646590881266)', '(-0.4559936926770704, -0.008612309055516451)', '(-0.4651095709102948, -0.009115878233224382)', '(-0.47566187061981946, -0.010552299709524673)', '(-0.4865724591373637, -0.010910588517544246)', '(-0.4977601743175313, -0.011187715180167567)', '(-0.5101414849951025, -0.012381310677571153)', '(-0.5236236979370857, -0.013482212941983254)', '(-0.5371057239615282, -0.013482026024442526)', '(-0.5514864755929504, -0.014380751631422203)', '(-0.5666583133894763, -0.015171837796525913)', '(-0.5825081020777473, -0.01584978868827105)', '(-0.5989183671059618, -0.01641026502821452)', '(-0.6147685299661801, -0.015850162860218328)', '(-0.630943413043882, -0.01617488307770189)', '(-0.647327054695926, -0.016383641652044006)', '(-0.6638038967627455, -0.016476842066819552)', '(-0.6792599331860142, -0.015456036423268621)', '(-0.6935904826369591, -0.014330549450944896)', '(-0.7067006432533479, -0.013110160616388785)', '(-0.7195055660885832, -0.012804922835235223)', '(-0.7319243255666845, -0.012418759478101378)', '(-0.7438803892029979, -0.011956063636313368)', '(-0.754301992712396, -0.010421603509398058)', '(-0.7641281891600165, -0.009826196447620535)', '(-0.7723029408869763, -0.008174751726959811)', '(-0.7797807196814492, -0.007477778794472976)', '(-0.7855207721248553, -0.005740052443406065)', '(-0.7894924075039262, -0.003971635379070979)', '(-0.7926746968135555, -0.0031822893096292836)', '(-0.7940510537706393, -0.0013763569570838523)', '(-0.7946143556210978, -0.0005633018504584962)', '(-0.7943616961416005, 0.00025265947949737054)', '(-0.7922943782283864, 0.0020673179132139697)', '(-0.7884231015754104, 0.0038712766529760806)', '(-0.7837680888217157, 0.004655012753694719)', '(-0.7773539749938986, 0.006414113827817123)', '(-0.7692152655554051, 0.008138709438493518)', '(-0.760396661112913, 0.008818604442492049)', '(-0.7499477260338634, 0.010448935079049666)', '(-0.7379286619646062, 0.012019064069257242)', '(-0.7244106209908786, 0.013518040973727524)', '(-0.710475952688466, 0.013934668302412639)', '(-0.6962119814859157, 0.014263971202550282)', '(-0.6797104998870089, 0.01650148159890673)', '(-0.6610805149096872, 0.018629984977321715)', '(-0.6404484031964321, 0.020632111713255085)', '(-0.6179577580799361, 0.022490645116495997)', '(-0.5937688343315372, 0.024188923748398997)', '(-0.5680575134811612, 0.025711320850375963)', '(-0.5410137398252319, 0.02704377365592927)', '(-0.5128394133478003, 0.028174326477431684)', '(-0.4837457680755906, 0.02909364527220963)', '(-0.4539503087770331, 0.029795459298557522)', '(-0.42367342036138994, 0.030276888415643133)', '(-0.3931347976123862, 0.030538622749003742)', '(-0.3625498635102124, 0.03058493410217379)', '(-0.3321263494674633, 0.030423514042749143)', '(-0.30206119963194006, 0.030065149835523216)', '(-0.2725379356352816, 0.02952326399665844)', '(-0.2437245814348906, 0.028813354200391023)', '(-0.21577220512146028, 0.02795237631343032)', '(-0.1888140910039872, 0.026958114117473085)', '(-0.1629655156526979, 0.025848575351289288)', '(-0.13832406938867023, 0.024641446264027672)', '(-0.11497044193846463, 0.023353627450205597)', '(-0.09296957808381197, 0.02200086385465266)', '(-0.07237210533781677, 0.0205974727459952)', '(-0.05421593933214164, 0.018156166005675132)', '(-0.039526778270367116, 0.01468916106177452)', '(-0.028320061175024124, 0.011206717095342992)', '(-0.020604326714778468, 0.007715734460245656)', '(-0.016383817719410075, 0.004220508995368395)', '(-0.015660289500267162, 0.0007235282191429145)', '(-0.01843400278605354, -0.0027737132857863773)', '(-0.02470389415587932, -0.00626989136982578)', '(-0.03446692299078332, -0.009763028834904)', '(-0.04671659908025342, -0.012249676089470099)', '(-0.06244176287454687, -0.01572516379429345)', '(-0.08062319133104803, -0.018181428456501163)', '(-0.10123184947480113, -0.020608658143753088)', '(-0.12322610226563474, -0.021994252790833613)', '(-0.1465514641229408, -0.02332536185730604)', '(-0.1711390730230286, -0.024587608900087828)', '(-0.19890435993964886, -0.02776528691662024)', '(-0.22973761457605404, -0.03083325463640518)', '(-0.2635002362880663, -0.033762621712012233)', '(-0.30002158186822, -0.036521345580153686)', '(-0.3390968255733572, -0.03907524370513718)', '(-0.38048625136299546, -0.04138942578963826)', '(-0.4229163486208531, -0.04243009725785764)', '(-0.46709013444910513, -0.04417378582825205)', '(-0.511685707995968, -0.0445955735468629)', '(-0.5573706105305013, -0.045684902534533244)', '(-0.6018026574084399, -0.04443204687793856)', '(-0.6446535410674412, -0.04285088365900138)', '(-0.685616339927266, -0.040962798859824776)', '(-0.7244112903069058, -0.0387949503796398)', '(-0.7607896092217012, -0.036378318914795524)', '(-0.7945353644131812, -0.0337457551914799)', '(-0.8254655654988191, -0.03093020108563795)', '(-0.8534287769521904, -0.027963211453371307)', '(-0.8783026233048394, -0.024873846352649033)', '(-0.8999905743528759, -0.021687951048036436)', '(-0.9184183752592628, -0.018427800906386925)', '(-0.9335304379580988, -0.015112062698835926)', '(-0.9452864500092522, -0.01175601205115337)', '(-0.9536583958352195, -0.008371945825967333)', '(-0.9586281301240034, -0.004969734288783891)', '(-0.9601855975174551, -0.001557467393451709)', '(-0.9583277570109496, 0.001857840506505456)', '(-0.9530582421569268, 0.00526951485402286)', '(-0.9443877662483977, 0.008670475908529096)', '(-0.9323352615051435, 0.012052504743254292)', '(-0.9169297190323922, 0.015405542472751329)', '(-0.8982126683564698, 0.018717050675922355)', '(-0.8762411988110637, 0.021971469545406217)', '(-0.8510913784927763, 0.02514982031828741)', '(-0.8228618706371138, 0.02822950785566248)', '(-0.7916774857960069, 0.03118438484110682)', '(-0.7576923484891963, 0.03398513730681065)', '(-0.7210923101821908, 0.03660003830700553)', '(-0.6820962205161574, 0.03899608966603344)', '(-0.6409556902965082, 0.04114053021964917)', '(-0.5979530543983749, 0.04300263589813336)', '(-0.5533973744776499, 0.04455567992072495)', '(-0.5076185026198266, 0.04577887185782342)', '(-0.4609594369048486, 0.046659065714977986)', '(-0.4137674061151403, 0.047192030789708274)', '(-0.3663842863057363, 0.04738311980940404)', '(-0.31913704383868746, 0.04724724246704878)', '(-0.272328898474148, 0.0468081453645395)', '(-0.2262318062889725, 0.04609709218517549)', '(-0.1810806950246624, 0.04515111126431008)', '(-0.13706967702016679, 0.04401101800449562)', '(-0.09435025456960136, 0.042719422450565425)', '(-0.05303135179776267, 0.04131890277183869)', '(-0.013180877055173089, 0.039850474742589584)', '(0.025171551957351372, 0.03835242901252446)', '(0.06203110566228323, 0.03685955370493186)', '(0.09743382298889491, 0.03540271732661168)', '(0.13144258224518376, 0.03400875925628886)', '(0.16414320389061662, 0.032700621645432866)', '(0.1956408584926138, 0.031497654601997195)', '(0.22605689084279432, 0.030416032350180516)', '(0.25552611897944305, 0.02946922813664876)', '(0.28419462614420127, 0.028668507164758238)', '(0.31221803398984527, 0.028023407845643996)', '(0.3397602250212345, 0.02754219103138921)', '(0.36699246915676065, 0.02723224413552619)', '(0.3940929012118692, 0.027100432055108557)', '(0.4212462909316416, 0.027153389719772415)', '(0.44864404306525213, 0.027397752133610512)', '(0.4764843602471257, 0.027840317181873582)', '(0.5029724946987898, 0.026488134451664088)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162]</t>
-  </si>
-  <si>
-    <t>['[1,0,2]', '[1,1,1]', '[2,0,1]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 74, 75, 76, 77, 83, 84, 85, 86, 90, 92, 93, 94, 97, 98, 99, 100, 101, 110, 111, 112, 113, 114, 163, 164]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46195598448582437, -0.008934427180277368)', '(-0.47135010198763444, -0.009394117501810082)', '(-0.4811344818689669, -0.009784379881332466)', '(-0.4912364832135895, -0.010102001344622562)', '(-0.5015808206276465, -0.01034433741405706)', '(-0.5120901726466438, -0.010509352018997255)', '(-0.5236858220405293, -0.011595649393885483)', '(-0.5362808185861054, -0.012594996545576175)', '(-0.5497807227543096, -0.013499904168204135)', '(-0.5640844641668106, -0.014303741412501014)', '(-0.5780853089115225, -0.014000844744711983)', '(-0.5916793220116702, -0.013594013100147673)', '(-0.6057662735618006, -0.014086951550130442)', '(-0.6192431909222812, -0.013476917360480605)', '(-0.6320125778158626, -0.012769386893581395)', '(-0.6439831208450931, -0.011970543029230504)', '(-0.6550702810709481, -0.011087160225854932)', '(-0.665196771987928, -0.010126490916979935)', '(-0.6752929301820363, -0.01009615819410829)', '(-0.6852902474104309, -0.009997317228394566)', '(-0.69412187915975, -0.008831631749319148)', '(-0.7027296452778802, -0.008607766118130196)', '(-0.710057666734382, -0.0073280214565018525)', '(-0.7170590432455791, -0.007001376511197094)', '(-0.722689563695558, -0.005630520449978878)', '(-0.7269141112434762, -0.0042245475479180845)', '(-0.7297066007815012, -0.002792489538025065)', '(-0.7310499156758343, -0.0013433148943331973)', '(-0.7319358582008177, -0.0008859425249834276)', '(-0.7313590347396498, 0.000576823461167958)', '(-0.7293229558214056, 0.0020360789182442014)', '(-0.7258400478211158, 0.0034829080002898843)', '(-0.7219316921374961, 0.003908355683619648)', '(-0.7166220671563864, 0.0053096249811096265)', '(-0.7099443279633955, 0.006677739192990933)', '(-0.7029406643844814, 0.007003663578913999)', '(-0.6946558968365673, 0.00828476754791417)', '(-0.6851437728447124, 0.00951212399185487)', '(-0.674466935316021, 0.010676837528691425)', '(-0.6616968246575448, 0.012770110658476217)', '(-0.6469203542676649, 0.014776470389879844)', '(-0.6302399274923947, 0.016680426775270246)', '(-0.6117732659643313, 0.01846666152806333)', '(-0.5916529810763678, 0.02012028488796358)', '(-0.5700258280907781, 0.02162715298558973)', '(-0.5470515969319694, 0.022974231158808645)', '(-0.5229016147007634, 0.024149982231205982)', '(-0.4977568611724769, 0.025144753528286455)', '(-0.4718057279155559, 0.025951133256921003)', '(-0.44524148137335895, 0.026564246542196992)', '(-0.4182595170607693, 0.02698196431258962)', '(-0.39105451276808767, 0.027205004292681658)', '(-0.3638176007430804, 0.027236912025007262)', '(-0.336733680682328, 0.027083920060752407)', '(-0.30997898677612473, 0.026754693906203254)', '(-0.2837190041573145, 0.026259982618810226)', '(-0.258106805197324, 0.025612198959990517)', '(-0.23328184720028816, 0.024824957997035817)', '(-0.20936924341073532, 0.02391260378955285)', '(-0.1864794918257216, 0.022889751585013725)', '(-0.16470862336945827, 0.021770868456263342)', '(-0.14413871394558442, 0.020569909423873857)', '(-0.12483869421800156, 0.01930001972758285)', '(-0.10786538638687948, 0.016973307831122074)', '(-0.09326232368371065, 0.014603062703168822)', '(-0.0810620467011835, 0.01220027698252716)', '(-0.07128820894866517, 0.00977383775251833)', '(-0.06495741617964909, 0.006330792769016073)', '(-0.06207930444938775, 0.0028781117302613436)', '(-0.06265796218832403, -0.0005786577389362826)', '(-0.06569258209918605, -0.0030346199108620174)', '(-0.07117880939638169, -0.00548622729719564)', '(-0.08010825568611508, -0.008929446289733392)', '(-0.09246585378996189, -0.012357598103846804)', '(-0.10822788034793997, -0.015762026557978082)', '(-0.1273592861438817, -0.019131405795941747)', '(-0.148810421717709, -0.0214511355738273)', '(-0.17151654139587305, -0.022706119678164056)', '(-0.1963989472235595, -0.02488240582768643)', '(-0.22435982119383874, -0.027960873970279257)', '(-0.25427545928573414, -0.029915638091895427)', '(-0.28599831229231254, -0.031722853006578414)', '(-0.3193560544934716, -0.03335774220115904)', '(-0.35415155034235696, -0.03479549584888537)', '(-0.3911638693985613, -0.03701231905620434)', '(-0.4301435244854561, -0.03897965508689481)', '(-0.4698149474206173, -0.03967142293516117)', '(-0.5098880010635635, -0.04007305364294618)', '(-0.5500638565219463, -0.040175855458382835)', '(-0.5900414323394431, -0.03997757581749673)', '(-0.6295239815267913, -0.039482549187348254)', '(-0.6672253949097444, -0.03770141338295309)', '(-0.7028826322884658, -0.03565723737872144)', '(-0.7362591394684187, -0.033376507179952865)', '(-0.7671467094795557, -0.030887570011136987)', '(-0.795365906387509, -0.02821919690795339)', '(-0.8207652725928547, -0.025399366205345712)', '(-0.8432196021201512, -0.022454329527296563)', '(-0.8626275850280967, -0.019407982907945452)', '(-0.8799091190781683, -0.01728153405007165)', '(-0.8949989362157407, -0.015089817137572355)', '(-0.9078448569259245, -0.012845920710183872)', '(-0.9184060799981109, -0.010561223072186345)', '(-0.9266515996105837, -0.008245519612472926)', '(-0.9315588227365478, -0.004907223125964078)', '(-0.9331149816680857, -0.0015561589315379646)', '(-0.931316133842447, 0.001798847825638716)', '(-0.9261668413009158, 0.005149292541531238)', '(-0.917680541075326, 0.008486300225589686)', '(-0.905880593424224, 0.01179994765110209)', '(-0.8908019687525376, 0.01507862467168638)', '(-0.8724935033200966, 0.018308465432441072)', '(-0.8510206163735029, 0.021472886946593647)', '(-0.8264683364640915, 0.024552279909411414)', '(-0.7989444339029875, 0.027523902561103958)', '(-0.7685824037575442, 0.030362030145443395)', '(-0.7355439968135403, 0.03303840694400388)', '(-0.7000209646787651, 0.035523032134775215)', '(-0.6622356815581835, 0.03778528312058161)', '(-0.6224403404979489, 0.039795341060234565)', '(-0.5809145035807838, 0.04152583691716518)', '(-0.5379609138087141, 0.04295358977206961)', '(-0.4938996413250171, 0.04406127248369703)', '(-0.4490608177627713, 0.04483882356224582)', '(-0.4037763816012622, 0.04528443616150908)', '(-0.35837138424128345, 0.04540499735997879)', '(-0.3131554664626318, 0.045215917778651624)', '(-0.2684150958203359, 0.044740370642295926)', '(-0.2244070611866763, 0.044008034633659585)', '(-0.18135356978555447, 0.043053491401121836)', '(-0.13943911303129625, 0.04191445675425822)', '(-0.09880909070185331, 0.04063002232944294)', '(-0.05957003387998657, 0.03923905682186674)', '(-0.021791161568617844, 0.03777887231136873)', '(0.014493050956103502, 0.036284212524721346)', '(0.04927962615450025, 0.03478657519839675)', '(0.08259347204626974, 0.033313845891769486)', '(0.1144836700170469, 0.03189019797077717)', '(0.14501987252118156, 0.03053620250413466)', '(0.17428896273225036, 0.029269090211068792)', '(0.20239207515455582, 0.028103112422305468)', '(0.22944203158578722, 0.027049956431231408)', '(0.25556121192470244, 0.02611918033891524)', '(0.2808798538748772, 0.025318641950174737)', '(0.3055347583962532, 0.02465490452137603)', '(0.32966836716069, 0.024133608764436782)', '(0.35342817255038045, 0.023759805389690494)', '(0.3769664182862112, 0.02353824573583072)', '(0.40044004817585926, 0.023473629889648056)', '(0.42401086053355713, 0.023570812357697864)', '(0.447845825536728, 0.023834965003170887)', '(0.4721175212776017, 0.024271695740873702)', '(0.4950046407514014, 0.02288711947379967)', '(0.5166775671338432, 0.02167292638244177)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164]</t>
-  </si>
-  <si>
-    <t>['[0,1,1]', '[0,0,0]', '[1,0,2]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 32, 34, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 80, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 137, 138, 139, 140, 141, 142, 143, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 1, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41440301904140486, -0.0026595084782366865)', '(-0.41786692637560213, -0.0034639073341972576)', '(-0.4221105918137971, -0.004243665438194996)', '(-0.42710371324230745, -0.004993121428510337)', '(-0.43281048184805326, -0.005706768605745795)', '(-0.439189775184844, -0.006379293336790716)', '(-0.446195391889736, -0.007005616704892042)', '(-0.45377633088176245, -0.007580938992026451)', '(-0.46187711714035984, -0.008100786258597375)', '(-0.47043817512720587, -0.008561057986846043)', '(-0.4793962496277101, -0.00895807450050425)', '(-0.4886848723128664, -0.009288622685156272)', '(-0.49823487074229456, -0.009549998429428155)', '(-0.507974914941633, -0.009740044199338539)', '(-0.5168320951946525, -0.008857180253019365)', '(-0.5247400220651551, -0.007907926870502721)', '(-0.5316393896038786, -0.0068993675387233905)', '(-0.5374784583855623, -0.0058390687816837735)', '(-0.5422134596246561, -0.004735001239093737)', '(-0.5458089232859565, -0.003595463661300475)', '(-0.5482379340678993, -0.0024290107819427524)', '(-0.5494823193944361, -0.0012443853265368498)', '(-0.5495327731686307, -5.045377419449367e-05)', '(-0.5483889181296404, 0.0011438550389903015)', '(-0.5460593083658972, 0.0023296097637432083)', '(-0.5425613720488411, 0.0034979363170561115)', '(-0.5379212929549256, 0.0046400790939155325)', '(-0.5321738280307624, 0.005747464924163272)', '(-0.5253620573066585, 0.006811770724103864)', '(-0.517537062031418, 0.007824995275240445)', '(-0.5107575271022148, 0.006779534929203268)', '(-0.5030742777167163, 0.007683249385498525)', '(-0.4965448648157308, 0.006529412900985542)', '(-0.48921813355616484, 0.007326731259565943)', '(-0.4811488001674082, 0.008069333388756667)', '(-0.4723969817246233, 0.008751818442784859)', '(-0.4630276684082554, 0.009369313316367908)', '(-0.45311014246802156, 0.009917525940233795)', '(-0.44271734995348555, 0.010392792514536037)', '(-0.4339252331364611, 0.008792116817024473)', '(-0.4267975848646784, 0.007127648271782719)', '(-0.42138578389888953, 0.005411800965788851)', '(-0.41772862318955706, 0.003657160709332496)', '(-0.41485220604539236, 0.002876417144164695)', '(-0.41277699727872225, 0.002075208766670111)', '(-0.4115177243934221, 0.0012592728853001685)', '(-0.4120833089146635, -0.0005655845212414058)', '(-0.41346974531489894, -0.0013864364002354398)', '(-0.4156672047362434, -0.0021974594213444655)', '(-0.41866008006435673, -0.0029928753281133346)', '(-0.4224270593969599, -0.003766979332603169)', '(-0.42694123003883794, -0.004514170641878046)', '(-0.43217021569137204, -0.005228985652534126)', '(-0.4380763498136557, -0.005906134122283628)', '(-0.44461688817339073, -0.006540538359735046)', '(-0.45174426335327295, -0.007127375179882229)', '(-0.45940638342436096, -0.007662120071088031)', '(-0.46754697615357205, -0.008140592729211077)', '(-0.4761059790102058, -0.008559002856633729)', '(-0.4850199739287285, -0.008913994918522692)', '(-0.4942226643425242, -0.009202690413795738)', '(-0.5036453905107159, -0.009422726168191675)', '(-0.5122176777109109, -0.008572287200194985)', '(-0.5198753065616281, -0.007657628850717165)', '(-0.5265608608493652, -0.0066855542877370675)', '(-0.5322241997900964, -0.005663338940731247)', '(-0.5368228552684279, -0.00459865547833147)', '(-0.5403223561636875, -0.003499500895259608)', '(-0.54269648281681, -0.0023741266531225056)', '(-0.5439274550132565, -0.0012309721964464206)', '(-0.5440060566070085, -7.860159375208176e-05)', '(-0.5429316991863, 0.001074357420708509)', '(-0.5407124261165078, 0.0022192730697922344)', '(-0.5373648570475941, 0.0033475690689138025)', '(-0.5329140717136469, 0.004450785333947166)', '(-0.5273934307522192, 0.005520640961427706)', '(-0.520844330491842, 0.00654910026037724)', '(-0.5133158883346628, 0.007528442157179233)', '(-0.5068645556005351, 0.0064513327341276525)', '(-0.4995386768038175, 0.007325878796717615)', '(-0.4913930920976229, 0.008145584706194652)', '(-0.4824886743988337, 0.008904417698789184)', '(-0.4728918014287718, 0.009596872970061919)', '(-0.4626737657127769, 0.010218035715994868)', '(-0.4519101276868134, 0.010763638025963538)', '(-0.44068001929412176, 0.011230108392691621)', '(-0.43106540765571716, 0.009614611638404625)', '(-0.4231359170715009, 0.007929490584216256)', '(-0.4169485426829158, 0.006187374388585097)', '(-0.41254746769867456, 0.00440107498424127)', '(-0.4089639556073105, 0.003583512091364017)', '(-0.4062233572376317, 0.0027405983696788083)', '(-0.40434499481005687, 0.0018783624275748318)', '(-0.40434207788180365, 2.9169282532110017e-06)', '(-0.406214626944619, -0.0018725490628153645)', '(-0.4089494734088577, -0.002734846464238685)', '(-0.4125273358504789, -0.0035778624416212238)', '(-0.4169229038703207, -0.004395568019841803)', '(-0.4221049538246796, -0.0051820499543588985)', '(-0.42803650010938044, -0.00593154628470085)', '(-0.43467498597708665, -0.006638485867706237)', '(-0.4419725178226919, -0.0072975318456052676)', '(-0.4498761464595125, -0.007903628636820603)', '(-0.45832819812719355, -0.008452051667681038)', '(-0.4672666568429497, -0.008938458715756156)', '(-0.47662559827882767, -0.009358941435877977)', '(-0.48633567369164465, -0.009710075412816979)', '(-0.496324640643176, -0.009988966951531366)', '(-0.5065179354360532, -0.01019329479287721)', '(-0.5168392804740071, -0.01032134503795395)', '(-0.5272113182509408, -0.010372037776933705)', '(-0.5365562624883619, -0.009344944237421068)', '(-0.5448040500468163, -0.008247787558454492)', '(-0.5518929052966687, -0.007088855249852373)', '(-0.5577698093067104, -0.005876904010041678)', '(-0.5623908792046409, -0.004621069897930576)', '(-0.5657216646043893, -0.003330785399748415)', '(-0.5677373684931113, -0.002015703888721969)', '(-0.5684229994915694, -0.0006856309984581233)', '(-0.5677734610850675, 0.0006495384065018722)', '(-0.5657935814655018, 0.001979879619565703)', '(-0.5624980852667228, 0.00329549619877902)', '(-0.5579115059779538, 0.004586579288769015)', '(-0.5520680354543521, 0.005843470523601659)', '(-0.5450113049730411, 0.007056730481311091)', '(-0.5367940909462731, 0.008217214026768048)', '(-0.5274779378994713, 0.009316153046801749)', '(-0.5171326917921053, 0.01034524610736596)', '(-0.5058359382719222, 0.011296753520183073)', '(-0.49367234298999285, 0.012163595281929337)', '(-0.48073289455325446, 0.012939448436738402)', '(-0.4671140548464594, 0.013618839706795074)', '(-0.4529168260259757, 0.014197228820483705)', '(-0.4382457481192129, 0.014671077906762801)', '(-0.42320784546789564, 0.015037902651317277)', '(-0.4099115438481398, 0.013296301619755823)', '(-0.3984514617837609, 0.01146008206437893)', '(-0.388908089027346, 0.009543372756414856)', '(-0.3813476305677096, 0.007560458459636458)', '(-0.37482196609397833, 0.006525664473731254)', '(-0.3693754475151176, 0.005446518578860728)', '(-0.3650447763556741, 0.00433067115944346)', '(-0.3608589228379428, 0.004185853517731305)', '(-0.35684570482229716, 0.004013218015645647)', '(-0.3530316193134365, 0.003814085508860667)', '(-0.3494416875223976, 0.0035899317910388913)', '(-0.3460993138035999, 0.003342373718797739)', '(-0.34302615854926627, 0.0030731552543336125)', '(-0.3402420249153324, 0.0027841336339338805)', '(-0.3377647590794865, 0.0024772658358458823)', '(-0.3356101635976559, 0.0021545954818306197)', '(-0.3337919233326524, 0.0018182402650035088)', '(-0.332321543378578, 0.001470379954074413)', '(-0.3312082983959717, 0.001113244982606275)', '(-0.33245919280291564, -0.0012508944069439482)', '(-0.335066355052769, -0.0026071622498533573)', '(-0.3390133177047568, -0.003946962651987789)', '(-0.3442749951928258, -0.005261677488069016)', '(-0.3508176600225063, -0.006542664829680543)', '(-0.358598929305121, -0.00778126928261471)', '(-0.367567776701484, -0.008968847396363007)', '(-0.3776645871959382, -0.010096810494454184)', '(-0.3888212734541714, -0.011156686258233158)', '(-0.4009614726566575, -0.012140199202486112)', '(-0.4140008415104764, -0.013039368853818891)', '(-0.4278474645613227, -0.013846623050846312)', '(-0.4424023869833398, -0.014554922422017075)', '(-0.45756027785778425, -0.01515789087444446)', '(-0.4732102238247421, -0.015649945966957825)', '(-0.48923664628408947, -0.01602642245934737)', '(-0.5055203285062722, -0.01628368222218265)', '(-0.5219395326198576, -0.016419204113585474)', '(-0.538371181004391, -0.01643164838453339)', '(-0.5546920726113618, -0.016320891606970783)', '(-0.5707801025274739, -0.016088029916112117)', '(-0.5865154528881268, -0.015735350360652885)', '(-0.6017817250643803, -0.015266272176253532)', '(-0.6164669867145631, -0.014685261650182763)', '(-0.6304647124766162, -0.01399772576205306)', '(-0.6436746033201672, -0.01320989084355104)', '(-0.6560032763513919, -0.0123286730312247)', '(-0.6673648236340686, -0.011361547282676729)', '(-0.6776812448682984, -0.010316421234229833)', '(-0.6868827641537881, -0.009201519285489755)', '(-0.6949080452706322, -0.008025281116844078)', '(-0.7017043227722312, -0.006796277501598902)', '(-0.7072274676524035, -0.005523144880172336)', '(-0.7114420064693268, -0.004214538816923223)', '(-0.7143211117040784, -0.002879105234751656)', '(-0.7158465789721143, -0.001525467268035878)', '(-0.7160088036906267, -0.00016222471851236558)', '(-0.7148067661432097, 0.0012020375474170112)', '(-0.7122480297863603, 0.002558736356849496)', '(-0.7083487533173125, 0.0038992764690477843)', '(-0.7031337126735302, 0.005215040643782282)', '(-0.6966363249644444, 0.006497387709085809)', '(-0.688898662552045, 0.007737662412399399)', '(-0.6799714423088239, 0.008927220243221068)']</t>
-  </si>
-  <si>
-    <t>['[1,0,2]', '[1,1,2]', '[0,0,0]']</t>
+    <t>['[1,1,2]', '[1,1,1]', '[2,1,0]', '[0,1,1]', '[2,0,1]', '[1,0,2]', '[0,0,0]', '[1,2,0]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 32, 34, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 1, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41440301904140486, -0.0026595084782366865)', '(-0.41786692637560213, -0.0034639073341972576)', '(-0.4221105918137971, -0.004243665438194996)', '(-0.42710371324230745, -0.004993121428510337)', '(-0.43281048184805326, -0.005706768605745795)', '(-0.439189775184844, -0.006379293336790716)', '(-0.446195391889736, -0.007005616704892042)', '(-0.45377633088176245, -0.007580938992026451)', '(-0.46187711714035984, -0.008100786258597375)', '(-0.47043817512720587, -0.008561057986846043)', '(-0.4793962496277101, -0.00895807450050425)', '(-0.4886848723128664, -0.009288622685156272)', '(-0.49823487074229456, -0.009549998429428155)', '(-0.507974914941633, -0.009740044199338539)', '(-0.5168320951946525, -0.008857180253019365)', '(-0.5247400220651551, -0.007907926870502721)', '(-0.5316393896038786, -0.0068993675387233905)', '(-0.5374784583855623, -0.0058390687816837735)', '(-0.5422134596246561, -0.004735001239093737)', '(-0.5458089232859565, -0.003595463661300475)', '(-0.5482379340678993, -0.0024290107819427524)', '(-0.5494823193944361, -0.0012443853265368498)', '(-0.5495327731686307, -5.045377419449367e-05)', '(-0.5483889181296404, 0.0011438550389903015)', '(-0.5460593083658972, 0.0023296097637432083)', '(-0.5425613720488411, 0.0034979363170561115)', '(-0.5379212929549256, 0.0046400790939155325)', '(-0.5321738280307624, 0.005747464924163272)', '(-0.5253620573066585, 0.006811770724103864)', '(-0.517537062031418, 0.007824995275240445)', '(-0.5107575271022148, 0.006779534929203268)', '(-0.5030742777167163, 0.007683249385498525)', '(-0.4965448648157308, 0.006529412900985542)', '(-0.48921813355616484, 0.007326731259565943)', '(-0.4811488001674082, 0.008069333388756667)', '(-0.4723969817246233, 0.008751818442784859)', '(-0.4630276684082554, 0.009369313316367908)', '(-0.45311014246802156, 0.009917525940233795)', '(-0.44271734995348555, 0.010392792514536037)', '(-0.4339252331364611, 0.008792116817024473)', '(-0.4267975848646784, 0.007127648271782719)', '(-0.42138578389888953, 0.005411800965788851)', '(-0.41772862318955706, 0.003657160709332496)', '(-0.41485220604539236, 0.002876417144164695)', '(-0.41277699727872225, 0.002075208766670111)', '(-0.4115177243934221, 0.0012592728853001685)', '(-0.4120833089146635, -0.0005655845212414058)', '(-0.41346974531489894, -0.0013864364002354398)']</t>
   </si>
   <si>
     <t>[1,2,0]</t>
   </si>
   <si>
-    <t>[26, 36, 41, 47, 53, 57, 71, 72, 76, 98, 105, 110, 111, 113, 118, 125, 126, 128, 129, 133, 135, 140, 142, 143, 145, 150, 153, 160, 170, 173, 187, 188]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9238233863603327, -0.005553579159635174)', '(-0.9260462579132012, -0.0022228715528684433)', '(-0.9249324431387295, 0.0011138147744717362)', '(-0.9204849248232989, 0.004447518315430601)', '(-0.9127158727964645, 0.007769052026834446)', '(-0.9036475358419653, 0.009068336954499134)', '(-0.8913074624564075, 0.012340073385557815)', '(-0.8757358366404628, 0.015571625815944606)', '(-0.8569877223346605, 0.018748114305802366)', '(-0.8351357052357439, 0.02185201709891664)', '(-0.8102727683956779, 0.024862936840066005)', '(-0.784515189300015, 0.0257575790956629)', '(-0.7559945321252193, 0.028520657174795686)', '(-0.7248687153333208, 0.031125816791898523)', '(-0.691323441672784, 0.03354527366053678)', '(-0.6555726466010177, 0.035750795071766345)', '(-0.6178577048519871, 0.03771494174903052)', '(-0.5804452050362389, 0.03741249981574824)', '(-0.5416084206235244, 0.03883678441271448)', '(-0.5016366295790547, 0.039971791044469726)', '(-0.4608294354828747, 0.040807194096180055)', '(-0.42149023412232334, 0.03933920136055136)', '(-0.38190492614629745, 0.0395853079760259)', '(-0.3423506058554797, 0.03955432029081771)', '(-0.30308964575912317, 0.039260960096356566)', '(-0.2643644925682212, 0.03872515319090198)', '(-0.22639345060079044, 0.037971041967430764)', '(-0.1893676282497756, 0.03702582235101484)', '(-0.15344911390805516, 0.03591851434172044)', '(-0.11877034517077226, 0.0346787687372829)', '(-0.08543455138303295, 0.03333579378773931)', '(-0.053517091677117525, 0.031917459705915426)', '(-0.023067480234250835, 0.03044961144286669)', '(0.00588811504225575, 0.028955595276506586)', '(0.033344100344981496, 0.027455985302725746)', '(0.05731258329761656, 0.02396848295263506)', '(0.07781792854109437, 0.020505345243477816)', '(0.09689109077500281, 0.019073162233908435)', '(0.1145691251723514, 0.017678034397348597)', '(0.13089338000075304, 0.01632425482840164)', '(0.14390791787660726, 0.013014537875854224)', '(0.15365184120982353, 0.009743923333216279)', '(0.16015669482897907, 0.006504853619155541)', '(0.16344460407424297, 0.003287909245263905)', '(0.16352707404755737, 8.246997331441642e-05)', '(0.16040439609236198, -0.0031226779551953984)', '(0.15406563302445805, -0.00633876306790394)', '(0.14548918238958497, -0.008576450634873094)', '(0.13464710518891315, -0.010842077200671825)', '(0.12150623042937862, -0.013140874759534535)', '(0.10702961703043282, -0.014476613398945811)', '(0.09118077278323157, -0.01584884424720125)', '(0.07392487852608612, -0.01725589425714546)', '(0.055230212682018956, -0.01869466584406716)', '(0.0350697851349641, -0.02016042754705485)', '(0.013423181090391142, -0.02164660404457296)', '(-0.009721396182950395, -0.023144577273341536)', '(-0.03436491034428048, -0.024643514161330083)', '(-0.060495150614224946, -0.02613024026994447)', '(-0.08808433255321388, -0.027589181938988933)', '(-0.11708673418828426, -0.02900240163507038)', '(-0.1474364854392336, -0.03034975125094933)', '(-0.1790456505969839, -0.031609165157750294)', '(-0.21280275865510168, -0.033757108058117755)', '(-0.24956747999254816, -0.03676472133744648)', '(-0.28916363312967475, -0.03959615313712657)', '(-0.3313766420009294, -0.04221300887125466)', '(-0.3759527320363565, -0.044576090035427056)', '(-0.4226003118252395, -0.04664757978888301)', '(-0.4699938428222508, -0.04739353099701133)', '(-0.5187876801812118, -0.04879383735896096)', '(-0.5666175995030062, -0.0478299193217944)', '(-0.6131257725288969, -0.0465081730258907)', '(-0.6579705366327181, -0.0448447641038212)', '(-0.7028345862021135, -0.04486404956939533)', '(-0.7474182150549524, -0.04458362885283893)', '(-0.7894465229381851, -0.04202830788323259)', '(-0.8306857251014286, -0.041239202163243525)', '(-0.8689340151774819, -0.038248290076053335)', '(-0.9040313668359842, -0.03509735165850225)', '(-0.9358557818095714, -0.031824414973587234)', '(-0.9643183710091526, -0.02846258919958126)', '(-0.9913578387083046, -0.027039467699151987)', '(-1.014932302778324, -0.023574464070019265)', '(-1.035018469477202, -0.020086166698877975)', '(-1.0516063047033029, -0.01658783522610075)', '(-1.064694358593675, -0.013088053890372256)', '(-1.0742858557488792, -0.009591497155204246)', '(-1.0803856033448402, -0.006099747595961087)', '(-1.0849977319844948, -0.004612128639654594)', '(-1.0881259180090999, -0.0031281860246050817)', '(-1.087772925595542, 0.00035299241355791697)', '(-1.08593843188473, 0.0018344937108119045)', '(-1.0826208038045897, 0.0033176280801403735)', '(-1.0758172790210516, 0.0068035247835379975)', '(-1.0665229633273643, 0.00929431569368735)', '(-1.0547328480119207, 0.011790115315443682)', '(-1.039443371452128, 0.015289476559792552)', '(-1.0216545712939966, 0.01778880015813155)', '(-1.000373107537869, 0.021281463756127498)', '(-0.9766162691937131, 0.023756838344155845)', '(-0.9504152660849348, 0.02620100310877832)', '(-0.921818901391613, 0.02859636469332171)', '(-0.8898973093118363, 0.03192159207977676)', '(-0.8567489525680025, 0.03314835674383376)', '(-0.820497660878221, 0.03625129168978159)', '(-0.7833025940822208, 0.03719506679600016)', '(-0.7453509086279418, 0.037951685454278954)', '(-0.7048560709806885, 0.040494837647253354)', '(-0.6640678145680821, 0.04078825641260646)', '(-0.6212569459758632, 0.04281086859221881)', '(-0.5767240742262292, 0.044532871749634044)', '(-0.5307944473690567, 0.045929626857172445)', '(-0.4838108571649778, 0.046983590204078905)', '(-0.43812496824557046, 0.045685888919407315)', '(-0.39207313085441614, 0.04605183739115432)', '(-0.3459823376285914, 0.04609079322582475)', '(-0.30216151863766105, 0.04382081899093032)', '(-0.2588819931657005, 0.04327952547196056)', '(-0.21638563856496573, 0.04249635460073475)', '(-0.17488076831104177, 0.04150487025392397)', '(-0.1345396559763205, 0.04034111233472128)', '(-0.09549765782424616, 0.03904199815207434)', '(-0.0578537617288435, 0.037643896095402654)', '(-0.023672305662522118, 0.034181456066321385)', '(0.009015452007793849, 0.03268775767031597)', '(0.040204124004089264, 0.031188671996295412)', '(0.06991095814713012, 0.02970683414304086)', '(0.09817257587817982, 0.028261617731049703)', '(0.12504183799212668, 0.026869262113946857)', '(0.1505849460004201, 0.02554310800829342)', '(0.1748788479530823, 0.024293901952662195)', '(0.19800898477222326, 0.023130136819140945)', '(0.22006738782305252, 0.02205840305082925)', '(0.2391511202100695, 0.019083732387017008)', '(0.2573511463360298, 0.01820002612596027)', '(0.2747599732475229, 0.017408826911493088)', '(0.28947108585148323, 0.01471111260396035)', '(0.3035671021350899, 0.014096016283606697)', '(0.3171301386322589, 0.01356303649716899)', '(0.3302417962751565, 0.01311165764289755)', '(0.34298324573711697, 0.012741449461960479)', '(0.3554353978238385, 0.012452152086721518)', '(0.3676791470226693, 0.012243749198830787)', '(0.3797956786132395, 0.01211653159057018)', '(0.39186683174070697, 0.012071153127467496)', '(0.4039755125349313, 0.012108680794224351)', '(0.4162061527096561, 0.01223064017472478)', '(0.4286452100767719, 0.012439057367115794)', '(0.441381708032881, 0.0127364979561091)', '(0.45450781127207474, 0.013126103239193734)', '(0.46611943467874817, 0.011611623406673453)', '(0.47630209628048914, 0.010182661601740988)', '(0.48713122185697016, 0.010829125576481023)', '(0.4976873860515304, 0.010556164194560217)', '(0.5080494104806016, 0.010362024429071155)']</t>
-  </si>
-  <si>
-    <t>['[0,0,0]', '[1,2,0]', '[1,1,1]']</t>
-  </si>
-  <si>
-    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 76, 84, 86, 98, 103, 105, 106, 108, 110, 111, 113, 118, 122, 123, 125, 126, 128, 129, 130, 133, 135, 136, 137, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 160, 165, 166, 168, 170, 172, 173, 174, 175, 177, 178, 179, 184, 187, 188, 189, 190, 192]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8626674595669251, 0.0027255598050831852)', '(-0.8568152936600616, 0.005852165906863528)', '(-0.8478599237870518, 0.008955369873009832)', '(-0.8378384139245675, 0.010021509862484264)', '(-0.8267940073196065, 0.011044406604961001)', '(-0.8127764772293792, 0.014017530090227315)', '(-0.7978521074054098, 0.01492436982396934)', '(-0.7800951726565215, 0.017756934748888245)', '(-0.761598816825839, 0.018496355830682487)', '(-0.7404653057720414, 0.021133511053797596)', '(-0.7168176356651882, 0.023647670106853192)', '(-0.6908006239417201, 0.026017011723468052)', '(-0.6645815274222663, 0.026219096519453883)', '(-0.6383363041616731, 0.026245223260593184)', '(-0.6102474420105756, 0.028088862151097543)', '(-0.5805160089451755, 0.029731433065400062)', '(-0.5513597679665053, 0.02915624097867022)', '(-0.5209955601513028, 0.030364207815202566)', '(-0.4896508762534888, 0.031344683897814)', '(-0.4575603616885582, 0.03209051456493063)', '(-0.42496190159970854, 0.032598460088849625)', '(-0.39209246904719436, 0.03286943255251418)', '(-0.3591839467666515, 0.03290852228054287)', '(-0.32645913979392766, 0.03272480697272383)', '(-0.2941281815470697, 0.032330958246857944)', '(-0.2623855019833119, 0.03174267956375782)', '(-0.23140747830150346, 0.030978023681808436)', '(-0.20335083314699962, 0.028056645154503845)', '(-0.17634323284623207, 0.02700760030076755)', '(-0.15249387550550855, 0.02384935734072353)', '(-0.13188743736981387, 0.020606438135694682)', '(-0.11458785298116642, 0.017299584388647447)', '(-0.10064200082603213, 0.01394585215513429)', '(-0.09008306253320843, 0.010558938292823698)', '(-0.082933385241079, 0.007149677292129426)', '(-0.07820672937501999, 0.004726655866059008)', '(-0.07691158027824943, 0.0012951490967705536)', '(-0.07905017775100509, -0.002138597472755659)', '(-0.08361880361450452, -0.004568625863499433)', '(-0.09060917994546344, -0.006990376330958923)', '(-0.1000077608385759, -0.009398580893112464)', '(-0.1117946657527204, -0.011786904914144502)', '(-0.12594228065073354, -0.014147614898013148)', '(-0.141413566825954, -0.015471286175220462)', '(-0.1591632318643577, -0.01774966503840372)', '(-0.1781332752355278, -0.01897004337117008)', '(-0.19925475477620702, -0.021121479540679215)', '(-0.22244272417301722, -0.0231879693968102)', '(-0.2475943886538647, -0.025151664480847494)', '(-0.2745875257494542, -0.026993137095589488)', '(-0.3042793263250975, -0.029691800575643322)', '(-0.33649988361546984, -0.03222055729037231)', '(-0.3710511518217869, -0.03455126820631704)', '(-0.4077070069395779, -0.03665585511779102)', '(-0.4462146448792352, -0.03850763793965728)', '(-0.4862974645832508, -0.040082819704015615)', '(-0.5276594606037244, -0.04136199602047361)', '(-0.5689910022399213, -0.04133154163619691)', '(-0.6109831533979506, -0.041992151158029366)', '(-0.6513274027536989, -0.04034424935574837)', '(-0.6897369591157757, -0.03840955636207681)', '(-0.7259514315432393, -0.036214472427463576)', '(-0.7617397700869379, -0.03578833854369871)', '(-0.794890154614904, -0.03315038452796599)', '(-0.8272231567835469, -0.03233300216864293)', '(-0.858581060635147, -0.03135790385160016)', '(-0.8868286307988108, -0.028247570163663797)', '(-0.9138599927115665, -0.027031361912755732)', '(-0.9375887144796368, -0.023728721768070275)', '(-0.9599513813645609, -0.02236266688492419)', '(-0.9808991942970767, -0.02094781293251575)', '(-0.9983962934918544, -0.017497099194777765)', '(-1.0144201374456288, -0.016023843953774323)', '(-1.0269560582006703, -0.012535920755041412)', '(-1.0359965868674277, -0.009040528666757319)', '(-1.0415385268444, -0.005541939976972303)', '(-1.043580827088981, -0.002042300244581081)', '(-1.0441232744899178, -0.0005424474009366863)', '(-1.0411658282158451, 0.0029574462740727106)', '(-1.0347087912245283, 0.006457036991316879)', '(-1.0247535086806308, 0.009955282543897557)', '(-1.0133038910152998, 0.01144961766533102)', '(-1.0003671859961265, 0.01293670501917336)', '(-0.9839551126074583, 0.01641207338866828)', '(-0.9660878999751645, 0.01786721263229374)', '(-0.946794334110025, 0.019293565865139563)', '(-0.9241133224602064, 0.022681011649818575)', '(-0.9001008174967926, 0.024012504963413738)', '(-0.8748278091264462, 0.025273008370346416)', '(-0.8483816709566961, 0.0264461381697501)', '(-0.818867192246781, 0.029514478709915182)', '(-0.7864166518056217, 0.032450540441159276)', '(-0.7531929513212634, 0.0332237004843583)', '(-0.7173802564878197, 0.03581269483344371)', '(-0.6811946916112595, 0.036185564876560175)', '(-0.644870701759459, 0.03632398985180041)', '(-0.608657104820186, 0.03621359693927303)', '(-0.570812471046131, 0.03784463377405505)', '(-0.5336149173821833, 0.03719755366394777)', '(-0.4973422539589125, 0.03627266342327074)', '(-0.46026631087063014, 0.03707594308828238)', '(-0.4246625086224791, 0.035603802248151045)', '(-0.3907898814697452, 0.033872627152733904)', '(-0.3568871761656406, 0.0339027053041046)', '(-0.3251833304387455, 0.0317038457268951)', '(-0.29588126656146885, 0.029302063877276647)', '(-0.2671573057202674, 0.028723960841201445)', '(-0.23917247004473208, 0.02798483567553532)', '(-0.2120712353501483, 0.027101234694583778)', '(-0.1879808785569237, 0.02409035679322461)', '(-0.16500340740812378, 0.022977471148799927)', '(-0.14322584589409912, 0.02177756151402466)', '(-0.12472103469892365, 0.01850481119517547)', '(-0.10954325807373388, 0.015177776625189768)', '(-0.09773169511703023, 0.011811562956703658)', '(-0.08831344552071602, 0.009418249596314217)', '(-0.08130796623832913, 0.0070054792823868875)', '(-0.07772848140191353, 0.0035794848364155926)', '(-0.07758133468208091, 0.0001471467198326231)', '(-0.07986678085951526, -0.0022854461774343532)', '(-0.08458080927918527, -0.0047140284196700065)', '(-0.09171478706694339, -0.007133977787758121)', '(-0.10125472982159633, -0.00953994275465294)', '(-0.11318021590017978, -0.011925486078583443)', '(-0.12646297136407028, -0.013282755463890496)', '(-0.14106795464406183, -0.014604983279991554)', '(-0.15795238254212995, -0.016884427898068117)', '(-0.17606134746790209, -0.018108964925772138)', '(-0.1963296215798778, -0.020268274111975716)', '(-0.21767665271804726, -0.02134703113816948)', '(-0.2410093000001938, -0.02333264728214653)', '(-0.2652164616198432, -0.024207161619649382)', '(-0.29117317585499636, -0.025956714235153194)', '(-0.31873522129584475, -0.027562045440848365)', '(-0.347738827082418, -0.02900360578657326)', '(-0.3790010422099389, -0.0312622151275209)', '(-0.41131404654783765, -0.03231300433789873)', '(-0.4444533501786778, -0.03313930363084019)', '(-0.4781806828239108, -0.03372733264523297)', '(-0.5132475981463236, -0.03506691532241276)', '(-0.5493921348228943, -0.03614453667657065)', '(-0.5863434143003529, -0.036951279477458576)', '(-0.6238268830291004, -0.0374834687287475)', '(-0.6605699170191704, -0.0367430339900701)', '(-0.695314333804264, -0.03474441678509353)', '(-0.7278270943553823, -0.032512760551118305)', '(-0.7599021896273872, -0.03207509527200494)', '(-0.7913497675161916, -0.03144757788880442)', '(-0.8219982987513434, -0.03064853123515189)', '(-0.8516959967996933, -0.029697698048349822)', '(-0.8783114941771696, -0.026615497377476302)', '(-0.9037410639642984, -0.025429569787128826)', '(-0.925898604576811, -0.022157540612512475)', '(-0.9447198527770183, -0.01882124820020732)', '(-0.9601583172571635, -0.01543846448014523)', '(-0.9721815266494107, -0.012023209392247207)', '(-0.9807677775906398, -0.008586250941229074)', '(-0.9859035097306482, -0.005135732140008384)', '(-0.9875813887062359, -0.0016778789755876578)']</t>
-  </si>
-  <si>
-    <t>['[1,2,0]', '[1,1,2]', '[0,0,0]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 62, 65, 66, 67, 68, 69, 70, 71, 72, 75, 76, 83, 84, 86, 90, 92, 93, 98, 100, 103, 105, 106, 108, 110, 111, 113, 114, 116, 118, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 143, 145, 146, 150, 153, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 168, 169, 170, 172, 173, 174, 175, 177, 178, 179, 184, 185, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41688812962687327, -0.0034780326196833782)', '(-0.42115289174160425, -0.004264762114730997)', '(-0.42617395914261486, -0.00502106740101063)', '(-0.4319153539455495, -0.005741394802934639)', '(-0.4393357370306727, -0.007420383085123208)', '(-0.44738138362155394, -0.008045646590881266)', '(-0.4559936926770704, -0.008612309055516451)', '(-0.4651095709102948, -0.009115878233224382)', '(-0.47566187061981946, -0.010552299709524673)', '(-0.4865724591373637, -0.010910588517544246)', '(-0.4977601743175313, -0.011187715180167567)', '(-0.5101414849951025, -0.012381310677571153)', '(-0.5236236979370857, -0.013482212941983254)', '(-0.5371057239615282, -0.013482026024442526)', '(-0.5514864755929504, -0.014380751631422203)', '(-0.5666583133894763, -0.015171837796525913)', '(-0.5825081020777473, -0.01584978868827105)', '(-0.5989183671059618, -0.01641026502821452)', '(-0.6147685299661801, -0.015850162860218328)', '(-0.630943413043882, -0.01617488307770189)', '(-0.647327054695926, -0.016383641652044006)', '(-0.6638038967627455, -0.016476842066819552)', '(-0.6792599331860142, -0.015456036423268621)', '(-0.6935904826369591, -0.014330549450944896)', '(-0.7067006432533479, -0.013110160616388785)', '(-0.7195055660885832, -0.012804922835235223)', '(-0.7319243255666845, -0.012418759478101378)', '(-0.7438803892029979, -0.011956063636313368)', '(-0.754301992712396, -0.010421603509398058)', '(-0.7641281891600165, -0.009826196447620535)', '(-0.7723029408869763, -0.008174751726959811)', '(-0.7797807196814492, -0.007477778794472976)', '(-0.7855207721248553, -0.005740052443406065)', '(-0.7894924075039262, -0.003971635379070979)', '(-0.7926746968135555, -0.0031822893096292836)', '(-0.7940510537706393, -0.0013763569570838523)', '(-0.7946143556210978, -0.0005633018504584962)', '(-0.7943616961416005, 0.00025265947949737054)', '(-0.7922943782283864, 0.0020673179132139697)', '(-0.7884231015754104, 0.0038712766529760806)', '(-0.7837680888217157, 0.004655012753694719)', '(-0.7773539749938986, 0.006414113827817123)', '(-0.7692152655554051, 0.008138709438493518)', '(-0.760396661112913, 0.008818604442492049)', '(-0.7499477260338634, 0.010448935079049666)', '(-0.7379286619646062, 0.012019064069257242)', '(-0.7244106209908786, 0.013518040973727524)', '(-0.710475952688466, 0.013934668302412639)', '(-0.6962119814859157, 0.014263971202550282)', '(-0.6817104998870089, 0.014501481598906732)', '(-0.6670671504875508, 0.014643349399458092)', '(-0.6523807035564507, 0.014686446931100114)', '(-0.637752241458694, 0.014628462097756648)', '(-0.6212842652816665, 0.01646797617702752)', '(-0.6050940897856131, 0.016190175496053377)', '(-0.5892987703234238, 0.015795319462189206)', '(-0.5720138851342823, 0.017284885189141553)', '(-0.555367161996475, 0.016646723137807348)', '(-0.5374825364901371, 0.01788462550633781)', '(-0.5204938128819439, 0.016988723608193226)', '(-0.5025283761573638, 0.017965436724580026)', '(-0.4837208622120392, 0.018807513945324584)', '(-0.4662117197000502, 0.01750914251198897)', '(-0.45013085710374207, 0.01608086259630816)', '(-0.43559655358050664, 0.014534303523235412)', '(-0.42271462625714595, 0.012881927323360713)', '(-0.40957783179505936, 0.013136794462086597)', '(-0.3962796151458682, 0.013298216649191195)', '(-0.38291324250000064, 0.013366372645867541)', '(-0.3695709634728206, 0.013342279027180064)', '(-0.3573432194717892, 0.012227744001031406)', '(-0.34731133253057467, 0.010031886941214539)', '(-0.33854082414899667, 0.008770508381578019)', '(-0.3310880433952333, 0.007452780753763351)', '(-0.32600015775341146, 0.005087885641821806)', '(-0.32330897719619395, 0.002691180557217492)', '(-0.32103119614582626, 0.0022777810503677148)', '(-0.319180872605901, 0.0018503235399252714)', '(-0.31776937736384003, 0.0014114952420609403)', '(-0.31780535468564425, -3.597732180421476e-05)', '(-0.3192885845610201, -0.0014832298753758607)', '(-0.3222099820242442, -0.002921397463224104)', '(-0.32755157005024654, -0.005341588026002337)', '(-0.3342801977181316, -0.006728627667885086)', '(-0.3433536000173258, -0.009073402299194195)', '(-0.35471391911700834, -0.011360319099682527)', '(-0.36828737525261895, -0.013573456135610595)', '(-0.3829839754249329, -0.014696600172313948)', '(-0.39970418524789403, -0.016720209822961147)', '(-0.41733235693188736, -0.017628171683993322)', '(-0.4357440949793497, -0.018411738047462326)', '(-0.4558071409422245, -0.020063045962874847)', '(-0.47737512646430014, -0.021567985522075627)', '(-0.5002886793429913, -0.022913552878691137)', '(-0.5243769154883233, -0.02408823614533203)', '(-0.5484593155897808, -0.02408240010145745)', '(-0.5733554344491287, -0.02489611885934797)', '(-0.597879762641861, -0.024524328192732335)', '(-0.6228515828947246, -0.02497182025286365)', '(-0.648089958135972, -0.025238375241247422)', '(-0.6724162040588714, -0.02432624592289933)', '(-0.6966630292963494, -0.024246825237478054)', '(-0.7196694059372709, -0.02300637664092157)', '(-0.7412885967737521, -0.021619190836481193)', '(-0.7623887198573064, -0.021100123083554228)', '(-0.7818472150590323, -0.019458495201725982)', '(-0.8005568750038806, -0.01870965994484828)', '(-0.817420232119549, -0.01686335711566837)', '(-0.83235441154289, -0.014934179423341125)', '(-0.8462901344886328, -0.013935722945742753)', '(-0.8581663687827956, -0.011876234294162843)', '(-0.8679339384968394, -0.009767569714043765)', '(-0.8765544022181176, -0.008620463721278213)', '(-0.8829953635103305, -0.0064409612922128046)', '(-0.8882335669360779, -0.0052382034257474775)', '(-0.8912507056923568, -0.0030171387562788195)', '(-0.8930364839485961, -0.0017857782562393904)', '(-0.8915848938966199, 0.0014515900519762718)', '(-0.8889008141750553, 0.0026840797215645956)', '(-0.884993377136079, 0.0039074370389763306)', '(-0.8798761350272638, 0.005117242108815189)', '(-0.8715672950218952, 0.00830884000536863)', '(-0.8620975182224117, 0.009469776799483572)', '(-0.851503385755716, 0.010594132466695619)', '(-0.8378278524747247, 0.013675533280991364)', '(-0.8231294689958024, 0.014698383478922227)', '(-0.8074749581254811, 0.0156545108703213)', '(-0.7909395616992576, 0.016535396426223484)', '(-0.7716072562391124, 0.01933230546014519)', '(-0.7495818130220678, 0.02202544321704453)', '(-0.7269883773340385, 0.022593435688029323)', '(-0.7039624271140309, 0.023025950220007665)', '(-0.6806487983772833, 0.02331362873674761)', '(-0.6572003912652734, 0.02344840711200987)', '(-0.6337765853300664, 0.023423805935207022)', '(-0.6085414103226737, 0.02523517500739272)', '(-0.583676038130069, 0.024865372192604766)', '(-0.5593625219090185, 0.02431351622105044)', '(-0.5357812919084537, 0.02358123000056478)', '(-0.5131087133747935, 0.022672578533660257)', '(-0.49151479732211417, 0.021593916052679307)', '(-0.46916113972866585, 0.022353657593448307)', '(-0.4482139519330278, 0.020947187795638006)', '(-0.4288273430992069, 0.01938660883382092)', '(-0.4091419826225146, 0.0196853604766923)', '(-0.3892982787269964, 0.019843703895518185)', '(-0.3694347977044809, 0.01986348102251551)', '(-0.35168676575610164, 0.01774803194837925)', '(-0.3341716719994871, 0.017515093756614537)', '(-0.3170020389586788, 0.017169633040808298)', '(-0.3022845669281827, 0.014717472030496118)', '(-0.2901076617041721, 0.012176905224010543)', '(-0.28054220559701815, 0.009565456107154004)', '(-0.27264237622576254, 0.007899829371255624)', '(-0.26645188513386553, 0.006190491091897033)', '(-0.2620043160149889, 0.004447569118876641)', '(-0.2593234267190913, 0.0026808892958976177)', '(-0.25742338625526184, 0.0019000404638294618)', '(-0.25731416700027065, 0.0001092192549911671)', '(-0.2589963404268151, -0.0016821734265444245)', '(-0.2624610835323887, -0.003464743105573602)', '(-0.2676900809386783, -0.0052289974062896235)', '(-0.274655330774244, -0.00696524983556566)', '(-0.2833188709367788, -0.008663540162534858)', '(-0.2946324504523367, -0.011313579515557878)', '(-0.3075313861494906, -0.012898935697153918)', '(-0.3219397073561796, -0.014408321206688994)', '(-0.33776988688024545, -0.015830179524065853)', '(-0.3559227041230766, -0.018152817242831115)', '(-0.37528072347723773, -0.019358019354161173)', '(-0.39571478408363153, -0.02043406060639382)', '(-0.4170846183100709, -0.021369834226439368)', '(-0.4392397831010003, -0.02215516479092946)', '(-0.4630209081546293, -0.023781125053629018)', '(-0.48725387045142093, -0.024232962296791637)', '(-0.5117588797466321, -0.02450500929521122)', '(-0.5363526695896795, -0.024593789843047404)', '(-0.5618508285650127, -0.025498158975333193)', '(-0.5880627264040761, -0.026211897839063365)', '(-0.6147941527040128, -0.026731426299936724)', '(-0.6418501141960783, -0.027055961492065506)', '(-0.6680376764169078, -0.02618756222082953)', '(-0.6931755304553838, -0.025137854038476043)', '(-0.7180957127462784, -0.024920182290894547)', '(-0.7416385437241468, -0.023542830977868492)', '(-0.7636602232686615, -0.022021679544514644)', '(-0.784033094685929, -0.020372871417267565)', '(-0.8026454533234012, -0.018612358637472213)', '(-0.8204009840717088, -0.01775553074830761)', '(-0.8362131957744979, -0.015812211702789087)', '(-0.8510096969670614, -0.014796501192563514)', '(-0.8637268506613854, -0.012717153694324069)', '(-0.8743132317321392, -0.010586381070753666)', '(-0.8827283935270017, -0.008415161794862585)', '(-0.8899417450859141, -0.007213351558912321)', '(-0.8949281805034183, -0.004986435417504169)', '(-0.8986709535130094, -0.0037427730095911)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 83, 84, 85, 86, 90, 92, 93, 94, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 120, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 154, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 168, 169, 170, 171, 172, 173, 174, 175, 177, 178, 179, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46195598448582437, -0.008934427180277368)', '(-0.47135010198763444, -0.009394117501810082)', '(-0.4811344818689669, -0.009784379881332466)', '(-0.4912364832135895, -0.010102001344622562)', '(-0.5015808206276465, -0.01034433741405706)', '(-0.5120901726466438, -0.010509352018997255)', '(-0.5236858220405293, -0.011595649393885483)', '(-0.5362808185861054, -0.012594996545576175)', '(-0.5497807227543096, -0.013499904168204135)', '(-0.5640844641668106, -0.014303741412501014)', '(-0.5780853089115225, -0.014000844744711983)', '(-0.5916793220116702, -0.013594013100147673)', '(-0.6057662735618006, -0.014086951550130442)', '(-0.6192431909222812, -0.013476917360480605)', '(-0.6320125778158626, -0.012769386893581395)', '(-0.6439831208450931, -0.011970543029230504)', '(-0.6550702810709481, -0.011087160225854932)', '(-0.665196771987928, -0.010126490916979935)', '(-0.6752929301820363, -0.01009615819410829)', '(-0.6852902474104309, -0.009997317228394566)', '(-0.69412187915975, -0.008831631749319148)', '(-0.7027296452778802, -0.008607766118130196)', '(-0.710057666734382, -0.0073280214565018525)', '(-0.7170590432455791, -0.007001376511197094)', '(-0.722689563695558, -0.005630520449978878)', '(-0.7269141112434762, -0.0042245475479180845)', '(-0.7297066007815012, -0.002792489538025065)', '(-0.7310499156758343, -0.0013433148943331973)', '(-0.7319358582008177, -0.0008859425249834276)', '(-0.7313590347396498, 0.000576823461167958)', '(-0.7293229558214056, 0.0020360789182442014)', '(-0.7258400478211158, 0.0034829080002898843)', '(-0.7219316921374961, 0.003908355683619648)', '(-0.7166220671563864, 0.0053096249811096265)', '(-0.7099443279633955, 0.006677739192990933)', '(-0.7029406643844814, 0.007003663578913999)', '(-0.6946558968365673, 0.00828476754791417)', '(-0.6851437728447124, 0.00951212399185487)', '(-0.674466935316021, 0.010676837528691425)', '(-0.6616968246575448, 0.012770110658476217)', '(-0.6469203542676649, 0.014776470389879844)', '(-0.6322399274923947, 0.014680426775270244)', '(-0.6177590413095438, 0.014480886182850802)', '(-0.6035813076784419, 0.014177733631101929)', '(-0.5898094447364922, 0.013771862941949622)', '(-0.5745442607407768, 0.015265183995715362)', '(-0.5598984714134287, 0.014645789327348026)', '(-0.5459809721466179, 0.013917499266810868)', '(-0.5328957325195298, 0.013085239627088078)', '(-0.5207407747553172, 0.012154957764212625)', '(-0.5076072517348008, 0.013133523020516423)', '(-0.4955936191417497, 0.012013632593051079)', '(-0.48278977821285085, 0.012803840928898838)', '(-0.4712912407617663, 0.011498537451084548)', '(-0.4611834017312309, 0.010107839030535417)', '(-0.45254094735571077, 0.008642454375520123)', '(-0.44542739950796084, 0.007113547847749905)', '(-0.4378947777622678, 0.0075326217456930435)', '(-0.4299978773744282, 0.007896900387839636)', '(-0.421793794470414, 0.008204082904014207)', '(-0.41334143392096967, 0.008452360549444331)', '(-0.4047010066218362, 0.00864042729913345)', '(-0.3959335232963355, 0.008767483325500723)', '(-0.38710029210664565, 0.0088332311896899)', '(-0.3792624272779344, 0.007837864828711232)', '(-0.3724735725238848, 0.006788854754049622)', '(-0.3667797242891496, 0.005693848234735203)', '(-0.3632191106093772, 0.0035606136797723996)', '(-0.35981546982595586, 0.003403640783421395)', '(-0.3565913703810579, 0.003224099444897921)', '(-0.3535680768526515, 0.0030232935284063922)', '(-0.3507654273774888, 0.002802649475162719)', '(-0.35020172262573723, 0.0005637047517515303)', '(-0.3498806329243343, 0.00032108970140295665)', '(-0.34980424732618914, 7.638559814516339e-05)', '(-0.3499730626363202, -0.00016881531013108542)', '(-0.35138598080783034, -0.00141291817151011)', '(-0.355033799132682, -0.0036478183248516913)', '(-0.36089265622734085, -0.005858857094658841)', '(-0.36792392537585605, -0.007031269148515205)', '(-0.3770807731950162, -0.009156847819160152)', '(-0.3873014607891738, -0.010220687594157616)', '(-0.39851613053995694, -0.011214669750783118)', '(-0.4106470583492302, -0.01213092780927327)', '(-0.42460900506549837, -0.013961946716268141)', '(-0.4403025105984921, -0.015693505532993746)', '(-0.4566142566560323, -0.016311746057540145)', '(-0.47342501218734084, -0.016810755531308563)', '(-0.49061065159077766, -0.01718563940343684)', '(-0.5080432982670716, -0.017432646676294013)', '(-0.5255925686829203, -0.017549270415848653)', '(-0.5441268857397987, -0.018534317056878497)', '(-0.5625073392715645, -0.018380453531765734)', '(-0.580596640780473, -0.018089301508908525)', '(-0.5982605384443068, -0.017663897663833843)', '(-0.6153691433264196, -0.017108604882112737)', '(-0.631798132365147, -0.01642898903872745)', '(-0.6474298017261149, -0.015631669360967864)', '(-0.6631539534216271, -0.01572415169551218)', '(-0.6778617511078358, -0.014707797686208677)', '(-0.6914534352896206, -0.01359168418178484)', '(-0.7038387440387716, -0.01238530874915097)', '(-0.7149371694693857, -0.01109842543061417)', '(-0.7246780747122897, -0.00974090524290406)', '(-0.734000700303014, -0.009322625590724255)', '(-0.7418480293235306, -0.007847329020516554)', '(-0.7481729603778575, -0.006324931054326976)', '(-0.7529381426911427, -0.004765182313285124)', '(-0.7561158065004338, -0.00317766380929112)', '(-0.7576876134853103, -0.001571806984876523)', '(-0.757644546579387, 4.306690592337996e-05)', '(-0.7559868523692822, 0.0016576942101047874)', '(-0.7527240427002047, 0.0032628096690775496)', '(-0.7488749553060526, 0.0038490873941520506)', '(-0.7434620080408564, 0.005412947265196245)', '(-0.7365170791145346, 0.006944928926321852)', '(-0.7290816594438303, 0.007435419670704289)', '(-0.7202008869316747, 0.008880772512155528)', '(-0.7099296142007123, 0.010271272730962414)', '(-0.6983325106388742, 0.011597103561838046)', '(-0.6864841030057627, 0.011848407633111523)', '(-0.6724620963916136, 0.014022006614149068)', '(-0.6583603586459557, 0.014101737745657934)', '(-0.6442752177231408, 0.014085140922814834)', '(-0.6303046449335307, 0.013970572789610076)', '(-0.6165473766536085, 0.013757268279922151)', '(-0.6031019928297119, 0.01344538382389654)', '(-0.5900659721781334, 0.013036020651578446)', '(-0.5775347444931482, 0.012531227684985156)', '(-0.5656007599079658, 0.011933984585182451)', '(-0.5543525933870718, 0.011248166520894044)', '(-0.5438741003208979, 0.010478493066173915)', '(-0.5342436360702458, 0.009630464250652022)', '(-0.5235333489351309, 0.010710287135114929)', '(-0.5138235524999866, 0.00970979643514432)', '(-0.5051870597302291, 0.008636492769757396)', '(-0.4956885846243172, 0.009498475105911947)', '(-0.48539919144516785, 0.010289393179149335)', '(-0.4743956684709016, 0.011003522974266293)', '(-0.46475983018115125, 0.009635838289750356)', '(-0.45656299590549965, 0.008196834275651583)', '(-0.4478655478168236, 0.008697448088676066)', '(-0.4387312248756534, 0.009134322941170172)', '(-0.4292265541590304, 0.009504670716623007)', '(-0.42042025741416844, 0.008806296744861948)', '(-0.41137550141072193, 0.009044756003446515)', '(-0.40215660967835015, 0.00921889173237177)', '(-0.39282851814378267, 0.009328091534567491)', '(-0.3834562382404046, 0.009372279903378095)', '(-0.3751043354960839, 0.008351902744320669)', '(-0.3678296679519391, 0.007274667544144809)', '(-0.36168121026023187, 0.0061484576917072275)', '(-0.35769993786509563, 0.003981272395136263)', '(-0.3559121723915009, 0.0017877654735947378)', '(-0.3563296782321218, -0.00041750584062091303)', '(-0.3579497110797326, -0.001620032847610808)', '(-0.36176160447492667, -0.0038118933951940626)', '(-0.3667401499238779, -0.004978545448951206)', '(-0.37285219448269463, -0.00611204455881673)', '(-0.3800566920711131, -0.007204497588418439)', '(-0.38830478956196934, -0.008248097490856234)', '(-0.3975399600949108, -0.009235170532941497)', '(-0.4076981965878396, -0.010158236492928815)', '(-0.4187082780263721, -0.011010081438532502)', '(-0.43049211974235385, -0.011783841715981753)', '(-0.4439652165479551, -0.01347309680560127)', '(-0.4580299000260047, -0.014064683478049555)', '(-0.47258318483938766, -0.014553284813382993)', '(-0.48751759463906524, -0.014934409799677608)', '(-0.5037220851665594, -0.016204490527494113)', '(-0.5200755625424336, -0.016353477375874267)', '(-0.5364554635242249, -0.016379900981791314)', '(-0.5527389632526054, -0.016283499728380457)', '(-0.5688041898417934, -0.01606522658918794)', '(-0.5845314141280938, -0.015727224286300433)', '(-0.599804184462672, -0.015272770334578203)', '(-0.614510379867171, -0.014706195404499058)', '(-0.6285431598493578, -0.014032779982186746)', '(-0.6418017952586499, -0.013258635409292016)', '(-0.6541923712324184, -0.012390575973768504)', '(-0.6656283600127736, -0.011435988780355184)', '(-0.6760310677092695, -0.010402707696495877)', '(-0.6863299645376004, -0.010298896828330939)', '(-0.695456283251403, -0.00912631871380249)', '(-0.7033500193880765, -0.007893736136673574)', '(-0.7099600161060904, -0.006609996718013884)', '(-0.7152439886905441, -0.005283972584453649)', '(-0.7191685093286633, -0.0039245206381192145)', '(-0.7217089710749379, -0.0025404617462746254)']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 0, 2, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37771412782933006, -0.0002188641371377528)', '(-0.3779925312068103, -0.0002784033774802534)', '(-0.37832858222959004, -0.00033605102277970626)', '(-0.37871999663651856, -0.00039141440692850725)', '(-0.3791641124892566, -0.00044411585273800664)', '(-0.37965790767886975, -0.0004937951896131717)', '(-0.3801980198522464, -0.0005401121733766101)', '(-0.3807807686453535, -0.0005827487931071276)', '(-0.3814021800952824, -0.0006214114499288844)', '(-0.3820580130881267, -0.0006558329928443194)', '(-0.3827437876850954, -0.0006857745969687285)', '(-0.38445481515501223, -0.0017110274699167934)', '(-0.38717937810054165, -0.002724562945529401)', '(-0.3908987632742281, -0.003719385173686485)', '(-0.3955873175945497, -0.004688554320321563)', '(-0.4012125319677255, -0.005625214373175812)', '(-0.4077351587984459, -0.006522626830720411)', '(-0.41510936994206515, -0.00737421114361923)', '(-0.4232829622281612, -0.008173592286096041)', '(-0.43219761750925445, -0.00891465528109326)', '(-0.4417892234264962, -0.009591605917241739)', '(-0.45198825973917944, -0.01019903631268324)', '(-0.4627202531799479, -0.010731993440768481)', '(-0.4739063014578568, -0.011186048277908853)', '(-0.4854636643632131, -0.011557362905356295)', '(-0.4973064170929295, -0.011842752729716433)', '(-0.5093461580995915, -0.012039741006662014)', '(-0.5214927611690721, -0.012146603069480611)', '(-0.533655159241688, -0.012162398072616033)', '(-0.5457421458778278, -0.012086986636139706)', '(-0.5576631793571711, -0.011921033479343313)', '(-0.5693291742636524, -0.011665994906481184)', '(-0.5816532660571523, -0.01232409179349994)', '(-0.594544147038565, -0.012890880981412663)', '(-0.6069069458568943, -0.012362798818329362)', '(-0.6186514176349671, -0.011744471778072823)', '(-0.6306926169044893, -0.012041199269522164)', '(-0.6419443592493391, -0.011251742344849857)', '(-0.6533270395331809, -0.011382680283841864)', '(-0.6637611340784446, -0.010434094545263652)', '(-0.6731747157540315, -0.009413581675586914)', '(-0.6815037482994601, -0.00832903254542863)', '(-0.6886922927051792, -0.007188544405719069)', '(-0.6946926408385065, -0.006000348133327229)', '(-0.6994653924522646, -0.004772751613758092)', '(-0.7029794915130951, -0.0035140990608305955)', '(-0.7052122365507708, -0.002232745037675654)', '(-0.7061492776111306, -0.0009370410603597448)', '(-0.7057846095698431, 0.00036466804128741886)', '(-0.7041205682196399, 0.0016640413502032863)', '(-0.7011678318710189, 0.002952736348620929)', '(-0.6969454273966897, 0.004222404474329168)', '(-0.6914807358935972, 0.005464691503092597)', '(-0.6848094896239091, 0.0066712462696881195)', '(-0.6769757488191175, 0.007833740804791581)', '(-0.6680318444791982, 0.008943904339919274)', '(-0.6590382716541289, 0.008993572825069298)', '(-0.65005662322113, 0.008981648432998831)', '(-0.6411491282179219, 0.008907495003208093)', '(-0.6323781658872375, 0.008770962330684428)', '(-0.6238057620111049, 0.008572403876132565)', '(-0.6154930746983047, 0.008312687312800226)', '(-0.6074998771076141, 0.007993197590690669)', '(-0.599884044635719, 0.007615832471895085)', '(-0.5927010538828674, 0.0071829907528515495)', '(-0.5860035002593537, 0.0066975536235137625)', '(-0.5798406404540446, 0.006162859805309045)', '(-0.5742579652051348, 0.005582675248909797)', '(-0.5692968069516154, 0.004961158253519371)', '(-0.5649939860606515, 0.004302820890963895)', '(-0.5613814984759511, 0.0036124875847004176)', '(-0.558486246861427, 0.002895251614524105)', '(-0.5563298166571845, 0.00215643020424253)', '(-0.5549282979412132, 0.001401518715971308)', '(-0.5542921536053034, 0.0006361443359098849)', '(-0.5544261340983511, -0.00013398049304768874)', '(-0.5553292388421975, -0.0009031047438464288)', '(-0.5569947243519666, -0.001665485509769044)', '(-0.5594101590549945, -0.002415434703027826)', '(-0.5625575247570664, -0.0031473657020720056)', '(-0.5664133646096745, -0.0038558398526081002)', '(-0.5709489772498877, -0.004535612640213233)', '(-0.5761306564859475, -0.005181679236059866)', '(-0.5819199754689192, -0.005789318982971638)', '(-0.5882741137192657, -0.00635413825034656)', '(-0.5951462246774475, -0.006872110958181724)', '(-0.6024858406447375, -0.007339615967290044)', '(-0.6102393111130451, -0.007753470468307492)', '(-0.6183502696002219, -0.00811095848717678)', '(-0.6267601232669039, -0.008409853666682038)', '(-0.635408558851851, -0.008648435584947066)', '(-0.6442340578820506, -0.008825499030199583)', '(-0.6531744137411613, -0.008940355859110674)', '(-0.6621672430528527, -0.00899282931169141)', '(-0.6711504839764555, -0.008983240923602769)', '(-0.6790628744256698, -0.007912390449214334)', '(-0.6858510977973001, -0.006788223371630266)', '(-0.6914699162104122, -0.005618818413112037)', '(-0.6958822509289907, -0.004412334718578546)', '(-0.699059224604687, -0.0031769736756962702)', '(-0.7009801786834984, -0.0019209540788114273)', '(-0.7016326772208958, -0.0006524985373974708)', '(-0.7010125056115271, 0.0006201716093687747)', '(-0.6991236695407353, 0.001888836070791692)', '(-0.6959783959884767, 0.0031452735522586863)', '(-0.6915971345454136, 0.004381261443063029)', '(-0.6860085538196422, 0.0055885807257714006)', '(-0.6792495245042863, 0.006759029315355867)', '(-0.6713650779238659, 0.007884446580420416)', '(-0.662408326759635, 0.008956751164230836)', '(-0.6534403333389168, 0.008967993420718197)', '(-0.6445229680728307, 0.008917365266086143)', '(-0.6357184335008523, 0.00880453457197837)', '(-0.6270887681921942, 0.008629665308658179)', '(-0.6186953374376484, 0.008393430754545746)', '(-0.6105983180841592, 0.008097019353489155)', '(-0.6028561850128926, 0.007742133071266643)', '(-0.5955252066439859, 0.007330978368906705)', '(-0.5886589564889789, 0.006866250155006928)', '(-0.5823078472020441, 0.006351109286934792)', '(-0.5765186928523939, 0.0057891543496502)', '(-0.5713343043090016, 0.0051843885433923214)', '(-0.5667931217539092, 0.004541182555092347)', '(-0.5629288874783285, 0.0038642342755807043)', '(-0.5597703613158567, 0.003158526162471833)', '(-0.5573410803681038, 0.002429280947752812)', '(-0.5556591641052302, 0.0016819162628735882)', '(-0.5547371654880819, 0.0009219986171482276)', '(-0.5545819684559123, 0.00015519703216955623)', '(-0.5551947319367246, -0.0006127634808123009)', '(-0.5565708804374406, -0.001376148500716018)', '(-0.5587001412214867, -0.0021292607840460824)', '(-0.5615666280403995, -0.0028664868189127303)', '(-0.5651489713112995, -0.0035823432708999943)', '(-0.5694204944843095, -0.004271523173010066)', '(-0.5743494360908319, -0.004928941606522385)', '(-0.5798992165828218, -0.0055497804919899755)', '(-0.5860287485552746, -0.006129531972452797)', '(-0.5926927882938586, -0.006664039738584)', '(-0.5998423258265339, -0.007149537532675212)', '(-0.6074250098156312, -0.007582683989097325)', '(-0.6153856027506835, -0.007960592935052345)', '(-0.6236664610463787, -0.008280858295695087)', '(-0.6322080338728173, -0.008541572826438637)', '(-0.6409493739047977, -0.008741340031980384)', '(-0.649828652725561, -0.008879278820763389)', '(-0.6587836734005281, -0.00895502067496708)', '(-0.6677523727760761, -0.008968699375548006)', '(-0.6756733063685898, -0.007920933592513632)', '(-0.682492837236498, -0.006819530867908168)', '(-0.6881652837189094, -0.005672446482411381)', '(-0.6926530130212494, -0.004487729302339984)', '(-0.6959264946786895, -0.003273481657440072)', '(-0.6979643268194521, -0.002037832140762564)', '(-0.6987532462436264, -0.0007889194241743227)', '(-0.6982881307870893, 0.00046511545653713654)', '(-0.6965719994256498, 0.0017161313614394028)', '(-0.6936160122685577, 0.002955987157092124)', '(-0.6894394691718203, 0.004176543096737395)', '(-0.684069802349522, 0.0053696668222983236)', '(-0.6775425552544848, 0.0065272470950372115)', '(-0.6699013373158277, 0.00764121793865709)', '(-0.6611977420334646, 0.008703595282363067)', '(-0.6524912146007421, 0.008706527432722445)', '(-0.6438419043117831, 0.008649310288958934)', '(-0.6353102020986218, 0.008531702213161373)', '(-0.6269562599308239, 0.008353942167797855)', '(-0.6188394986753648, 0.008116761255459154)', '(-0.6110181113798128, 0.007821387295552077)', '(-0.6035485690584322, 0.007469542321380522)', '(-0.5964851359341139, 0.00706343312431832)', '(-0.5898794007401629, 0.006605735193951011)', '(-0.583779830149643, 0.006099570590519961)', '(-0.5782313497213093, 0.005548480428333618)', '(-0.5732749569816302, 0.004956392739679107)', '(-0.5689473704552952, 0.004327586526334979)']</t>
+    <t>[26, 36, 41, 47]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9238233863603327, -0.005553579159635174)', '(-0.9260462579132012, -0.0022228715528684433)', '(-0.9249324431387295, 0.0011138147744717362)', '(-0.9204849248232989, 0.004447518315430601)', '(-0.9127158727964645, 0.007769052026834446)', '(-0.9036475358419653, 0.009068336954499134)', '(-0.8913074624564075, 0.012340073385557815)', '(-0.8757358366404628, 0.015571625815944606)', '(-0.8569877223346605, 0.018748114305802366)', '(-0.8351357052357439, 0.02185201709891664)', '(-0.8102727683956779, 0.024862936840066005)', '(-0.784515189300015, 0.0257575790956629)', '(-0.7559945321252193, 0.028520657174795686)', '(-0.7248687153333208, 0.031125816791898523)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[1,1,1]', '[2,1,0]', '[0,1,1]', '[2,0,1]', '[1,2,0]', '[0,0,0]', '[1,0,2]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47, 49]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8626674595669251, 0.0027255598050831852)', '(-0.8568152936600616, 0.005852165906863528)', '(-0.8478599237870518, 0.008955369873009832)', '(-0.8378384139245675, 0.010021509862484264)', '(-0.8267940073196065, 0.011044406604961001)', '(-0.8127764772293792, 0.014017530090227315)', '(-0.7978521074054098, 0.01492436982396934)', '(-0.7800951726565215, 0.017756934748888245)', '(-0.761598816825839, 0.018496355830682487)']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37771412782933006, -0.0002188641371377528)', '(-0.3779925312068103, -0.0002784033774802534)', '(-0.37832858222959004, -0.00033605102277970626)', '(-0.37871999663651856, -0.00039141440692850725)', '(-0.3791641124892566, -0.00044411585273800664)', '(-0.37965790767886975, -0.0004937951896131717)', '(-0.3801980198522464, -0.0005401121733766101)', '(-0.3807807686453535, -0.0005827487931071276)', '(-0.3814021800952824, -0.0006214114499288844)', '(-0.3820580130881267, -0.0006558329928443194)', '(-0.3827437876850954, -0.0006857745969687285)', '(-0.38445481515501223, -0.0017110274699167934)', '(-0.38717937810054165, -0.002724562945529401)', '(-0.3908987632742281, -0.003719385173686485)', '(-0.3955873175945497, -0.004688554320321563)', '(-0.4012125319677255, -0.005625214373175812)', '(-0.4077351587984459, -0.006522626830720411)', '(-0.41510936994206515, -0.00737421114361923)', '(-0.4232829622281612, -0.008173592286096041)', '(-0.43219761750925445, -0.00891465528109326)', '(-0.4417892234264962, -0.009591605917241739)', '(-0.45198825973917944, -0.01019903631268324)', '(-0.4627202531799479, -0.010731993440768481)', '(-0.4739063014578568, -0.011186048277908853)', '(-0.4854636643632131, -0.011557362905356295)', '(-0.4973064170929295, -0.011842752729716433)']</t>
   </si>
   <si>
     <t>[2,0,1]</t>
   </si>
   <si>
-    <t>[26, 36, 41, 47, 53, 57, 71, 72, 76, 98, 105, 110, 111, 113]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8770679370198794, 0.012622246582887306)', '(-0.8612643038930025, 0.01580363312687695)', '(-0.8423396162512214, 0.018924687641781006)', '(-0.8203723804353279, 0.02196723581589356)', '(-0.7954619605393192, 0.02491041989600873)', '(-0.7677312160704957, 0.027730744468823492)', '(-0.7383288362528037, 0.029402379817692018)', '(-0.7064250786449966, 0.03190375760780705)', '(-0.6722178463934465, 0.03420723225155009)', '(-0.6359325355141596, 0.03628531087928692)', '(-0.5978205782862265, 0.038111957227933105)', '(-0.5581565460339509, 0.039664032252275515)', '(-0.5182337945443206, 0.03992275148963032)', '(-0.4773512786753885, 0.0408825158689321)', '(-0.43581450730366744, 0.04153677137172104)', '(-0.39392853397670025, 0.041885973326967176)', '(-0.35299074374897954, 0.04093779022772073)', '(-0.3122773745292816, 0.04071336921969791)', '(-0.27204486357363616, 0.04023251095564544)', '(-0.23252495832165207, 0.039519905251984094)', '(-0.19392105868238946, 0.03860389963926262)', '(-0.15640589676198755, 0.03751516192040191)', '(-0.12012054062327546, 0.03628535613871209)', '(-0.08517460791561335, 0.0349459327076621)', '(-0.05164750278495211, 0.03352710513066124)', '(-0.019590448666059086, 0.03205705411889302)', '(0.010970921799093473, 0.03056137046515256)', '(0.040033646204675685, 0.029062724405582215)', '(0.06761437924222807, 0.02758073303755238)', '(0.09374636784681911, 0.02613198860459104)', '(0.11747657578304904, 0.02373020793622993)', '(0.13886044173763112, 0.02138386595458209)', '(0.15895811368673074, 0.020097671949099623)', '(0.1778347007563697, 0.018876587069638955)', '(0.1955587119846871, 0.01772401122831739)', '(0.2112007598281206, 0.01564204784343348)', '(0.22582805765609978, 0.014627297827979184)', '(0.23950747500709943, 0.013679417350999652)', '(0.25230494436210515, 0.012797469355005697)', '(0.264285018728527, 0.011980074366421865)', '(0.2755105572167943, 0.01122553848826731)', '(0.2860425179948202, 0.010531960778025946)', '(0.29593984041564125, 0.009897322420821024)', '(0.30525940054296, 0.009319560127318788)', '(0.314056026626892, 0.008796626083932016)', '(0.32238256323641584, 0.008326536609523805)', '(0.3302899746998544, 0.007907411463438537)', '(0.33782748022851483, 0.007537505528660442)', '(0.34504271460560837, 0.007215234377093522)', '(0.3519819096266354, 0.0069391950210270295)', '(0.3586900925976815, 0.006708182971046076)', '(0.365211299155872, 0.006521206558190558)', '(0.37158879849315307, 0.0063774993372810495)', '(0.3778653297611267, 0.006276531267973608)', '(0.3840833490295929, 0.006218019268466194)', '(0.3902852866811994, 0.006201937651606475)', '(0.3965138155631424, 0.006228528881943055)', '(0.4018121305954997, 0.005298315032357286)', '(0.40721723188987824, 0.005405101294378517)', '(0.41276709775442805, 0.005549865864549794)', '(0.418500957557226, 0.005733859802797954)', '(0.42445957867752054, 0.0059586211202945554)', '(0.430685569412212, 0.0062259907346914126)', '(0.4372236998145485, 0.006538130402336509)', '(0.44312124251159357, 0.0058975426970450905)', '(0.4494210504084089, 0.006299807896815324)', '(0.45616910570565655, 0.0067480552972476425)', '(0.4634148805272856, 0.007245774821629002)', '(0.47121172455348675, 0.007796844026201172)', '(0.4786172811263799, 0.007405556572893139)', '(0.4856864994509162, 0.007069218324536298)', '(0.4934719883525898, 0.007785488901673628)', '(0.5010318338417662, 0.007559845489176354)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113]</t>
-  </si>
-  <si>
-    <t>['[1,2,0]', '[0,2,1]', '[2,0,1]']</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6870558918028171, 0.017508386393691754)', '(-0.6673701216371309, 0.019685770165686154)', '(-0.6456391893268884, 0.02173093231024261)', '(-0.6220132658968557, 0.023625923430032666)', '(-0.5976599104793764, 0.024353355417479322)', '(-0.5727556553613169, 0.024904255118059437)', '(-0.5464840584972667, 0.026271596864050232)', '(-0.5190409568205163, 0.027443101676750348)', '(-0.49163203771942765, 0.027408919101088686)', '(-0.46346250182972626, 0.02816953588970141)', '(-0.4347415453768166, 0.02872095645290969)', '(-0.4056791533511905, 0.02906239202562613)', '(-0.3764828272095051, 0.02919632614168539)', '(-0.34735439742520374, 0.02912842978430135)', '(-0.3184870673292167, 0.028867330095987014)', '(-0.2900628177605435, 0.02842424956867322)', '(-0.26225027443060533, 0.02781254332993813)', '(-0.23520310524967145, 0.027047169180933882)', '(-0.20905897745170796, 0.0261441277979635)', '(-0.18493906835808585, 0.02411990909362211)', '(-0.16194415113604235, 0.022994917222043495)', '(-0.1411599502787119, 0.020784200857330466)', '(-0.12265491059429626, 0.01850503968441564)', '(-0.1054825244061219, 0.017172386188174366)', '(-0.09168600547010428, 0.013796518936017615)', '(-0.08129551013866171, 0.010390495331442571)', '(-0.0743310318137486, 0.006964478324913112)', '(-0.06880465323101496, 0.005526378582733639)', '(-0.06672520507364917, 0.002079448157365795)', '(-0.06809583609970843, -0.0013706310260592687)', '(-0.07191448156554725, -0.0038186454658388244)', '(-0.07817517081192371, -0.006260689246376459)', '(-0.08686742184068606, -0.008692251028762355)', '(-0.09797526029976036, -0.011107838459074305)', '(-0.11147588353011471, -0.013500623230354348)', '(-0.12833800257490877, -0.016862119044794056)', '(-0.14751710454933595, -0.019179101974427185)', '(-0.1699553615603248, -0.02243825701098888)', '(-0.19457564325689297, -0.02462028169656816)', '(-0.22128196095018535, -0.026706317693292386)', '(-0.24995734969201888, -0.02867538874183355)', '(-0.28146217863183576, -0.03150482893981686)', '(-0.31562748259913487, -0.03416530396729914)', '(-0.3522533268762583, -0.036625844277123475)', '(-0.391108411052273, -0.038855084176014694)', '(-0.43193121478465757, -0.04082280373238455)', '(-0.4744328923135518, -0.04250167752889423)', '(-0.5183019783817772, -0.04386908606822538)', '(-0.5632107887573158, -0.04490881037553867)', '(-0.6078232077918605, -0.044612419034544694)', '(-0.6508106436704155, -0.042987435878555066)', '(-0.6918669822980057, -0.04105633862759021)', '(-0.7307142298266242, -0.038847247528618414)', '(-0.767106151332314, -0.03639192150568977)', '(-0.8018299262882242, -0.034723774955910225)', '(-0.8337009744222073, -0.031871048133983046)', '(-0.8635675145637056, -0.029866540141498407)', '(-0.8913039073669069, -0.027736392803201275)', '(-0.9158087597598177, -0.024504852392910746)', '(-0.9380053195787086, -0.022196559818890904)', '(-0.9568348173472837, -0.018829497768575156)', '(-0.9732556149453074, -0.016420797598023715)', '(-0.9872376690998779, -0.013982054154570425)', '(-0.9977600601731085, -0.010522391073230658)', '(-1.0058098966193278, -0.008049836446219334)', '(-1.0103789788732742, -0.00456908225394646)', '(-1.0114632962099397, -0.0010843173366654134)', '(-1.0090619653349753, 0.002401330874964358)', '(-1.003176977754744, 0.005884987580231373)', '(-0.9948137588816458, 0.00836321887309811)', '(-0.9829813472216041, 0.011832411660041712)', '(-0.9676951841182333, 0.015286163103370817)', '(-0.9489797916192508, 0.01871539249898246)', '(-0.9278721418940254, 0.021107649725225427)', '(-0.9044229725953012, 0.02344916929872426)', '(-0.8776996451517909, 0.02672332744351038)', '(-0.8487926205837216, 0.02890702456806927)', '(-0.8178155257980748, 0.03097709478564685)', '(-0.7839073690615359, 0.033908156736538915)', '(-0.7482393691561493, 0.03566799990538661)', '(-0.7110112312999415, 0.03722813785620782)', '(-0.6724503922248692, 0.03856083907507226)', '(-0.6318099011910681, 0.0406404910338012)', '(-0.5893720068231597, 0.04243789436790837)', '(-0.5464440081010803, 0.04292799872207944)', '(-0.5023448042378528, 0.044099203863227535)', '(-0.45840489716958716, 0.04393990706826563)', '(-0.4149508328865632, 0.04345406428302396)', '(-0.3722972762608397, 0.04265355662572351)', '(-0.3297399146440066, 0.042557361616833086)', '(-0.28855590804676634, 0.04118400659724025)', '(-0.24899223087313577, 0.03956367717363059)', '(-0.21026291951268297, 0.03872931136045279)', '(-0.1735525145623533, 0.03671040495032967)', '(-0.13901084029126506, 0.03454167427108822)', '(-0.10575490336735831, 0.033255936923906756)', '(-0.07487419718531978, 0.03088070618203853)', '(-0.04643068660295248, 0.0284435105823673)', '(-0.019462962361199588, 0.02696772424175289)', '(0.006009022247623178, 0.025471984608822766)', '(0.02998141306436433, 0.023972390816741154)', '(0.051463909523195295, 0.021482496458830963)', '(0.07147614284954365, 0.020012233326348355)', '(0.09004563073110866, 0.018569487881565004)', '(0.10620578267796285, 0.016160151946854183)', '(0.11899176100812132, 0.012785978330158477)', '(0.128435344161553, 0.009443583153431679)', '(0.13656221867503676, 0.008126874513483776)', '(0.14339597898946474, 0.006833760314427975)', '(0.1469575208334226, 0.0035615418439578442)', '(0.14725811352728224, 0.00030059269385965)', '(0.1462987200268149, -0.0009593935004673505)', '(0.14207627332408163, -0.004222446702733289)', '(0.13457749817825712, -0.007498775145824495)', '(0.12477972033327486, -0.009797777844982253)', '(0.11265506882357643, -0.01212465150969843)', '(0.0971718390869919, -0.015483229736584534)', '(0.07929408582615202, -0.017877753260839867)', '(0.059986734592083285, -0.019307351234068737)', '(0.038219756316239535, -0.02176697827584375)', '(0.014969193479376215, -0.02325056283686332)', '(-0.010778848917632797, -0.02574804239700901)', '(-0.038025584363212614, -0.027246735445579814)', '(-0.06775607055991091, -0.029730486196698297)', '(-0.09993508688517716, -0.03217901632526625)', '(-0.1345025882614978, -0.034567501376320635)', '(-0.1723693129935799, -0.037866724732082115)', '(-0.21340916911598135, -0.04103985612240144)', '(-0.2554539249153236, -0.04204475579934225)', '(-0.2982997772383063, -0.042845852322982714)', '(-0.3417096229501181, -0.0434098457118118)', '(-0.3874169405031507, -0.045707317553032575)', '(-0.43511744545474695, -0.04770050495159629)', '(-0.4844737947417327, -0.049356349286985735)', '(-0.5331229080740482, -0.04864911333231547)', '(-0.5817006001315604, -0.04857769205751227)', '(-0.6288447317463769, -0.04714413161481648)', '(-0.6742125684875206, -0.045367836741143794)', '(-0.7184888480790479, -0.044276279591527266)', '(-0.7613853166490665, -0.04289646857001864)', '(-0.8026458404748288, -0.041260523825762244)', '(-0.842049534467183, -0.039403693992354195)', '(-0.87841193553993, -0.03636240107274698)', '(-0.9125880435717885, -0.0341761080318584)', '(-0.9434652432277568, -0.030877199655968336)', '(-0.9709625234941531, -0.027497280266396307)', '(-0.9950249017841927, -0.024062378290039547)', '(-1.0156178399452493, -0.02059293816105664)', '(-1.0327219890965154, -0.017104149151265954)', '(-1.0463284952236862, -0.013606506127170894)', '(-1.056435009847508, -0.010106514623821776)']</t>
-  </si>
-  <si>
-    <t>['[2,0,1]', '[1,1,2]', '[0,0,0]']</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 0, 0, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.585997346946961, -0.010758314434739895)', '(-0.595290400543431, -0.009293053596469949)', '(-0.6030499026932775, -0.007759502149846505)', '(-0.6092191476390889, -0.006169244945811397)', '(-0.6147532778236564, -0.005534130184567528)', '(-0.6186122383654452, -0.0038589605417888063)', '(-0.6217682083818088, -0.003155970016363616)', '(-0.6231985050136603, -0.0014302966318515066)', '(-0.6238928696090381, -0.0006943645953778556)', '(-0.6238463267850374, 4.654282400069071e-05)', '(-0.6220592099381712, 0.0017871168468662209)', '(-0.6195443314399919, 0.002514878498179277)', '(-0.6153197565480677, 0.004224574891924236)', '(-0.6094159222720071, 0.005903834276060558)', '(-0.6028755459538289, 0.0065403763181783245)', '(-0.5957461832173312, 0.007129362736497666)', '(-0.5870799299217914, 0.008666253295539869)', '(-0.5779404407289842, 0.009139489192807156)', '(-0.5683951919583894, 0.009545248770594837)', '(-0.5575149804576861, 0.010880211500703249)', '(-0.5463808361021805, 0.01113414435550569)', '(-0.5350759592862963, 0.011304876815884247)', '(-0.5236850205999504, 0.011390938686345902)', '(-0.5112934350760993, 0.01239158552385107)', '(-0.4979941186455585, 0.013299316430540772)', '(-0.4858866483511658, 0.012107470294392703)', '(-0.4740614160106368, 0.011825232340528995)', '(-0.4626063478016162, 0.011455068209020565)', '(-0.4516061744853592, 0.011000173316256986)', '(-0.4401417577114475, 0.011464416773911744)', '(-0.430296749589325, 0.009845008122122455)', '(-0.4221424049250084, 0.008154344664316632)', '(-0.4147372886229683, 0.0074051163020400455)', '(-0.40913419707083165, 0.005603091552136702)', '(-0.40537281708268486, 0.003761379988146819)', '(-0.40147965786540013, 0.0038931592172847447)', '(-0.3994820409009648, 0.001997616964435372)', '(-0.3983939379135468, 0.0010881029874179587)', '(-0.39922294559856325, -0.0008290076850163976)', '(-0.39996327704144735, -0.0007403314428840915)', '(-0.40060975956927053, -0.0006464825278231798)', '(-0.40115787257184665, -0.0005481130025761066)', '(-0.40160378064292535, -0.0004459080710786886)', '(-0.4019443617613559, -0.0003405811184305224)', '(-0.40217723027293045, -0.00023286851157454066)', '(-0.4023007544770525, -0.0001235242041220545)', '(-0.4033140686679387, -0.0010133141908861886)', '(-0.40621006654286823, -0.0028959978749295776)', '(-0.40896839392319906, -0.002758327380330837)', '(-0.41156960368689993, -0.00260120976370089)', '(-0.41599530354141745, -0.004425699854517524)', '(-0.42221408604938854, -0.006218782507971078)', '(-0.4301815840044027, -0.007967497955014152)', '(-0.4398405755022378, -0.009658991497835128)', '(-0.45112116383508577, -0.011280588332847953)', '(-0.4639410612110264, -0.01281989737594063)', '(-0.4762060066184476, -0.01226494540742116)', '(-0.48782520146648684, -0.011619194848039237)', '(-0.5007121833787438, -0.012886981912256927)', '(-0.5127706799004693, -0.012058496521725536)', '(-0.5259103728580327, -0.013139692957563315)', '(-0.5400327289751073, -0.014122356117074731)', '(-0.5550318803677549, -0.01499915139264752)', '(-0.5687956327124489, -0.013763752344694088)', '(-0.5832214463435632, -0.014425813631114332)', '(-0.5962024705748334, -0.012981024231270231)', '(-0.6076432624427393, -0.011440791867905835)', '(-0.6174603779830202, -0.00981711554028093)', '(-0.6255827975522724, -0.008122419569252224)', '(-0.631952214211285, -0.006369416659012637)', '(-0.6365232160112357, -0.0045710017999507704)', '(-0.6402633918501869, -0.0037401758389511604)', '(-0.6421463376162934, -0.0018829457661064485)', '(-0.6431588011180724, -0.0010124635017791021)', '(-0.6442936680833203, -0.0011348669652478899)', '(-0.6455429737750682, -0.0012493056917478897)', '(-0.6448979621743156, 0.0006450116007525493)', '(-0.6443631524182664, 0.0005348097560492931)', '(-0.6419422940654657, 0.0024208583528007015)', '(-0.6386523881745688, 0.0032899058908968273)', '(-0.633516612200394, 0.005135775974174847)', '(-0.6275713116552374, 0.005945300545156604)', '(-0.6198588004173925, 0.0077125112378449)', '(-0.6114343316134595, 0.008424468803933024)', '(-0.6023586933765752, 0.009075638236884245)', '(-0.5916978367072591, 0.01066085666931611)', '(-0.5805297825146896, 0.011168054192569554)', '(-0.5689368186097264, 0.011592963904963168)', '(-0.5560048668461759, 0.012931951763550588)', '(-0.5428302520707519, 0.013174614775424002)', '(-0.5285114812269679, 0.014318770843783964)', '(-0.5141558664248282, 0.01435561480213965)', '(-0.4988710639692531, 0.015284802455575132)', '(-0.4827715492976974, 0.016099514671555733)', '(-0.4669774737970607, 0.01579407550063665)', '(-0.4516060188332733, 0.01537145496378746)', '(-0.43677032155210005, 0.01483569728117325)', '(-0.4215784981976748, 0.015191823354425277)', '(-0.4081399370372813, 0.013438561160393471)', '(-0.39655010528076645, 0.01158983175651486)', '(-0.3858902347378795, 0.010659870542886949)', '(-0.3772340490693971, 0.008656185668482363)', '(-0.36864066277068636, 0.008593386298710736)', '(-0.36016805266930424, 0.00847261010138213)', '(-0.3538726517134261, 0.006295400955878175)', '(-0.34979590078394834, 0.004076750929477762)', '(-0.34696440504393994, 0.0028314957400084016)', '(-0.3453965336611566, 0.0015678713827833495)', '(-0.345102418974781, 0.00029411468637558077)', '(-0.3470839585631675, -0.0019815395883864564)', '(-0.3493283487464436, -0.002244390183276106)', '(-0.35382103356552225, -0.00449268481907867)', '(-0.3585327064224679, -0.004711672856945599)', '(-0.3634323944253159, -0.00489968800284799)', '(-0.3684876370675772, -0.00505524264226132)', '(-0.37366468168624356, -0.0051770446186663825)', '(-0.3789286950318417, -0.005264013345598111)', '(-0.38624398990981457, -0.007315294877972892)', '(-0.39356053914313666, -0.00731654923332207)', '(-0.40082782464734124, -0.007267285504204603)', '(-0.4099952150131135, -0.00916739036577227)', '(-0.4209982335200851, -0.011003018506971616)', '(-0.43375866281666486, -0.012760429296579796)', '(-0.44618476491844244, -0.01242610210177758)', '(-0.4601862668701496, -0.01400150195170714)', '(-0.4756604991752712, -0.01547423230512164)', '(-0.4904930304680633, -0.014832531292792129)', '(-0.5065734468603552, -0.016080416392291907)', '(-0.5237814977067545, -0.01720805084639932)', '(-0.5399881781374091, -0.016206680430654534)', '(-0.5550719875700187, -0.015083809432609703)', '(-0.5689200984888009, -0.013848110918782111)', '(-0.5814293457921675, -0.012509247303366612)', '(-0.5925070363767951, -0.011077690584627577)', '(-0.6030715881530084, -0.010564551776213276)', '(-0.6130457246836624, -0.009974136530653942)', '(-0.6223570311463967, -0.009311306462734389)', '(-0.6309384393265834, -0.008581408180186729)', '(-0.6387286414664753, -0.007790202139891931)', '(-0.6456724353755829, -0.006943793909107623)', '(-0.650721005349863, -0.005048569974280075)', '(-0.6538391020276765, -0.0031180966778135075)', '(-0.6550050608141703, -0.001165958786493828)', '(-0.65421080190585, 0.000794258908320347)', '(-0.6534618280491385, 0.0007489738567114976)', '(-0.6507633332150253, 0.0026984948341132477)', '(-0.6461340704402179, 0.004629262774807503)', '(-0.640606351919358, 0.005527718520859856)', '(-0.6342189875194045, 0.00638736439995347)', '(-0.6260171163527398, 0.00820187116666467)', '(-0.6170591367961096, 0.008957979556630241)', '(-0.6074093525621085, 0.009649784234001077)', '(-0.59713759101047, 0.010271761551638498)', '(-0.5853187515341106, 0.011818839476359382)', '(-0.5720396527327153, 0.013279098801395361)', '(-0.5573985247616606, 0.014641127971054713)', '(-0.5415043328517514, 0.015894191909909258)', '(-0.5254759138358019, 0.01602841901594947)', '(-0.5094334163574827, 0.01604249747831915)', '(-0.4924971270995348, 0.016936289257947913)', '(-0.4757937618962099, 0.01670336520332491)', '(-0.45944770649961486, 0.01634605539659504)', '(-0.4435798195635623, 0.01586788693605256)', '(-0.4283063272879895, 0.015273492275572762)', '(-0.4127378332555803, 0.015568494032409237)', '(-0.3979855527445926, 0.014752280510987719)', '(-0.3841532315684443, 0.013832321176148292)', '(-0.37233651310935356, 0.011816718459090703)', '(-0.36261572517305507, 0.009720787936298514)', '(-0.3530559198512527, 0.009559805321802377)', '(-0.3457201093344261, 0.007335810516826554)', '(-0.3386559667127578, 0.007064142621668274)', '(-0.3339088177715596, 0.0047471489411982275)']</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41430409289083714, -0.001953203121343469)', '(-0.41606239732319206, -0.001758304432354938)', '(-0.4176133071812325, -0.0015509098580404564)', '(-0.4189457821707526, -0.001332474989520121)', '(-0.42005032342465093, -0.0011045412538983192)', '(-0.42291904759743437, -0.0028687241727834304)', '(-0.42553144101464413, -0.0026123934172097656)', '(-0.4278687750146358, -0.0023373339999916702)', '(-0.42991425510483894, -0.002045480090203098)', '(-0.43165315526001924, -0.001738900155180283)', '(-0.43307293605995606, -0.0014197807999367965)', '(-0.4361633455366396, -0.0030904094766835343)', '(-0.44090202661816225, -0.004738681081522663)', '(-0.4472545905140776, -0.0063525638959153795)', '(-0.45517474303138034, -0.00792015251730269)', '(-0.46260447943020433, -0.007429736398823968)', '(-0.4694891245006452, -0.00688464507044091)', '(-0.4777778120178252, -0.008288687517179974)', '(-0.48540907549013906, -0.007631263472313862)', '(-0.4933261355231127, -0.007917060032973653)', '(-0.5014699283784042, -0.008143792855291486)', '(-0.5097795657076353, -0.008309637329231059)', '(-0.518192817424147, -0.008413251716511706)', '(-0.525646612049648, -0.007453794625501009)', '(-0.5320850479983773, -0.006438435948729323)', '(-0.5384598437793696, -0.006374795780992307)', '(-0.5437232184688124, -0.005263374689442874)', '(-0.5488357515104711, -0.0051125330416586685)', '(-0.5527591880084625, -0.003923436497991305)', '(-0.556464200261243, -0.0037050122527805328)', '(-0.5599231210002252, -0.0034589207389822806)', '(-0.5631101480237029, -0.003187027023477629)', '(-0.5660015332017723, -0.0028913851780693733)', '(-0.567575754702968, -0.0015742215011956893)', '(-0.5688211048451186, -0.001245350142150644)', '(-0.5697283269871181, -0.0009072221419994201)', '(-0.5702906807447234, -0.0005623537576054187)', '(-0.5695039892801206, 0.0007866914646028453)', '(-0.5683740959561547, 0.0011298933239658469)', '(-0.566909396696153, 0.0014646992600016802)', '(-0.5641207809847585, 0.00278861571139458)', '(-0.5610289982377917, 0.0030917827469667835)', '(-0.5576570784053749, 0.0033719198324167745)', '(-0.5540301655185539, 0.0036269128868210983)', '(-0.5491753341180309, 0.00485483140052298)', '(-0.5431288666988758, 0.00604646741915501)', '(-0.5369360073861957, 0.006192859312680154)', '(-0.5306431455230343, 0.006292861863161519)', '(-0.5242974548179422, 0.0063456907050920015)', '(-0.5179465240225398, 0.006350930795402379)', '(-0.5106379830824842, 0.007308540940055666)', '(-0.5044266235948545, 0.006211359487629718)', '(-0.49835897598009443, 0.00606764761476005)', '(-0.4924804460261221, 0.005878529953972335)', '(-0.486834964690343, 0.005645481335779114)', '(-0.4804646532733244, 0.006370311417018602)', '(-0.47441694567973197, 0.006047707593592414)', '(-0.46773676492618116, 0.006680180753550789)', '(-0.4614735908935609, 0.006263174032620251)', '(-0.4556736629636359, 0.005799927929924982)', '(-0.4503796550053918, 0.005294007958244098)', '(-0.4466303851234253, 0.0037492698819664963)', '(-0.44445326215400305, 0.0021771229694222505)', '(-0.44386416884063656, 0.000589093313366458)', '(-0.44286739850618284, 0.0009967703344537448)', '(-0.4414702114106602, 0.0013971870955226842)', '(-0.43968277532404526, 0.0017874360866149395)', '(-0.43751808233775585, 0.002164692986289426)', '(-0.4349918426491163, 0.0025262396886395477)', '(-0.43212235627709555, 0.0028694863720207)', '(-0.42893036389567746, 0.0031919923814180996)', '(-0.42543887820081355, 0.0034914856948639276)', '(-0.42367299745386616, 0.0017658807469474172)', '(-0.4236453854039098, 2.7612049956376918e-05)', '(-0.42535623990302485, -0.0017108544991150648)', '(-0.4287932924351821, -0.003437052532157275)', '(-0.4339318384483598, -0.00513854601317772)', '(-0.4387348052486752, -0.004802966800315382)', '(-0.4431673982863453, -0.004432593037670157)', '(-0.4471973899903169, -0.004029991703971543)', '(-0.4507953881084487, -0.0035979981181318544)', '(-0.45593508080044787, -0.005139692691999171)', '(-0.4625787732413574, -0.0066436924409095256)', '(-0.4706775639302673, -0.008098790688909906)', '(-0.47817159839893286, -0.007494034468665597)', '(-0.48700528304636326, -0.008833684647430376)', '(-0.49511286795034654, -0.008107584903983294)', '(-0.5034338372150999, -0.008320969264753453)', '(-0.5119059512895232, -0.008472114074423278)', '(-0.5194657435623542, -0.007559792272830974)', '(-0.5260565327812079, -0.0065907892188537135)', '(-0.5326288889882097, -0.006572356207001813)', '(-0.5391335276283314, -0.006504638640121749)', '(-0.5455216977996586, -0.006388170171327184)', '(-0.551745564564182, -0.0062238667645234036)', '(-0.5577585811864746, -0.006013016622292624)', '(-0.5625158474656069, -0.004757266279132296)', '(-0.5669818983447401, -0.004466050879133201)', '(-0.5711234936013051, -0.004141595256565042)', '(-0.5749098598129181, -0.003786366211613005)', '(-0.5783129108921202, -0.003403051079202152)', '(-0.5813074461610397, -0.0029945352689194566)', '(-0.5838713252626334, -0.002563879101593703)', '(-0.5849856194834877, -0.0011142942208542668)', '(-0.5856421103919827, -0.000656490908494905)', '(-0.5858359584551786, -0.00019384806319589735)', '(-0.5855657350023366, 0.00027022345284204337)', '(-0.5848334316379531, 0.0007323033643834224)', '(-0.583644447116871, 0.001188984521082124)', '(-0.5810075516641604, 0.002636895452710634)', '(-0.5779422158036175, 0.0030653358605429054)', '(-0.574471107228753, 0.0034711085748644665)', '(-0.5706199355872528, 0.003851171641500264)', '(-0.5664172736697284, 0.004202661917524441)', '(-0.5618943554633893, 0.004522918206339136)', '(-0.5570848518186436, 0.004809503644745628)', '(-0.5520246248099578, 0.00506022700868579)', '(-0.5467514622384556, 0.005273162571502267)', '(-0.5403047941063921, 0.0064466681320635415)', '(-0.5337328832820593, 0.006571910824332885)', '(-0.5270849783582675, 0.006647904923791735)', '(-0.5194109273904353, 0.007674050967832195)', '(-0.5127682844578922, 0.006642642932543039)', '(-0.507206855917526, 0.0055614285403662225)', '(-0.5017683172309486, 0.00543853868657741)', '(-0.49549338996539877, 0.00627492726554982)', '(-0.48842900342184786, 0.0070643865435508855)', '(-0.4816279010450816, 0.006801102376766269)', '(-0.4751407491293304, 0.006487151915751187)', '(-0.4690157536470154, 0.006124995482314965)', '(-0.46329830381068854, 0.005717449836326899)', '(-0.4580306448553362, 0.005267658955352345)', '(-0.45325158175682323, 0.004779063098512954)', '(-0.4499962148720972, 0.0032553668847260485)', '(-0.44828839240435125, 0.0017078224677459415)', '(-0.4481406047976172, 0.00014778760673407197)', '(-0.44755393223474266, 0.0005866725628745498)', '(-0.44653266162824007, 0.001021270606502585)', '(-0.4470842513837702, -0.0005515897555301563)', '(-0.44720467386886315, -0.00012042248509291291)', '(-0.44689304956757775, 0.00031162430128537277)', '(-0.44615165430214326, 0.0007413952654344939)', '(-0.44698590054647025, -0.0008342462443270082)', '(-0.44938969777905796, -0.0024037972325877347)', '(-0.45134547695517757, -0.0019557791761196162)', '(-0.45283892231579503, -0.0014934453606174772)', '(-0.4558590897671588, -0.003020167451363719)', '(-0.4583838151851976, -0.002524725418038809)', '(-0.4603945384878977, -0.002010723302700078)', '(-0.46387645819487106, -0.003481919706973396)', '(-0.4668039027083106, -0.002927444513439561)', '(-0.47015525074886555, -0.0033513480405548985)', '(-0.4739057101647116, -0.0037504594158460584)', '(-0.4780274885935158, -0.004121778428804158)', '(-0.48248998797149306, -0.004462499377977272)', '(-0.48726002230123006, -0.004770034329736974)', '(-0.4923020577644577, -0.0050420354632276475)', '(-0.4975784738985833, -0.00527641613412563)', '(-0.5030498441622876, -0.005471370263704361)', '(-0.5086752338144789, -0.005625389652191293)', '(-0.5144125126426962, -0.005737278828217258)', '(-0.5192186797223542, -0.004806167079658126)', '(-0.5240576965757168, -0.004839016853362484)', '(-0.5288932715228359, -0.004835574947119192)', '(-0.5336891394201536, -0.004795867897317699)', '(-0.53840934114602, -0.004720201725866356)', '(-0.5430185001749936, -0.004609159028973618)', '(-0.5474820936470302, -0.004463593472036535)', '(-0.5517667154570786, -0.004284621810048381)', '(-0.555840329058824, -0.004073613601745424)', '(-0.5586725078845386, -0.0028321788257146758)', '(-0.5612421188480183, -0.002569610963479718)', '(-0.5635300044455497, -0.002287885597531303)', '(-0.5655191216056822, -0.001989117160132449)', '(-0.5661946642724194, -0.0006755426667371884)', '(-0.5665516065364096, -0.000356942263990174)', '(-0.5665872933419506, -3.568680554103031e-05)', '(-0.5663014592588769, 0.00028583408307375453)', '(-0.5656962303578613, 0.0006052289010156034)', '(-0.5647761091825092, 0.0009201211753521352)', '(-0.5635479428718039, 0.0012281663107053405)', '(-0.5620208745501286, 0.0015270683216752558)', '(-0.5602062781728802, 0.001814596377248469)', '(-0.5581176770966852, 0.002088601076194907)', '(-0.5557706467366909, 0.002347030359994434)', '(-0.5531827017805433, 0.0025879449561475544)', '(-0.550373168549558, 0.0028095332309853397)', '(-0.5463630432310148, 0.004010125318543148)', '(-0.5421823185873136, 0.004180724643701248)', '(-0.5378622895601206, 0.004320029027192973)', '(-0.5334353168213862, 0.004426972738734383)', '(-0.5289345807303075, 0.004500736091078653)', '(-0.5243938278097576, 0.004540752920549921)', '(-0.5198471120032756, 0.004546715806482076)']</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41340301904140486, -0.0016595084782366864)', '(-0.4148740239057905, -0.0014710048643856162)', '(-0.41614608214301374, -0.0012720582372232627)', '(-0.417210150523646, -0.0010640683806322738)', '(-0.4180586555805167, -0.0008485050568706598)', '(-0.41868555237814453, -0.0006268967976278432)', '(-0.41908637152474193, -0.0004008191465973989)', '(-0.4192582539886777, -0.00017188246393578252)', '(-0.41919997339540255, 5.8280593275151734e-05)', '(-0.41891194559758577, 0.0002880277978167552)', '(-0.41839622542957117, 0.0005157201680146177)', '(-0.4176564906762935, 0.0007397347532776409)', '(-0.41669801340560475, 0.0009584772706887634)', '(-0.4155276189306204, 0.001170394474984373)', '(-0.414153632784246, 0.0013739861463744271)', '(-0.41258581620041074, 0.0015678165838352302)', '(-0.4108352907045406, 0.001750525495870109)', '(-0.40891445251813363, 0.001920838186406963)', '(-0.40683687757753073, 0.0020775749406029003)', '(-0.4046172180535886, 0.0022196595239421394)', '(-0.4022710913354059, 0.002346126718182679)', '(-0.401814962506002, 0.000456128829403884)', '(-0.4032520275771131, -0.0014370650711110601)', '(-0.404572211657262, -0.001320184080148873)', '(-0.4057662448071145, -0.0011940331498525238)', '(-0.4068257310725536, -0.0010594862654391354)', '(-0.4077432112764006, -0.0009174802038469987)', '(-0.40851221901108653, -0.0007690077346858981)', '(-0.40912732933247614, -0.0006151103213895933)', '(-0.40958419971854515, -0.00045687038606901905)', '(-0.4098796029248855, -0.0002954032063403858)', '(-0.4120114514412263, -0.002131848516340802)', '(-0.4139646608698429, -0.001953209428616584)', '(-0.4157253813097415, -0.001760720439898601)', '(-0.4172811039936327, -0.001555722683891223)', '(-0.41862075805994015, -0.0013396540663074105)', '(-0.4197347965462955, -0.0011140384863553082)', '(-0.4206152707937719, -0.0008804742474764296)', '(-0.4212558925619309, -0.0006406217681590064)', '(-0.42165208327193227, -0.0003961907100013442)', '(-0.4218010099169801, -0.00014892664504785168)', '(-0.4217016073049314, 9.940261204874161e-05)', '(-0.42135458642583845, 0.0003470208790929322)', '(-0.420762428866547, 0.000592157559291443)', '(-0.4199293673243291, 0.0008330615422179147)', '(-0.41886135240105116, 0.0010680149232779332)', '(-0.41756600598767774, 0.0012953464133734298)', '(-0.41605256167502785, 0.0015134443126499034)', '(-0.4143317927495278, 0.0017207689255000426)', '(-0.4124159284509605, 0.0019158642985673512)', '(-0.41031855928143024, 0.002097369169530225)', '(-0.40805453225930527, 0.002264027022124978)', '(-0.40563983710698365, 0.0024146951523216272)', '(-0.4030914844451118, 0.002548352661871854)', '(-0.400427377136518, 0.002664107308593771)', '(-0.3996661759788847, 0.0007612011576333115)', '(-0.4008132022805377, -0.0011470263016529912)', '(-0.401860435755898, -0.0010472334753603655)', '(-0.40280054458394177, -0.0009401088280437377)', '(-0.4036269394286812, -0.0008263948447394658)', '(-0.40433382216516967, -0.0007068827364884204)', '(-0.40491622888969525, -0.0005824067245255647)', '(-0.4053700668402027, -0.00045383795050744154)', '(-0.4056921449045153, -0.0003220780643125417)', '(-0.4058801974490137, -0.00018805254449844662)', '(-0.40793290125842363, -0.0020527038094099357)', '(-0.4098357948558298, -0.0019028935974062166)', '(-0.41157544338093555, -0.0017396485251057082)', '(-0.41313954064941094, -0.0015640972684753873)', '(-0.4145170031368267, -0.0013774624874157663)', '(-0.41569805501381796, -0.0011810518769912732)', '(-0.4166743034406239, -0.0009762484268059391)', '(-0.4174388034193534, -0.0007644999787295298)', '(-0.41798611159979043, -0.0005473081804370113)', '(-0.41831232853788836, -0.00032621693809794345)', '(-0.41841512901402567, -0.00010280047613732705)', '(-0.4182937801294207, 0.00012134888460498916)', '(-0.41794914701276376, 0.0003446331166569586)', '(-0.4173836860841305, 0.0005654609286332158)', '(-0.4166014259386635, 0.0007822601454669984)', '(-0.41560793602743856, 0.0009934899112249477)', '(-0.4144102834264385, 0.001197652601000058)', '(-0.413016978095643, 0.0013933053307955228)', '(-0.4114379071378317, 0.0015790709578112705)', '(-0.4096842586695991, 0.001753648468232556)', '(-0.40776843601399415, 0.0019158226556049685)', '(-0.4057039630137382, 0.002064473000255972)', '(-0.40550538134468855, 0.00019858166904963273)', '(-0.40717408802848265, -0.0016687066837940785)', '(-0.40869833419098267, -0.0015242461625000164)', '(-0.4100673693177931, -0.0013690351268104296)', '(-0.4112715225341449, -0.0012041532163518031)', '(-0.41230227604265324, -0.0010307535085083207)', '(-0.41315233004731267, -0.00085005400465941)', '(-0.4138156585683825, -0.0006633285210698324)', '(-0.41428755563552133, -0.0004718970671388255)', '(-0.4145646714345383, -0.0002771157990169498)', '(-0.4146450380753599, -8.036664082163708e-05)', '(-0.4145280847442339, 0.00011695333112597217)', '(-0.4142146421008252, 0.00031344264340870385)', '(-0.41570693587976876, -0.0014922937789435553)', '(-0.4169943630610024, -0.0012874271812336737)', '(-0.41806776342637986, -0.0010734003653774676)', '(-0.41891949061879974, -0.0008517271924198558)', '(-0.419543471621035, -0.0006239810022352422)', '(-0.4199352540980988, -0.0003917824770637738)', '(-0.4200920411612919, -0.00015678706319308784)', '(-0.4200127132300379, 7.932793125399657e-05)', '(-0.41969783678809713, 0.00031487644194078785)', '(-0.4191496599527527, 0.0005481768353444262)', '(-0.41837209489815763, 0.0007775650545950712)', '(-0.41737068729632737, 0.0010014076018302624)', '(-0.41615257306035225, 0.0012181142359751393)', '(-0.41472642279331057, 0.0014261502670416771)', '(-0.41310237446200415, 0.0016240483313064284)', '(-0.4112919549257919, 0.0018104195362122473)', '(-0.40930799105610166, 0.0019839638696902305)', '(-0.4071645112801544, 0.002143479775947277)', '(-0.4048766384714416, 0.002287872808712793)', '(-0.40246047518790956, 0.002416163283532076)', '(-0.40193298232499985, 0.0005274928629097324)', '(-0.4032978565793481, -0.0013648742543482513)', '(-0.404545528276386, -0.0012476716970379552)', '(-0.405667236542093, -0.0011217082657070149)', '(-0.40665509453283666, -0.0009878579907436533)', '(-0.40750214839422844, -0.0008470538613917724)', '(-0.40820242942633567, -0.0007002810321072558)', '(-0.4087509989906187, -0.0005485695642829963)', '(-0.40914398575716215, -0.0003929867665434819)', '(-0.40937861495834704, -0.00023462920118489457)', '(-0.4114532293862493, -0.002074614427902269)', '(-0.4133531578303217, -0.0018999284440724476)', '(-0.41506493636136477, -0.0017117785310430608)', '(-0.41657641178428656, -0.0015114754229218126)', '(-0.41787683546300597, -0.0013004236787194086)', '(-0.41895694663466815, -0.0010801111716621816)', '(-0.41980904442982353, -0.000852097795155364)', '(-0.42042704792255303, -0.0006180034927294795)', '(-0.4208065436481112, -0.00037949572555819196)', '(-0.42094482014405527, -0.00013827649594403085)', '(-0.4208408891927486, 0.00010393095130668503)', '(-0.42049549356745003, 0.0003453956252985769)', '(-0.41991110120992536, 0.0005843923575246789)', '(-0.4190918858937447, 0.0008192153161806938)', '(-0.41804369455328017, 0.0010481913404645042)', '(-0.41677400158299777, 0.001269692970282375)', '(-0.41529185053396284, 0.0014821510490349468)', '(-0.41360778375345064, 0.0016840667805121928)', '(-0.41173376062790823, 0.0018740231255424135)', '(-0.4096830651978271, 0.0020506954300811434)', '(-0.40747020401378387, 0.0022128611840432364)', '(-0.4051107951942939, 0.0023594088194899944)', '(-0.4026214497264557, 0.002489345467838202)', '(-0.40001964611791924, 0.0026018036085364575)', '(-0.39932359956187774, 0.0006960465560415219)', '(-0.4005381737610478, -0.0012145741991700185)', '(-0.40165487917500364, -0.00111670541395588)', '(-0.40266589976806977, -0.0010110205930661039)', '(-0.40356415055332223, -0.0008982507852524909)', '(-0.4043433299580328, -0.000779179404710561)', '(-0.4049979665578447, -0.0006546365998119154)', '(-0.4055234597732143, -0.0005254932153695914)', '(-0.40591611417244794, -0.0003926543992336461)', '(-0.4061731670803989, -0.000257052907950963)', '(-0.4082928092499126, -0.002119642169513716)', '(-0.4102601022867113, -0.0019672930367986784)', '(-0.4120611508109256, -0.0018010485242143282)', '(-0.41368320818464943, -0.0016220573737238165)', '(-0.41511477402736474, -0.0014315658427152826)', '(-0.41634568260962534, -0.0012309085822606197)', '(-0.4173671812990311, -0.001021498689405756)', '(-0.41817199832523627, -0.0008048170262051442)', '(-0.4187543992309896, -0.0005824009057533584)', '(-0.4191102314825413, -0.00035583225155164924)', '(-0.4192369568238279, -0.00012672534128658965)', '(-0.419133671073445, 0.00010328575038285118)', '(-0.41880111118043295, 0.00033255989301207635)', '(-0.41824164947334475, 0.000559461707088232)', '(-0.41745927515600734, 0.0007823743173373885)', '(-0.41645956322192146, 0.0009997119340858585)', '(-0.415249631076453, 0.0012099321454684246)', '(-0.41383808327086113, 0.0014115478055919022)', '(-0.4122349448636968, 0.00160313840716435)', '(-0.4104515840319875, 0.0017833608317092675)', '(-0.4085006246555611, 0.0019509593764264217)', '(-0.40639584969141246, 0.0021047749641486067)', '(-0.4041520962396571, 0.002243753451755359)', '(-0.40378514327679005, 0.00036695296286705197)', '(-0.40529756760264185, -0.0015124243258518247)', '(-0.40667874192097225, -0.0013811743183304076)', '(-0.40791894555555247, -0.0012402036345802402)', '(-0.4090094374067454, -0.001090491851192903)', '(-0.40994252183204805, -0.0009330844253026745)', '(-0.4107116068567097, -0.0007690850246616568)', '(-0.41131125418770703, -0.0005996473309973233)', '(-0.4117372205773189, -0.00042596638961185293)', '(-0.4119864901603394, -0.0002492695830204896)', '(-0.41205729747066044, -7.080731032105075e-05)']</t>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8770679370198794, 0.012622246582887306)', '(-0.8612643038930025, 0.01580363312687695)', '(-0.8423396162512214, 0.018924687641781006)', '(-0.8203723804353279, 0.02196723581589356)', '(-0.7954619605393192, 0.02491041989600873)', '(-0.7677312160704957, 0.027730744468823492)', '(-0.7383288362528037, 0.029402379817692018)', '(-0.7064250786449966, 0.03190375760780705)', '(-0.6722178463934465, 0.03420723225155009)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[1,1,1]', '[2,1,0]', '[0,1,1]', '[1,2,0]', '[2,0,1]', '[0,0,0]', '[1,0,2]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6870558918028171, 0.017508386393691754)']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.585997346946961, -0.010758314434739895)', '(-0.595290400543431, -0.009293053596469949)', '(-0.6030499026932775, -0.007759502149846505)', '(-0.6092191476390889, -0.006169244945811397)', '(-0.6147532778236564, -0.005534130184567528)', '(-0.6186122383654452, -0.0038589605417888063)', '(-0.6217682083818088, -0.003155970016363616)', '(-0.6231985050136603, -0.0014302966318515066)', '(-0.6238928696090381, -0.0006943645953778556)', '(-0.6238463267850374, 4.654282400069071e-05)', '(-0.6220592099381712, 0.0017871168468662209)', '(-0.6195443314399919, 0.002514878498179277)', '(-0.6153197565480677, 0.004224574891924236)', '(-0.6094159222720071, 0.005903834276060558)', '(-0.6028755459538289, 0.0065403763181783245)', '(-0.5957461832173312, 0.007129362736497666)', '(-0.5870799299217914, 0.008666253295539869)', '(-0.5779404407289842, 0.009139489192807156)', '(-0.5683951919583894, 0.009545248770594837)', '(-0.5575149804576861, 0.010880211500703249)', '(-0.5463808361021805, 0.01113414435550569)', '(-0.5350759592862963, 0.011304876815884247)', '(-0.5236850205999504, 0.011390938686345902)']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41430409289083714, -0.001953203121343469)', '(-0.41606239732319206, -0.001758304432354938)', '(-0.4176133071812325, -0.0015509098580404564)', '(-0.4189457821707526, -0.001332474989520121)', '(-0.42005032342465093, -0.0011045412538983192)', '(-0.42291904759743437, -0.0028687241727834304)', '(-0.42553144101464413, -0.0026123934172097656)', '(-0.4278687750146358, -0.0023373339999916702)', '(-0.42991425510483894, -0.002045480090203098)', '(-0.43165315526001924, -0.001738900155180283)', '(-0.43307293605995606, -0.0014197807999367965)', '(-0.4361633455366396, -0.0030904094766835343)', '(-0.44090202661816225, -0.004738681081522663)', '(-0.4472545905140776, -0.0063525638959153795)', '(-0.45517474303138034, -0.00792015251730269)', '(-0.46260447943020433, -0.007429736398823968)', '(-0.4694891245006452, -0.00688464507044091)', '(-0.4777778120178252, -0.008288687517179974)', '(-0.48540907549013906, -0.007631263472313862)', '(-0.4933261355231127, -0.007917060032973653)', '(-0.5014699283784042, -0.008143792855291486)', '(-0.5097795657076353, -0.008309637329231059)', '(-0.518192817424147, -0.008413251716511706)', '(-0.525646612049648, -0.007453794625501009)', '(-0.5320850479983773, -0.006438435948729323)', '(-0.5384598437793696, -0.006374795780992307)', '(-0.5437232184688124, -0.005263374689442874)', '(-0.5488357515104711, -0.0051125330416586685)', '(-0.5527591880084625, -0.003923436497991305)', '(-0.556464200261243, -0.0037050122527805328)', '(-0.5599231210002252, -0.0034589207389822806)', '(-0.5631101480237029, -0.003187027023477629)', '(-0.5660015332017723, -0.0028913851780693733)', '(-0.567575754702968, -0.0015742215011956893)', '(-0.5688211048451186, -0.001245350142150644)', '(-0.5697283269871181, -0.0009072221419994201)', '(-0.5702906807447234, -0.0005623537576054187)', '(-0.5695039892801206, 0.0007866914646028453)', '(-0.5683740959561547, 0.0011298933239658469)', '(-0.566909396696153, 0.0014646992600016802)', '(-0.5641207809847585, 0.00278861571139458)', '(-0.5610289982377917, 0.0030917827469667835)', '(-0.5576570784053749, 0.0033719198324167745)', '(-0.5540301655185539, 0.0036269128868210983)']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41340301904140486, -0.0016595084782366864)', '(-0.4148740239057905, -0.0014710048643856162)', '(-0.41614608214301374, -0.0012720582372232627)', '(-0.417210150523646, -0.0010640683806322738)', '(-0.4180586555805167, -0.0008485050568706598)', '(-0.41868555237814453, -0.0006268967976278432)', '(-0.41908637152474193, -0.0004008191465973989)', '(-0.4192582539886777, -0.00017188246393578252)', '(-0.41919997339540255, 5.8280593275151734e-05)', '(-0.41891194559758577, 0.0002880277978167552)', '(-0.41839622542957117, 0.0005157201680146177)', '(-0.4176564906762935, 0.0007397347532776409)', '(-0.41669801340560475, 0.0009584772706887634)', '(-0.4155276189306204, 0.001170394474984373)', '(-0.414153632784246, 0.0013739861463744271)', '(-0.41258581620041074, 0.0015678165838352302)', '(-0.4108352907045406, 0.001750525495870109)', '(-0.40891445251813363, 0.001920838186406963)', '(-0.40683687757753073, 0.0020775749406029003)', '(-0.4046172180535886, 0.0022196595239421394)', '(-0.4022710913354059, 0.002346126718182679)', '(-0.401814962506002, 0.000456128829403884)', '(-0.4032520275771131, -0.0014370650711110601)', '(-0.404572211657262, -0.001320184080148873)', '(-0.4057662448071145, -0.0011940331498525238)', '(-0.4068257310725536, -0.0010594862654391354)', '(-0.4077432112764006, -0.0009174802038469987)', '(-0.40851221901108653, -0.0007690077346858981)', '(-0.40912732933247614, -0.0006151103213895933)', '(-0.40958419971854515, -0.00045687038606901905)', '(-0.4098796029248855, -0.0002954032063403858)', '(-0.4120114514412263, -0.002131848516340802)', '(-0.4139646608698429, -0.001953209428616584)', '(-0.4157253813097415, -0.001760720439898601)', '(-0.4172811039936327, -0.001555722683891223)', '(-0.41862075805994015, -0.0013396540663074105)', '(-0.4197347965462955, -0.0011140384863553082)', '(-0.4206152707937719, -0.0008804742474764296)', '(-0.4212558925619309, -0.0006406217681590064)', '(-0.42165208327193227, -0.0003961907100013442)', '(-0.4218010099169801, -0.00014892664504785168)', '(-0.4217016073049314, 9.940261204874161e-05)', '(-0.42135458642583845, 0.0003470208790929322)', '(-0.420762428866547, 0.000592157559291443)', '(-0.4199293673243291, 0.0008330615422179147)', '(-0.41886135240105116, 0.0010680149232779332)', '(-0.41756600598767774, 0.0012953464133734298)', '(-0.41605256167502785, 0.0015134443126499034)']</t>
   </si>
   <si>
     <t>[2,1,0]</t>
   </si>
   <si>
-    <t>[26, 36, 41, 47, 53, 57, 71, 72, 76, 98, 105, 110, 111, 113, 118, 125, 126, 135, 140, 142, 143, 145, 150, 153, 160, 170, 173, 187, 188]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8780679370198794, 0.011622246582887307)', '(-0.8632606498404543, 0.014807287179425189)', '(-0.8453244209282273, 0.0179362289122269)', '(-0.8243328178813, 0.02099160304692736)', '(-0.8003794801513614, 0.023953337729938615)', '(-0.7735807368910806, 0.02679874326028072)', '(-0.7460779957236464, 0.02750274116743423)', '(-0.716027815722825, 0.03005018000082141)', '(-0.6836132539708908, 0.032414561751934245)', '(-0.6490441479643695, 0.03456910600652127)', '(-0.6125562532855399, 0.03648789467882963)', '(-0.5744090689090294, 0.038147184376510435)', '(-0.5368822813516457, 0.03752678755738368)', '(-0.4982558938678353, 0.03862638748381042)', '(-0.45881939493635626, 0.03943649893147907)', '(-0.4188656889506451, 0.039953705985711185)', '(-0.38068462054302765, 0.038181068407617424)', '(-0.34254287067795713, 0.03814174986507052)', '(-0.3046932467729731, 0.03784962390498404)', '(-0.2673699220692738, 0.03732332470369934)', '(-0.23078457663125107, 0.036585345438022734)', '(-0.19512359530177487, 0.03566098132947622)', '(-0.16054638217438252, 0.034577213127392335)', '(-0.1271847610664874, 0.033361621107895124)', '(-0.09514335745514887, 0.03204140361133853)', '(-0.06450080545846135, 0.03064255199668752)', '(-0.03531159533903745, 0.029189210119423895)', '(-0.007608370609565311, 0.02770322472947214)', '(0.018595505323796255, 0.026203875933361567)', '(0.04330327041757333, 0.024707765093777076)', '(0.06453210155829286, 0.021228831140719544)', '(0.08230763596868519, 0.017775534410392323)', '(0.09865899758355663, 0.016351361614871444)', '(0.11161906511092953, 0.0129600675273729)', '(0.12121798951386589, 0.009598924402936361)', '(0.129480405467362, 0.008262415953496109)', '(0.13442907000233756, 0.004948664534975554)', '(0.1360782947371537, 0.0016492247348161224)', '(0.13443296200856078, -0.0016453327285929071)', '(0.12948820093542251, -0.00494476107313827)', '(0.12222971058817692, -0.007258490347245604)', '(0.11263742150479396, -0.009592289083382957)', '(0.10068651031317166, -0.0119509111916223)', '(0.08634878454545496, -0.014337725767716702)', '(0.0705944720212549, -0.015754312524200047)', '(0.05339601552495909, -0.017198456496295818)', '(0.03472956576196875, -0.01866644976299034)', '(0.014576672834512912, -0.020152892927455836)', '(-0.007073830080702701, -0.021650502915215614)', '(-0.03022377007748461, -0.02314993999678191)', '(-0.0548634405047916, -0.024639670427306987)', '(-0.08096932484012909, -0.026105884335337497)', '(-0.10850181576466089, -0.027532490924531798)', '(-0.13740302971821386, -0.028901213953552968)', '(-0.16859483872721978, -0.03119180900900591)', '(-0.20197363436217444, -0.03337879563495466)', '(-0.23840737493259992, -0.03643374057042547)', '(-0.27572848448727216, -0.037321109554672216)', '(-0.31574196910805585, -0.04001348462078368)', '(-0.3582152970747597, -0.04247332796670383)', '(-0.4028787342514631, -0.044663437176703416)', '(-0.44942790908579583, -0.046549174834332754)', '(-0.49752878634793407, -0.048100877262138214)', '(-0.5448249892592976, -0.04729620291136345)', '(-0.5929621031359484, -0.04813711387665085)', '(-0.6395827383508952, -0.04662063521494674)', '(-0.684350940692517, -0.044768202341621766)', '(-0.7269596942889749, -0.0426087535964579)', '(-0.76713610966296, -0.04017641537398504)', '(-0.8066442111408013, -0.03950810147784138)', '(-0.8452755373638247, -0.03863132622302335)', '(-0.8808516981843686, -0.03557616082054397)', '(-0.9152327500695444, -0.03438105188517582)', '(-0.946307171901008, -0.03107442183146359)', '(-0.9739952344657371, -0.027688062564729145)', '(-0.9982433391578227, -0.02424810469208558)', '(-1.0190183562181385, -0.020775017060315766)', '(-1.038302301213603, -0.019283944995464465)', '(-1.0540871363178057, -0.015784835104202803)', '(-1.066372505399809, -0.012285369082003252)', '(-1.0751620097285641, -0.008789504328755238)', '(-1.0804603065217377, -0.005298296793173573)', '(-1.082271040112148, -0.0018107335904103267)', '(-1.0805956001223478, 0.001675439989800174)', '(-1.0774326982220734, 0.0031629019002744545)', '(-1.0727800736188484, 0.004652624603225126)', '(-1.064634808138692, 0.008145265480156365)', '(-1.0539929625302584, 0.010641845608433695)', '(-1.040851636402004, 0.013141326128254407)', '(-1.0252107633047054, 0.01564087309729851)', '(-1.0070753266978718, 0.018135436606833526)', '(-0.9864579784064883, 0.020617348291383477)', '(-0.9633820199767987, 0.023075958429689562)', '(-0.9378846777594899, 0.02549734221730886)', '(-0.9110205647702544, 0.02686411298923554)', '(-0.8808621882651929, 0.030158376505061504)', '(-0.847508665173224, 0.03335352309196896)', '(-0.8110904864316478, 0.03641817874157613)', '(-0.771773669917444, 0.03931681651420388)', '(-0.731762797568052, 0.040010872349392025)', '(-0.689290212014493, 0.042472585553558935)', '(-0.6466254865728784, 0.042664725441614634)', '(-0.6040588669766014, 0.04256661959627705)', '(-0.5598946395996893, 0.04416422737691211)', '(-0.516458730851698, 0.04343590874799133)', '(-0.47207636834438677, 0.04438236250731124)', '(-0.4270788870744689, 0.04499748126991786)', '(-0.3817952314286183, 0.045283655645850594)', '(-0.33654331290549544, 0.045251918523122873)', '(-0.2936218295439441, 0.042921483361551334)', '(-0.251291555782164, 0.042330273761780106)', '(-0.20978388766939382, 0.04150766811277019)', '(-0.17129724281362868, 0.03848664485576513)', '(-0.13398769308305358, 0.037309549730575084)', '(-0.09797888025420398, 0.0360088128288496)', '(-0.0633628443309151, 0.03461603592328887)', '(-0.030201777185190216, 0.033161067145724886)', '(0.0014695445999804435, 0.03167132178517066)', '(0.03164089068017673, 0.03017134608019629)', '(0.05832349119814751, 0.026682600517970778)', '(0.08354426251796038, 0.02522077131981286)', '(0.10734314465380099, 0.023798882135840603)', '(0.1297705391103952, 0.022427394456594234)', '(0.1508850071774673, 0.021114468067072095)', '(0.17075125252662976, 0.019866245349162464)', '(0.18943839272857158, 0.018687140201941815)', '(0.20701851052136483, 0.017580117792793264)', '(0.2235654665580716, 0.016546956036706785)', '(0.23915395004125148, 0.015588483483179864)', '(0.25185874121736745, 0.012704791176115969)', '(0.26374384103658394, 0.011885099819216474)', '(0.2748715159416525, 0.011127674905068578)', '(0.2833020907260975, 0.008430574784445033)', '(0.29108253161338804, 0.007780440887290533)', '(0.29825712019957207, 0.007174588586184026)', '(0.3048674658193138, 0.006610345619741692)', '(0.31095254730874744, 0.006085081489433666)', '(0.3165487767940224, 0.005596229485274951)', '(0.32169007944572336, 0.005141302651700985)', '(0.3264079842585268, 0.004717904812803411)', '(0.3307317218609613, 0.004323737602434477)', '(0.33468832615189265, 0.0039566042909313735)', '(0.33830273721812626, 0.003614411066233637)', '(0.3415979035300095, 0.003295166311883247)', '(0.3445948818562109, 0.0029969783262013714)', '(0.3473129337002001, 0.002718051843989223)', '(0.34776961735272083, 0.0004566836525207148)', '(0.3479678911970832, 0.0001982738443623744)', '(0.3459090403811456, -0.0020588508159375784)', '(0.34157974184441264, -0.00432929853673295)', '(0.33495213891563563, -0.006627602928776983)', '(0.32598401244509656, -0.008968126470539071)', '(0.31661908046188936, -0.00936493198320721)', '(0.30679965046466595, -0.00981942999722339)', '(0.2964664637122809, -0.01033318675238505)', '(0.28555858038689513, -0.010907883325385793)', '(0.2740133142529553, -0.011545266133939839)', '(0.2617662273860272, -0.012247086866928082)', '(0.248751197715233, -0.013015029670794185)']</t>
-  </si>
-  <si>
-    <t>['[2,1,0]', '[1,1,2]', '[0,0,0]']</t>
-  </si>
-  <si>
-    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 76, 98, 103, 105, 106, 108, 110, 111, 113, 118, 122, 123, 125, 126, 128, 129, 130, 133, 135, 136, 137, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 170, 172, 173, 174, 175, 177, 178, 179, 184, 187, 188, 189, 190, 192]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6880558918028171, 0.016508386393691753)', '(-0.669363510760042, 0.018692381042775177)', '(-0.6486124051254014, 0.020751105634640585)', '(-0.6259455230509698, 0.022666882074431616)', '(-0.6035230444069969, 0.022422478643972947)', '(-0.5815068609166532, 0.02201618349034374)', '(-0.5580585480832244, 0.02344831283342872)', '(-0.5333522470619136, 0.024706301021310745)', '(-0.5095728054424886, 0.023779441619425058)', '(-0.4848985275598686, 0.02467427788261997)', '(-0.459513849907549, 0.025384677652319602)', '(-0.4336068537893633, 0.025906996118185702)', '(-0.40736662787126304, 0.02624022591810026)', '(-0.3809805844300644, 0.02638604344119864)', '(-0.3546318403021783, 0.026348744127886063)', '(-0.3284967714295508, 0.0261350688726275)', '(-0.30274283876391367, 0.025753932665637122)', '(-0.2775267645451654, 0.025216074218748292)', '(-0.2529931139162478, 0.024533650628917627)', '(-0.23127331025340456, 0.021719803662843234)', '(-0.21047552875554582, 0.02079778149785875)', '(-0.19269571280905878, 0.017779815946487018)', '(-0.17600967039477464, 0.016686042414284157)', '(-0.16048313246678175, 0.015526537927992875)', '(-0.14817240626328557, 0.012310726203496178)', '(-0.13911872600272746, 0.009053680260558125)', '(-0.13335045522706768, 0.0057682707756597645)', '(-0.12888478692653138, 0.004465668300536291)', '(-0.12773455826191726, 0.0011502286646141073)', '(-0.12990300850572378, -0.00216845024380652)', '(-0.13538400786410273, -0.005480999358378959)', '(-0.14316162689363487, -0.007777619029532142)', '(-0.15321219684135004, -0.010050569947715159)', '(-0.1655033012223193, -0.012291104380969262)', '(-0.17999253174077962, -0.014489230518460322)', '(-0.19662606275986777, -0.016633531019088148)', '(-0.21533711488952734, -0.018711052129659574)', '(-0.23604439536804755, -0.02070728047852021)', '(-0.2586506193620235, -0.022606223993975952)', '(-0.2830412300562681, -0.02439061069424458)', '(-0.3100834438675101, -0.027042213811242014)', '(-0.33961974091063474, -0.02953629704312468)', '(-0.3714668821436473, -0.03184714123301256)', '(-0.4054158123033052, -0.033948930159657865)', '(-0.4412326608331314, -0.0358168485298262)', '(-0.47866098804151497, -0.037428327208383565)', '(-0.5174253286736132, -0.038764340632098306)', '(-0.5572359675108034, -0.03981063883719015)', '(-0.5977947553562493, -0.0405587878454459)', '(-0.6388016570696708, -0.04100690171342154)', '(-0.6779616352958729, -0.039159978226202104)', '(-0.7150048297368369, -0.037043194440963906)', '(-0.7496900778966683, -0.03468524815983144)', '(-0.7818067012438381, -0.03211662334716986)', '(-0.8131747064806011, -0.03136800523676302)', '(-0.8416339418032781, -0.02845923532267701)', '(-0.8690536852707026, -0.0274197434674245)', '(-0.8953220330254502, -0.026268347754747668)', '(-0.9183454170182355, -0.02302338399278526)', '(-0.9400532690380612, -0.02170785201982577)', '(-0.9583891617622977, -0.018335892724236552)', '(-0.9753132588462375, -0.01692409708393981)', '(-0.9907952636892784, -0.015482004843040843)', '(-1.0028129719279248, -0.012017708238646539)', '(-1.0133528098384916, -0.010539837910566674)', '(-1.0204055231803957, -0.0070527133419040385)', '(-1.023966307569379, -0.0035607843889834036)', '(-1.0240331610213584, -6.685345197938791e-05)', '(-1.020606048670276, 0.003427112351082605)', '(-1.015686887066398, 0.0049191616038780596)', '(-1.0072788875184984, 0.008407999547899584)', '(-0.9953887934277253, 0.011890094090772983)', '(-0.9800288352547134, 0.015359958173011917)', '(-0.9632194614793449, 0.016809373775368525)', '(-0.9449890075449261, 0.01823045393441882)', '(-0.9233751597941383, 0.021613847750787795)', '(-0.9004318225696061, 0.022943337224532283)', '(-0.8762269227448911, 0.024204899824714972)', '(-0.848843724686557, 0.02738319805833416)', '(-0.8203902415345736, 0.028453483151983327)', '(-0.7909934900237343, 0.02939675151083932)', '(-0.76079954829815, 0.03019394172558431)', '(-0.7279729863958281, 0.032826561902321964)', '(-0.692707864187439, 0.03526512220838905)', '(-0.6572281347493246, 0.035479729438114394)', '(-0.619772814905862, 0.03745531984346262)', '(-0.5826061557076696, 0.03716665919819238)', '(-0.5459992489206908, 0.0366069067869788)', '(-0.5102244650067799, 0.03577478391391103)', '(-0.4735499615111849, 0.036674503495595)', '(-0.43824941533744816, 0.03530054617373673)', '(-0.40458201781173764, 0.03366739752571053)', '(-0.37078840044836947, 0.03379361736336815)', '(-0.33910113750306037, 0.03168726294530911)', '(-0.30972802913137903, 0.029373108371681358)', '(-0.28085114034728914, 0.02887688878408991)', '(-0.254638149724655, 0.026212990622634158)', '(-0.23123049339290566, 0.02340765633174933)', '(-0.20874506456379105, 0.02248542882911462)', '(-0.18728523521613663, 0.021459829347654426)', '(-0.16694107568730593, 0.020344159528830712)', '(-0.14978988512969355, 0.01715119055761237)', '(-0.13589049732614522, 0.013899387803548328)', '(-0.12528622577435997, 0.010604271551785265)', '(-0.11600743614505499, 0.009278789629304982)', '(-0.11007876906935003, 0.005928667075704951)', '(-0.10751501635217446, 0.0025637527171755744)', '(-0.10632234302847585, 0.00119267332369862)', '(-0.10650356932903146, -0.00018122630055562037)', '(-0.11005826867797532, -0.0035546993489438488)', '(-0.11597793223791387, -0.005919663559938553)', '(-0.1242477938071961, -0.008269861569282218)', '(-0.13484598484993077, -0.010598191042734679)', '(-0.14774238677673315, -0.012896401926802374)', '(-0.16289721965195628, -0.01515483287522312)', '(-0.1802594221332571, -0.01736220248130082)', '(-0.19976489533175928, -0.019505473198502182)', '(-0.2213347026798411, -0.021569807348081803)', '(-0.24487333732548278, -0.023538634645641692)', '(-0.27026718575844266, -0.025393848432959897)', '(-0.29838332832605396, -0.02811614256761129)', '(-0.3270629753679499, -0.028679647041895934)', '(-0.3581327092931149, -0.031069733925165016)', '(-0.38939309711285985, -0.031260387819744925)', '(-0.42063305357084974, -0.03123995645798987)', '(-0.45163303049229436, -0.030999976921444638)', '(-0.4821685672138221, -0.030535536721527774)', '(-0.5140140310903683, -0.031845463876546146)', '(-0.5449313706452287, -0.030917339554860448)', '(-0.5746888249302006, -0.029757454284971886)', '(-0.6030646023265869, -0.02837577739638629)', '(-0.6318500153891655, -0.02878541306257859)', '(-0.6608377399813437, -0.028987724592178087)', '(-0.6898250062280871, -0.028987266246743464)', '(-0.7186166085661277, -0.028791602338040657)', '(-0.7450276009436124, -0.02641099237748468)', '(-0.7708973495918112, -0.025869748648198805)', '(-0.7960778816643759, -0.025180532072564692)', '(-0.82043492594962, -0.02435704428524409)', '(-0.8438484910541739, -0.023413565104553915)', '(-0.8662130036867236, -0.022364512632549696)', '(-0.887437050398482, -0.021224046711758374)', '(-0.9054427809076601, -0.018005730509178093)', '(-0.9221711871161646, -0.01672840620850463)', '(-0.9355733967004526, -0.013402209584287984)', '(-0.9456144757046784, -0.010041079004225777)', '(-0.9522707491385233, -0.006656273433844947)', '(-0.9555277141474704, -0.003256965008947089)', '(-0.9553786226192631, 0.00014909152820733124)', '(-0.9518237784449067, 0.0035548441743564092)', '(-0.944870569814492, 0.006953208630414743)']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 65, 66, 67, 68, 69, 70, 71, 72, 75, 76, 83, 84, 86, 90, 92, 93, 98, 100, 103, 105, 106, 108, 110, 111, 113, 114, 116, 118, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 143, 145, 146, 150, 153, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 168, 169, 170, 172, 173, 174, 175, 177, 178, 179, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.586997346946961, -0.011758314434739896)', '(-0.5972830336732502, -0.010285686726289196)', '(-0.6060205781454487, -0.008737544472198586)', '(-0.6131462389751223, -0.007125660829673557)', '(-0.6206083428887885, -0.007462103913666154)', '(-0.6263531022502102, -0.005744759361421666)', '(-0.632339351725236, -0.005986249475025785)', '(-0.6365244354026288, -0.004185083677392806)', '(-0.6408786844933909, -0.004354249090762077)', '(-0.6453713700460455, -0.004492685552654545)', '(-0.6479709402851495, -0.002599570239103915)', '(-0.6486592123647617, -0.0006882720796121638)', '(-0.649431381360173, -0.0007721689954113662)', '(-0.6502820613003635, -0.0008506799401904973)', '(-0.6492053243168457, 0.0010767369835177865)', '(-0.6462086745423676, 0.0029966497744780916)', '(-0.6413130468955925, 0.004895627646775107)', '(-0.6365527982919182, 0.0047602486036743144)', '(-0.6319615144736636, 0.004591283818254676)', '(-0.6255717496974983, 0.0063897647761652614)', '(-0.6194290610225015, 0.006142688674996798)', '(-0.6135775049578314, 0.005851556064670123)', '(-0.6080592740529784, 0.005518230904852933)', '(-0.6009143458696193, 0.007144928183359085)', '(-0.5921947363431173, 0.00871960952650211)', '(-0.5839642806131199, 0.008230455729997388)', '(-0.5762835542206413, 0.007680726392478683)', '(-0.5692093350942834, 0.007074219126357884)', '(-0.56279410322576, 0.006415231868523402)', '(-0.5550855833478235, 0.007708519877936397)', '(-0.5481412634421118, 0.006944319905711725)', '(-0.5420130411386371, 0.00612822230347468)', '(-0.5347467820779424, 0.0072662590606948334)', '(-0.528396928554119, 0.006349853523823296)', '(-0.5210110901258385, 0.007385838428280531)', '(-0.5136446591436682, 0.007366430982170218)', '(-0.50635287293955, 0.007291786204118242)', '(-0.4991903733085111, 0.007162499631038883)', '(-0.49321077314329065, 0.005979600165220477)', '(-0.4884587674389798, 0.004752005704310838)', '(-0.48496982391164656, 0.00348894352733326)', '(-0.4827699494851742, 0.002199874426472343)', '(-0.4818755261383238, 0.0008944233468504213)', '(-0.48229321068031034, -0.00041768454198651836)', '(-0.4840198947410504, -0.0017266840607400732)', '(-0.48704272340159793, -0.0030228286605475524)', '(-0.4893391732046905, -0.002296449803092549)', '(-0.49089211788869014, -0.0015529446839996563)', '(-0.49368996908956614, -0.0027978512008759813)', '(-0.49771183547198533, -0.004021866382419209)', '(-0.500927658802457, -0.0032158233304717156)', '(-0.5033133844487006, -0.0023857256462434945)', '(-0.5048511566379343, -0.0015377721892337493)', '(-0.5055294618516276, -0.0006783052136932974)', '(-0.5053432205573035, 0.00018624129432404384)', '(-0.5042938274916938, 0.0010493930656097288)', '(-0.5043891406113441, -9.531311965023013e-05)', '(-0.5056284462604629, -0.0012393056491187384)', '(-0.5060024641030163, -0.0003740178425533816)', '(-0.507508392996397, -0.0015059288933807595)', '(-0.5081349528994266, -0.000626559903029519)', '(-0.5078774498762375, 0.00025750302318905394)', '(-0.5067378130868788, 0.0011396367893587176)', '(-0.50672457959708, 1.3233489798896835e-05)', '(-0.5058378485309684, 0.0008867310661115955)', '(-0.5060842613965025, -0.00024641286553415715)', '(-0.5074619726837821, -0.0013777112872796313)', '(-0.5079606627263474, -0.0004986900425653628)', '(-0.5075765955967051, 0.0003840671296422866)', '(-0.5063126485505188, 0.0012639470461863062)', '(-0.5041782893557066, 0.0021343591948121948)', '(-0.5031895014206337, 0.0009887879350729974)', '(-0.5013536874207796, 0.0018358139998540678)', '(-0.5006845877715486, 0.0006690996492309679)', '(-0.4991872092106054, 0.0014973785609431797)', '(-0.4968727537826138, 0.002314455427991578)', '(-0.4957585288262291, 0.001114224956384695)', '(-0.4938528630482899, 0.0019056657779392173)', '(-0.49316999563507347, 0.0006828674132164354)', '(-0.49371502724239136, -0.0005450316073179)', '(-0.4934838868504871, 0.0002311403919042622)', '(-0.4944783009964323, -0.0009944141459452078)', '(-0.49469084099788846, -0.00021254000145613783)', '(-0.4961199188396534, -0.001429077841764932)', '(-0.49875485476080056, -0.00263493592114714)', '(-0.5005759476266702, -0.0018210928658696675)', '(-0.5035695744483498, -0.0029936268216796237)', '(-0.5077133299001799, -0.004143755451830068)', '(-0.5109761811025465, -0.003262851202366597)', '(-0.5153336791397415, -0.004357498037194977)', '(-0.5187531590487784, -0.003419479909036917)', '(-0.5232089798019807, -0.004455820753202247)', '(-0.526667724022989, -0.0034587442210083433)', '(-0.5291034514559889, -0.002435727432999891)', '(-0.5324978956965272, -0.003394444240538197)', '(-0.5368256044645953, -0.004327708768068144)', '(-0.5420541380468475, -0.005228533582252231)', '(-0.5461443271163164, -0.0040901890694689455)', '(-0.5510655534443122, -0.004921226327995755)', '(-0.5567810119772584, -0.005715458532946218)', '(-0.5612480145599325, -0.004467002582674044)', '(-0.5664332478405225, -0.0051852332805901015)', '(-0.5722981060134769, -0.0058648581729543806)', '(-0.5787990171583929, -0.0065009111449160165)', '(-0.5838878161353861, -0.005088798976993264)', '(-0.5875269085670272, -0.003639092431641062)', '(-0.5916894737970212, -0.004162565229993999)', '(-0.5963449029213733, -0.004655429124352126)', '(-0.6014590567286969, -0.005114153807323581)', '(-0.6069945540326517, -0.005535497303954725)', '(-0.6129110876705705, -0.005916533637918829)', '(-0.6171657649344081, -0.004254677263837704)', '(-0.6217278690739185, -0.004562104139510431)', '(-0.6265645893529675, -0.004836720279049033)', '(-0.6316412885131689, -0.005076699160201416)', '(-0.6369217829836394, -0.005280494470470543)', '(-0.6423686327354253, -0.00544684975178587)', '(-0.6459434375325467, -0.0035748047971213676)', '(-0.6496211209564977, -0.0036776834239509847)', '(-0.6533759926245801, -0.0037548716680824677)', '(-0.6571819388719535, -0.003805946247373399)', '(-0.6610126137225555, -0.0038306748506019912)', '(-0.6648416284121935, -0.003829014689638038)', '(-0.6666427378111369, -0.001801109398943409)', '(-0.6684036433097437, -0.0017609054986067814)', '(-0.670112350182575, -0.0017087068728313184)', '(-0.6697572473323828, 0.000355102850192187)', '(-0.6693407454823134, 0.0004165018500694336)', '(-0.6688656737159816, 0.0004750717663317425)', '(-0.6663352609698364, 0.002530412746145165)', '(-0.6617667417437408, 0.004568519226095586)', '(-0.6551913827922682, 0.006575358951472609)', '(-0.6486545160673064, 0.006536866724961774)', '(-0.6422015790304495, 0.0064529370368569365)', '(-0.6358777713569692, 0.00632380767348029)', '(-0.6297277049737363, 0.006150066383232845)', '(-0.6237950515052266, 0.0059326534685097305)', '(-0.6181221913267039, 0.00567286017852275)', '(-0.6127498684345721, 0.005372322892131794)', '(-0.6077168552466752, 0.005033013187896895)', '(-0.6010596312515423, 0.0066572239951329625)', '(-0.5948266655072799, 0.00623296574426233)', '(-0.5890635467124371, 0.005763118794842799)', '(-0.5838125923325375, 0.005250954379899623)', '(-0.57711248639442, 0.006700105938117423)', '(-0.5710127494465032, 0.00609973694791684)', '(-0.5655586056269019, 0.005454143819601271)', '(-0.5607905935246353, 0.004768012102266513)', '(-0.5567442211827632, 0.004046372341872117)', '(-0.5514496674570436, 0.00529455372571959)', '(-0.5469464749931371, 0.004503192463906548)', '(-0.5432683179294564, 0.0036781570636806316)', '(-0.5404427248955153, 0.0028255930339411983)', '(-0.5364908559980808, 0.0039518688974344565)', '(-0.5314423206016445, 0.005048535396436288)', '(-0.5253349640461561, 0.0061073565554884395)', '(-0.5182145861361853, 0.0071203779099707955)', '(-0.5111345878912477, 0.00707999824493761)', '(-0.504148049271293, 0.0069865386199547365)', '(-0.4963073083262943, 0.007840740944998674)', '(-0.4896710247798412, 0.006636283546453145)', '(-0.48428876023486983, 0.005382264544971368)', '(-0.48020063790033146, 0.004088122334538387)', '(-0.47743708284775355, 0.0027635550525779424)', '(-0.4740186349335379, 0.003418447914215613)', '(-0.47197066846921215, 0.0020479664643257784)', '(-0.4693083665210244, 0.0026623019481877143)', '(-0.4680514448225236, 0.0012569216985008568)', '(-0.4682092026245482, -0.00015775780202460007)', '(-0.4697804730874422, -0.0015712704628940003)', '(-0.47075362945508525, -0.0009731563676430346)', '(-0.47312146627554497, -0.002367836820459707)', '(-0.4748664376653676, -0.0017449713898226745)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 83, 84, 85, 86, 90, 92, 93, 94, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 120, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 154, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 168, 169, 170, 171, 172, 173, 174, 175, 177, 178, 179, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41330409289083714, -0.0009532031213434686)', '(-0.414069494133723, -0.0007654012428858692)', '(-0.4146416622434567, -0.0005721681097337159)', '(-0.4150165343594348, -0.00037487211597809274)', '(-0.4151914473005154, -0.0001749129410805986)', '(-0.4171651580969294, -0.001973710796414033)', '(-0.418923625963902, -0.0017584678669725837)', '(-0.42045431814236534, -0.0015306921784633398)', '(-0.42174630774328975, -0.0012919896009244414)', '(-0.42279035935977227, -0.0010440516164825107)', '(-0.42357900163596396, -0.0007886422761916653)', '(-0.42610658610841706, -0.0025275844724531285)', '(-0.43035498183666826, -0.00424839572825122)', '(-0.43629362126771914, -0.005938639431050897)', '(-0.44387958860723253, -0.007585967339513372)', '(-0.4510577665696372, -0.0071781779624046395)', '(-0.4577757178494491, -0.00671795127981189)', '(-0.46598413992546345, -0.008208422076014375)', '(-0.473622523432898, -0.007638383507434542)', '(-0.4806343261617785, -0.007011802728880458)', '(-0.4889674707652034, -0.008333144603424922)', '(-0.4965598831464711, -0.007592412381267663)', '(-0.5053548649022528, -0.008794981755781745)', '(-0.5132866076850177, -0.007931742782764865)', '(-0.5202956793909246, -0.00700907170590691)', '(-0.5283295239129585, -0.008033844522033918)', '(-0.5353278890137035, -0.006998365100745047)', '(-0.5432383039156956, -0.00791041490199203)', '(-0.5500015075613314, -0.0067632036456357295)', '(-0.5575668977136885, -0.007565390152357147)', '(-0.5658779676487463, -0.008311069935057825)', '(-0.5748727931822136, -0.008994825533467324)', '(-0.5844845782982045, -0.00961178511599088)', '(-0.5926422548831705, -0.008157676584965889)', '(-0.6012858001557896, -0.008643545272619124)', '(-0.6103519531400221, -0.009066152984232469)', '(-0.6197747777418566, -0.00942282460183449)', '(-0.6274862488762011, -0.007711471134344429)', '(-0.6354311165295627, -0.007944867653361627)', '(-0.6435528878761819, -0.008121771346619224)', '(-0.6497942957442577, -0.006241407868075796)', '(-0.6561116848923344, -0.006317389148076637)', '(-0.6604611985820769, -0.004349513689742426)', '(-0.6628128426323189, -0.002351644050241989)', '(-0.6651504705787021, -0.002337627946383285)', '(-0.667458082209472, -0.0023076116307698866)', '(-0.6677199324453679, -0.0002618502358958546)', '(-0.6659342378065555, 0.0017856946388124114)', '(-0.6621131735514203, 0.0038210642551351824)', '(-0.6562828919051737, 0.005830281646246573)', '(-0.650483551010415, 0.005799340894758788)', '(-0.6447553900166513, 0.005728160993763746)', '(-0.6391384302194273, 0.005616959797224004)', '(-0.6336721709209067, 0.005466259298520596)', '(-0.6283952833079184, 0.005276887612988327)', '(-0.621345305759096, 0.00704997754882246)', '(-0.6145726906180523, 0.006772615141043657)', '(-0.6061262100093862, 0.008446480608666122)', '(-0.5980670776456255, 0.008059132363760699)', '(-0.5904540673046882, 0.0076130103409373494)', '(-0.5833429972281294, 0.007111070076558792)', '(-0.5767862406941091, 0.006556756534020275)', '(-0.5708322687199341, 0.005953971974175031)', '(-0.56552522986089, 0.005307038859044039)', '(-0.560904571058389, 0.004620658802501011)', '(-0.5570047025164844, 0.003899868541904646)', '(-0.5538547087069908, 0.003149993809493506)', '(-0.5514781068613281, 0.0023766018456626977)', '(-0.5498926537267863, 0.0015854531345418502)', '(-0.5491102009535634, 0.0007824527732228601)', '(-0.5491365992267985, -2.6398273235063224e-05)', '(-0.549971651139613, -0.0008350519128144869)', '(-0.5496091127810321, 0.0003625383585808868)', '(-0.5480516947992569, 0.0015574179817751787)', '(-0.545311044371174, 0.0027406504280829223)', '(-0.5414076670539822, 0.0039033773171917524)', '(-0.5363707865841416, 0.0050368804698406044)', '(-0.5322381394687169, 0.004132647115424768)', '(-0.5290407043783589, 0.0031974350903579956)', '(-0.5268024566351818, 0.0022382477431771696)', '(-0.5255401816541398, 0.0012622749810418698)', '(-0.5232633462099984, 0.002276835444141518)', '(-0.5199890264858446, 0.0032743197241538406)', '(-0.5157417793508814, 0.004247247134963151)', '(-0.5125534542313249, 0.003188325119556454)', '(-0.5084479538632583, 0.004105500368066652)', '(-0.5054560455366388, 0.0029919083266194287)', '(-0.5036001405122705, 0.0018559050243682634)', '(-0.5028941352856656, 0.0007060052266048846)', '(-0.5013433150289359, 0.0015508202567296602)', '(-0.4989592867425226, 0.002384028286413319)', '(-0.4977598863826451, 0.0011994003598774638)', '(-0.4977540836731981, 5.80270944698408e-06)', '(-0.4989419220037854, -0.001187838330587285)', '(-0.5013145181405609, -0.002372596136775495)', '(-0.5048541217424868, -0.00353960360192581)', '(-0.5075342361657459, -0.00268011442325911)', '(-0.5113347880002922, -0.0038005518345463)', '(-0.5162272989918171, -0.004892510991524888)', '(-0.5221750915517434, -0.005947792559926267)', '(-0.5291335617095555, -0.00695847015781211)', '(-0.5370505228789652, -0.00791696116940968)', '(-0.545866623325019, -0.008816100446053876)', '(-0.5535158391041853, -0.007649215779166312)', '(-0.5619409780235152, -0.008425138919329778)', '(-0.5710791841431402, -0.009138206119625033)', '(-0.580862490169996, -0.009783306026855789)', '(-0.5912184276951042, -0.010355937525108189)', '(-0.6020706890138089, -0.010852261318704657)', '(-0.6113398321356873, -0.009269143121878395)', '(-0.6209584901327432, -0.009618657997055906)', '(-0.6308572882992209, -0.009898798166477766)', '(-0.6409654577968416, -0.0101081694976206)', '(-0.6512114528535868, -0.010245995056745266)', '(-0.6615235615307418, -0.010312108677154885)', '(-0.6698305001512767, -0.008306938620534863)', '(-0.6760755423743052, -0.006245042223028626)', '(-0.6802164744525396, -0.004140932078234373)', '(-0.6842255182656574, -0.004009043813117742)', '(-0.6860759468012839, -0.0018504285356265764)', '(-0.6857554801410709, 0.00032046666021296735)', '(-0.6852662424111406, 0.0004892377299302343)', '(-0.6826114784735725, 0.0026547639375681343)', '(-0.6778088396079412, 0.004802638865631232)', '(-0.6708904423453375, 0.006918397262603747)', '(-0.6639029572703912, 0.006987485074946266)', '(-0.6568939884006275, 0.007008968869763621)', '(-0.6499117370164643, 0.006982251384163182)', '(-0.6430046485320292, 0.006907088484435157)', '(-0.6362210461733716, 0.006783602358657566)', '(-0.6296087556604575, 0.006612290512914119)', '(-0.6232147253954496, 0.0063940302650078214)', '(-0.6170846468323337, 0.006130078563115986)', '(-0.6112625797398428, 0.005822067092490881)', '(-0.6057905869765512, 0.005471992763291537)', '(-0.6007083831867546, 0.005082203789796641)', '(-0.5960530015170877, 0.004655381669666833)', '(-0.5918584820697468, 0.004194519447340957)', '(-0.5861555853739632, 0.005702896695783561)', '(-0.58098626183738, 0.005169323536583186)', '(-0.5763886552052736, 0.0045976066321063835)', '(-0.5723967774267934, 0.003991877778480189)', '(-0.5670402204844833, 0.005356556942310082)', '(-0.5603587742079633, 0.006681446276520054)', '(-0.5544021864312133, 0.005956587776750023)', '(-0.5492149017458229, 0.005187284685390376)', '(-0.542835685159085, 0.006379216586737955)', '(-0.537312271823643, 0.005523413335441946)', '(-0.5326860362773537, 0.0046262355462893924)', '(-0.5269916547177769, 0.005694381559576771)', '(-0.5222718270041994, 0.00471982771357753)', '(-0.5185619513787922, 0.003709875625407177)', '(-0.5158898504974979, 0.002672100881294292)', '(-0.5142755614007211, 0.0016142890967768802)', '(-0.5137311872938339, 0.0005443741068870943)', '(-0.5142608092907022, -0.0005296219968682428)', '(-0.5158604568749424, -0.001599647584240278)', '(-0.5185181366366927, -0.002657679761750258)', '(-0.5222139197152798, -0.0036957830785870984)', '(-0.5269200891831105, -0.004706169467830754)', '(-0.5326013492112286, -0.005681260028118115)', '(-0.537215098145238, -0.004613748934009411)', '(-0.5427267530586701, -0.0055116549134321255)', '(-0.5490950268617089, -0.006368273803038719)', '(-0.5562722651839469, -0.007177238322238082)', '(-0.5642048445549342, -0.00793257937098735)', '(-0.5728336310761722, -0.008628786521238037)', '(-0.5820944973912872, -0.009260866315114897)', '(-0.5919188941024232, -0.009824396711135969)', '(-0.6022344699501248, -0.010315575847701645)', '(-0.6109657331956261, -0.008731263245501353)', '(-0.6200492208274362, -0.009083487631810156)', '(-0.6294193819932857, -0.00937016116584959)', '(-0.6390091526121336, -0.009589770618847871)', '(-0.6467505357113373, -0.0077413830992037105)', '(-0.6545891500072776, -0.007838614295940287)', '(-0.6624704274237145, -0.007881277416436913)', '(-0.6683400366499502, -0.005869609226235693)', '(-0.6721578800094816, -0.0038178433595314294)', '(-0.673898050539849, -0.0017401705303673907)', '(-0.6735487865640818, 0.0003492639757672316)', '(-0.6711124463588708, 0.0024363402052109562)', '(-0.6666055134721849, 0.004506932886685891)', '(-0.6600586305599547, 0.006546882912230168)', '(-0.651516647054381, 0.00854198350557378)', '(-0.6430386543060939, 0.008477992748287127)', '(-0.6346839088341673, 0.008354745471926583)', '(-0.6245113607325367, 0.010172548101630608)', '(-0.6145934761971004, 0.00991788453543625)', '(-0.6050015760734617, 0.009591900123638692)', '(-0.5958052052259507, 0.009196370847510998)', '(-0.5870715114911528, 0.008733693734797895)', '(-0.5788646438559535, 0.008206867635199261)', '(-0.5712451785941318, 0.0076194652618216275)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 20, 21, 22, 24, 25, 26, 27, 28, 30, 31, 32, 34, 35, 36, 37, 39, 40, 41, 42, 44, 45, 46, 47, 49, 50, 51, 52, 54, 55, 56, 58, 59, 60, 61, 62, 64, 65, 66, 68, 69, 70, 71, 73, 74, 75, 76, 78, 79, 80, 81, 83, 84, 85, 86, 88, 89, 90, 92, 93, 94, 95, 96, 98, 99, 100, 102, 103, 104, 105, 107, 108, 109, 110, 112, 113, 114, 115, 117, 118, 119, 120, 122, 123, 124, 126, 127, 128, 129, 130, 132, 133, 134, 136, 137, 138, 139, 141, 142, 143, 144, 146, 147, 148, 149, 151, 152, 153, 154, 156, 157, 158, 160, 161, 162, 163, 164, 166, 167, 168, 170, 171, 172, 173, 175, 176, 177, 178, 180, 181, 182, 183, 185, 186, 187, 188, 190, 191, 192, 194, 195, 196, 197, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41330409289083714, -0.0009532031213434686)', '(-0.414069494133723, -0.0007654012428858692)', '(-0.4146416622434567, -0.0005721681097337159)', '(-0.4150165343594348, -0.00037487211597809274)', '(-0.4151914473005154, -0.0001749129410805986)', '(-0.4151651580969294, 2.628920358596718e-05)', '(-0.4149378535795836, 0.00022730451734574925)', '(-0.41551114893842594, -0.0005732953588423452)', '(-0.4158809697143931, -0.00036982077596716886)', '(-0.4160446863087297, -0.0001637165943365978)', '(-0.4160011343075986, 4.355200113108522e-05)', '(-0.4157506234878511, 0.00025051081974754893)', '(-0.415294935420814, 0.00045568806703703596)', '(-0.4156373096962159, -0.0003423742754018268)', '(-0.41577531243674626, -0.00013800274053039376)', '(-0.4157079623681807, 6.73500685655715e-05)', '(-0.4154357384030083, 0.0002722239651723981)', '(-0.41596057593891184, -0.0005248375359035708)', '(-0.4162787431277551, -0.0003181671888432395)', '(-0.4163879766891769, -0.00010923356142178615)', '(-0.4162874994246043, 0.0001004772645725767)', '(-0.41597802623454605, 0.0003094731900582367)', '(-0.41546175858357076, 0.0005162676509752906)', '(-0.4157423674641095, -0.0002806088805387229)', '(-0.41581785780453295, -7.549034042349603e-05)', '(-0.41568769278777773, 0.00013016501675524347)', '(-0.4153527980008803, 0.00033489478689743314)', '(-0.41581555428077066, -0.0004627562798903569)', '(-0.4160726715846028, -0.00025711730383213974)', '(-0.4161223212320409, -4.964964743810684e-05)', '(-0.4159641500484534, 0.00015817118358750352)', '(-0.4155992830974093, 0.0003648669510441081)', '(-0.4160303149772468, -0.0004310318798375223)', '(-0.41625418048357804, -0.00022386550633126366)', '(-0.4162692871144063, -1.5106630828238036e-05)', '(-0.4160755273935084, 0.00019375972089793027)', '(-0.41567427970236426, 0.00040124769114414905)', '(-0.416068397612949, -0.0003941179105847331)', '(-0.41625507826851493, -0.00018668065556590803)', '(-0.4162329936613265, 2.2084607188463802e-05)', '(-0.4160023009096816, 0.00023069275164491233)', '(-0.4155646410417846, 0.00043765986789699187)', '(-0.41592312629770367, -0.0003584852559190704)', '(-0.416075207556853, -0.00015208125914935235)', '(-0.4160198031208113, 5.540443604170112e-05)', '(-0.4157573070801999, 0.00026249604061141525)', '(-0.4152895862660586, 0.00046772081414132047)', '(-0.4156199658138646, -0.0003303795478059988)', '(-0.41574609714155275, -0.00012613132768810335)', '(-0.41566708340808695, 7.901373346581256e-05)', '(-0.4153834864440649, 0.00028359696402204947)', '(-0.4158973224097568, -0.0005138359656918598)', '(-0.4162049378959184, -0.0003076154861616033)', '(-0.41630414483200306, -9.920693608464612e-05)', '(-0.41619423741470324, 0.00010990741729981852)', '(-0.41587599757123306, 0.0003182398434702036)', '(-0.41535168890688473, 0.0005243086643483445)', '(-0.41562503919276855, -0.0002733502858838089)', '(-0.4156941051871065, -6.906599433793533e-05)', '(-0.41555839581637716, 0.0001357093707293381)', '(-0.4152188759699238, 0.00033951984645334127)', '(-0.41567795904469734, -0.00045908307477355583)', '(-0.415932381559878, -0.00025442251518067137)', '(-0.41598033425370967, -4.795269383169607e-05)', '(-0.41582147607085657, 0.00015885818285311297)', '(-0.41545693680005774, 0.00036453927079882996)', '(-0.41588930833773424, -0.00043237153767649314)', '(-0.41611551639098904, -0.00022620805325482024)', '(-0.4161339520193795, -1.843562839050979e-05)', '(-0.41594448408050344, 0.0001894679388761084)', '(-0.41554846024471875, 0.0003960238357846714)', '(-0.41594869656962835, -0.0004002363249095949)', '(-0.4161423470373145, -0.00019365046768616916)', '(-0.4161280342187162, 1.43128185983144e-05)', '(-0.41590585992957, 0.00022217428914616947)', '(-0.415477404442583, 0.00042845548698699175)', '(-0.41584571426311184, -0.00036830982052879827)', '(-0.4160081706269545, -0.00016245636384264834)', '(-0.4159636181251365, 4.455250181803407e-05)', '(-0.41571237363910407, 0.0002512444860324095)', '(-0.41525622388981753, 0.00045614974928652994)', '(-0.4155984116233675, -0.000342187733549993)', '(-0.41573650438378107, -0.0001380927604135592)', '(-0.4156695202951458, 6.698408863528116e-05)', '(-0.4153979356490304, 0.0002715846461154429)', '(-0.41592368122363516, -0.0005257455746047677)', '(-0.416243018854785, -0.00031933763114983416)', '(-0.4163536770188684, -0.00011065816408341094)', '(-0.41625486840881604, 9.880861005234548e-05)', '(-0.4159472960290474, 0.00030757237976862875)', '(-0.41543314775307716, 0.0005141482759702522)', '(-0.4157160793940607, -0.00028293164098352704)', '(-0.4157940794216553, -7.80000275946135e-05)', '(-0.415666593186203, 0.00012748623545227248)', '(-0.4153345272057991, 0.0003320659804038963)', '(-0.41580024215993877, -0.0004657149541396709)', '(-0.4160604270266194, -0.0002601848666806382)', '(-0.4161132313338603, -5.280430724090431e-05)', '(-0.41595827947089137, 0.00015495186296892946)', '(-0.4155966735941486, 0.00036160587674276983)', '(-0.41603098510124503, -0.00043431150709641753)', '(-0.41625812546833746, -0.0002271403670924386)', '(-0.416276478893464, -1.835342512649307e-05)', '(-0.4160859148003346, 0.0001905640931294208)', '(-0.4156877888490852, 0.00039812595124938735)', '(-0.41608493244465844, -0.0003971435955732644)', '(-0.4162745211698533, -0.00018958872519486095)', '(-0.4162552063052215, 1.9314864631814156e-05)', '(-0.41602712526692337, 0.00022808103829815673)', '(-0.4155919005430358, 0.00043522472388756784)', '(-0.41595262713813774, -0.00036072659510192533)', '(-0.4161067399206796, -0.0001541127825418735)', '(-0.4160531427091938, 5.3597211485811674e-05)', '(-0.41579221675195155, 0.00026092595724226816)', '(-0.41532581777740996, 0.00046639897454161996)', '(-0.41565726164268213, -0.00033144386527215325)', '(-0.41578419211236683, -0.0001269304696847268)', '(-0.41570570662898715, 7.848548337969e-05)', '(-0.41542236328853654, 0.00028334334045062616)', '(-0.4159361765268991, -0.0005138132383625809)', '(-0.416243492953457, -0.0003073164265578447)', '(-0.4163421265400327, -9.863358657572472e-05)', '(-0.4162313755355137, 0.0001107510045189929)', '(-0.41591202789836434, 0.00031934763714935226)', '(-0.4153863551968393, 0.000525672701525058)', '(-0.4156580950332496, -0.0002717398364102809)', '(-0.4157253155485042, -6.72205152546368e-05)', '(-0.4155875387753585, 0.00013777677314576707)', '(-0.4152457443320917, 0.00034179444326679065)', '(-0.4157023618527765, -0.00045661752068479203)', '(-0.4159541452995063, -0.00025178344672984474)', '(-0.41599930413604513, -4.5158836538841673e-05)', '(-0.41583751717132283, 0.00016178696472230272)', '(-0.415469935043609, 0.00036758212771382875)', '(-0.41589917132243504, -0.00042923627882604477)', '(-0.4161221739724229, -0.00022300264998784602)', '(-0.4161373568389183, -1.5182866495388873e-05)', '(-0.4159446119175948, 0.00019274492132347022)', '(-0.4155453101901541, 0.0003993017274407074)', '(-0.41594229101840535, -0.0003969808282512493)', '(-0.41613273154732416, -0.00019044052891878437)', '(-0.41611527719091623, 1.7454356407916173e-05)', '(-0.41589005211118507, 0.00022522507973117025)', '(-0.41545865825742495, 0.00043139385376013265)', '(-0.41582416297471075, -0.0003655047172857974)', '(-0.41598396749647004, -0.00015980452175929814)', '(-0.41593693530005754, 4.703219641249642e-05)', '(-0.41568340089530326, 0.00025353440475429706)', '(-0.41522516723744907, 0.00045823365785418535)', '(-0.41556549178835295, -0.0003403245509038718)', '(-0.4157019554146644, -0.0001364636263115047)', '(-0.415633587857004, 6.836755766040478e-05)', '(-0.4153608752268768, 0.00027271263012715384)', '(-0.4158857562503178, -0.0005248810234410217)', '(-0.41620449905120543, -0.00031874280088763204)', '(-0.41631483642400147, -0.00011033737279602458)', '(-0.4162159833743773, 9.885304962417324e-05)', '(-0.4159086431955816, 0.0003073401787957329)', '(-0.4153950020244175, 0.000513641171164077)', '(-0.4156787119271198, -0.0002837099027023167)', '(-0.41575775591697817, -7.904398985837094e-05)', '(-0.41563157194166955, 0.0001261839753086125)', '(-0.41530105722708005, 0.0003305147145894789)', '(-0.4157685613434917, -0.000467504116411644)', '(-0.4160307606579066, -0.0002621993144149233)', '(-0.4160857904287518, -5.5029770845190255e-05)', '(-0.4159332592261636, 0.00015253120258822866)', '(-0.4155742519601225, 0.0003590072660410817)', '(-0.4160113214884816, -0.00043706952835908)', '(-0.41624135974001525, -0.00023003825153367346)', '(-0.4162627303280344, -2.1370588019136252e-05)', '(-0.41607528121282616, 0.00018744911520821332)', '(-0.4156803458784989, 0.0003949353343272741)', '(-0.41608073301336157, -0.0004003871348626783)', '(-0.4162735951493731, -0.00019286213601156163)', '(-0.416257560283818, 1.603486555513088e-05)', '(-0.4160327424972902, 0.00022481778652780132)', '(-0.4156007410706324, 0.00043200142665782376)', '(-0.4159646281089865, -0.00036388703835411775)', '(-0.4161218159797328, -0.00015718787074629477)', '(-0.4160711866135715, 5.062936616128245e-05)', '(-0.41581310015384354, 0.0002580864597279774)', '(-0.4153493921701251, 0.000463707983718417)', '(-0.41568335946182444, -0.0003339672916993328)', '(-0.4158126277950316, -0.0001292683332071204)', '(-0.4157362779633353, 7.634983169631194e-05)', '(-0.41545485289261086, 0.0002814250707244138)', '(-0.4159703534443338, -0.0005155005517229382)', '(-0.41627911410752505, -0.0003087606631912601)', '(-0.41637893850391144, -9.982439638640491e-05)', '(-0.41626911638436087, 0.00010982211955055943)', '(-0.41595042912775326, 0.00031868725660763207)', '(-0.4154251436914828, 0.0005252854362704322)', '(-0.41569699506948393, -0.00027185137800109466)']</t>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8780679370198794, 0.011622246582887307)', '(-0.8632606498404543, 0.014807287179425189)', '(-0.8453244209282273, 0.0179362289122269)', '(-0.8243328178813, 0.02099160304692736)', '(-0.8003794801513614, 0.023953337729938615)', '(-0.7735807368910806, 0.02679874326028072)', '(-0.7460779957236464, 0.02750274116743423)', '(-0.716027815722825, 0.03005018000082141)', '(-0.6836132539708908, 0.032414561751934245)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[1,1,1]', '[2,0,1]', '[0,1,1]', '[1,2,0]', '[2,1,0]', '[0,0,0]', '[1,0,2]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6880558918028171, 0.016508386393691753)']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.586997346946961, -0.011758314434739896)', '(-0.5972830336732502, -0.010285686726289196)', '(-0.6060205781454487, -0.008737544472198586)', '(-0.6131462389751223, -0.007125660829673557)', '(-0.6206083428887885, -0.007462103913666154)', '(-0.6263531022502102, -0.005744759361421666)', '(-0.632339351725236, -0.005986249475025785)', '(-0.6365244354026288, -0.004185083677392806)', '(-0.6408786844933909, -0.004354249090762077)', '(-0.6453713700460455, -0.004492685552654545)', '(-0.6479709402851495, -0.002599570239103915)', '(-0.6486592123647617, -0.0006882720796121638)', '(-0.649431381360173, -0.0007721689954113662)', '(-0.6502820613003635, -0.0008506799401904973)', '(-0.6492053243168457, 0.0010767369835177865)', '(-0.6462086745423676, 0.0029966497744780916)', '(-0.6413130468955925, 0.004895627646775107)', '(-0.6365527982919182, 0.0047602486036743144)', '(-0.6319615144736636, 0.004591283818254676)', '(-0.6255717496974983, 0.0063897647761652614)', '(-0.6194290610225015, 0.006142688674996798)', '(-0.6135775049578314, 0.005851556064670123)', '(-0.6080592740529784, 0.005518230904852933)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41330409289083714, -0.0009532031213434686)', '(-0.414069494133723, -0.0007654012428858692)', '(-0.4146416622434567, -0.0005721681097337159)', '(-0.4150165343594348, -0.00037487211597809274)', '(-0.4151914473005154, -0.0001749129410805986)', '(-0.4171651580969294, -0.001973710796414033)', '(-0.418923625963902, -0.0017584678669725837)', '(-0.42045431814236534, -0.0015306921784633398)', '(-0.42174630774328975, -0.0012919896009244414)', '(-0.42279035935977227, -0.0010440516164825107)', '(-0.42357900163596396, -0.0007886422761916653)', '(-0.42610658610841706, -0.0025275844724531285)', '(-0.43035498183666826, -0.00424839572825122)', '(-0.43629362126771914, -0.005938639431050897)', '(-0.44387958860723253, -0.007585967339513372)', '(-0.4510577665696372, -0.0071781779624046395)', '(-0.4577757178494491, -0.00671795127981189)', '(-0.46598413992546345, -0.008208422076014375)', '(-0.473622523432898, -0.007638383507434542)', '(-0.4806343261617785, -0.007011802728880458)', '(-0.4889674707652034, -0.008333144603424922)', '(-0.4965598831464711, -0.007592412381267663)', '(-0.5053548649022528, -0.008794981755781745)', '(-0.5132866076850177, -0.007931742782764865)', '(-0.5202956793909246, -0.00700907170590691)', '(-0.5283295239129585, -0.008033844522033918)', '(-0.5353278890137035, -0.006998365100745047)', '(-0.5432383039156956, -0.00791041490199203)', '(-0.5500015075613314, -0.0067632036456357295)', '(-0.5575668977136885, -0.007565390152357147)', '(-0.5658779676487463, -0.008311069935057825)', '(-0.5748727931822136, -0.008994825533467324)', '(-0.5844845782982045, -0.00961178511599088)', '(-0.5926422548831705, -0.008157676584965889)', '(-0.6012858001557896, -0.008643545272619124)', '(-0.6103519531400221, -0.009066152984232469)', '(-0.6197747777418566, -0.00942282460183449)', '(-0.6274862488762011, -0.007711471134344429)', '(-0.6354311165295627, -0.007944867653361627)', '(-0.6435528878761819, -0.008121771346619224)', '(-0.6497942957442577, -0.006241407868075796)', '(-0.6561116848923344, -0.006317389148076637)', '(-0.6604611985820769, -0.004349513689742426)', '(-0.6628128426323189, -0.002351644050241989)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 14, 15, 16, 17, 18, 20, 21, 22, 24, 25, 26, 27, 28, 30, 31, 32, 34, 35, 36, 37, 39, 40, 41, 42, 44, 45, 46, 47, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41330409289083714, -0.0009532031213434686)', '(-0.414069494133723, -0.0007654012428858692)', '(-0.4146416622434567, -0.0005721681097337159)', '(-0.4150165343594348, -0.00037487211597809274)', '(-0.4151914473005154, -0.0001749129410805986)', '(-0.4151651580969294, 2.628920358596718e-05)', '(-0.4149378535795836, 0.00022730451734574925)', '(-0.41551114893842594, -0.0005732953588423452)', '(-0.4158809697143931, -0.00036982077596716886)', '(-0.4160446863087297, -0.0001637165943365978)', '(-0.4160011343075986, 4.355200113108522e-05)', '(-0.4157506234878511, 0.00025051081974754893)', '(-0.415294935420814, 0.00045568806703703596)', '(-0.4156373096962159, -0.0003423742754018268)', '(-0.41577531243674626, -0.00013800274053039376)', '(-0.4157079623681807, 6.73500685655715e-05)', '(-0.4154357384030083, 0.0002722239651723981)', '(-0.41596057593891184, -0.0005248375359035708)', '(-0.4162787431277551, -0.0003181671888432395)', '(-0.4163879766891769, -0.00010923356142178615)', '(-0.4162874994246043, 0.0001004772645725767)', '(-0.41597802623454605, 0.0003094731900582367)', '(-0.41546175858357076, 0.0005162676509752906)', '(-0.4157423674641095, -0.0002806088805387229)', '(-0.41581785780453295, -7.549034042349603e-05)', '(-0.41568769278777773, 0.00013016501675524347)', '(-0.4153527980008803, 0.00033489478689743314)', '(-0.41581555428077066, -0.0004627562798903569)', '(-0.4160726715846028, -0.00025711730383213974)', '(-0.4161223212320409, -4.964964743810684e-05)', '(-0.4159641500484534, 0.00015817118358750352)', '(-0.4155992830974093, 0.0003648669510441081)', '(-0.4160303149772468, -0.0004310318798375223)', '(-0.41625418048357804, -0.00022386550633126366)', '(-0.4162692871144063, -1.5106630828238036e-05)', '(-0.4160755273935084, 0.00019375972089793027)', '(-0.41567427970236426, 0.00040124769114414905)', '(-0.416068397612949, -0.0003941179105847331)', '(-0.41625507826851493, -0.00018668065556590803)', '(-0.4162329936613265, 2.2084607188463802e-05)', '(-0.4160023009096816, 0.00023069275164491233)', '(-0.4155646410417846, 0.00043765986789699187)', '(-0.41592312629770367, -0.0003584852559190704)', '(-0.416075207556853, -0.00015208125914935235)']</t>
   </si>
   <si>
     <t>[0,0,0]</t>
   </si>
   <si>
-    <t>[36, 41, 47, 53, 57, 71, 72, 76, 98, 110, 111, 113, 118, 125, 126, 128, 129, 133, 135, 140, 142, 143, 145, 150, 153, 160, 170, 173, 187]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9367093534767416, 0.00034545019935553574)', '(-0.9329999864327626, 0.003709367043978943)', '(-0.925935902219308, 0.007064084213454612)', '(-0.9175354260462414, 0.008400476173066622)', '(-0.905821714990774, 0.011713711055467393)', '(-0.8908295086041136, 0.014992206386660411)', '(-0.8726073680709443, 0.01822214053316928)', '(-0.8512203787774776, 0.021386989293466673)', '(-0.8267531651744743, 0.02446721360300331)', '(-0.8013130162013908, 0.025440148973083408)', '(-0.7730227455527379, 0.028290270648653013)', '(-0.7420315416077146, 0.030991203945023266)', '(-0.7085168482105484, 0.03351469339716614)', '(-0.6726853188285807, 0.035831529381967694)', '(-0.6347725485829094, 0.037912770245671246)', '(-0.5970413475139089, 0.037731201069000506)', '(-0.5577637728741136, 0.03927757463979528)', '(-0.517230409157815, 0.040533363716298516)', '(-0.4757448052842676, 0.04148560387354742)', '(-0.43561687461865184, 0.04012793066561577)', '(-0.3951411730245088, 0.040475701594143036)', '(-0.3546052330009975, 0.0405359400235113)', '(-0.31428314269027857, 0.04032209031071895)', '(-0.2744297637673373, 0.03985337892294128)', '(-0.23527591626785763, 0.03915384749947968)', '(-0.19702475597257868, 0.03825116029527894)', '(-0.1598494519746582, 0.03717530399792049)', '(-0.12389215645707669, 0.0359572955175815)', '(-0.08926416043579109, 0.03462799602128559)', '(-0.05604705782007138, 0.03321710261571971)', '(-0.02429469906599023, 0.03175235875408115)', '(0.005964296863733742, 0.030258995929723972)', '(0.03472369297719792, 0.028759396113464182)', '(0.05999664134579718, 0.02527294836859926)', '(0.08180997597281277, 0.021813334627015592)', '(0.10219822821587611, 0.020388252243063343)', '(0.12120306329136663, 0.01900483507549051)', '(0.1388713501012684, 0.017668286809901762)', '(0.1532534760113293, 0.014382125910060906)', '(0.1643952048480628, 0.011141728836733514)', '(0.17233486080615454, 0.007939655958091726)', '(0.17710125764502038, 0.004766396838865834)', '(0.17871228639212738, 0.0016110287471070048)', '(0.17717409399921208, -0.0015381923929153104)', '(0.17248081033930196, -0.004693283659910107)', '(0.16461480881626564, -0.00786600152303631)', '(0.15454751465274663, -0.010067294163519015)', '(0.14224414684886677, -0.012303367803879865)', '(0.1286649714327418, -0.013579175416124953)', '(0.11376973520441158, -0.014895236228330215)', '(0.0975187058397555, -0.01625102936465609)', '(0.07987390192919575, -0.017644803910559746)', '(0.060800528451447636, -0.019073373477748106)', '(0.04026862772073252, -0.020531900730715116)', '(0.018254947391458564, -0.022013680329273953)', '(-0.005254984889791269, -0.023509932281249833)', '(-0.030264606510230666, -0.025009621620439397)', '(-0.05676393081035064, -0.026499324300119968)', '(-0.0847270935075296, -0.027963162697178974)', '(-0.11410992992866242, -0.029382836421132822)', '(-0.14684770423182697, -0.03273777430316454)', '(-0.18184677902664756, -0.034999074794820596)', '(-0.2199829714350774, -0.038136192408429824)', '(-0.26109422272342436, -0.041111251288346994)', '(-0.3049769767088401, -0.04388275398541575)', '(-0.35138434398469454, -0.0464073672758544)', '(-0.40002662208781936, -0.04864227810312483)', '(-0.4505746084780489, -0.05054798639022955)', '(-0.5006659058327483, -0.05009129735469937)', '(-0.5499290640590786, -0.049263158226330296)', '(-0.5979949504195577, -0.04806588636047915)', '(-0.6445074863266261, -0.0465125359070684)', '(-0.6911329614848113, -0.04662547515818517)', '(-0.7375541669640038, -0.04642120547919244)', '(-0.78147864431589, -0.0439244773518862)', '(-0.8246562628322883, -0.04317761851639832)', '(-0.8648706438530898, -0.040214381020801486)', '(-0.9019497779442003, -0.03707913409111054)', '(-0.935762520662518, -0.03381274271831774)', '(-0.9662136670157243, -0.030451146353206338)', '(-0.9952382330463275, -0.029024566030603258)', '(-1.0207931100486438, -0.02555487700231636)', '(-1.0428558263887802, -0.022062716340136276)', '(-1.0614187547948792, -0.01856292840609903)', '(-1.0764839580854955, -0.015065203290616216)', '(-1.0880588042240802, -0.011574846138584628)', '(-1.096152410325676, -0.008093606101595655)', '(-1.1027729295056974, -0.006620519180021496)', '(-1.107928115275057, -0.0051551857693596485)', '(-1.1096246786633583, -0.0016965633883013424)', '(-1.109864956949999, -0.00024027828664070902)', '(-1.1086492863010111, 0.001215670648987845)', '(-1.1039759790169317, 0.004673307284079361)', '(-1.0968388517641778, 0.0071371272527539446)', '(-1.0872293962225923, 0.009609455541585607)', '(-1.0761379476944863, 0.011091448528106024)', '(-1.0625559156477755, 0.01358203204671081)', '(-1.0474765367744276, 0.015079378873347838)', '(-1.0298971587767005, 0.017579377997727172)', '(-1.0098211471884389, 0.020076011588261583)', '(-0.9872608353407167, 0.022560311847722125)', '(-0.9622408293323519, 0.025020006008364855)', '(-0.9358015832298229, 0.02643924610252901)', '(-0.9060006446514326, 0.029800938578390324)', '(-0.8749206588139183, 0.031079985837514222)', '(-0.8426671989959814, 0.032253459817936904)', '(-0.8073697753334552, 0.03529742366252621)', '(-0.7711919858843133, 0.036177789449141934)', '(-0.7323233514999496, 0.03886863438436358)', '(-0.690989595316643, 0.04133375618330676)', '(-0.6474525118382548, 0.04353708347838818)', '(-0.6020077519892173, 0.04544475984903745)', '(-0.5569803329617045, 0.04502741902751284)', '(-0.5107029705218568, 0.046277362439847675)', '(-0.46352230249518905, 0.047180668026667684)', '(-0.41778977267215356, 0.04573252982303548)', '(-0.37183755071825225, 0.045952221953901286)', '(-0.3259846215393367, 0.04585292917891553)', '(-0.28052849408442243, 0.04545612745491427)', '(-0.23573807005192246, 0.04479042403249998)', '(-0.1918480830265776, 0.04388998702534486)', '(-0.14905533649264166, 0.04279274653393594)', '(-0.10951678039104239, 0.03953855610159927)', '(-0.07134450204229653, 0.038172278348745856)', '(-0.034615179035688635, 0.036729323006607896)', '(0.0006276117309521392, 0.035242790766640775)', '(0.03437040692892706, 0.03374279519797492)', '(0.06662648026111798, 0.03225607333219092)', '(0.0974323272879647, 0.03080584702684673)', '(0.12684421301203938, 0.029411885724074667)', '(0.1549349313932854, 0.02809071838124603)', '(0.1817908770662384, 0.026855945672952984)', '(0.20550948760753746, 0.02371861054129905)', '(0.22818837156503555, 0.022678883957498095)', '(0.2499305202374144, 0.021742148672378874)', '(0.26884309157660424, 0.018912571339189825)', '(0.28702564272358966, 0.018182551146985436)', '(0.3045791415006332, 0.017553498777043545)', '(0.3216056633795844, 0.017026521878951234)', '(0.3382082669839502, 0.016602603604365752)', '(0.3544910240415717, 0.016282757057621493)', '(0.3705591826341879, 0.01606815859261624)', '(0.3865194454410061, 0.015960262806818146)', '(0.4024803472251336, 0.01596090178412751)', '(0.41855271789643606, 0.016072370671302474)', '(0.43485021896084314, 0.016297501064407065)', '(0.45148994189692976, 0.016639722936086596)', '(0.4685930568318095, 0.017103114934879773)', '(0.48528549863105175, 0.016692441799242244)', '(0.5006912231389999, 0.015405724507948236)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187]</t>
-  </si>
-  <si>
-    <t>['[0,2,1]', '[0,0,0]', '[1,2,0]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 84, 86, 98, 103, 105, 106, 108, 110, 111, 113, 118, 122, 123, 125, 126, 128, 129, 130, 133, 135, 136, 137, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 166, 168, 170, 172, 173, 174, 175, 184, 187, 188, 189, 190, 192]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9387093534767416, -0.0016545498006444643)', '(-0.9369951475887142, 0.0017142058880274475)', '(-0.9319163281839341, 0.005078819404780072)', '(-0.9254855343000118, 0.006430793883922309)', '(-0.9157195524427848, 0.009765981857227019)', '(-0.9026455350371095, 0.013074017405675242)', '(-0.8883029286857289, 0.014342606351380639)', '(-0.8727390189246731, 0.015563909761055872)', '(-0.8540097667345998, 0.018729252190073237)', '(-0.8341887598871169, 0.019821006847482947)', '(-0.8113610609829551, 0.022827698904161847)', '(-0.7876334047450483, 0.023727656237906805)', '(-0.7611261672308619, 0.02650723751418642)', '(-0.7319844551697908, 0.029141712061071127)', '(-0.7003796815628919, 0.03160477360689894)', '(-0.6685103354286626, 0.03186934613422932)', '(-0.6365880648561438, 0.03192227057251869)', '(-0.6028345096155995, 0.033753555240544346)', '(-0.5674922670703779, 0.035342242545221565)', '(-0.532821773892189, 0.034670493178188905)', '(-0.49708211705255934, 0.03573965683962963)', '(-0.4605411254650281, 0.036540991587531185)', '(-0.4234702505381676, 0.03707087492686051)', '(-0.3861390969581174, 0.03733115358005023)', '(-0.34880991853126925, 0.03732917842684811)', '(-0.3117324020620563, 0.037077516469212896)', '(-0.275139034950125, 0.03659336711193134)', '(-0.23924129414610226, 0.03589774080402272)', '(-0.2042268148856632, 0.035014479260439074)', '(-0.1702576094643906, 0.03396920542127256)', '(-0.13946932146765983, 0.030788287996730786)', '(-0.10996537585104751, 0.029503945616612327)', '(-0.08382662022835248, 0.026138755622695034)', '(-0.061109227699404266, 0.022717392528948215)', '(-0.041849941402763345, 0.01925928629664092)', '(-0.026070977526302996, 0.01577896387646035)', '(-0.013784370968530534, 0.012286606557772462)', '(-0.004995627115429212, 0.008788743853101322)', '(0.00029339749068274523, 0.005289024606111957)', '(0.0020824230652181247, 0.0017890255745353794)', '(0.00037149742506033994, -0.0017109256401577847)', '(-0.004839426662481317, -0.005210924087541657)', '(-0.012550087279083657, -0.00771066061660234)', '(-0.02275897617722079, -0.010208888898137133)', '(-0.03546204016502427, -0.012703063987803482)', '(-0.050650969982968294, -0.01518892981794402)', '(-0.06931109318438884, -0.01866012320142055)', '(-0.08941736552082812, -0.02010627233643927)', '(-0.11293422696897665, -0.02351686144814854)', '(-0.13780897161748, -0.024874744648503328)', '(-0.16397308986611436, -0.026164118248634374)', '(-0.19234077805506622, -0.028367688188951867)', '(-0.22280369317255375, -0.030462915117487537)', '(-0.25622862672347896, -0.03342493355092521)', '(-0.2924506224108666, -0.03622199568738767)', '(-0.33127059291487776, -0.038819970504011155)', '(-0.3724543112591651, -0.04118371834428736)', '(-0.415733165986217, -0.04327885472705188)', '(-0.4608069676027163, -0.045073801616499265)', '(-0.5073489274840415, -0.04654195988132517)', '(-0.5550127129593871, -0.04766378547534564)', '(-0.6014412425040415, -0.0464285295446544)', '(-0.6462912455245887, -0.04485000302054724)', '(-0.6892416928418792, -0.04295044731729045)', '(-0.7300003201396388, -0.04075862729775954)', '(-0.7703079783242399, -0.04030765818460116)', '(-0.8079296811569284, -0.037621702832688536)', '(-0.8446682535386303, -0.03673857238170188)', '(-0.8803542572961586, -0.03568600375752828)', '(-0.9128469400539849, -0.03249268275782638)', '(-0.9440399521450625, -0.03119301209107761)', '(-0.9718517285728595, -0.027811776427796954)', '(-0.9982270997085985, -0.026375371135738963)', '(-1.0231294010385337, -0.02490230132993514)', '(-1.0445382163910044, -0.021408815352470648)', '(-1.0644471113037461, -0.019908894912741747)', '(-1.0808593528769392, -0.016412241573193105)', '(-1.0937843311854925, -0.012924978308553237)', '(-1.10323368596734, -0.009449354781847392)', '(-1.1092182831790776, -0.0059845972117377)', '(-1.1137460296185637, -0.004527746439486136)', '(-1.114823433664617, -0.0010774040460533479)', '(-1.1124521106595338, 0.00237132300508324)', '(-1.1076285391340182, 0.004823571525515621)', '(-1.1013459391292026, 0.006282600004815508)', '(-1.093596252190827, 0.007749686938375662)', '(-1.083370745616125, 0.010225506574701842)', '(-1.071659945225578, 0.011710800390547046)', '(-1.058455873912282, 0.013204071313296033)', '(-1.04275322839903, 0.015702645513252032)', '(-1.025550805092544, 0.017202423306486133)', '(-1.006853651476897, 0.018697153615646847)', '(-0.9866747863599554, 0.020178865116941613)', '(-0.964037016963261, 0.0226377693966944)', '(-0.93897664620392, 0.0250603707593411)', '(-0.9125468795181272, 0.026429766685792826)', '(-0.8828183257870483, 0.02972855373107891)', '(-0.8518876424407547, 0.0309306833462937)', '(-0.8198739632660516, 0.03201367917470314)', '(-0.7869194540738029, 0.032954509192248654)', '(-0.751189128504758, 0.03573032556904487)', '(-0.7148814396688449, 0.036307688835913135)', '(-0.6782165816480276, 0.036664858020817266)', '(-0.639433229458896, 0.03878335218913157)', '(-0.6007984986017328, 0.03863473085716316)', '(-0.5625899320233481, 0.038208566578384826)', '(-0.5230895982005607, 0.03950033382278739)', '(-0.4845930832067712, 0.03849651499378947)', '(-0.44738844373185815, 0.037204639474913016)', '(-0.40975041514878857, 0.037638028583069603)', '(-0.37194974488108984, 0.037800670267698726)', '(-0.3342476115837224, 0.037702133297367435)', '(-0.2988904589376512, 0.035357152646071206)', '(-0.2640938410914234, 0.034796617846227805)', '(-0.2300527802393332, 0.034041060852090216)', '(-0.19893958242618, 0.031113197813153203)', '(-0.16889420387787202, 0.030045378548307987)', '(-0.1400347232692991, 0.02885948060857291)', '(-0.1144578588083017, 0.025576864460997415)', '(-0.09223505499410814, 0.02222280381419356)', '(-0.07141715309580761, 0.020817901898300527)', '(-0.054042090746811045, 0.017375062348996568)', '(-0.04013424414308378, 0.013907846603727264)', '(-0.02970829839774054, 0.010425945745343241)', '(-0.02277243016439208, 0.006935868233348458)', '(-0.01933073013455303, 0.00344170002983905)', '(-0.019384827415064046, -5.4097280511014936e-05)', '(-0.022934698457095073, -0.003549871042031029)', '(-0.02997865432879017, -0.007043955871695097)', '(-0.03951250641679477, -0.009533852088004596)', '(-0.052528815131939244, -0.013016308715144476)', '(-0.06801414617401871, -0.015485331042079466)', '(-0.08694761587534318, -0.01893346970132447)', '(-0.10729651796459118, -0.020348902089248003)', '(-0.13101701838730295, -0.02372050042271178)', '(-0.15804688076219853, -0.02702986237489558)', '(-0.18830095666341315, -0.030254075901214626)', '(-0.22166663406808448, -0.03336567740467133)', '(-0.25799960358644125, -0.03633296951835679)', '(-0.2971203761650092, -0.039120772578567914)', '(-0.33881203311696584, -0.041691656951956674)', '(-0.38281968869247773, -0.04400765557551188)', '(-0.4288520779286756, -0.046032389236197846)', '(-0.4765855374563437, -0.04773345952766812)', '(-0.52367042843624, -0.04708489097989627)', '(-0.5697547820198559, -0.04608435358361585)', '(-0.6164940707043312, -0.046739288684475244)', '(-0.6615456282056886, -0.04505155750135747)', '(-0.70459186411915, -0.043046235913461406)', '(-0.747346377412436, -0.042754513293286)', '(-0.7895459915931187, -0.04219961418068259)', '(-0.8309559790666973, -0.041409987473578574)', '(-0.8713738292020519, -0.04041785013535459)', '(-0.9086314725368139, -0.03725764333476195)', '(-0.9446020294322591, -0.03597055689544523)', '(-0.9771900701681339, -0.03258804073587476)', '(-1.0063330453140225, -0.029142975145888508)', '(-1.03199478340616, -0.025661738092137485)', '(-1.0541591211942818, -0.022164337788121734)', '(-1.072824004176476, -0.018664882982194177)', '(-1.0879962715652953, -0.01517226738881934)', '(-1.0996872416135006, -0.011690970048205346)']</t>
-  </si>
-  <si>
-    <t>['[0,0,0]', '[1,1,2]', '[2,1,0]']</t>
-  </si>
-  <si>
-    <t>[36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 62, 65, 66, 67, 68, 69, 70, 98, 100, 105, 106, 108, 110, 111, 113, 114, 116, 118, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 168, 169, 170, 172, 173, 174, 175, 177, 178, 179, 184, 185, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9387093534767416, -0.0016545498006444643)', '(-0.9369951475887142, 0.0017142058880274475)', '(-0.9319163281839341, 0.005078819404780072)', '(-0.9254855343000118, 0.006430793883922309)', '(-0.9177195524427848, 0.007765981857227018)', '(-0.9066398123305951, 0.011079740112189724)', '(-0.8942790587411393, 0.012360753589455816)', '(-0.8806767943843564, 0.013602264356782866)', '(-0.8638800491862242, 0.01679674519813225)', '(-0.8459519306241196, 0.017928118562104675)', '(-0.8269657623959273, 0.01898616822819226)', '(-0.8070056799185398, 0.01996008247738761)', '(-0.7841670323069665, 0.022838647611573233)', '(-0.7585671588433293, 0.025599873463637214)', '(-0.7323473814107839, 0.02621977743254529)', '(-0.7056623361516855, 0.026685045259098376)', '(-0.6786787011246881, 0.02698363502699746)', '(-0.6515734733326146, 0.02710522779207352)', '(-0.622531841113447, 0.029041632219167706)', '(-0.5937590567599643, 0.028772784353482614)', '(-0.5654639470176758, 0.028295109742288597)', '(-0.535855673327635, 0.02960827369004078)', '(-0.507155493618666, 0.028700179708968945)', '(-0.4775785885135839, 0.029576905105082034)', '(-0.4493457393838472, 0.028232849129736715)', '(-0.42066519374435135, 0.028680545639495843)', '(-0.39174443892257443, 0.02892075482177693)', '(-0.3647870035610807, 0.026957435361493753)', '(-0.33997610417914503, 0.02481089938193567)', '(-0.3174737723856311, 0.0225023317935139)', '(-0.297420720215449, 0.020053052170182085)', '(-0.27993679943646604, 0.017483920778982958)', '(-0.2651218886560772, 0.01481491078038881)', '(-0.2530570370846946, 0.012064851571382621)', '(-0.24380570251557834, 0.009251334569116278)', '(-0.2374149395175659, 0.0063907629980124395)', '(-0.23391641831431667, 0.003498521203249237)', '(-0.23332718240286288, 0.0005892359114537931)', '(-0.23565008167833126, -0.0023228992754684005)', '(-0.2408738466523677, -0.005223764974036434)', '(-0.24897279798759375, -0.008098951335226048)', '(-0.25990621415657766, -0.010933416168983912)', '(-0.2736174087826402, -0.013711194626062538)', '(-0.2900325980533969, -0.016415189270756674)', '(-0.3080596668172789, -0.01802706876388205)', '(-0.32859296072307054, -0.020533293905791637)', '(-0.35150678944396585, -0.02291382872089532)', '(-0.37665473042775754, -0.025147940983791677)', '(-0.40386940189529047, -0.027214671467532925)', '(-0.43296285906878085, -0.02909345717349039)', '(-0.4637277402015688, -0.030764881132787962)', '(-0.4959392436268607, -0.0322115034252919)', '(-0.5293579555635676, -0.03341871193670692)', '(-0.5637334757994933, -0.03437552023592571)', '(-0.5988087125552374, -0.03507523675574408)', '(-0.6343246486765621, -0.03551593612132478)', '(-0.6700253288517344, -0.035700680175172236)', '(-0.7036627899629453, -0.03363746111121088)', '(-0.7350144993261558, -0.03135170936321048)', '(-0.7638847805264947, -0.028870281200338903)', '(-0.7921049880028158, -0.028220207476321185)', '(-0.8175222204308459, -0.02541723242803008)', '(-0.8420097887559245, -0.024487568325078597)', '(-0.8634562362712056, -0.021446447515281124)', '(-0.8817729734280927, -0.018316737156887065)', '(-0.8988913032536412, -0.017118329825548517)', '(-0.9127530189797509, -0.013861715726109749)', '(-0.9253153404185696, -0.012562321438818651)', '(-0.9365429299800603, -0.011227589561490734)', '(-0.9444070091833402, -0.007864079203279941)', '(-0.9508890157451159, -0.006482006561775675)', '(-0.9539746459377756, -0.0030856301926597334)', '(-0.9556574087858403, -0.0016827628480647334)', '(-0.9559338511336118, -0.0002764423477716006)', '(-0.9528034115630675, 0.0031304395705443995)', '(-0.9482725442583324, 0.004530867304735089)', '(-0.9423509655385748, 0.005921578719757641)', '(-0.9330520396461205, 0.009298925892454256)', '(-0.9223982654660373, 0.010653774180083184)', '(-0.9084176712820081, 0.013980594184029228)', '(-0.89315063867235, 0.01526703260965811)', '(-0.8746458558910327, 0.01850478278131732)', '(-0.8529686182748677, 0.02167723761616499)', '(-0.8302039126524853, 0.02276470562238239)', '(-0.8064504825829921, 0.023753430069493153)', '(-0.7818212374499008, 0.02462924513309127)', '(-0.7544432962920858, 0.027377941157814983)', '(-0.7264691322921567, 0.0279741639999291)', '(-0.6980656471066147, 0.028403485185542074)', '(-0.6674125909769211, 0.03065305612969359)', '(-0.6367140833620702, 0.030698507614850778)', '(-0.6061833997797683, 0.030530683582301887)', '(-0.5760396486069544, 0.030143751172813923)', '(-0.5445042112961378, 0.031535437310816615)', '(-0.5118120859824818, 0.032692125313655944)', '(-0.4802083424204658, 0.03160374356201607)', '(-0.44992910884546655, 0.030279233574999242)', '(-0.421197910751979, 0.028731198093487578)', '(-0.3942226961164288, 0.026975214635550165)', '(-0.36919362283318186, 0.02502907328324696)', '(-0.34428161711596217, 0.024912005717219698)', '(-0.3216505560907814, 0.022631061025180775)', '(-0.30144313658233013, 0.020207419508451285)', '(-0.28378124909901287, 0.01766188748331728)', '(-0.2687667941640047, 0.015014454935008203)', '(-0.2564827724632829, 0.012284021700721817)', '(-0.24699448727767992, 0.009488285185602956)', '(-0.24035071475529846, 0.006643772522381469)', '(-0.23658472109626696, 0.0037659936590314965)', '(-0.23571503268159383, 0.0008696884146731226)', '(-0.23774589352809833, -0.002030860846504501)', '(-0.24266737306296193, -0.004921479534863604)', '(-0.25045511569861095, -0.00778774263564903)', '(-0.26106975211842115, -0.010614636419810215)', '(-0.27445602073067843, -0.013386268612257274)', '(-0.29054167633747563, -0.01608565560679722)', '(-0.3082362910434883, -0.01769461470601269)', '(-0.3274360734165944, -0.019199782373106097)', '(-0.3490236160240663, -0.021587542607471852)', '(-0.372861432941815, -0.023837816917748736)', '(-0.3987916405658258, -0.02593020762401079)', '(-0.42663618339193743, -0.027844542826111623)', '(-0.45619773326508634, -0.029561549873148914)', '(-0.48726135328333564, -0.031063620018249277)', '(-0.5195969645119668, -0.032335611228631204)', '(-0.5529625886027723, -0.033365624090805464)', '(-0.5871082688182644, -0.03414568021549214)', '(-0.6217805044391483, -0.03467223562088398)', '(-0.656726978426136, -0.03494647398698767)', '(-0.6917013237744115, -0.034974345348275475)', '(-0.7264676656412412, -0.03476634186682967)', '(-0.7608046953472467, -0.03433702970600551)', '(-0.7945090756421218, -0.03370438029487506)', '(-0.8253980373805156, -0.030888961738393814)', '(-0.8553203221214108, -0.029922284740895182)', '(-0.8841454853584998, -0.028825163237088964)', '(-0.9117638244462247, -0.027618339087724885)', '(-0.938085691209378, -0.026321866763153335)', '(-0.9610403020445158, -0.0229546108351378)', '(-0.9825779585460029, -0.02153765650148705)', '(-1.0026624446442618, -0.020084486098258768)', '(-1.021269210547802, -0.018606765903540264)', '(-1.0363835357757576, -0.01511432522795548)', '(-1.047999176496286, -0.011615640720528366)', '(-1.0561148244460958, -0.008115647949809995)', '(-1.060731366917381, -0.004616542471285146)', '(-1.0638499697025006, -0.00311860278511966)', '(-1.0654716914980795, -0.0016217217955789656)', '(-1.0635971692251058, 0.0018745222729737877)', '(-1.060225672000928, 0.003371497224177901)', '(-1.0553560840179186, 0.004869587983009321)', '(-1.0489872448161783, 0.006368839201740322)', '(-1.041118441648138, 0.0078688031680403)', '(-1.0297500542187699, 0.011368387429368238)', '(-1.0168850906780282, 0.012864963540741611)', '(-1.0015304570248713, 0.015354633653156953)', '(-0.9846992483872051, 0.016831208637666226)', '(-0.9664118540941031, 0.01828739429310196)', '(-0.9466975223253531, 0.019714331768750055)', '(-0.9235959602853323, 0.02310156204002079)', '(-0.8991643081816052, 0.024431652103727115)', '(-0.8714751615071448, 0.027689146674460468)']</t>
-  </si>
-  <si>
-    <t>[36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 71, 76, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 120, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 164, 165, 166, 178, 179, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9390548036760971, -0.005019308520064365)', '(-0.942704529349457, -0.0036497256733600126)', '(-0.9429760887988955, -0.0002715594494384168)', '(-0.9418688547577421, 0.0011072340411534673)', '(-0.9393853946916204, 0.002483460066121649)', '(-0.935531562583234, 0.0038538321083864645)', '(-0.9283167030288482, 0.0072148595543858485)', '(-0.919759157745538, 0.008557545283310198)', '(-0.909882103962947, 0.009877053782590914)', '(-0.8967141920398314, 0.013167911923115654)', '(-0.8822967415613249, 0.014417450478506521)', '(-0.8666790160164124, 0.015617725544912467)', '(-0.8499190208437473, 0.016759995172665174)', '(-0.8300842305999031, 0.019834790243844123)', '(-0.8072612599624365, 0.022822970637466605)', '(-0.7835584599720707, 0.023702799990365772)', '(-0.7590976764034966, 0.024460783568574136)', '(-0.7340139603121143, 0.025083716091382283)', '(-0.7084548673640061, 0.02555909294810823)', '(-0.6805793335956675, 0.02787553376833864)', '(-0.6525694856995145, 0.028009847896153007)', '(-0.6246163112821898, 0.02795317441732473)', '(-0.5969170491344963, 0.027699262147693426)', '(-0.5696723231557895, 0.027244725978706738)', '(-0.5410831448106309, 0.02858917834515862)', '(-0.5133628938196624, 0.027720250990968486)', '(-0.4847193998775753, 0.02864349394208711)', '(-0.4573668405372025, 0.02735255934037278)', '(-0.4315077586079444, 0.025859081929258138)', '(-0.40733060651097414, 0.024177152096970255)', '(-0.3850078907875819, 0.022322715723392242)', '(-0.3646949172608024, 0.020312973526779535)', '(-0.3465290934034056, 0.018165823857396787)', '(-0.33062970990950846, 0.015899383493897107)', '(-0.3170981002178765, 0.013531609691631979)', '(-0.30601806502203577, 0.011080035195840741)', '(-0.29745644756209394, 0.008561617459941849)', '(-0.29146375288301113, 0.005992694679082806)', '(-0.2880747181410211, 0.003389034741990013)', '(-0.2873087594310342, 0.0007659587099869327)', '(-0.2891702418283933, -0.001861482397359132)', '(-0.2936485421557277, -0.004478300327334441)', '(-0.3007178975539391, -0.007069355398211373)', '(-0.3103370566584579, -0.009619159104518802)', '(-0.32244877351992046, -0.012111716861462538)', '(-0.33697920668244963, -0.014530433162529156)', '(-0.35383730604795066, -0.016858099365501023)', '(-0.3729142868972667, -0.019076980849316007)', '(-0.39408330187995716, -0.021169014982690484)', '(-0.41719942582691094, -0.023116123946953757)', '(-0.4421000628227406, -0.02490063699582969)', '(-0.46860586851607944, -0.026505805693338824)', '(-0.49652225256241933, -0.02791638404633988)', '(-0.5256414872833486, -0.02911923472092923)', '(-0.5557454017625298, -0.03010391447918127)', '(-0.5866085901023759, -0.030863188339845984)', '(-0.6180020141532366, -0.03139342405086076)', '(-0.6496968408680526, -0.031694826714815896)', '(-0.6814683280565986, -0.03177148718854603)', '(-0.7130995635100379, -0.03163123545343923)', '(-0.7443848725069786, -0.031285308996940694)', '(-0.7751327360622566, -0.030747863555278043)', '(-0.8051681029277762, -0.0300353668655195)', '(-0.8343340266463032, -0.02916592371852703)', '(-0.8624926087050259, -0.02815858205872269)', '(-0.8875252744063005, -0.02503266570127457)', '(-0.9113393188543943, -0.023814044448093843)', '(-0.933858151120081, -0.022518832265686645)', '(-0.9550201118961912, -0.021161960776110208)', '(-0.9747770527431202, -0.019756940846929007)', '(-0.9930927650598121, -0.018315712316691962)', '(-1.0099413375756188, -0.016848572515806706)', '(-1.0233055091287322, -0.013364171553113487)', '(-1.035176099766821, -0.01187059063808872)', '(-1.0455483160257657, -0.010372216258944836)', '(-1.0544205628843855, -0.00887224685861971)', '(-1.0617933966538902, -0.007372833769504702)', '(-1.0676686267259061, -0.005875230072016005)', '(-1.0700485697968531, -0.00237994307094711)', '(-1.070934384969412, -0.000885815172558875)', '(-1.0703265361332142, 0.0006078488361978334)', '(-1.0682247030697045, 0.0021018330635096828)', '(-1.064627842444531, 0.003596860625173564)', '(-1.059534398959963, 0.005093443484567981)', '(-1.0529426675053495, 0.006591731454613492)', '(-1.0448513073631098, 0.008091360142239618)', '(-1.035260009150291, 0.009591298212818884)', '(-1.0221703139463725, 0.013089695203918643)', '(-1.0075876620120898, 0.01458265193428273)', '(-0.9915226399303363, 0.01606502208175348)', '(-0.9729924084325978, 0.018530231497738477)', '(-0.9530238685642178, 0.019968539868380025)', '(-0.9316544394979825, 0.021369429066235287)', '(-0.9089337025117895, 0.022720736986193035)', '(-0.8829249646577376, 0.026008737854051864)', '(-0.8537137186862223, 0.029211245971515403)', '(-0.8234119348816752, 0.03030178380454708)', '(-0.7921527051760403, 0.03125922970563488)', '(-0.7600902525245985, 0.03206245265144183)', '(-0.7273992120997725, 0.032691040424826)', '(-0.6942731329803927, 0.03312607911937978)', '(-0.6609221991815828, 0.03335093379880995)', '(-0.627570226559141, 0.03335197262244183)', '(-0.5944510509895408, 0.03311917556960023)', '(-0.561804475743004, 0.03264657524653679)', '(-0.529871984722568, 0.03193249102043596)', '(-0.49889244741094463, 0.0309795373116234)', '(-0.4670980379482295, 0.03179440946271509)', '(-0.43672535777749644, 0.030372680170733076)', '(-0.4079968773795944, 0.02872848039790206)', '(-0.38111813553141616, 0.02687874184817823)', '(-0.3542757542684618, 0.026842381262954358)', '(-0.327649382388159, 0.026626371880302837)', '(-0.3034094397607215, 0.02423994262743752)', '(-0.2817034108196992, 0.021706028941022328)', '(-0.2606565039480755, 0.021046906871623666)', '(-0.24238341468383603, 0.01827308926423946)', '(-0.22697800489375317, 0.01540540979008288)', '(-0.21451505779804445, 0.012462947095708724)', '(-0.20505204460349277, 0.009463013194551666)', '(-0.19863073979447377, 0.006421304809019015)', '(-0.19527855516671616, 0.0033521846277575957)', '(-0.19500949639111312, 0.00026905877560304704)', '(-0.19782467850012203, -0.002815182109008914)', '(-0.20371236773605353, -0.005887689235931487)', '(-0.21264754716862308, -0.008935179432569542)', '(-0.2245910333627104, -0.011943486194087319)', '(-0.23948820218132372, -0.014897168818613294)', '(-0.2572674141436565, -0.01777921196233278)', '(-0.2778382633557664, -0.02057084921210988)', '(-0.3000898073752246, -0.022251544019458253)', '(-0.3248948486449612, -0.024805041269736573)', '(-0.35210346273357046, -0.027208614088609237)', '(-0.38154229532237244, -0.029438832588802)', '(-0.4130145926747928, -0.031472297352420374)', '(-0.44630114131535065, -0.03328654864055785)', '(-0.48116224038065003, -0.034861099065299384)', '(-0.5173407544063601, -0.03617851402571004)', '(-0.5545662008338879, -0.03722544642752775)', '(-0.5925597255213412, -0.03799352468745331)', '(-0.6310397246519719, -0.038479999130630764)', '(-0.66972779718563, -0.038688072533658115)', '(-0.708354670704773, -0.03862687351914297)', '(-0.7446657423129318, -0.03631107160815882)', '(-0.7804377079386382, -0.035771965625706434)', '(-0.815468408164983, -0.035030700226344816)', '(-0.8495792742377309, -0.03411086607274793)', '(-0.8826167678641657, -0.033037493626434745)', '(-0.9144528478972996, -0.031836080033133984)', '(-0.944984559861587, -0.03053171196428743)', '(-0.974132888078496, -0.029148328216908943)', '(-1.001841033726121, -0.027708145647625054)', '(-1.0280722873410626, -0.026231253614941677)', '(-1.0528076548040814, -0.02473536746301896)', '(-1.0760433763329456, -0.023235721528864113)', '(-1.0977884529397943, -0.021745076606848775)', '(-1.1160622680098489, -0.018273815070054534)', '(-1.1328892450200827, -0.016826977010233914)', '(-1.148298377572991, -0.015409132552908222)', '(-1.1623216217959897, -0.014023244222998839)', '(-1.174992492252421, -0.012670870456431376)', '(-1.1863448531640712, -0.011352360911650112)', '(-1.1964118914726511, -0.010067038308579954)']</t>
-  </si>
-  <si>
-    <t>[1, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 81, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 161, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41540301904140486, -0.0036595084782366865)', '(-0.42085982160582946, -0.005456802564424624)', '(-0.42807502419566773, -0.007215202589838278)', '(-0.43699688922555213, -0.00892186502988442)', '(-0.4475609861003318, -0.010564096874779683)', '(-0.4596904333981081, -0.012129447297776317)', '(-0.4732962621873059, -0.013605828789197806)', '(-0.4882779295273638, -0.01498166734005792)', '(-0.5045240077604822, -0.016246078233118442)', '(-0.521913068686875, -0.01738906092639283)', '(-0.5403147723612148, -0.01840170367433975)', '(-0.559591158600399, -0.019276386239184096)', '(-0.5795981262082689, -0.0200069676078699)', '(-0.6001870715117881, -0.02058894530351922)', '(-0.6212066453244821, -0.02101957381269399)', '(-0.6425045771676837, -0.02129793184320158)', '(-0.6639295085850514, -0.02142493141736767)', '(-0.6853327744571779, -0.021403265872126518)', '(-0.706570072701186, -0.021237298244008135)', '(-0.7275029684788681, -0.020932895777682058)', '(-0.7480001884290132, -0.020497219950145102)', '(-0.7679386725131133, -0.01993848408410019)', '(-0.7872043646287238, -0.01926569211561044)', '(-0.8056927369615754, -0.018488372332851614)', '(-0.8233090559845022, -0.01761631902292683)', '(-0.8399684091673826, -0.016659353182880313)', '(-0.8555955202389658, -0.015627111071583204)', '(-0.8701243869603363, -0.014528866721370529)', '(-0.8834977788445147, -0.013373391884178397)', '(-0.895666633332444, -0.012168854487929249)', '(-0.9065893880125382, -0.010922754680094177)', '(-0.9162312840268545, -0.009641896014316349)', '(-0.9245636723296125, -0.008332388302757987)', '(-0.931563350399725, -0.006999678070112642)', '(-0.93721195273011, -0.005648602330385052)', '(-0.9414954142035076, -0.004283461473397496)', '(-0.9444035215037684, -0.0029081073002607586)', '(-0.9459295641016815, -0.0015260425979130993)', '(-0.9460700931183383, -0.00014052901665681083)', '(-0.9448247934690912, 0.0012452996492471192)', '(-0.9421964720446694, 0.0026283214244218565)', '(-0.9381911621805177, 0.004005309864151716)', '(-0.9328183421731857, 0.005372820007331965)', '(-0.9260912629944763, 0.006727079178709428)', '(-0.918027377513374, 0.008063885481102288)', '(-0.9086488603725885, 0.009378517140785558)', '(-0.8979832041327815, 0.01066565623980694)', '(-0.8860638734026118, 0.011919330730169729)', '(-0.872930994498759, 0.013132878903852868)', '(-0.8586320538949422, 0.014298940603816793)', '(-0.8432225745840842, 0.015409479310858024)', '(-0.8267667358474345, 0.01645583873664966)', '(-0.8093378992321401, 0.01742883661529452)', '(-0.7910190022674471, 0.018318896964692962)', '(-0.7719027820842517, 0.019116220183195472)', '(-0.752091794065057, 0.019810988019194672)', '(-0.7316981962245338, 0.020393597840523244)', '(-0.7108432782710364, 0.02085491795349739)', '(-0.6896567250110557, 0.02118655325998075)', '(-0.6682756163981942, 0.021381108612861504)', '(-0.6468431802521504, 0.021432436146043857)', '(-0.6255073273881568, 0.021335852863993587)', '(-0.6044190113735436, 0.021088316014613223)', '(-0.5837304651518515, 0.020688546221692188)', '(-0.5635933733170234, 0.020137091834827987)', '(-0.5441570411897487, 0.019436332127274705)', '(-0.5255666198008627, 0.018590421388885985)', '(-0.5079614396661858, 0.017605180134676976)', '(-0.4914734965386634, 0.01648794312752237)', '(-0.47622612019065375, 0.01524737634800964)', '(-0.46233284395296875, 0.013893276237684993)', '(-0.44989647949014855, 0.012436364462820213)', '(-0.4390083892739913, 0.010888090216157288)', '(-0.42974793934314376, 0.00926044993084752)', '(-0.4221821078170691, 0.007565831526074632)', '(-0.4163652205629809, 0.005816887254088203)', '(-0.41233878440010896, 0.004026436162871969)', '(-0.4101313900371466, 0.0022073943629623448)', '(-0.4097586611748162, 0.0003727288623304346)', '(-0.4112232323546903, -0.0014645711798741317)', '(-0.41451474562447627, -0.003291513269785943)', '(-0.41960986431663905, -0.005095118692162807)', '(-0.42647231058857676, -0.0068624462719377105)', '(-0.4350529412342127, -0.008580630645635932)', '(-0.44528988304069905, -0.010236941806486386)', '(-0.457108754041865, -0.011818871001165979)', '(-0.47042299987057357, -0.013314245828708573)', '(-0.4851343745826155, -0.014711374712041921)', '(-0.5011335925080806, -0.015999217925465173)', '(-0.5183011717851154, -0.017167579277034675)', '(-0.5365084814181744, -0.018207309633059072)', '(-0.5556189924605727, -0.01911051104239821)', '(-0.575489721045271, -0.019870728584698277)', '(-0.5959728375440704, -0.020483116498799463)', '(-0.6169174033633988, -0.020944565819328517)', '(-0.6381711860584868, -0.02125378269508796)', '(-0.6595824957104016, -0.021411309651914845)', '(-0.6810019817144385, -0.021419486004036852)', '(-0.7022843297088855, -0.02128234799444709)', '(-0.7232898032831138, -0.021005473574228193)', '(-0.7438855838239069, -0.020595780540793154)', '(-0.7639468734803364, -0.02006128965642949)', '(-0.783357739591193, -0.019410866110856642)', '(-0.8020116927818092, -0.018653953190616107)', '(-0.8198120041341488, -0.017800311352339622)', '(-0.8366717784100278, -0.016859774275879074)', '(-0.8525138095991689, -0.01584203118914102)', '(-0.8672702517291874, -0.014756442130018525)', '(-0.8808821418720951, -0.01361189014290775)', '(-0.8932988138155806, -0.012416671943485558)', '(-0.9044772403123543, -0.011178426496773747)', '(-0.9143813396451627, -0.009904099332808298)', '(-0.9229812789392025, -0.008599939294039781)', '(-0.9302528026757545, -0.007271523736552081)', '(-0.9361766105997548, -0.005923807924000246)', '(-0.9407378049695511, -0.0045611943697963266)', '(-0.9439254230745184, -0.003187618104967415)', '(-0.9457320672610697, -0.0018066441865513074)', '(-0.9461536413970435, -0.00042157413597379307)', '(-0.9451891997418111, 0.0009644416552323357)', '(-0.9428409114999015, 0.002348288241909737)', '(-0.9391141418118896, 0.003726769688011843)', '(-0.9340176474519639, 0.005096494359925693)', '(-0.9275638829269973, 0.006453764524966613)', '(-0.9197694098867687, 0.007794473040228608)', '(-0.9106553996626474, 0.009114010224121227)', '(-0.9002482152947574, 0.010407184367890003)', '(-0.8885800555818584, 0.01166815971289908)', '(-0.8756896395601561, 0.012890416021702296)', '(-0.8616229055366034, 0.014066734023552714)', '(-0.8464336946111906, 0.015189210925412774)', '(-0.8301843848573057, 0.01624930975388487)', '(-0.8129464394087195, 0.017237945448586256)', '(-0.7948008301023628, 0.01814560930635665)', '(-0.7758382985369783, 0.018962531565384525)', '(-0.7561594188695623, 0.019678879667415945)', '(-0.7358744317018483, 0.02028498716771398)', '(-0.7151028261239912, 0.020771605577857084)', '(-0.6939726572277758, 0.02113016889621544)', '(-0.6726195987090383, 0.021353058518737443)', '(-0.6511857437646478, 0.021433854944390516)', '(-0.6298181813031597, 0.021367562461488045)', '(-0.608667387316696, 0.021150793986463665)', '(-0.5878854818741973, 0.020781905442498746)', '(-0.567624409512973, 0.020261072361224285)', '(-0.5480341040563091, 0.01959030545666389)', '(-0.5292606977293312, 0.01877340632697794)', '(-0.5114448290282868, 0.01781586870104439)', '(-0.4947200947300404, 0.01672473429824642)', '(-0.479211679692828, 0.015508415037212418)', '(-0.46503518491078777, 0.014176494782040276)', '(-0.4522956609227039, 0.01273952398808386)', '(-0.441086841325821, 0.011208819596882906)', '(-0.43149056077708803, 0.009596280548732966)', '(-0.4235763341522391, 0.007914226624848909)', '(-0.41740106883586126, 0.00617526531637784)', '(-0.4130088804937134, 0.004392188342147838)', '(-0.41043098394493044, 0.002577896548782998)', '(-0.40968563453480156, 0.0007453494101288751)', '(-0.4107781012150329, -0.0010924666802313127)', '(-0.4137006598038913, -0.002922558588858434)', '(-0.4184326030251119, -0.004731943221220606)', '(-0.42494027230021447, -0.006507669275102537)', '(-0.4331771242793056, -0.008236851979091117)', '(-0.44308385213032947, -0.009906727851023858)', '(-0.4545885870722769, -0.0115047349419474)', '(-0.46760720898022184, -0.013018621907944956)', '(-0.4820437956343671, -0.01443658665414526)', '(-0.4977912379898508, -0.01574744235548372)', '(-0.5147320435639511, -0.01694080557410025)', '(-0.5327393417862896, -0.018007298222338524)', '(-0.5516780943534509, -0.018938752567161394)', '(-0.5714065010063204, -0.01972840665286941)', '(-0.5917775777234716, -0.02037107671715123)', '(-0.6126408713115843, -0.02086329358811272)', '(-0.6338442630539013, -0.02120339174231703)', '(-0.6552358056336218, -0.02139154257972055)', '(-0.6766655329039407, -0.02142972727031886)', '(-0.6979871817574373, -0.021321648853496623)', '(-0.7190597694070886, -0.021072587649651267)', '(-0.7397489774012053, -0.0206892079941167)', '(-0.7599283048156079, -0.020179327414402624)', '(-0.7794799661770396, -0.019551661361431712)', '(-0.7982955235323034, -0.01881555735526373)', '(-0.816276255495192, -0.01798073196288866)', '(-0.8333332780717614, -0.017057022576569367)', '(-0.8493874418575073, -0.016054163785745895)', '(-0.8643690374103998, -0.014981595552892538)', '(-0.8782173451325949, -0.013848307722195074)', '(-0.8908800680009329, -0.012662722868338023)', '(-0.9023126853189275, -0.01143261731799458)', '(-0.9124777637760458, -0.010165078457118372)', '(-0.921344258984628, -0.008866495208582147)', '(-0.9288868367890729, -0.007542577804444888)', '(-0.9350852394109611, -0.006198402621888229)', '(-0.939923717226303, -0.004838477815341811)', '(-0.9433905428914223, -0.0034668256651193686)', '(-0.945477620775093, -0.002087077883670684)']</t>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9367093534767416, 0.00034545019935553574)', '(-0.9329999864327626, 0.003709367043978943)', '(-0.925935902219308, 0.007064084213454612)', '(-0.9175354260462414, 0.008400476173066622)', '(-0.905821714990774, 0.011713711055467393)', '(-0.8908295086041136, 0.014992206386660411)', '(-0.8726073680709443, 0.01822214053316928)', '(-0.8512203787774776, 0.021386989293466673)', '(-0.8267531651744743, 0.02446721360300331)', '(-0.8013130162013908, 0.025440148973083408)', '(-0.7730227455527379, 0.028290270648653013)', '(-0.7420315416077146, 0.030991203945023266)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[1,1,1]', '[2,0,1]', '[0,1,1]', '[1,2,0]', '[0,0,0]', '[2,1,0]', '[1,0,2]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9387093534767416, -0.0016545498006444643)', '(-0.9369951475887142, 0.0017142058880274475)', '(-0.9319163281839341, 0.005078819404780072)', '(-0.9254855343000118, 0.006430793883922309)', '(-0.9157195524427848, 0.009765981857227019)', '(-0.9026455350371095, 0.013074017405675242)', '(-0.8883029286857289, 0.014342606351380639)', '(-0.8727390189246731, 0.015563909761055872)', '(-0.8540097667345998, 0.018729252190073237)', '(-0.8341887598871169, 0.019821006847482947)', '(-0.8113610609829551, 0.022827698904161847)', '(-0.7876334047450483, 0.023727656237906805)']</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9370548036760971, -0.003019308520064365)', '(-0.9387093534767416, -0.0016545498006444643)', '(-0.9369951475887142, 0.0017142058880274475)', '(-0.9319163281839341, 0.005078819404780072)', '(-0.9254855343000118, 0.006430793883922309)', '(-0.9177195524427848, 0.007765981857227018)', '(-0.9066398123305951, 0.011079740112189724)', '(-0.8942790587411393, 0.012360753589455816)', '(-0.8806767943843564, 0.013602264356782866)', '(-0.8638800491862242, 0.01679674519813225)', '(-0.8459519306241196, 0.017928118562104675)', '(-0.8269657623959273, 0.01898616822819226)', '(-0.8070056799185398, 0.01996008247738761)']</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.813689668937585, -0.018085515968538746)', '(-0.8308639230563184, -0.017174254118733405)', '(-0.8470464570443602, -0.01618253398804185)', '(-0.8621662920633967, -0.015119835019036463)', '(-0.8761614995295322, -0.013995207466135525)', '(-0.8889786495858901, -0.012817150056357939)', '(-0.900572175464006, -0.011593525878115907)', '(-0.9109036902956382, -0.010331514831632214)', '(-0.9199412899755272, -0.009037599679888915)', '(-0.9276588718925554, -0.007717581917028233)', '(-0.9340354951560327, -0.006376623263477371)', '(-0.9390548036760971, -0.005019308520064365)', '(-0.942704529349457, -0.0036497256733600126)', '(-0.9429760887988955, -0.0002715594494384168)', '(-0.9418688547577421, 0.0011072340411534673)', '(-0.9393853946916204, 0.002483460066121649)', '(-0.935531562583234, 0.0038538321083864645)', '(-0.9283167030288482, 0.0072148595543858485)', '(-0.919759157745538, 0.008557545283310198)', '(-0.909882103962947, 0.009877053782590914)', '(-0.8967141920398314, 0.013167911923115654)', '(-0.8822967415613249, 0.014417450478506521)', '(-0.8666790160164124, 0.015617725544912467)', '(-0.8499190208437473, 0.016759995172665174)']</t>
+  </si>
+  <si>
+    <t>[1, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41174351056316816, -0.0018362498283551873)', '(-0.41540301904140486, -0.0036595084782366865)', '(-0.42085982160582946, -0.005456802564424624)', '(-0.42807502419566773, -0.007215202589838278)', '(-0.43699688922555213, -0.00892186502988442)', '(-0.4475609861003318, -0.010564096874779683)', '(-0.4596904333981081, -0.012129447297776317)', '(-0.4732962621873059, -0.013605828789197806)', '(-0.4882779295273638, -0.01498166734005792)', '(-0.5045240077604822, -0.016246078233118442)', '(-0.521913068686875, -0.01738906092639283)', '(-0.5403147723612148, -0.01840170367433975)', '(-0.559591158600399, -0.019276386239184096)', '(-0.5795981262082689, -0.0200069676078699)', '(-0.6001870715117881, -0.02058894530351922)', '(-0.6212066453244821, -0.02101957381269399)', '(-0.6425045771676837, -0.02129793184320158)', '(-0.6639295085850514, -0.02142493141736767)', '(-0.6853327744571779, -0.021403265872126518)', '(-0.706570072701186, -0.021237298244008135)', '(-0.7275029684788681, -0.020932895777682058)', '(-0.7480001884290132, -0.020497219950145102)', '(-0.7679386725131133, -0.01993848408410019)', '(-0.7872043646287238, -0.01926569211561044)', '(-0.8056927369615754, -0.018488372332851614)', '(-0.8233090559845022, -0.01761631902292683)', '(-0.8399684091673826, -0.016659353182880313)', '(-0.8555955202389658, -0.015627111071583204)', '(-0.8701243869603363, -0.014528866721370529)', '(-0.8834977788445147, -0.013373391884178397)', '(-0.895666633332444, -0.012168854487929249)', '(-0.9065893880125382, -0.010922754680094177)', '(-0.9162312840268545, -0.009641896014316349)', '(-0.9245636723296125, -0.008332388302757987)', '(-0.931563350399725, -0.006999678070112642)', '(-0.93721195273011, -0.005648602330385052)', '(-0.9414954142035076, -0.004283461473397496)', '(-0.9444035215037684, -0.0029081073002607586)', '(-0.9459295641016815, -0.0015260425979130993)', '(-0.9460700931183383, -0.00014052901665681083)', '(-0.9448247934690912, 0.0012452996492471192)', '(-0.9421964720446694, 0.0026283214244218565)', '(-0.9381911621805177, 0.004005309864151716)', '(-0.9328183421731857, 0.005372820007331965)', '(-0.9260912629944763, 0.006727079178709428)', '(-0.918027377513374, 0.008063885481102288)', '(-0.9086488603725885, 0.009378517140785558)', '(-0.8979832041327815, 0.01066565623980694)', '(-0.8860638734026118, 0.011919330730169729)']</t>
   </si>
   <si>
     <t>[1,1,1]</t>
   </si>
   <si>
-    <t>[26, 36, 41, 47, 53, 57, 71, 72, 76]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9228233863603327, -0.004553579159635175)', '(-0.9240489813695648, -0.0012255950092320915)', '(-0.9219432572728519, 0.0021057240967129486)', '(-0.9165119633548108, 0.005431293918041133)', '(-0.9077703565706848, 0.008741606784125977)', '(-0.896744279051685, 0.011026077518999818)', '(-0.8824685645408238, 0.014275714510861213)', '(-0.8649919634332168, 0.017476601107606918)', '(-0.844379642290136, 0.02061232114308085)', '(-0.8207159890288893, 0.023663653261246663)', '(-0.7941075313274059, 0.026608457701483453)', '(-0.7656857269029593, 0.028421804424446542)', '(-0.7346037258191915, 0.03108200108376784)', '(-0.7010427793377766, 0.03356094648141499)', '(-0.6652129727550252, 0.03582980658275137)', '(-0.627352722743853, 0.03786025001117218)', '(-0.587726822514629, 0.03962590022922398)', '(-0.547622923304599, 0.04010389921003002)', '(-0.5063389989361667, 0.04128392436843236)', '(-0.4641844650564914, 0.042154533879675334)', '(-0.42147318272011414, 0.04271128233637729)', '(-0.3795159156994708, 0.04195726702064332)', '(-0.3376059327507384, 0.04190998294873239)', '(-0.29601963083140154, 0.0415863019193369)', '(-0.2550106269611852, 0.04100900387021632)', '(-0.21480502378691538, 0.04020560317426983)', '(-0.1755980488336577, 0.03920697495325767)', '(-0.13755213212996223, 0.038045916703695476)', '(-0.10079636223596458, 0.03675576989399765)', '(-0.06542716169195939, 0.035369200544005185)', '(-0.031509957535840925, 0.033917204156118465)', '(0.0009184081760391094, 0.032428365711880035)', '(0.03184678337699089, 0.030928375200951784)', '(0.061286559849584185, 0.02943977647259329)', '(0.08926847289840785, 0.02798191304882366)', '(0.11483950110005445, 0.025571028201646598)', '(0.13805743384146307, 0.02321793274140864)', '(0.15998674226616877, 0.021929308424705685)', '(0.1806985174695897, 0.02071177520342093)', '(0.2002687191730303, 0.019570201703440607)', '(0.21777672048648386, 0.017508001313453574)', '(0.23429956175103947, 0.01652284126455562)', '(0.2499149740347298, 0.015615412283690304)', '(0.26470072952829765, 0.014785755493567868)', '(0.27873417152533886, 0.014033441997041225)', '(0.2920918990780328, 0.01335772755269395)', '(0.304849583671412, 0.012757684593379252)', '(0.31708189787379304, 0.012232314202381014)', '(0.32886253864640896, 0.011780640772615942)', '(0.34026433066352646, 0.01140179201711751)', '(0.35135939750081846, 0.011095066837291986)', '(0.36221939083537696, 0.01085999333455848)', '(0.37291576983721625, 0.01069637900183927)', '(0.383520124710554, 0.010604354873337773)', '(0.39410453986520666, 0.01058441515465265)', '(0.40474199346942613, 0.010637453604219483)', '(0.41550679115907174, 0.010764797689645599)', '(0.4264750324515806, 0.010968241292508837)', '(0.4377251089239086, 0.011250076472327992)', '(0.44933823343415225, 0.011613124510243664)', '(0.46139899955062147, 0.012060766116469248)', '(0.4739959698290595, 0.012596970278438022)', '(0.4862222905471025, 0.01222632071804297)', '(0.4981688746769613, 0.011946584129858807)', '(0.5099249195023835, 0.011756044825422187)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100]</t>
-  </si>
-  <si>
-    <t>['[0,1,1]', '[1,1,1]', '[2,1,0]']</t>
-  </si>
-  <si>
-    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47, 49, 53, 54, 57, 68, 70, 71, 72, 76, 86, 98, 103, 105, 106, 108, 110, 111, 113, 118, 122, 123, 128, 129, 130, 133, 135, 136, 137, 139, 140, 142, 143, 145, 146, 150, 153, 156, 157, 160, 165, 166, 168, 170, 172, 173, 174, 175, 177, 178, 179, 184, 187, 188, 192]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8616674595669251, 0.0037255598050831853)', '(-0.8548192463087498, 0.006848213258175343)', '(-0.844875959675641, 0.009943286633108861)', '(-0.8328792154887231, 0.011996744186917901)', '(-0.8188816524475685, 0.01399756304115465)', '(-0.8019479590634001, 0.016933693384168426)', '(-0.7831609446150978, 0.01878701444830235)', '(-0.7616180675846009, 0.021542877030496867)', '(-0.7384379262182432, 0.02318014136635769)', '(-0.7127557529408173, 0.025682173277425988)', '(-0.6847298269123431, 0.028025926028474233)', '(-0.6545419353295145, 0.030187891582828554)', '(-0.6233970339949662, 0.03114490133454835)', '(-0.5915147777623492, 0.03188225623261693)', '(-0.558126668473022, 0.03338810928932721)', '(-0.5234800628259316, 0.03464660564709036)', '(-0.4888343475246152, 0.034645715301316424)', '(-0.4534488930211198, 0.03538545450349537)', '(-0.4175856876379742, 0.03586320538314555)', '(-0.38150424414724315, 0.03608144349073108)', '(-0.3454565252713187, 0.036047718875924464)', '(-0.30968217591423747, 0.03577434935708125)', '(-0.27440432163915074, 0.03527785427508675)', '(-0.23982613872430952, 0.03457818291484121)', '(-0.20612832968757272, 0.033697809036736796)', '(-0.17346756008331243, 0.03266076960426027)', '(-0.14197583804281697, 0.03149172204049547)', '(-0.11276075577177913, 0.029215082271037834)', '(-0.0849039887909325, 0.027856766980846635)', '(-0.05946656158685402, 0.025437427204078482)', '(-0.036489456724286926, 0.022977104862567096)', '(-0.015997387658999846, 0.02049206906528708)', '(0.0009975599133647123, 0.01699494757236456)', '(0.014492518680885948, 0.013494958767521235)', '(0.02448983994856889, 0.009997321267682942)', '(0.03199390539473864, 0.007504065446169753)', '(0.03600947761530306, 0.004015572220564416)', '(0.03653962333257421, 0.0005301457172711579)', '(0.033584774385923714, -0.0029548489466504984)', '(0.02814260400040648, -0.005442170385517236)', '(0.020209338392823434, -0.007933265607583045)', '(0.009780666073278441, -0.010428672319544993)', '(-0.0031469301324024024, -0.012927596205680843)', '(-0.01857441492825658, -0.015427484795854176)', '(-0.036498019378320326, -0.017923604450063746)', '(-0.056906652608827976, -0.02040863323050765)', '(-0.07877894260766097, -0.021872289998832988)', '(-0.10208173811011816, -0.023302795502457188)', '(-0.12676821432207913, -0.024686476211960986)', '(-0.15277606951947204, -0.026007855197392918)', '(-0.1810259083009731, -0.02824983878150106)', '(-0.21141605271358505, -0.030390144412611942)', '(-0.24481999073763902, -0.03340393802405397)', '(-0.2810794107139739, -0.03625941997633492)', '(-0.32000145069835, -0.038922039984376114)', '(-0.3613572817348948, -0.041355831036544756)', '(-0.40488244594929446, -0.0435251642143997)', '(-0.4492792788662203, -0.04439683291692585)', '(-0.49522890140029835, -0.04594962253407805)', '(-0.5423910412071585, -0.04716213980686015)', '(-0.5884123136704258, -0.04602127246326728)', '(-0.6329505418323039, -0.04453822816187812)', '(-0.6766832633765868, -0.043732721544282906)', '(-0.7183077873026835, -0.04162452392609676)', '(-0.758553632802182, -0.040245845499498493)', '(-0.7971796516022601, -0.03862601880007806)', '(-0.8329765397407206, -0.035796888138460464)', '(-0.8667721714700585, -0.03379563172933785)', '(-0.8974251735142545, -0.030653002044196034)', '(-0.9258263157685106, -0.02840114225425601)', '(-0.9518913586323792, -0.026065042863868574)', '(-0.9745578940391056, -0.022666535406726515)', '(-0.9947835557510194, -0.020225661711913746)', '(-1.0115400601382565, -0.016756504387237157)', '(-1.024810854778137, -0.01327079463988052)', '(-1.0345872853961129, -0.00977643061797593)', '(-1.0408655047622801, -0.006278219366167253)', '(-1.044644175181519, -0.0037786704192388633)', '(-1.0449229189473512, -0.0002787437658322992)', '(-1.0417017209199162, 0.0032211980274350406)', '(-1.034980862681476, 0.006720858238440085)', '(-1.0257616832892313, 0.00921917939224478)', '(-1.0140476714506346, 0.011714011838596826)', '(-0.9988460122145911, 0.015201659236043458)', '(-0.9811706079468944, 0.01767540426769674)', '(-0.9610440885467489, 0.020126519400145423)', '(-0.9375006075542884, 0.023543480992460557)', '(-0.9115912851558434, 0.02590932239844499)', '(-0.8833860021654679, 0.028205282990375523)', '(-0.8529765772531794, 0.03040942491228849)', '(-0.8194796514884042, 0.033496925764775275)', '(-0.7830437611455453, 0.03643589034285887)', '(-0.7448526339451673, 0.03819112720037799)', '(-0.7041212964387921, 0.040731337506375254)', '(-0.6621012592539044, 0.04202003718488762)', '(-0.6190720864312286, 0.0430291728226758)', '(-0.575336614053128, 0.04373547237810055)', '(-0.5302146640464958, 0.04512195000663217)', '(-0.4850430981341826, 0.04517156591231313)', '(-0.4401600554451615, 0.044883042689021116)', '(-0.3948962884528426, 0.04526376699231895)', '(-0.3505739847099112, 0.044322303742931383)', '(-0.30749187258684, 0.04308211212307116)', '(-0.2649193822055575, 0.04257249038128251)', '(-0.22409803531399136, 0.04082134689156615)', '(-0.1852326759146563, 0.03886535939933505)', '(-0.14749114754582815, 0.037741528368828145)', '(-0.11100885757665818, 0.03648228996916996)', '(-0.07588921078822464, 0.035119646788433545)', '(-0.043205052683739, 0.03268415810448564)', '(-0.01199992385161042, 0.031205128832128576)', '(0.017706824785010154, 0.029706748636620574)', '(0.04491709982327947, 0.027210275038269314)', '(0.0706500379284455, 0.02573293810516603)', '(0.0949389196967122, 0.024288881768266702)', '(0.11682851857474662, 0.02188959887803442)', '(0.1363701021874676, 0.01954158361272097)', '(0.15461799805044457, 0.018247895862976975)', '(0.17163005672915566, 0.017012058678711077)', '(0.18646624837771897, 0.014836191648563323)', '(0.20018350418594136, 0.013717255808222386)', '(0.21283819837644297, 0.012654694190501612)', '(0.22448543769271342, 0.011647239316270451)', '(0.23517850034307264, 0.01069306265035921)', '(0.24396840194394287, 0.008789901600870245)', '(0.25089854722787375, 0.00693014528393086)', '(0.2550040706146964, 0.004105523386822653)', '(0.25730615925094663, 0.0023020886362502416)', '(0.2568168133139299, -0.0004893459370167255)', '(0.25453347480272687, -0.0022833385112030523)', '(0.24944425902033943, -0.005089215782387453)', '(0.24252298249992355, -0.00692127652041587)', '(0.23373472249489227, -0.00878826000503127)', '(0.22303629777245593, -0.010698424722436334)', '(0.21037693625160603, -0.01265936152084991)', '(0.19669917277630566, -0.01367776347530035)', '(0.1809441932516254, -0.015754979524680277)', '(0.16304859144895478, -0.017895601802670608)', '(0.14294615325291377, -0.020102438196041017)', '(0.12157009168536967, -0.021376061567544104)', '(0.09885846227014528, -0.022711629415224387)', '(0.07475597553624858, -0.024102486733896707)', '(0.04921609586216664, -0.025539879674081938)', '(0.021203416740834754, -0.028012679121331884)', '(-0.008304206255793312, -0.029507622996628066)', '(-0.039311053494327425, -0.031006847238534117)', '(-0.07280053558547776, -0.03348948209115034)', '(-0.10873063022486879, -0.03593009463939102)', '(-0.14702889854481707, -0.03829826831994829)', '(-0.18758788752111516, -0.040558988976298095)', '(-0.23126133614211147, -0.043673448620996314)', '(-0.27685686435576495, -0.04559552821365348)', '(-0.3251385290486879, -0.04828166469292297)', '(-0.3758222537986942, -0.0506837247500063)', '(-0.4285783523695778, -0.052756098570883585)', '(-0.4810374915628009, -0.052459139193223106)', '(-0.5328149737384439, -0.051777482175643035)', '(-0.5835233432342923, -0.05070836949584847)', '(-0.6327846954104484, -0.04926135217615607)']</t>
-  </si>
-  <si>
-    <t>['[1,1,1]', '[1,1,2]', '[2,1,0]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 27, 31, 33, 35, 36, 38, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 60, 62, 65, 66, 67, 68, 69, 70, 71, 72, 75, 76, 83, 84, 90, 92, 93, 98, 100, 103, 105, 106, 108, 110, 111, 113, 114, 116, 118, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 139, 140, 141, 142, 143, 145, 146, 150, 153, 162, 166, 168, 169, 170, 172, 173, 174, 175, 177, 178, 179, 184, 185, 187, 188, 189, 190, 192, 194, 195, 196, 198]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41688812962687327, -0.0034780326196833782)', '(-0.42115289174160425, -0.004264762114730997)', '(-0.42617395914261486, -0.00502106740101063)', '(-0.4319153539455495, -0.005741394802934639)', '(-0.4393357370306727, -0.007420383085123208)', '(-0.44738138362155394, -0.008045646590881266)', '(-0.4559936926770704, -0.008612309055516451)', '(-0.4651095709102948, -0.009115878233224382)', '(-0.47566187061981946, -0.010552299709524673)', '(-0.4865724591373637, -0.010910588517544246)', '(-0.4977601743175313, -0.011187715180167567)', '(-0.5101414849951025, -0.012381310677571153)', '(-0.5236236979370857, -0.013482212941983254)', '(-0.5371057239615282, -0.013482026024442526)', '(-0.5514864755929504, -0.014380751631422203)', '(-0.5666583133894763, -0.015171837796525913)', '(-0.5825081020777473, -0.01584978868827105)', '(-0.5989183671059618, -0.01641026502821452)', '(-0.6147685299661801, -0.015850162860218328)', '(-0.630943413043882, -0.01617488307770189)', '(-0.647327054695926, -0.016383641652044006)', '(-0.6638038967627455, -0.016476842066819552)', '(-0.6792599331860142, -0.015456036423268621)', '(-0.6935904826369591, -0.014330549450944896)', '(-0.7067006432533479, -0.013110160616388785)', '(-0.7195055660885832, -0.012804922835235223)', '(-0.7319243255666845, -0.012418759478101378)', '(-0.7438803892029979, -0.011956063636313368)', '(-0.754301992712396, -0.010421603509398058)', '(-0.7641281891600165, -0.009826196447620535)', '(-0.7723029408869763, -0.008174751726959811)', '(-0.7797807196814492, -0.007477778794472976)', '(-0.7855207721248553, -0.005740052443406065)', '(-0.7894924075039262, -0.003971635379070979)', '(-0.7926746968135555, -0.0031822893096292836)', '(-0.7940510537706393, -0.0013763569570838523)', '(-0.7946143556210978, -0.0005633018504584962)', '(-0.7943616961416005, 0.00025265947949737054)', '(-0.7922943782283864, 0.0020673179132139697)', '(-0.7884231015754104, 0.0038712766529760806)', '(-0.7837680888217157, 0.004655012753694719)', '(-0.7773539749938986, 0.006414113827817123)', '(-0.7692152655554051, 0.008138709438493518)', '(-0.760396661112913, 0.008818604442492049)', '(-0.7499477260338634, 0.010448935079049666)', '(-0.7379286619646062, 0.012019064069257242)', '(-0.7244106209908786, 0.013518040973727524)', '(-0.710475952688466, 0.013934668302412639)', '(-0.6962119814859157, 0.014263971202550282)', '(-0.6807104998870089, 0.015501481598906732)', '(-0.6640738275902647, 0.016636672296744214)', '(-0.6464145019618104, 0.017659325628454285)', '(-0.6278547581854135, 0.018559743776396857)', '(-0.6075257807239107, 0.020328977461502726)', '(-0.586573980227709, 0.02095180049620166)', '(-0.5651526703953395, 0.021421309832369523)', '(-0.542420512937223, 0.02273215745811637)', '(-0.5195472674492635, 0.022873245487959586)', '(-0.4957044075242531, 0.0238428599250104)', '(-0.4720705112697698, 0.023633896254483328)', '(-0.44782153965698074, 0.024248971612789053)', '(-0.42313601476574025, 0.024685524891240474)', '(-0.3991926053704507, 0.023943409395289543)', '(-0.3761607316235496, 0.023031873746901067)', '(-0.3541989379701692, 0.021961793653380416)', '(-0.33345365704482793, 0.0207452809253413)', '(-0.31405837242933154, 0.01939528461549636)', '(-0.29613316305795523, 0.017925209371376323)', '(-0.27978459101564285, 0.016348572042312395)', '(-0.265105878710563, 0.014678712305079817)', '(-0.25317731136009325, 0.011928567350469784)', '(-0.24406163998956934, 0.009115671370523912)', '(-0.23680525753914045, 0.00725638245042889)', '(-0.23144410207825505, 0.005361155460885404)', '(-0.22900414939717142, 0.002439952681083629)', '(-0.22949705736137707, -0.000492907964205638)', '(-0.23292047923010353, -0.0034234218687264513)', '(-0.23925799985927812, -0.006337520629174594)', '(-0.24847869962810198, -0.009220699768823854)', '(-0.2605363798212765, -0.012057680193174486)', '(-0.27436851237304727, -0.013832132551770765)', '(-0.2899005132263994, -0.015532000853352134)', '(-0.30704515068069216, -0.01714463745429275)', '(-0.3257020791320505, -0.018656928451358357)', '(-0.3467575662669891, -0.02105548713493861)', '(-0.37007801605646407, -0.02332044978947494)', '(-0.3955095955157564, -0.02543157945929233)', '(-0.4218783754588349, -0.02636877994307853)', '(-0.4499982727315004, -0.028119897272665496)', '(-0.4786656993619128, -0.028667426630412402)', '(-0.507669104401717, -0.029003405039804187)', '(-0.5377919365056618, -0.030122832103944897)', '(-0.5688083520653557, -0.031016415559693974)', '(-0.6004867343921371, -0.031678382326781294)', '(-0.6325935570504875, -0.03210682265835042)', '(-0.6638974081554996, -0.03130385110501208)', '(-0.6951798134515996, -0.03128240529610004)', '(-0.7252314405817298, -0.03005162713013017)', '(-0.7548613722770282, -0.029629931695298425)', '(-0.781892669155074, -0.02703129687804588)', '(-0.8071748871815422, -0.025282218026468076)', '(-0.8295777029717833, -0.02240281579024117)', '(-0.8499946437906264, -0.02041694081884305)', '(-0.86833647317468, -0.018341829384053553)', '(-0.8855296516744264, -0.017193178499746456)', '(-0.9005111471121733, -0.01498149543774683)', '(-0.9142308264479241, -0.013719679335750773)', '(-0.925646783960742, -0.011415957512817862)', '(-0.9347271219351665, -0.00908033797442456)', '(-0.94044842289016, -0.005721300954993436)', '(-0.943796829920119, -0.003348407029959068)', '(-0.9447645572535708, -0.0009677273334516953)', '(-0.942349399427193, 0.002415157826377801)', '(-0.9375568980620578, 0.004792501365135244)', '(-0.929398418883751, 0.0081584791783068)', '(-0.9188944338707723, 0.010503985012978636)', '(-0.9050733676763976, 0.013821066194374745)', '(-0.8879761216223702, 0.017097246054027387)', '(-0.868658697855577, 0.01931742376679313)', '(-0.8471913887933397, 0.021467309062237372)', '(-0.8236607667908403, 0.023530622002499335)', '(-0.7971715385405651, 0.026489228250275245)', '(-0.7688532211079346, 0.028318317432630496)', '(-0.7388570206084903, 0.029996200499444264)', '(-0.7063562767375198, 0.03250074387097057)', '(-0.6725524985751694, 0.03380377816235034)', '(-0.6376683778010294, 0.0348841207741401)', '(-0.6019453354277139, 0.035723042373315514)', '(-0.5646400891188972, 0.037305246308816715)', '(-0.5260278100768893, 0.03861227904200796)', '(-0.4873973134375243, 0.03863049663936496)', '(-0.4490377943376883, 0.038359519099836)', '(-0.4112328310137486, 0.037804963323939726)', '(-0.37425474184182045, 0.03697808917192813)', '(-0.33835963443068295, 0.03589510741113748)', '(-0.3027834092772805, 0.03557622515340248)', '(-0.26874480266128764, 0.03403860661599284)', '(-0.23643674831549105, 0.03230805434579658)', '(-0.20602572222267596, 0.030411026092815104)', '(-0.1776521815928027, 0.028373540629873264)', '(-0.15143191263735112, 0.02622026895545156)', '(-0.12645806943699367, 0.024973843200357452)', '(-0.10380646766830823, 0.02265160176868545)', '(-0.08353461492349896, 0.020271852744809266)', '(-0.06668466930740517, 0.016849945616093796)', '(-0.053284863308046694, 0.01339980599935848)', '(-0.04335318340721582, 0.00993167990083087)', '(-0.03590038893692173, 0.007452794470294086)', '(-0.031933109050102375, 0.003967279886819357)', '(-0.03145436604536198, 0.00047874300474038973)', '(-0.03346450080449967, -0.0020101347591376865)', '(-0.037962047572520745, -0.004497546768021075)', '(-0.04494339928924383, -0.006981351716723086)', '(-0.05440206143256946, -0.00945866214332563)', '(-0.06632750209230304, -0.011925440659733577)', '(-0.0807036132902246, -0.01437611119792156)', '(-0.09750680963583525, -0.01680319634561065)', '(-0.11670380625737416, -0.01919699662153891)', '(-0.13824913913332315, -0.021545332875948998)', '(-0.16208251733443013, -0.023833378201106974)', '(-0.18812612713963425, -0.02604360980520411)', '(-0.2162820400989463, -0.02815591295931204)', '(-0.24642990701009862, -0.030147866911152305)', '(-0.2784251421835889, -0.03199523517349027)', '(-0.31309781106823764, -0.03467266888464878)', '(-0.3492463761316383, -0.03614856506340064)', '(-0.38664376846275045, -0.03739739233111217)', '(-0.42503966706360663, -0.03839589860085616)', '(-0.4651640352893922, -0.04012436822578558)', '(-0.5057244227750586, -0.04056038748566638)', '(-0.5464188036705188, -0.04069438089546021)', '(-0.5869421680147652, -0.040523364344246374)', '(-0.6269933110363185, -0.04005114302155333)', '(-0.6652813703434792, -0.038288059307160775)', '(-0.7025385188642348, -0.03725714852075558)', '(-0.7385171543319755, -0.035978635467740695)', '(-0.7729932829249965, -0.03447612859302096)', '(-0.804768640169413, -0.031775357244416456)', '(-0.8336765447825116, -0.02890790461309865)', '(-0.8595800508999885, -0.025903506117476778)', '(-0.8823692158749352, -0.022789164974946718)', '(-0.9029578477708817, -0.020588631895946487)', '(-0.9212769074839685, -0.01831905971308675)', '(-0.9362722360605078, -0.01499532857653933)', '(-0.9489047167023266, -0.012632480641818803)', '(-0.9591451036962997, -0.01024038699397317)', '(-0.9669722085452186, -0.007827104848918905)', '(-0.972371370745921, -0.0053991622007023695)', '(-0.9743332571584407, -0.0019618864125197553)', '(-0.973854634676195, 0.0004786224822455991)', '(-0.9699362842566459, 0.0039183504195490805)', '(-0.9635847883879682, 0.00635149586867764)', '(-0.9548115308057439, 0.008773257582224386)', '(-0.9436336808683545, 0.011177849937389388)', '(-0.9290755250303757, 0.014558155837978775)', '(-0.9121727025788692, 0.016902822451506583)', '(-0.8919721975719942, 0.02020050500687502)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 35, 36, 37, 38, 40, 41, 42, 44, 45, 47, 48, 49, 52, 53, 54, 55, 57, 58, 59, 60, 62, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 83, 84, 85, 86, 90, 92, 93, 94, 97, 98, 99, 100, 101, 103, 104, 105, 106, 107, 108, 110, 111, 112, 113, 114, 116, 117, 118, 119, 120, 121, 122, 123, 125, 126, 128, 129, 130, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 162, 163, 164, 165, 166, 168, 169, 170, 171, 172, 173, 174, 175, 177, 178, 179, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46195598448582437, -0.008934427180277368)', '(-0.47135010198763444, -0.009394117501810082)', '(-0.4811344818689669, -0.009784379881332466)', '(-0.4912364832135895, -0.010102001344622562)', '(-0.5015808206276465, -0.01034433741405706)', '(-0.5120901726466438, -0.010509352018997255)', '(-0.5236858220405293, -0.011595649393885483)', '(-0.5362808185861054, -0.012594996545576175)', '(-0.5497807227543096, -0.013499904168204135)', '(-0.5640844641668106, -0.014303741412501014)', '(-0.5780853089115225, -0.014000844744711983)', '(-0.5916793220116702, -0.013594013100147673)', '(-0.6057662735618006, -0.014086951550130442)', '(-0.6192431909222812, -0.013476917360480605)', '(-0.6320125778158626, -0.012769386893581395)', '(-0.6439831208450931, -0.011970543029230504)', '(-0.6550702810709481, -0.011087160225854932)', '(-0.665196771987928, -0.010126490916979935)', '(-0.6752929301820363, -0.01009615819410829)', '(-0.6852902474104309, -0.009997317228394566)', '(-0.69412187915975, -0.008831631749319148)', '(-0.7027296452778802, -0.008607766118130196)', '(-0.710057666734382, -0.0073280214565018525)', '(-0.7170590432455791, -0.007001376511197094)', '(-0.722689563695558, -0.005630520449978878)', '(-0.7269141112434762, -0.0042245475479180845)', '(-0.7297066007815012, -0.002792489538025065)', '(-0.7310499156758343, -0.0013433148943331973)', '(-0.7319358582008177, -0.0008859425249834276)', '(-0.7313590347396498, 0.000576823461167958)', '(-0.7293229558214056, 0.0020360789182442014)', '(-0.7258400478211158, 0.0034829080002898843)', '(-0.7219316921374961, 0.003908355683619648)', '(-0.7166220671563864, 0.0053096249811096265)', '(-0.7099443279633955, 0.006677739192990933)', '(-0.7029406643844814, 0.007003663578913999)', '(-0.6946558968365673, 0.00828476754791417)', '(-0.6851437728447124, 0.00951212399185487)', '(-0.674466935316021, 0.010676837528691425)', '(-0.6616968246575448, 0.012770110658476217)', '(-0.6469203542676649, 0.014776470389879844)', '(-0.6312399274923947, 0.015680426775270245)', '(-0.6147661500668623, 0.016473777425532316)', '(-0.5976171100446002, 0.017149040022262134)', '(-0.5799174834388625, 0.017699626605737706)', '(-0.560797473262322, 0.01912001017654057)', '(-0.5413990515690434, 0.01939842169327852)', '(-0.5218671912470991, 0.01953186032194427)', '(-0.5023483177493794, 0.019518873497719694)', '(-0.4829887147488249, 0.019359603000554476)', '(-0.46293293431532484, 0.02005578043350006)', '(-0.4433296400472895, 0.019603294268035344)', '(-0.42332256281326747, 0.020007077234022)', '(-0.40405626491316904, 0.019266297900098404)', '(-0.385667440546832, 0.018388824366337046)', '(-0.36828383121020264, 0.017383609336629354)', '(-0.3520233896571294, 0.01626044155307324)', '(-0.33699368937335206, 0.01502970028377737)', '(-0.32329156325413794, 0.013702126119214132)', '(-0.31100294436828996, 0.012288618885848002)', '(-0.3002028738304282, 0.01080007053786176)', '(-0.2909556360515159, 0.009247237778912308)', '(-0.28331497987113907, 0.007640656180376867)', '(-0.27732438496744743, 0.005990594903691661)', '(-0.27301733604963957, 0.004307048917807843)', '(-0.27041757218413215, 0.002599763865507444)', '(-0.2695392847327312, 0.0008782874514009721)', '(-0.27138724439264705, -0.0018479596599158745)', '(-0.2759513995041462, -0.004564155111499155)', '(-0.2832066987640703, -0.007255299259924082)', '(-0.29311266930515184, -0.009905970541081539)', '(-0.30561279291520316, -0.012500123610051306)', '(-0.31963374781426435, -0.01402095489906119)', '(-0.33509075204283323, -0.015457004228568893)', '(-0.3518874021878411, -0.016796650145007856)', '(-0.36991568125401675, -0.018028279066175653)', '(-0.3900561805078997, -0.020140499253882928)', '(-0.41217167099692986, -0.022115490489030186)', '(-0.43610738736189325, -0.023935716364963402)', '(-0.46069178065329225, -0.024584393291398984)', '(-0.48674518080102863, -0.026053400147736362)', '(-0.5130744201452959, -0.02632923934426723)', '(-0.5394825790419976, -0.02640815889670164)', '(-0.5657716544910883, -0.02628907544909073)', '(-0.5927452764981548, -0.026973622007066433)', '(-0.6202040110709234, -0.0274587345727686)', '(-0.6469483065885585, -0.02674429551763508)', '(-0.6727884502659599, -0.02584014367740141)', '(-0.6975466557290372, -0.02475820546307724)', '(-0.721058663094664, -0.023512007365626884)', '(-0.7431748284499579, -0.022116165355293864)', '(-0.7647607147765014, -0.021585886326543537)', '(-0.7846915978075573, -0.01993088303105585)', '(-0.8028584649841285, -0.018166867176571257)', '(-0.819167434922559, -0.016308969938430427)', '(-0.8335389192650886, -0.014371484342529673)', '(-0.845906622168843, -0.012367702903754468)', '(-0.8562164683453067, -0.010309846176463695)', '(-0.8654255418726752, -0.00920907352736844)', '(-0.8724972068663855, -0.007071664993710355)', '(-0.877404436445431, -0.004907229579045433)', '(-0.880129047700618, -0.0027246112551869714)', '(-0.880661149026206, -0.0005321013255879621)', '(-0.8789988257236627, 0.0016623233025431883)', '(-0.8741480779813315, 0.0048507477423311305)', '(-0.8671267252431909, 0.007021352738140637)', '(-0.8579613739563307, 0.009165351286860284)', '(-0.8466881843858077, 0.011273189570522946)', '(-0.8333538152622321, 0.013334369123575645)', '(-0.8180164951695909, 0.015337320092641216)', '(-0.8007471562002932, 0.017269338969297592)', '(-0.7816305525025342, 0.019116603697758982)', '(-0.7607662751189402, 0.02086427738359393)', '(-0.7372695665541886, 0.023496708564751577)', '(-0.7122778401015025, 0.02499172645268611)', '(-0.685945384824625, 0.026332455276877508)', '(-0.6574428996159395, 0.028502485208685455)', '(-0.6279633411755702, 0.02947955844036928)', '(-0.5977137742273366, 0.0302495669482336)', '(-0.5669129135379387, 0.03080086068939787)', '(-0.5347881102431858, 0.03212480329475292)', '(-0.5015794026980385, 0.033208707545147355)', '(-0.4685357203691106, 0.03304368232892786)', '(-0.43590313535157527, 0.03263258501753534)', '(-0.4039207065629184, 0.03198242878865687)', '(-0.372816703240814, 0.031104003322104397)', '(-0.3428053923670921, 0.030011310873721893)', '(-0.314084521514526, 0.02872087085256614)', '(-0.286833567273548, 0.027250954240977995)', '(-0.26121275786568277, 0.025620809407865208)', '(-0.2373628237466341, 0.023849934119048673)', '(-0.21540538684513208, 0.021957436901502005)', '(-0.195443869999519, 0.019961516845613102)', '(-0.17856479323571284, 0.016879076763806136)', '(-0.1638355024684983, 0.014729290767214537)', '(-0.1513102688418764, 0.012525233626621897)', '(-0.141031861177486, 0.010278407664390385)', '(-0.13403300929031553, 0.006998851887170478)', '(-0.13033476131712077, 0.003698247973194749)', '(-0.12894783028485715, 0.0013869310322636233)', '(-0.12987616054856557, -0.0009283302637084117)', '(-0.13411711641976817, -0.004240955871202609)', '(-0.14065842926626101, -0.0065413128464928486)', '(-0.1494804464009066, -0.008822017134645584)', '(-0.16055527346560447, -0.011074827064697855)', '(-0.17384566165850043, -0.013290388192895975)', '(-0.18930368599549022, -0.015458024336989777)', '(-0.20686927632625213, -0.017565590330761924)', '(-0.22646867949783872, -0.019599403171586594)', '(-0.24801294782047717, -0.021544268322638442)', '(-0.2713965641425518, -0.02338361632207462)', '(-0.29649632508908974, -0.025099760946537923)', '(-0.3231706086537632, -0.026674283564673433)', '(-0.3512591475973745, -0.02808853894361131)', '(-0.380583413701331, -0.029324266103956508)', '(-0.41094768864893577, -0.030364274947604797)', '(-0.44314085565176914, -0.03219316700283338)', '(-0.4759316146216272, -0.032790758969858044)', '(-0.5090786600865523, -0.03314704546492509)', '(-0.5423345719811151, -0.03325591189456277)', '(-0.5754500393804333, -0.033115467399318144)', '(-0.6081781887101863, -0.03272814932975303)', '(-0.6402787774182314, -0.03210058870804512)', '(-0.6715220276582307, -0.031243250239999257)', '(-0.7016919100891326, -0.030169882430901927)', '(-0.7315887400187207, -0.029896829929588142)', '(-0.7600249159880968, -0.028436175969376185)', '(-0.7868328759987323, -0.026807960010635498)', '(-0.8118654767417719, -0.025032600743039535)', '(-0.8339956635160813, -0.02213018677430942)', '(-0.8541200223110195, -0.02012435879493808)', '(-0.8721521736948343, -0.01803215138381484)', '(-0.8880211858230916, -0.015869012128257278)', '(-0.9016698648866949, -0.013648679063603257)', '(-0.9130530394784561, -0.011383174591761186)', '(-0.9221359375591942, -0.009082898080738162)', '(-0.9288927358802614, -0.00675679832106724)', '(-0.9333053436434497, -0.004412607763188253)', '(-0.9353624658848788, -0.0020571222414290883)', '(-0.9350589779350101, 0.0003034879498687239)', '(-0.9323956301892745, 0.002663347745735677)', '(-0.9273790918050113, 0.005016538384263207)', '(-0.9190223320679861, 0.008356759737025245)', '(-0.908348131150701, 0.010674200917285137)', '(-0.8953877027808406, 0.01296042836986044)', '(-0.8801820939700615, 0.015205608810779044)', '(-0.8627837840986673, 0.01739830987139424)', '(-0.8432584095774912, 0.019525374521176076)', '(-0.8216865212533281, 0.021571888324163076)']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 69, 70, 71, 72, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 142, 143, 144, 145, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46095598448582437, -0.007934427180277367)', '(-0.46935747202864825, -0.008401487542823898)', '(-0.47816397639950403, -0.008806504370855768)', '(-0.4873101875839997, -0.009146211184495674)', '(-0.4967280258927914, -0.009417838308791716)', '(-0.5063471766263759, -0.009619150733584481)', '(-0.516095656598203, -0.009748479971827132)', '(-0.5259004052106337, -0.009804748612430796)', '(-0.5356878917381416, -0.00978748652750786)', '(-0.5453847297696223, -0.009696838031480678)', '(-0.5549182894474441, -0.009533559677821926)', '(-0.5642172982378297, -0.009299008790385591)', '(-0.573212421468232, -0.008995123230402299)', '(-0.58183681473618, -0.008624393267947915)', '(-0.5900266414683459, -0.008189826732165902)', '(-0.5977215503059249, -0.00769490883757898)', '(-0.604865108517577, -0.007143558211652154)', '(-0.6114051891942186, -0.006540080676641592)', '(-0.617294311464125, -0.0058891222699063075)', '(-0.6224899342956545, -0.005195622831529516)', '(-0.6269547055577472, -0.004464771262092805)', '(-0.6306566688340418, -0.0037019632762945627)', '(-0.6335694310052202, -0.0029127621711784527)', '(-0.6356722938177575, -0.002102862812537203)', '(-0.6369503525575496, -0.0012780587397921359)', '(-0.6373945645737626, -0.00044421201621297837)', '(-0.6370017897964303, 0.0003927747773323384)', '(-0.6357748046172629, 0.0012269851791674499)', '(-0.6337222896215038, 0.0020525149957590864)', '(-0.6308587907391723, 0.0028634988823315268)', '(-0.627204652498033, 0.0036541382411392938)', '(-0.6227859212780177, 0.004418731220015336)', '(-0.6176342158526911, 0.0051517054253266085)', '(-0.6117865621147299, 0.005847653737961193)', '(-0.6052851887648407, 0.006501373349889233)', '(-0.5981772809279199, 0.007107907836920819)', '(-0.5905146891596663, 0.007662591768253602)', '(-0.5823535921143114, 0.008161097045354953)', '(-0.5737541122311964, 0.00859947988311493)', '(-0.5647798851147305, 0.008974227116465927)', '(-0.5554975847592448, 0.009282300355485752)', '(-0.5459764083217797, 0.009521176437465126)', '(-0.5362875256756056, 0.009688882646174173)', '(-0.52650350038531, 0.009784025290295484)', '(-0.5166976899348305, 0.009805810450479607)', '(-0.5069436339294351, 0.009754056005395362)', '(-0.49731443951768256, 0.009629194411752508)', '(-0.4878821734017069, 0.00943226611597566)', '(-0.47871726951486887, 0.009164903886838063)', '(-0.46988796076596046, 0.008829308748908426)', '(-0.461459742227858, 0.008428218538102434)', '(-0.4534948718583402, 0.007964870369517799)', '(-0.4460519133711306, 0.007442958487209596)', '(-0.43918532432455465, 0.006866589046575952)', '(-0.4329450909629086, 0.006240233361646004)', '(-0.4273764099244368, 0.005568681038471778)', '(-0.42251941569934415, 0.004856994225092644)', '(-0.41840895174339543, 0.004110463955948725)', '(-0.41507438246860556, 0.0033345692747898488)', '(-0.41253944296191497, 0.0025349395066906135)', '(-0.41082212322412737, 0.0017173197377876198)', '(-0.4099345839540984, 0.0008875392700289972)', '(-0.40988310138996736, 5.148256413100216e-05)', '(-0.4106680394094787, -0.0007849380195113401)', '(-0.41228384792441475, -0.001615808514936055)', '(-0.41471908751241626, -0.0024352395880015325)', '(-0.41795648114211637, -0.0032373936297001296)', '(-0.42197299469348615, -0.004016513551369778)', '(-0.42673994868653736, -0.004766953993051239)', '(-0.4322231641463209, -0.00548321545978354)', '(-0.4383831457984274, -0.006159981652106494)', '(-0.4451753057678865, -0.006792159969459115)', '(-0.4525502306226071, -0.007374924854720571)', '(-0.46045399395638015, -0.007903763333773087)', '(-0.46882851576293677, -0.008374521806556637)', '(-0.47761196865020905, -0.00878345288727228)', '(-0.4867392295422251, -0.009127260892016029)', '(-0.4961423739926481, -0.009403144450423008)', '(-0.5057512086802666, -0.00960883468761851)', '(-0.5154938361717172, -0.009742627491450644)', '(-0.5252972447193888, -0.009803408547671583)', '(-0.5350879148037742, -0.009790670084385404)', '(-0.5447924334045181, -0.009704518600743959)', '(-0.5543381066453372, -0.009545673240819128)', '(-0.5636535615295586, -0.009315454884221332)', '(-0.5726693279600091, -0.009015766430450592)', '(-0.5813183930847423, -0.00864906512473315)', '(-0.5895367211677889, -0.008218328083046515)', '(-0.5972637335703977, -0.007727012402608903)', '(-0.6044427449484091, -0.0071790113780113496)', '(-0.6110213533255836, -0.006578608377174453)', '(-0.6169517831937552, -0.005930429868171655)', '(-0.6221911821312955, -0.005239398937540315)', '(-0.6267018725498046, -0.004510690418509088)', '(-0.6304515610227613, -0.003749688472956775)', '(-0.6334135081879574, -0.002961947165196075)', '(-0.6355666624383391, -0.002153154250381807)', '(-0.6368957605341397, -0.0013290980958004701)', '(-0.6373913979117043, -0.000495637377564637)', '(-0.6370500708751422, 0.00034132703656210533)', '(-0.6358741920916564, 0.0011758787834858287)', '(-0.6338720799344233, 0.0020021121572331396)', '(-0.6310579212976608, 0.0028141586367625006)', '(-0.6274517066184215, 0.0036062146792392178)', '(-0.6230791350487297, 0.0043725715696918055)', '(-0.6179714870954431, 0.0051076479532865815)', '(-0.6121654616412832, 0.0058060254541599556)', '(-0.6057029741252073, 0.006462487516075824)', '(-0.598630912825538, 0.007072061299669289)', '(-0.5910008506692841, 0.007630062156253989)', '(-0.5828687107802024, 0.00813213988908166)', '(-0.5742943850492438, 0.00857432573095867)', '(-0.5653413063155215, 0.008953078733722343)', '(-0.5560759762154085, 0.009265330100113043)', '(-0.5465674523070038, 0.009508523908404764)', '(-0.5368867996111977, 0.009680652695806046)', '(-0.5271065131289312, 0.009780286482266521)', '(-0.517299919100732, 0.00980659402819914)', '(-0.5075405636848176, 0.009759355415914456)', '(-0.49790159827887664, 0.009638965405940968)', '(-0.4884551708582944, 0.009446427420582295)', '(-0.4792718324392801, 0.009183338419014277)', '(-0.47041996711837136, 0.008851865320908777)', '(-0.4619652531376077, 0.008454713980763622)', '(-0.45397016114857963, 0.007995091989028067)', '(-0.4464934943871462, 0.007476666761433425)', '(-0.4395899739220309, 0.006903520465115258)', '(-0.4333098706043037, 0.006280103317727238)', '(-0.4276986839142657, 0.005611186690037997)', '(-0.4227968666580732, 0.0049018172561925135)', '(-0.41863959347161755, 0.004157273186455653)', '(-0.41525657038627845, 0.003383023085339096)', '(-0.41267188232111623, 0.002584688065162227)', '(-0.41090387528868016, 0.0017680070324360923)', '(-0.4099650703173257, 0.0009388049713544489)', '(-0.40986210656545513, 0.00010296375187055168)', '(-0.4105957117825042, -0.000733605217049083)', '(-0.41216069909759234, -0.0015649873150881646)', '(-0.41454599002240416, -0.002385290924811797)', '(-0.4177346644693147, -0.0031886744469105284)', '(-0.42170403943785434, -0.003969374968539677)', '(-0.42642577874400245, -0.004721739306148112)', '(-0.43186603669528956, -0.005440257951287106)', '(-0.4379856388975159, -0.006119602202226361)', '(-0.44474030337610543, -0.00675466447858953)', '(-0.4520809048827691, -0.007340601506663636)', '(-0.4599537846310922, -0.00787287974832312)', '(-0.46830110677852543, -0.00834732214743324)', '(-0.47706126178431857, -0.008760155005793111)', '(-0.4861693153814051, -0.009108053597086566)', '(-0.49555750038178437, -0.00938818500037922)', '(-0.5051557469802913, -0.009598246598506891)', '(-0.5148922457295022, -0.009736498749210854)', '(-0.5246940360281303, -0.009801790298628031)', '(-0.5344876118883156, -0.00979357586018532)', '(-0.5441995359999083, -0.009711924111592685)', '(-0.5537570527460279, -0.009557516746119604)', '(-0.5630886908703436, -0.00933163812431567)', '(-0.5721248469492859, -0.00903615607894224)', '(-0.5807983416488663, -0.008673494699580429)', '(-0.589044941886597, -0.008246600237730651)', '(-0.5968038433938566, -0.007758901507259644)', '(-0.6040181096888657, -0.007214266295009092)', '(-0.6106350650253916, -0.00661695533652579)', '(-0.6166066403798799, -0.005971575354488357)', '(-0.6218896728918334, -0.005283032511953533)', '(-0.6264461603060706, -0.004556487414237193)', '(-0.6302434728273217, -0.0037973125212511696)', '(-0.633254525355003, -0.003011052527681273)', '(-0.6354579133080848, -0.002203387953081691)', '(-0.6368380151862937, -0.001380101878208963)', '(-0.6373850646722389, -0.0005470494859451411)', '(-0.6370951945025228, 0.0002898701697160997)', '(-0.6359704535796639, 0.0011247409228590196)', '(-0.6340187979245695, 0.0019516556550943612)', '(-0.6312540551506142, 0.00276474277395531)', '(-0.6276958612464281, 0.0035581939041860826)', '(-0.6233695676555354, 0.004326293590892617)', '(-0.6183061160028571, 0.005063451652678255)', '(-0.6125418773990143, 0.005764238603842785)', '(-0.6061184531004983, 0.00642342429851609)', '(-0.5990824334499274, 0.007036019650570915)', '(-0.5914851124812298, 0.007597320968697637)', '(-0.5833821563452539, 0.008102956135975892)', '(-0.5748332247662534, 0.008548931579000508)', '(-0.5659015460316221, 0.008931678734631349)', '(-0.5566534474788776, 0.009248098552744548)', '(-0.5471578449912834, 0.009495602487594186)', '(-0.5374856965513294, 0.009672148439953974)']</t>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8126896689375851, -0.017085515968538745)', '(-0.8288687662855337, -0.01617909734794864)', '(-0.8440652230330618, -0.015196456747528056)', '(-0.8582116964886787, -0.014146473455616928)', '(-0.8712493227641841, -0.01303762627550542)', '(-0.883127212416987, -0.011877889652802934)', '(-0.8938018767166716, -0.010674664299684531)', '(-0.9032366173834736, -0.009434740666802022)', '(-0.9114009099150827, -0.008164292531609151)', '(-0.9182698072006975, -0.006868897285614821)', '(-0.9228233863603327, -0.004553579159635175)', '(-0.9240489813695648, -0.0012255950092320915)', '(-0.9219432572728519, 0.0021057240967129486)', '(-0.9165119633548108, 0.005431293918041133)', '(-0.9077703565706848, 0.008741606784125977)', '(-0.896744279051685, 0.011026077518999818)', '(-0.8824685645408238, 0.014275714510861213)', '(-0.8649919634332168, 0.017476601107606918)', '(-0.844379642290136, 0.02061232114308085)', '(-0.8207159890288893, 0.023663653261246663)', '(-0.7941075313274059, 0.026608457701483453)', '(-0.7656857269029593, 0.028421804424446542)', '(-0.7346037258191915, 0.03108200108376784)', '(-0.7010427793377766, 0.03356094648141499)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[0,0,0]', '[2,0,1]', '[0,1,1]', '[1,2,0]', '[1,1,1]', '[2,1,0]', '[1,0,2]', '[0,2,1]', '[2,2,2]']</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42314576925770336, -0.005257639630830115)', '(-0.4301454545230827, -0.006999685265379344)', '(-0.4388368937266322, -0.008691439203549485)', '(-0.4491572181547167, -0.01032032442808449)', '(-0.46003122495844495, -0.010874006803728258)', '(-0.4723791039008204, -0.012347878942375426)', '(-0.48610962047402256, -0.013730516573202189)', '(-0.5011207133382652, -0.01501109286424265)', '(-0.5173002639284362, -0.016179550590170906)', '(-0.5335270505451457, -0.01622678661670951)', '(-0.5506793861089256, -0.017152335563779875)', '(-0.5686288404431533, -0.01794945433422764)', '(-0.5862415955665206, -0.01761275512336728)', '(-0.6043872901147336, -0.018145694548213038)', '(-0.6229329854092032, -0.018545695294469627)', '(-0.6417446520600285, -0.018811666650825298)', '(-0.6606886611971873, -0.0189440091371588)', '(-0.6786332367466639, -0.017944575549476562)', '(-0.6964565242826359, -0.01782328753597201)', '(-0.7140407081483761, -0.017584183865740136)', '(-0.7312730226029277, -0.01723231445455168)', '(-0.74804660544214, -0.01677358283921224)', '(-0.7632611802545661, -0.015214574812426114)', '(-0.7778291977780326, -0.014568017523466427)', '(-0.7916700411146005, -0.013840843336567897)', '(-0.8047101707165888, -0.013040129601988266)', '(-0.8168831392645548, -0.012172968547966009)', '(-0.828129494644161, -0.011246355379606167)', '(-0.8383965917427388, -0.010267097098577838)', '(-0.8466383350876772, -0.008241743344938334)', '(-0.8538191104766194, -0.00718077538894225)', '(-0.8599089146593769, -0.006089804182757496)', '(-0.8638830626140167, -0.00397414795463979)', '(-0.8667258253925846, -0.0028427627785679002)', '(-0.8674261375984362, -0.0007003122058516198)', '(-0.8669812971714131, 0.00044484042702307896)', '(-0.8653930193720083, 0.001588277799404846)', '(-0.8616674595669251, 0.0037255598050831853)', '(-0.8548192463087498, 0.006848213258175343)', '(-0.844875959675641, 0.009943286633108861)', '(-0.8328792154887231, 0.011996744186917901)', '(-0.8188816524475685, 0.01399756304115465)', '(-0.8019479590634001, 0.016933693384168426)', '(-0.7831609446150978, 0.01878701444830235)', '(-0.7616180675846009, 0.021542877030496867)', '(-0.7384379262182432, 0.02318014136635769)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4124100970071899, -0.0016665864440217077)', '(-0.4148952199055176, -0.0024851228983277024)', '(-0.41818124558673914, -0.0032860256812215524)', '(-0.4222447892328038, -0.004063543646064647)', '(-0.4270568286182839, -0.004812039385480127)', '(-0.432582852177438, -0.005526023559154103)', '(-0.4387830446005894, -0.006200192423151396)', '(-0.44561251312141315, -0.00682946852082373)', '(-0.453021557305547, -0.007409044184133829)', '(-0.46095598448582437, -0.007934427180277367)', '(-0.46935747202864825, -0.008401487542823898)', '(-0.47816397639950403, -0.008806504370855768)', '(-0.4873101875839997, -0.009146211184495674)', '(-0.4967280258927914, -0.009417838308791716)', '(-0.5063471766263759, -0.009619150733584481)', '(-0.516095656598203, -0.009748479971827132)', '(-0.5259004052106337, -0.009804748612430796)', '(-0.5356878917381416, -0.00978748652750786)', '(-0.5453847297696223, -0.009696838031480678)', '(-0.5549182894474441, -0.009533559677821926)', '(-0.5642172982378297, -0.009299008790385591)', '(-0.573212421468232, -0.008995123230402299)', '(-0.58183681473618, -0.008624393267947915)', '(-0.5900266414683459, -0.008189826732165902)', '(-0.5977215503059249, -0.00769490883757898)', '(-0.604865108517577, -0.007143558211652154)', '(-0.6114051891942186, -0.006540080676641592)', '(-0.617294311464125, -0.0058891222699063075)', '(-0.6224899342956545, -0.005195622831529516)', '(-0.6269547055577472, -0.004464771262092805)', '(-0.6306566688340418, -0.0037019632762945627)', '(-0.6335694310052202, -0.0029127621711784527)', '(-0.6356722938177575, -0.002102862812537203)', '(-0.6369503525575496, -0.0012780587397921359)', '(-0.6373945645737626, -0.00044421201621297837)', '(-0.6370017897964303, 0.0003927747773323384)', '(-0.6357748046172629, 0.0012269851791674499)', '(-0.6337222896215038, 0.0020525149957590864)', '(-0.6308587907391723, 0.0028634988823315268)', '(-0.627204652498033, 0.0036541382411392938)', '(-0.6227859212780177, 0.004418731220015336)', '(-0.6176342158526911, 0.0051517054253266085)', '(-0.6117865621147299, 0.005847653737961193)', '(-0.6052851887648407, 0.006501373349889233)', '(-0.5981772809279199, 0.007107907836920819)', '(-0.5905146891596663, 0.007662591768253602)', '(-0.5823535921143114, 0.008161097045354953)', '(-0.5737541122311964, 0.00859947988311493)']</t>
   </si>
   <si>
     <t>[2,2,2]</t>
@@ -580,64 +340,40 @@
     <t>[26, 36]</t>
   </si>
   <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8760679370198794, 0.013622246582887305)', '(-0.8592679775780149, 0.01679995944186454)', '(-0.8393549268394321, 0.01991305073858273)', '(-0.8164123171560917, 0.022942609683340418)', '(-0.7905453465116411, 0.025866970644450645)', '(-0.7618835236886391, 0.028661822823001955)', '(-0.7305829324892184, 0.031300591199420705)', '(-0.6968278160592386, 0.03375511642997975)', '(-0.6608311781506021, 0.03599663790863654)', '(-0.622834126997915, 0.03799705115268714)', '(-0.5831037559929417, 0.039730371004973196)', '(-0.541929464210975, 0.04117429178196671)', '(-0.4996177615468564, 0.042311702664118614)', '(-0.4564857613770652, 0.04313200016979121)', '(-0.41285371496540735, 0.04363204641165785)', '(-0.36903706053847557, 0.04381665442693178)', '(-0.32533852403295316, 0.04369853650552243)', '(-0.2820408054608293, 0.04329771857212384)', '(-0.23940031521256247, 0.042640490248266855)', '(-0.19764230191611043, 0.041758013296452026)', '(-0.15695756038443287, 0.04068474153167757)', '(-0.11750075066131224, 0.03945680972312062)', '(-0.07939022032867801, 0.03811053033263423)', '(-0.042709117966083905, 0.03668110236259411)', '(-0.0075075228880870995, 0.035201595077996806)', '(0.02619470624573015, 0.03370222913381725)', '(0.0584046507374755, 0.03220994449174535)', '(0.08915287206535641, 0.030748221327880902)', '(0.11848997926756111, 0.0293371072022047)', '(0.1464833788711727, 0.027993399603611586)', '(0.1732143141374114, 0.026730935266238723)', '(0.1987752580557048, 0.02556094391829342)', '(0.22326769031594476, 0.02449243226023995)', '(0.24680026272402678, 0.023532572408082)', '(0.26948733950009196, 0.02268707677606516)', '(0.29144788738285193, 0.021960547882759963)', '(0.3128046840458214, 0.021356796662969472)', '(0.33368381063926306, 0.020879126593441676)', '(0.35421439408789146, 0.020530583448628396)', '(0.3745285660808278, 0.020314171992936315)', '(0.39476160766429635, 0.020233041583468534)', '(0.4150522503313663, 0.020290642667069942)', '(0.4355431059609859, 0.02049085562961963)', '(0.45638119843079533, 0.020838092469809444)', '(0.476718568786528, 0.020337370355732697)', '(0.4967054955458369, 0.019986926759308875)', '(0.5164909414519501, 0.019785445906113187)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87]</t>
-  </si>
-  <si>
-    <t>['[1,0,2]', '[2,2,2]', '[1,1,2]']</t>
-  </si>
-  <si>
-    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47, 76, 84, 86, 98]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6860558918028171, 0.01850838639369175)', '(-0.665376743110666, 0.02067914869215113)', '(-0.6426660320262721, 0.02271071108439387)', '(-0.6180811859361679, 0.02458484609010426)', '(-0.5917971723958279, 0.02628401354034006)', '(-0.5640052318306291, 0.02779194056519873)', '(-0.5349109844710205, 0.029094247359608597)', '(-0.5047319118291914, 0.030179072641829053)', '(-0.4736942651247407, 0.031037646704450708)', '(-0.44202950560653936, 0.03166475951820137)', '(-0.40997042821331175, 0.03205907739322759)', '(-0.37774715416769045, 0.032223274045621295)', '(-0.34558319500555046, 0.032163959162139974)', '(-0.31369178771781686, 0.03189140728773361)', '(-0.28227267859497296, 0.03141910912284391)', '(-0.25150949534234907, 0.03076318325262391)', '(-0.2215677985532173, 0.029941696789131778)', '(-0.192593851196407, 0.028973947356810272)', '(-0.1647140947204144, 0.027879756475992622)', '(-0.13803527781510014, 0.026678816905314272)', '(-0.11264515209369669, 0.025390125721403447)', '(-0.08861362925866961, 0.024031522835027068)', '(-0.065994286232144, 0.02261934302652562)', '(-0.04482610652513508, 0.021168179707008922)', '(-0.027135355341863232, 0.017690751183271847)', '(-0.012936325047727348, 0.014199030294135884)', '(-0.0022354123191866172, 0.010700912728540731)', '(0.006965556626161088, 0.009200968945347705)', '(0.012667071390161449, 0.005701514764000361)', '(0.014870391052290877, 0.0022033196621294277)', '(0.0135761979978353, -0.0012941930544555767)', '(0.008784078179723268, -0.004792119818112033)', '(0.0014928263617098158, -0.0072912518180134524)', '(-0.008298400385376896, -0.009791226747086712)', '(-0.020588852458674124, -0.012290452073297228)', '(-0.03437453716341658, -0.013785684704742458)', '(-0.05064694054535755, -0.016272403381940973)', '(-0.06839054188507884, -0.01774360133972129)', '(-0.08858170830668306, -0.020191166421604224)', '(-0.11018511742294193, -0.02160340911625886)', '(-0.13315318213824895, -0.02296806471530701)', '(-0.15742442515859476, -0.024271243020345806)', '(-0.182922009304146, -0.025497584145551262)', '(-0.21055251558540447, -0.027630506281258457)', '(-0.24020064652607537, -0.029648130940670883)', '(-0.2727272991748267, -0.03252665264875132)', '(-0.3079628252662246, -0.03523552609139792)', '(-0.3457051561244381, -0.03774233085821347)', '(-0.3857192514327626, -0.040014095308324484)', '(-0.4257382059725616, -0.04001895453979901)', '(-0.4674806168477984, -0.04174241087523675)', '(-0.5106419285170533, -0.04316131166925482)', '(-0.5549003920703334, -0.04425846355328011)', '(-0.5979244383747727, -0.043024046304439297)', '(-0.6393956499615068, -0.041471211586734044)', '(-0.6790157478847381, -0.03962009792323133)', '(-0.7165119944410312, -0.0374962465562931)', '(-0.7516408178183938, -0.035128823377362596)', '(-0.7841896511310772, -0.03254883331268339)', '(-0.8139771381991024, -0.029787487068025233)', '(-0.8408519743190606, -0.026874836119958154)', '(-0.8646907160081349, -0.02383874168907427)', '(-0.8853949129467255, -0.020704196938590626)', '(-0.9028878981297034, -0.017492985182977896)', '(-0.9171115311753498, -0.014223633045646425)', '(-0.9280231369269597, -0.010911605751609918)', '(-0.9355928265536204, -0.007569689626660731)', '(-0.9398013377122573, -0.004208511158636866)', '(-0.9406384871907825, -0.0008371494785252322)', '(-0.9381022943862578, 0.0025361928045246527)', '(-0.9321988056196007, 0.005903488766657122)', '(-0.9229426250396312, 0.00925618057996943)', '(-0.9103581344672471, 0.012584490572384126)', '(-0.8944813585941005, 0.015876775873146676)', '(-0.8753624004791897, 0.019118958114910795)', '(-0.853068333218436, 0.022294067260753715)', '(-0.8276863865192838, 0.02538194669915217)', '(-0.7993272135171231, 0.02835917300216071)', '(-0.7681279682974955, 0.031199245219627574)', '(-0.7342548763051348, 0.03387309199236082)', '(-0.6979049491679301, 0.036349927137204606)', '(-0.6593064951148668, 0.03859845405306332)', '(-0.6187181178844577, 0.04058837723040907)', '(-0.5764259881092616, 0.04229212977519612)', '(-0.5327393106973439, 0.04368667741191762)', '(-0.4879840878633286, 0.04475522283401532)', '(-0.4424954672711384, 0.04548862059219018)', '(-0.3966091376146943, 0.045886329656444125)', '(-0.3506523581864608, 0.04595677942823351)', '(-0.30493525996864, 0.04571709821782078)', '(-0.2597430229895957, 0.045192236979044335)', '(-0.2153294247771168, 0.04441359821247888)', '(-0.171912089634188, 0.04341733514292881)', '(-0.12966957911213106, 0.042242510522056936)', '(-0.08874028226999434, 0.04092929684213672)', '(-0.04922291550447535, 0.03951736676551899)', '(-0.011178340661283363, 0.038044574843191986)', '(0.02536763979729622, 0.03654598045857958)', '(0.060420856330385665, 0.035053216533089446)', '(0.09401503068473169, 0.03359417435434602)', '(0.1262079843985663, 0.032192953713834606)', '(0.1570780027120842, 0.030870018313517898)', '(0.18672049916523492, 0.029642496453150733)', '(0.21524507233157503, 0.028524573166340095)', '(0.24277300164866691, 0.027527929317091894)', '(0.2694351950819111, 0.02666219343324417)', '(0.2953705768015301, 0.02593538171961902)', '(0.32072488670742766, 0.025354309905897546)', '(0.3456498536930478, 0.02492496698562012)', '(0.3703026991553171, 0.024652845462269306)', '(0.3948459247380771, 0.024543225582759984)', '(0.41944733716192584, 0.024601412423848733)', '(0.44428026198034454, 0.024832924818418707)', '(0.46952389612319384, 0.025243634142849296)', '(0.4943637451802486, 0.024839849057054757)', '(0.5189846125025798, 0.024620867322331118)']</t>
-  </si>
-  <si>
-    <t>['[0,1,1]', '[2,1,0]', '[2,2,2]']</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26, 58, 60, 62, 65, 66, 67, 68, 69, 70, 71, 72, 75, 76, 83, 84, 86, 90, 92, 93, 98, 100, 103, 105, 106, 156, 157, 158]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.584997346946961, -0.009758314434739896)', '(-0.5932977716009561, -0.008300424653995107)', '(-0.600079254651628, -0.006781483050671942)', '(-0.6052921536169674, -0.005212898965339398)', '(-0.6088984674196857, -0.0036063138027183045)', '(-0.6108719929501683, -0.0019735255304825826)', '(-0.6111984219336057, -0.0003264289834374757)', '(-0.609875389897109, 0.0013230320364967414)', '(-0.606912483990496, 0.002962905906612914)', '(-0.602331210798188, 0.004581273192308034)', '(-0.5961649195678651, 0.006166291230322838)', '(-0.588458670955968, 0.007706248611897037)', '(-0.5792690369194204, 0.009189634036547642)', '(-0.5686638142033545, 0.01060522271606585)', '(-0.5567216323648758, 0.011942181838478777)', '(-0.5435314377223851, 0.013190194642490691)', '(-0.529191837192032, 0.01433960053035314)', '(-0.5138102906680436, 0.01538154652398836)', '(-0.4975021472303576, 0.016308143437685996)', '(-0.48038952862391815, 0.01711261860643947)', '(-0.46260007255680585, 0.017789456067112283)', '(-0.44426555766103526, 0.018334514895770614)', '(-0.4255204406151091, 0.018745117045926168)', '(-0.40650034310973016, 0.019020097505378898)', '(-0.38734053132073465, 0.019159811788995534)', '(-0.36817443280929146, 0.01916609851144317)', '(-0.34913223504282115, 0.019042197766470294)', '(-0.3303396060706541, 0.018792628972167023)', '(-0.3119165716421592, 0.0184230344284949)', '(-0.2939765748126828, 0.017939996829476414)', '(-0.27662573459607825, 0.01735084021660453)', '(-0.2599623103048731, 0.016663424291205133)', '(-0.24607636864523902, 0.01388594165963407)', '(-0.2330395807171627, 0.013036787928076334)', '(-0.22291631681936122, 0.010123263897801476)', '(-0.21375454776286842, 0.009161769056492804)', '(-0.20759612989558252, 0.006158417867285909)', '(-0.20446834988408324, 0.0031277800114992795)', '(-0.2023848014421472, 0.0020835484419360387)', '(-0.20135444011595802, 0.0010303613261891998)', '(-0.20138166500126733, -2.7224885309322985e-05)', '(-0.20246636011495586, -0.0010846951136885392)', '(-0.20460389329372788, -0.0021375331787720215)', '(-0.2077850726761861, -0.0031811793824582024)', '(-0.21199606300755736, -0.004210990331371267)', '(-0.2172182661688721, -0.005222203161314755)', '(-0.22542817244884852, -0.00820990627997643)', '(-0.236587837768407, -0.011159665319558481)', '(-0.24864379309995815, -0.012055955331551153)', '(-0.26153588876833456, -0.012892095668376416)', '(-0.27719714825184216, -0.015661259483507613)', '(-0.2945426590576722, -0.017345510805830043)', '(-0.31347404669879475, -0.01893138764112257)', '(-0.33487905201450757, -0.02140500531571283)', '(-0.35862504352642444, -0.02374599151191687)', '(-0.38455844080067025, -0.025933397274245804)', '(-0.4105046630443143, -0.02594622224364409)', '(-0.43628291135496333, -0.02577824831064899)', '(-0.46370856515868697, -0.027425653803723624)', '(-0.4905809827534636, -0.026872417594776675)', '(-0.5187006290476314, -0.028119646294167727)', '(-0.5478570101188934, -0.029156381071262106)', '(-0.5778316149830175, -0.02997460486412409)', '(-0.6064012656620161, -0.02856965067899862)', '(-0.6353562647803493, -0.02895499911833324)', '(-0.6624886977016159, -0.027132432921266568)', '(-0.6876093371278662, -0.02512063942625034)', '(-0.7125489327098715, -0.02493959558200533)', '(-0.7371460838283345, -0.024597151118462914)', '(-0.7612489594384086, -0.024102875610074185)', '(-0.7847166637579558, -0.023467704319547197)', '(-0.8054202190142525, -0.02070355525629669)', '(-0.8252530762154427, -0.019832857201190223)', '(-0.8421199278180828, -0.016866851602639975)', '(-0.8579451817498563, -0.0158252539317736)', '(-0.8726626626997502, -0.014717480949893889)', '(-0.8842150875025859, -0.01155242480283565)', '(-0.8945604429186226, -0.010345355416036704)', '(-0.901663353820422, -0.007102910901799424)', '(-0.9055007808996246, -0.0038374270792026722)', '(-0.906060704248373, -0.0005599233487484259)', '(-0.90334139522486, 0.002719309023513064)', '(-0.8973513092428587, 0.005990085982001313)', '(-0.8881096041486025, 0.009241705094256116)', '(-0.8756472612990644, 0.012462342849538094)', '(-0.8600087568792839, 0.015638504419780527)', '(-0.8412541973821149, 0.01875455949716903)', '(-0.8194617945095864, 0.021792402872528482)', '(-0.7947305116023358, 0.02473128290725065)', '(-0.7671826687303529, 0.0275478428719829)', '(-0.7369662519113755, 0.030216416818977323)', '(-0.7042566411022805, 0.03270961080909506)', '(-0.6692574608928976, 0.03499918020938281)', '(-0.6322002766752084, 0.03705718421768927)', '(-0.5933429147812357, 0.03885736189397273)', '(-0.5529662800894068, 0.04037663469182889)', '(-0.5113696739434825, 0.04159660614592426)', '(-0.4688647654865272, 0.04250490845695533)', '(-0.42576851989671055, 0.04309624558981665)', '(-0.3823955130126019, 0.04337300688410864)', '(-0.33905014074476075, 0.04334537226784114)', '(-0.2960192484047948, 0.04303089233996594)', '(-0.25356565633923683, 0.042453592065558)', '(-0.2119229534682454, 0.04164270287099142)', '(-0.17129178906689663, 0.040631164401348785)', '(-0.13183773989718467, 0.03945404916971195)', '(-0.09369068810666206, 0.038147051790522614)', '(-0.05694553285377967, 0.03674515525288239)', '(-0.021663984811677958, 0.035281548042101714)', '(0.012122841314842377, 0.033786826126520335)', '(0.04441132059605326, 0.03228847928121088)', '(0.07522195618362171, 0.030810635587568455)', '(0.10459597844252183, 0.02937402225890013)', '(0.13259207270638682, 0.027996094263864978)', '(0.15928335522693762, 0.026691282520550818)', '(0.18475467358006126, 0.025471318353123627)', '(0.20910027185969984, 0.024345598279638583)', '(0.23242183320620322, 0.02332156134650337)', '(0.2548268922050778, 0.02240505899887458)', '(0.276427596426949, 0.02160070422187117)', '(0.2973397885519697, 0.020912192125020723)', '(0.31768237679618677, 0.020342588244217086)', '(0.33757696051606984, 0.01989458371988304)', '(0.3571476788770565, 0.019570718360986665)', '(0.3765212524952609, 0.01937357361820438)', '(0.39582719033754843, 0.01930593784228753)', '(0.41519813637362535, 0.01937094603607691)', '(0.43477033209275995, 0.019572195719134575)', '(0.4546841716617635, 0.019913839569003562)', '(0.4750848258616793, 0.020400654199915838)', '(0.4961229086329301, 0.021038082771250816)', '(0.5179551556721073, 0.021832247039177098)']</t>
-  </si>
-  <si>
-    <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158]</t>
-  </si>
-  <si>
-    <t>['[0,2,1]', '[1,2,0]', '[2,2,2]']</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33, 54, 55, 57, 58, 59, 60, 62, 67, 68, 69, 76, 77, 83, 84, 85, 86, 90, 92, 93, 94, 97, 98, 99, 100, 101, 105, 106, 107, 108, 110, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 145, 146, 147, 150, 151, 153, 154, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 168, 169, 170, 171, 172, 173, 174, 175, 177, 178, 179, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191]</t>
-  </si>
-  <si>
-    <t>[1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 2, 2, 2, 1, 0, 1, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41230409289083714, 4.679687865653142e-05)', '(-0.4120765836344763, 0.00022750925636081081)', '(-0.41166997390013915, 0.0004066097343371301)', '(-0.41108714355884024, 0.0005828303412989203)', '(-0.41033221845017365, 0.0007549251086666105)', '(-0.41041053890343193, -7.832045325826598e-05)', '(-0.41032155107909285, 8.898782433909536e-05)', '(-0.41006588424694923, 0.00025566683214359653)', '(-0.4096453460025607, 0.00042053824438852453)', '(-0.4090629085332164, 0.0005824374693443041)', '(-0.4083226860576029, 0.0007402224756134779)', '(-0.40842990364304127, -0.00010721758543836603)', '(-0.4093838047224343, -0.0009539010793930152)', '(-0.41217765436804954, -0.0027938496456152186)', '(-0.4167916874981933, -0.004614033130143738)', '(-0.4211931366575532, -0.004401449159359904)', '(-0.425350603404173, -0.004157466746619838)', '(-0.431234308634684, -0.005883705230510938)', '(-0.4368019165708127, -0.005567607936128682)', '(-0.44201316946207103, -0.005211252891258326)', '(-0.44683022334853023, -0.00481705388645921)', '(-0.45121796503645506, -0.004387741687924811)', '(-0.4551443068300022, -0.003926341793547096)', '(-0.46058045598202335, -0.0054361491520211755)', '(-0.4674864320749611, -0.006905976092937753)', '(-0.47381126596427464, -0.006324833889313558)', '(-0.48150811932650844, -0.007696853362233801)', '(-0.4885198143804433, -0.007011695053934835)', '(-0.4947941162966727, -0.006274301916229386)', '(-0.500284184389022, -0.0054900680923493025)', '(-0.5049489693777544, -0.004664784988732316)', '(-0.5087535549493283, -0.0038045855715738773)', '(-0.5116694428739387, -0.0029158879246103894)', '(-0.5136747816966292, -0.002005338822690523)', '(-0.5147545394786454, -0.0010797577820161454)', '(-0.5149006212490752, -0.000146081770429813)', '(-0.5141119317739313, 0.0007886894751439216)', '(-0.5123943840224079, 0.001717547751523482)', '(-0.509760853384558, 0.0026335306378498543)', '(-0.5062310773556601, 0.0035297760288979137)', '(-0.501831500135763, 0.0043995772198970485)', '(-0.4965950614780545, 0.0052364386577085625)', '(-0.49056092922378386, 0.006034132254270626)', '(-0.48377417533269507, 0.006786753891088806)', '(-0.4762853958806728, 0.007488779452022231)', '(-0.46815027644773366, 0.008135119432939177)', '(-0.4594291055280326, 0.008721170919701015)', '(-0.45018623999982876, 0.009242865528203869)', '(-0.44048952821358484, 0.009696711786243923)', '(-0.4304096977883945, 0.010079830425190344)', '(-0.4210197166382849, 0.009389981150109578)', '(-0.411386992725317, 0.009632723912967957)', '(-0.401580051736491, 0.009806940988826009)', '(-0.3916679499731128, 0.009912101763378183)', '(-0.38171969701306363, 0.00994825296004912)', '(-0.373803697164125, 0.00791599984893867)', '(-0.36597372703733916, 0.007829970126785817)', '(-0.3602823764072525, 0.0056913506300866395)', '(-0.3547674784344492, 0.0055148979728032775)', '(-0.3494653662508443, 0.00530211218360491)', '(-0.3444106582384604, 0.005054708012383887)', '(-0.33963606370689653, 0.004774594531563855)', '(-0.3351722091209153, 0.004463854585981272)', '(-0.33104748459997596, 0.004124724520939325)', '(-0.3272879100358713, 0.0037595745641046388)', '(-0.32391701986502364, 0.003370890170847699)', '(-0.3209557652971562, 0.0029612545678674635)', '(-0.31842243264706355, 0.002533332650092644)', '(-0.31633257634259204, 0.002089856304471486)', '(-0.314698965187901, 0.0016336111546910125)', '(-0.313531540541785, 0.001167424646116007)', '(-0.3128373852188741, 0.000694155322910875)', '(-0.3146207021273091, -0.0017833169084349933)', '(-0.31887068093298704, -0.0042499788056779295)', '(-0.3255613899267525, -0.0066907089937654225)', '(-0.33465153209013054, -0.009090142163378074)', '(-0.34608410028271, -0.0114325681925795)', '(-0.357785985241513, -0.011701884958802965)', '(-0.3696808100183247, -0.011894824776811681)', '(-0.38168943231235597, -0.012008622294031289)', '(-0.3937305144459208, -0.012041082133564779)', '(-0.40772115369468453, -0.013990639248763776)', '(-0.4235634760121727, -0.015842322317488146)', '(-0.44114485176454116, -0.017581375752368445)', '(-0.4583383447390595, -0.01719349297451832)', '(-0.4770181701160972, -0.018679825377037704)', '(-0.4950462141244141, -0.018028044008316858)', '(-0.5122881405686329, -0.01724192644421885)', '(-0.528614880498045, -0.01632673992941199)', '(-0.5459040010605751, -0.017289120562530142)', '(-0.5640259572495412, -0.018121956188966046)', '(-0.5808454523446751, -0.016819495095133946)', '(-0.5962377048413536, -0.015392252496678511)', '(-0.6100894669643411, -0.013851762122987447)', '(-0.6222998032528531, -0.012210336288512019)', '(-0.6327806517784464, -0.010480848525593407)', '(-0.6414572000155616, -0.008676548237115127)', '(-0.6482681129454835, -0.006810912929921906)', '(-0.6531656526337358, -0.004897539688252306)', '(-0.6561157265808577, -0.002950073947121933)', '(-0.6570978971209351, -0.0009821705400774867)', '(-0.6561053766679438, 0.0009925204529914185)', '(-0.6531450243789517, 0.002960352288992076)', '(-0.6502373495213991, 0.002907674857552594)', '(-0.6454025691591381, 0.0048347803622610565)', '(-0.6386744549350457, 0.006728114224092323)', '(-0.6301003148898838, 0.008574140045161861)', '(-0.6197409341252752, 0.010359380764608671)', '(-0.6076704432317073, 0.012070490893567971)', '(-0.5939760786021077, 0.01369436462959966)', '(-0.5787577969523223, 0.015218281649785313)', '(-0.5621277080599645, 0.016630088892357887)', '(-0.5442092951924404, 0.0179184128675241)', '(-0.5251364019053039, 0.01907289328713653)', '(-0.505051976461763, 0.020084425443540842)', '(-0.4841065802501315, 0.020945396211631533)', '(-0.4624566830645737, 0.02164989718555775)', '(-0.44026278447299383, 0.022193898591579858)', '(-0.41768741509328805, 0.022575369379705792)', '(-0.3948930828756409, 0.022794332217647133)', '(-0.3720402361792542, 0.022852846696386726)', '(-0.34928531676089797, 0.022754919418356202)', '(-0.32677897159587793, 0.022506345165020022)', '(-0.304664483201638, 0.022114488394239903)', '(-0.2830764648588481, 0.021588018342789953)', '(-0.26213985124261474, 0.02093661361623336)', '(-0.2419691980774886, 0.020170653165126135)', '(-0.22266828805202749, 0.019300910025461113)', '(-0.20433002566764982, 0.018338262384377673)', '(-0.18703659187958738, 0.017293433788062442)', '(-0.17085982082125453, 0.016176771058332835)', '(-0.15586175568967606, 0.014998065131578486)', '(-0.14209533877615427, 0.013766416913521803)', '(-0.1296051911838504, 0.012490147592303873)', '(-0.11842844038205808, 0.011176750801792307)', '(-0.1085955577696989, 0.00983288261235918)', '(-0.10013117326112071, 0.00846438450857818)', '(-0.09305483905781814, 0.007076334203302577)', '(-0.08938171983766259, 0.0036731192201555447)', '(-0.08711926057364679, 0.0022624592640158045)', '(-0.0862719013800394, 0.0008473591936073856)', '(-0.08684127658590282, -0.0005693752058634214)', '(-0.08982628973954103, -0.002985013153638204)', '(-0.09522107731181043, -0.005394787572269396)', '(-0.10201455230659018, -0.006793474994779755)', '(-0.11019185987661974, -0.008177307570029565)', '(-0.12073380663230995, -0.010541946755690215)', '(-0.1326135510205105, -0.01187974438820056)', '(-0.14579804474696972, -0.013184493726459221)', '(-0.16124718480132508, -0.015449140054355347)', '(-0.17790947722139838, -0.01666229242007329)', '(-0.19572406021983169, -0.017814582998433318)', '(-0.2146199198260951, -0.01889585960626341)', '(-0.23451524132771223, -0.019895321501617127)', '(-0.2553169457446122, -0.020801704416900012)', '(-0.27692045901519724, -0.021603513270585014)', '(-0.29920975658705057, -0.022289297571853314)', '(-0.3220577173501214, -0.022847960763070826)', '(-0.3453268083539968, -0.023269091003875426)', '(-0.36887010599993697, -0.023543297645940167)', '(-0.39253264137106325, -0.0236625353711263)', '(-0.4181530384848812, -0.02562039711381795)', '(-0.4435511546225796, -0.025398116137698403)', '(-0.46854387424074617, -0.024992719618166594)', '(-0.49294763084861865, -0.024403756607872456)', '(-0.5165809472181306, -0.02363331636951199)', '(-0.5392668934122712, -0.022685946194140584)', '(-0.5608353719896324, -0.0215684785773612)', '(-0.5811251565796858, -0.020289784590053407)', '(-0.5999856318008694, -0.01886047522118362)', '(-0.619278206729123, -0.019292574928253675)', '(-0.636862999312645, -0.017584792583522014)', '(-0.6526145628343483, -0.01575156352170326)', '(-0.6664224867562248, -0.013807923921876623)', '(-0.6801917091069545, -0.01376922235072969)', '(-0.6918292088080227, -0.01163749970106824)', '(-0.7012578653826134, -0.009428656574590693)', '(-0.7084162721924474, -0.0071584068098340175)', '(-0.7132584842721029, -0.0048422120796555715)', '(-0.7157537656195402, -0.0024952813474372368)', '(-0.7158863879712957, -0.00013262235175548866)', '(-0.7136555175111681, 0.002230870460127634)', '(-0.7090752086657149, 0.0045803088454531415)', '(-0.7021745060113472, 0.006900702654367693)', '(-0.6929976371460288, 0.009176868865318457)', '(-0.6816042619481166, 0.011393375197912161)', '(-0.6680697278244359, 0.013534534123680752)', '(-0.652485267354584, 0.015584460469851801)', '(-0.6349580653397281, 0.01752720201485593)', '(-0.6156111179238583, 0.01934694741586986)', '(-0.5945828083788482, 0.02102830954500995)', '(-0.5720261332569819, 0.022556675121866314)', '(-0.5481075292930301, 0.02391860396395189)', '(-0.5230052752529109, 0.025102254040119176)']</t>
-  </si>
-  <si>
-    <t>['[2,2,2]', '[1,1,2]', '[2,1,0]']</t>
-  </si>
-  <si>
-    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0]</t>
-  </si>
-  <si>
-    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37571412782933006, 0.0017811358628622475)', '(-0.37400609828040254, 0.0017080295489275386)', '(-0.37238273096160524, 0.00162336731879733)', '(-0.3708549826027679, 0.0015277483588373422)', '(-0.36943314083437134, 0.0014218417683965405)', '(-0.36812675926113486, 0.001306381573236455)', '(-0.3669445978043474, 0.0011821614567874362)', '(-0.3658945685500915, 0.0010500292542559295)', '(-0.36498368729916403, 0.000910881250927474)', '(-0.36421803097731814, 0.0007656563218458932)', '(-0.3636027010316978, 0.0006153299456203849)', '(-0.36314179291105486, 0.0004609081206429363)', '(-0.36283837170334726, 0.00030342120770761685)', '(-0.3626944539842316, 0.0001439177191156285)', '(-0.36271099591322303, -1.6541928991407363e-05)', '(-0.36288788760017143, -0.00017689168694842283)', '(-0.363223953752365, -0.0003360661521935361)', '(-0.3637169606010889, -0.0004930068487239091)', '(-0.3643636290948899, -0.0006466684938010196)', '(-0.365159654334161, -0.0007960252392711033)', '(-0.36609973120706557, -0.0009400768729046158)', '(-0.36717758616944374, -0.0010778549623781729)', '(-0.36838601509049446, -0.001208428921050708)', '(-0.36971692706117765, -0.0013309119706831818)', '(-0.37116139403308385, -0.001444466971906192)', '(-0.37270970612184456, -0.0015483120887607221)', '(-0.3743514323710892, -0.0016417262492446384)', '(-0.3760754867308047, -0.0017240543597154979)', '(-0.37787019895825175, -0.0017947122274470629)', '(-0.379723390101068, -0.0018531911428162112)', '(-0.3816224521717567, -0.0018990620706887216)', '(-0.3835544315714823, -0.0019319793997255375)', '(-0.3855061157701388, -0.0019516841986565376)', '(-0.38746412270027375, -0.0019580069301349205)', '(-0.3894149922758885, -0.0019508695756147616)', '(-0.3913452794046519, -0.0019302871287634397)', '(-0.3932416478248128, -0.0018963684201608933)', '(-0.395090964067152, -0.0018493162423391923)', '(-0.39688039081858517, -0.0017894267514331997)', '(-0.39859747894825753, -0.0017170881296723528)', '(-0.4002302574497087, -0.001632778501451142)', '(-0.4017673205542761, -0.0015370631045674137)', '(-0.4031979112814835, -0.00143059072720744)', '(-0.40451200071166993, -0.0013140894301863991)', '(-0.40570036229430906, -0.0011883615826391136)', '(-0.4067546405419455, -0.0010542782476364323)', '(-0.40766741350388624, -0.0009127729619407448)', '(-0.4084322484650872, -0.000764834961200918)', '(-0.4090437503733286, -0.0006115019082413709)', '(-0.40949760256099593, -0.0004538521876673756)', '(-0.4097905993957531, -0.0002929968347571255)', '(-0.40992067056628034, -0.00013007117052725144)', '(-0.40988689678422224, 3.3773782058078416e-05)', '(-0.40968951676071613, 0.00019738002350608514)', '(-0.4093299253945453, 0.0003595913661707823)', '(-0.4088106631882688, 0.0005192622062764954)', '(-0.40813539698782253, 0.0006752662004462538)', '(-0.4073088922192625, 0.0008265047685600487)', '(-0.40633697687271675, 0.0009719153465457285)', '(-0.40522649755741436, 0.0011104793153024063)', '(-0.40398526802203216, 0.0012412295353822207)', '(-0.4026220106007161, 0.0013632574213160399)', '(-0.40114629110615896, 0.0014757194945571425)', '(-0.39956844774624534, 0.001577843359913646)', '(-0.3978995146892406, 0.0016689330570047133)', '(-0.3961511409435985, 0.0017483737456421148)', '(-0.39433550525158334, 0.0018156356920151432)', '(-0.3924652277205607, 0.001870277531022649)', '(-0.3905532789316572, 0.0019119487889034674)', '(-0.388612887272363, 0.001940391659294216)', '(-0.38665744523756207, 0.001955442034800916)', '(-0.3847004154326563, 0.001957029804905738)', '(-0.38275523699332015, 0.0019451784393361717)', '(-0.3808352331096202, 0.0019200038836999687)', '(-0.3789535203085714, 0.0018817128010487924)', '(-0.37712292010965787, 0.0018306001989135034)', '(-0.3753558736235351, 0.0017670464861227707)', '(-0.37366435961625427, 0.0016915140072808533)', '(-0.37205981651116476, 0.0016045431050895245)', '(-0.3705530687494162, 0.001506747761748585)', '(-0.36915425787891515, 0.0013988108705010214)', '(-0.3678727786918262, 0.0012814791870889354)', '(-0.366717220683244, 0.001155558008582212)', '(-0.365695315059348, 0.0010219056238960505)', '(-0.36481388748283133, 0.0008814275765166831)', '(-0.36407881670711373, 0.0007350707757176212)', '(-0.3634949992190204, 0.0005838174880933415)', '(-0.36306631998223315, 0.0004286792367872666)', '(-0.36279562935067033, 0.0002706906315627976)', '(-0.3626847262016093, 0.00011090314906103487)', '(-0.362734347322225, -4.962112061569334e-05)', '(-0.36294416306953686, -0.00020981574731186226)', '(-0.363312779311669, -0.00036861624213215287)', '(-0.3638377456469073, -0.0005249663352382937)', '(-0.36451556988531675, -0.0006778242384094786)', '(-0.36534173876471654, -0.0008261688793998114)', '(-0.36631074485770365, -0.0009690060929871073)', '(-0.36741611960837667, -0.0011053747506729926)', '(-0.3686504724157757, -0.0012343528073990489)', '(-0.3700055356553303, -0.0013550632395546)', '(-0.37147221549949183, -0.0014666798441615486)', '(-0.3730406483641339, -0.0015684328646420837)', '(-0.3747002627683621, -0.001659614404228168)', '(-0.3764398463524432, -0.001739583584081121)', '(-0.37824761775221455, -0.0018077713997713468)', '(-0.38011130297933626, -0.001863685227121733)', '(-0.38201821590605395, -0.0019069129267176878)', '(-0.3839553424018276, -0.0019371264957736734)', '(-0.3859094276184506, -0.0019540852166230064)', '(-0.3878670658713743, -0.0019576382529237282)', '(-0.389814792519136, -0.0019477266477616335)', '(-0.391739177201285, -0.0019243846821490069)', '(-0.39362691775917175, -0.0018877405578867656)', '(-0.39546493413443257, -0.001838016375260838)', '(-0.39724046151786135, -0.001775527383428772)', '(-0.39894114200730246, -0.0017006804894410875)', '(-0.4005551140277397, -0.001613972020437217)', '(-0.4020710987701923, -0.0015159847424526026)', '(-0.4034784829184591, -0.0014073841482668019)', '(-0.4047673969540755, -0.0012889140356163585)', '(-0.4059287883597868, -0.0011613914057113128)', '(-0.40695448907996007, -0.0010257007201732885)', '(-0.4078372766420851, -0.0008827875621250101)', '(-0.4085709283961878, -0.0007336517541027348)', '(-0.40915026838784685, -0.0005793399916590353)', '(-0.4095712064447708, -0.00042093805692394466)', '(-0.40983076912574085, -0.00025956268097005527)', '(-0.4099271222533123, -9.635312757143354e-05)', '(-0.4098595848271712, 6.75374261411006e-05)', '(-0.40962863419263496, 0.00023095063453628544)', '(-0.4092359024176531, 0.00039273177498184693)', '(-0.4086841639110059, 0.0005517385066471674)', '(-0.40797731439340634, 0.000706849517599592)', '(-0.4071203414110872, 0.0008569729823191255)', '(-0.4061192866573852, 0.0010010547537019853)', '(-0.40498120044099456, 0.0011380862163906545)', '(-0.4037140887091289, 0.0012671117318656454)', '(-0.4023268530989634, 0.0013872356101655254)', '(-0.4008292245506044, 0.001497628548358975)', '(-0.39923169106865275, 0.0015975334819516023)', '(-0.39754542026642736, 0.0016862708022253833)', '(-0.3957821773664181, 0.00176324290000927)', '(-0.39395423936195056, 0.0018279380044675165)', '(-0.3920743060679092, 0.0018799332940413727)', '(-0.3901554088023721, 0.0019188972655371011)', '(-0.3882108174460292, 0.001944591356342883)', '(-0.3862539466223436, 0.001956870823685606)', '(-0.38429826172884174, 0.0019556848935018594)', '(-0.382357185529152, 0.0019410761996897594)', '(-0.38044400598712125, 0.0019131795420307207)', '(-0.3785717859893808, 0.00187221999774045)', '(-0.3767532755621117, 0.0018185104272691042)', '(-0.3750008271426143, 0.001752448419497424)', '(-0.3733263144178304, 0.0016745127247839013)', '(-0.3717410551914639, 0.0015852592263664851)', '(-0.3702557386900479, 0.0014853165014159975)', '(-0.3688803576674195, 0.001375381022628429)', '(-0.3676241456176947, 0.0012562120497248128)', '(-0.3664955193599592, 0.001128626257735469)', '(-0.36550202721431013, 0.0009934921456490806)', '(-0.3646503029492083, 0.0008517242651018453)', '(-0.3639460256447267, 0.0007042773044816056)', '(-0.3633938855853774, 0.0005521400593493596)', '(-0.3629975562697185, 0.0003963293156588844)', '(-0.36275967260162006, 0.00023788366809847838)', '(-0.3626818153094363, 7.785729218381509e-05)', '(-0.3627645016237668, -8.268631433048005e-05)', '(-0.36300718223120687, -0.0002426806074401044)', '(-0.3634082445096166, -0.00040106227840973796)', '(-0.3639650220390333, -0.0005567775294166688)', '(-0.3646738103704523, -0.000708788331419044)', '(-0.3655298890213642, -0.0008560786509118827)', '(-0.366527549651286, -0.0009976606299217801)', '(-0.36766013035179457, -0.001132580700508568)', '(-0.3689200559631252, -0.0012599256113306288)', '(-0.3702988843027881, -0.0013788283396628863)']</t>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42414576925770336, -0.006257639630830116)', '(-0.43213828918970204, -0.00799251993199865)', '(-0.4418081880862539, -0.009669898896551845)', '(-0.4530853794046334, -0.01127719131837949)', '(-0.46588748573312544, -0.012802106328492036)', '(-0.48012026758003024, -0.014232781846904793)', '(-0.49567821437535503, -0.015557946795324804)', '(-0.5124453206017283, -0.01676710622637331)', '(-0.5302960621322448, -0.017850741530516512)', '(-0.5490965773931629, -0.018800515260918117)', '(-0.5687060455782977, -0.019609468185134923)', '(-0.5889782407986062, -0.02027219522030846)', '(-0.6097632279451217, -0.020784987146515506)', '(-0.6309091544516288, -0.021145926506507047)', '(-0.6522640832677805, -0.02135492881615175)', '(-0.6736778071583656, -0.02141372389058504)', '(-0.695003583516197, -0.02132577635783142)', '(-0.7160997323344348, -0.021096148818237816)', '(-0.7368310474663822, -0.020731315131947328)', '(-0.7570699820208268, -0.02023893455444459)', '(-0.7766975816113031, -0.019627599590476285)', '(-0.7956041529690463, -0.01890657135774317)', '(-0.8116896689375851, -0.016085515968538747)', '(-0.8268736266725036, -0.015183957734918593)', '(-0.8410840942878584, -0.014210467615354747)', '(-0.8542574578074114, -0.013173363519552965)', '(-0.8663380498709559, -0.012080592063544515)', '(-0.8772776916099534, -0.010939641738997483)', '(-0.8870351787224501, -0.009757487112496641)', '(-0.8955757411427671, -0.00854056242031695)', '(-0.9028705031670399, -0.007294762024272802)', '(-0.9088959677900604, -0.0060254646230205235)', '(-0.9116335456128417, -0.002737577822781294)', '(-0.9110750374469162, 0.0005585081659254709)', '(-0.9072221034965258, 0.0038529339503904896)', '(-0.9000863721156198, 0.007135731380905988)', '(-0.8896901836027667, 0.01039618851285306)', '(-0.8760679370198794, 0.013622246582887305)', '(-0.8592679775780149, 0.01679995944186454)', '(-0.8393549268394321, 0.01991305073858273)', '(-0.8164123171560917, 0.022942609683340418)', '(-0.7905453465116411, 0.025866970644450645)', '(-0.7618835236886391, 0.028661822823001955)', '(-0.7305829324892184, 0.031300591199420705)', '(-0.6968278160592386, 0.03375511642997975)', '(-0.6608311781506021, 0.03599663790863654)']</t>
+  </si>
+  <si>
+    <t>['[1,1,2]', '[0,0,0]', '[2,0,1]', '[0,1,1]', '[1,2,0]', '[2,2,2]', '[2,1,0]', '[1,0,2]', '[0,2,1]', '[1,1,1]']</t>
+  </si>
+  <si>
+    <t>[4, 8, 13, 16, 21, 26, 33, 36, 38, 41, 44, 45, 47]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.4178881296268733, -0.004478032619683378)', '(-0.42214576925770336, -0.004257639630830115)', '(-0.4281526131780577, -0.006006843920354336)', '(-0.43586556133329935, -0.007712948155241646)', '(-0.44522893782201445, -0.009363376488715101)', '(-0.4541746880292266, -0.008945750207212146)', '(-0.46463736275910794, -0.010462674729881301)', '(-0.4765399457067313, -0.011902582947623338)', '(-0.4897942986460997, -0.013254352939368358)', '(-0.5043017508005813, -0.01450745215448156)', '(-0.5179538498150966, -0.013652099014515391)', '(-0.5326482837494031, -0.014694433934306493)', '(-0.5482748547096078, -0.01562657096020475)', '(-0.5627165240668578, -0.014441669357250048)', '(-0.5778654832485369, -0.015148959181679102)', '(-0.5936092375897316, -0.015743754341194658)', '(-0.6098317654404348, -0.016222527850703227)', '(-0.6264147357114921, -0.016582970271057304)', '(-0.6412387556477362, -0.014824019936244118)', '(-0.6561986774492923, -0.014959921801555977)', '(-0.6711901222610754, -0.014991444811783158)', '(-0.686110447972169, -0.014920325711093557)', '(-0.7008596498702867, -0.014749201898117629)', '(-0.7133411752765735, -0.01248152540628677)', '(-0.7254752475184286, -0.012134072241855108)', '(-0.7371861206119179, -0.011710873093489262)', '(-0.7484024774729523, -0.011216356861034378)', '(-0.7590577406978235, -0.01065526322487115)', '(-0.7690902992369825, -0.010032558539158964)', '(-0.7784436570055252, -0.00935335776854276)', '(-0.7850665117137166, -0.0066228547081912965)', '(-0.7909233591922981, -0.005856847478581533)', '(-0.7959833821255788, -0.005060022933280824)', '(-0.7982204021931166, -0.002237020067537809)', '(-0.7996229795970261, -0.001402577403909508)', '(-0.7981839838663634, 0.0014389957306628037)', '(-0.7959107310499627, 0.0022732528164006493)', '(-0.7928148482742793, 0.003095882775683384)', '(-0.7869123064413227, 0.005902541832956616)', '(-0.7802339859646311, 0.006678320476691612)', '(-0.7728154967702224, 0.0074184891944086995)', '(-0.7626972137495782, 0.010118283020644214)', '(-0.7499355585675421, 0.012761655182036084)', '(-0.736603845409179, 0.013331713158363116)', '(-0.7207811191118914, 0.01582272629728766)', '(-0.7045642781965089, 0.016216840915382426)', '(-0.6860558918028171, 0.01850838639369175)']</t>
+  </si>
+  <si>
+    <t>[3, 4, 5, 6, 8, 9, 10, 12, 13, 16, 21, 25, 26]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4134100970071899, -0.0026665864440217077)', '(-0.41588812962687327, -0.002478032619683378)', '(-0.418160007144945, -0.0022718775180717325)', '(-0.42020955401509885, -0.0020495468701538467)', '(-0.4220221466475637, -0.0018125926324648544)', '(-0.4255848280741652, -0.0035626814266015053)', '(-0.42887206687508017, -0.0032872388009149685)', '(-0.4318602320645261, -0.002988165189445966)', '(-0.4345277834013861, -0.002667551336859952)', '(-0.4388554456187444, -0.004327662217358285)', '(-0.4428118583947383, -0.003956412775993888)', '(-0.4463682587947576, -0.0035564004000192876)', '(-0.45149871970072486, -0.005130460905967251)', '(-0.4581657243085975, -0.006667004607872609)', '(-0.46432033117386995, -0.006154606865272449)', '(-0.4719171866939833, -0.007596855520113339)', '(-0.4809001030370092, -0.008982916343025893)', '(-0.4912023843612299, -0.010302281324220711)', '(-0.5027472562906644, -0.011544871929434432)', '(-0.5134484126429701, -0.01070115635230578)', '(-0.5252256849528426, -0.011777272309872442)', '(-0.5379907554910002, -0.012765070538157596)', '(-0.5516479197130602, -0.013657164222059964)', '(-0.5640949635290163, -0.012447043815956208)', '(-0.5752390325122212, -0.011144068983204828)', '(-0.584997346946961, -0.009758314434739896)', '(-0.5932977716009561, -0.008300424653995107)', '(-0.600079254651628, -0.006781483050671942)', '(-0.6052921536169674, -0.005212898965339398)', '(-0.6088984674196857, -0.0036063138027183045)', '(-0.6108719929501683, -0.0019735255304825826)', '(-0.6111984219336057, -0.0003264289834374757)', '(-0.609875389897109, 0.0013230320364967414)', '(-0.606912483990496, 0.002962905906612914)', '(-0.602331210798188, 0.004581273192308034)', '(-0.5961649195678651, 0.006166291230322838)', '(-0.588458670955968, 0.007706248611897037)', '(-0.5792690369194204, 0.009189634036547642)', '(-0.5686638142033545, 0.01060522271606585)', '(-0.5567216323648758, 0.011942181838478777)', '(-0.5435314377223851, 0.013190194642490691)', '(-0.529191837192032, 0.01433960053035314)', '(-0.5138102906680436, 0.01538154652398836)', '(-0.4975021472303576, 0.016308143437685996)', '(-0.48038952862391815, 0.01711261860643947)', '(-0.46260007255680585, 0.017789456067112283)', '(-0.44426555766103526, 0.018334514895770614)', '(-0.4255204406151091, 0.018745117045926168)']</t>
+  </si>
+  <si>
+    <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 21, 22, 24, 25, 26, 27, 28, 31, 33]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.41074351056316816, -0.0008362498283551871)', '(-0.4114100970071899, -0.0006665864440217078)', '(-0.41190230281733936, -0.0004922058101494638)', '(-0.4122166426678996, -0.0003143398505602523)', '(-0.4123508897694937, -0.0001342471015940899)', '(-0.41230409289083714, 4.679687865653142e-05)', '(-0.4120765836344763, 0.00022750925636081081)', '(-0.41166997390013915, 0.0004066097343371301)', '(-0.41108714355884024, 0.0005828303412989203)', '(-0.41033221845017365, 0.0007549251086666105)', '(-0.41041053890343193, -7.832045325826598e-05)', '(-0.41032155107909285, 8.898782433909536e-05)', '(-0.41006588424694923, 0.00025566683214359653)', '(-0.4096453460025607, 0.00042053824438852453)', '(-0.4090629085332164, 0.0005824374693443041)', '(-0.4083226860576029, 0.0007402224756134779)', '(-0.40842990364304127, -0.00010721758543836603)', '(-0.4093838047224343, -0.0009539010793930152)', '(-0.41217765436804954, -0.0027938496456152186)', '(-0.4167916874981933, -0.004614033130143738)', '(-0.4211931366575532, -0.004401449159359904)', '(-0.425350603404173, -0.004157466746619838)', '(-0.431234308634684, -0.005883705230510938)', '(-0.4368019165708127, -0.005567607936128682)', '(-0.44201316946207103, -0.005211252891258326)', '(-0.44683022334853023, -0.00481705388645921)', '(-0.45121796503645506, -0.004387741687924811)', '(-0.4551443068300022, -0.003926341793547096)', '(-0.46058045598202335, -0.0054361491520211755)', '(-0.4674864320749611, -0.006905976092937753)', '(-0.47381126596427464, -0.006324833889313558)', '(-0.48150811932650844, -0.007696853362233801)', '(-0.4885198143804433, -0.007011695053934835)', '(-0.4947941162966727, -0.006274301916229386)', '(-0.500284184389022, -0.0054900680923493025)', '(-0.5049489693777544, -0.004664784988732316)', '(-0.5087535549493283, -0.0038045855715738773)', '(-0.5116694428739387, -0.0029158879246103894)', '(-0.5136747816966292, -0.002005338822690523)', '(-0.5147545394786454, -0.0010797577820161454)', '(-0.5149006212490752, -0.000146081770429813)', '(-0.5141119317739313, 0.0007886894751439216)', '(-0.5123943840224079, 0.001717547751523482)', '(-0.509760853384558, 0.0026335306378498543)', '(-0.5062310773556601, 0.0035297760288979137)', '(-0.501831500135763, 0.0043995772198970485)', '(-0.4965950614780545, 0.0052364386577085625)', '(-0.49056092922378386, 0.006034132254270626)', '(-0.48377417533269507, 0.006786753891088806)']</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49]</t>
+  </si>
+  <si>
+    <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>['[-0.40990726  0.        ]', '(-0.40974351056316816, 0.0001637501716448129)', '(-0.40941716749995094, 0.0003263430632172074)', '(-0.40893053732342366, 0.00048663017652727115)', '(-0.40828705682551636, 0.0006434804979072824)', '(-0.4074912677823482, 0.0007957890431681591)', '(-0.40654878261430566, 0.0009424851680425197)', '(-0.40546624204459397, 0.0010825405697116666)', '(-0.4042512651363256, 0.001214976908268375)', '(-0.40291239215527025, 0.0013388729810553492)', '(-0.4014590207675322, 0.0014533713877380177)', '(-0.3999013361378291, 0.0015576846297031392)', '(-0.39825023554394373, 0.0016511005938853228)', '(-0.3965172481655917, 0.0017329873783520462)', '(-0.39471445074075423, 0.001802797424837486)', '(-0.3928543798089626, 0.0018600709317916247)', '(-0.3909499412787011, 0.0019044385302615218)', '(-0.3890143180648218, 0.0019356232138793106)', '(-0.38706087654161236, 0.0019534415232094027)', '(-0.3851030725481074, 0.0019578039935049694)', '(-0.3831543576647725, 0.001948714883334865)', '(-0.3812280864554087, 0.0019262712093638572)', '(-0.3793374253357976, 0.001890661119611074)', '(-0.37749526369219233, 0.001842161643605275)', '(-0.37571412782933006, 0.0017811358628622475)', '(-0.37400609828040254, 0.0017080295489275386)', '(-0.37238273096160524, 0.00162336731879733)', '(-0.3708549826027679, 0.0015277483588373422)', '(-0.36943314083437134, 0.0014218417683965405)', '(-0.36812675926113486, 0.001306381573236455)', '(-0.3669445978043474, 0.0011821614567874362)', '(-0.3658945685500915, 0.0010500292542559295)', '(-0.36498368729916403, 0.000910881250927474)', '(-0.36421803097731814, 0.0007656563218458932)', '(-0.3636027010316978, 0.0006153299456203849)', '(-0.36314179291105486, 0.0004609081206429363)', '(-0.36283837170334726, 0.00030342120770761685)', '(-0.3626944539842316, 0.0001439177191156285)', '(-0.36271099591322303, -1.6541928991407363e-05)', '(-0.36288788760017143, -0.00017689168694842283)', '(-0.363223953752365, -0.0003360661521935361)', '(-0.3637169606010889, -0.0004930068487239091)', '(-0.3643636290948899, -0.0006466684938010196)', '(-0.365159654334161, -0.0007960252392711033)', '(-0.36609973120706557, -0.0009400768729046158)', '(-0.36717758616944374, -0.0010778549623781729)', '(-0.36838601509049446, -0.001208428921050708)', '(-0.36971692706117765, -0.0013309119706831818)', '(-0.37116139403308385, -0.001444466971906192)', '(-0.37270970612184456, -0.0015483120887607221)']</t>
   </si>
 </sst>
 </file>
@@ -685,8 +421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P51" totalsRowShown="0">
-  <autoFilter ref="A1:P51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P101" totalsRowShown="0">
+  <autoFilter ref="A1:P101"/>
   <tableColumns count="16">
     <tableColumn id="1" name="01_i_domain_name"/>
     <tableColumn id="2" name="02_i_execution_fault_mode_name"/>
@@ -994,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1073,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -1085,7 +821,7 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1094,7 +830,7 @@
         <v>22</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1108,34 +844,34 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1144,10 +880,10 @@
         <v>22</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1158,34 +894,34 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1194,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1208,34 +944,34 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1244,10 +980,10 @@
         <v>22</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1258,34 +994,34 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1294,10 +1030,10 @@
         <v>22</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1305,37 +1041,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1344,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1355,37 +1091,37 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1394,10 +1130,10 @@
         <v>22</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1405,37 +1141,37 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1444,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1455,37 +1191,37 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1494,10 +1230,10 @@
         <v>22</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1505,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1514,28 +1250,28 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L11">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1544,10 +1280,10 @@
         <v>22</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1555,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0.2</v>
@@ -1564,28 +1300,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1594,10 +1330,10 @@
         <v>22</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1605,37 +1341,37 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="L13">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1644,10 +1380,10 @@
         <v>22</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1655,37 +1391,37 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1694,10 +1430,10 @@
         <v>22</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1705,37 +1441,37 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1744,10 +1480,10 @@
         <v>22</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1755,37 +1491,37 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L16">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1794,10 +1530,10 @@
         <v>22</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1805,28 +1541,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -1835,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="L17">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1844,10 +1580,10 @@
         <v>22</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1855,37 +1591,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1894,10 +1630,10 @@
         <v>22</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1905,37 +1641,37 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L19">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1944,10 +1680,10 @@
         <v>22</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1955,37 +1691,37 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F20">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H20">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L20">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1994,10 +1730,10 @@
         <v>22</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2005,7 +1741,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2014,28 +1750,28 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2044,10 +1780,10 @@
         <v>22</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2055,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>0.2</v>
@@ -2064,28 +1800,28 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="L22">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2094,10 +1830,10 @@
         <v>22</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P22" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2105,37 +1841,37 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H23">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L23">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2144,10 +1880,10 @@
         <v>22</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2155,37 +1891,37 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2194,10 +1930,10 @@
         <v>22</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P24" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2205,37 +1941,37 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H25">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L25">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2244,10 +1980,10 @@
         <v>22</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2255,37 +1991,37 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F26">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H26">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L26">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2294,10 +2030,10 @@
         <v>22</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P26" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2305,37 +2041,37 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="L27">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2344,10 +2080,10 @@
         <v>22</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2355,37 +2091,37 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H28">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2394,10 +2130,10 @@
         <v>22</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2405,37 +2141,37 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F29">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2444,10 +2180,10 @@
         <v>22</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2455,37 +2191,37 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F30">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L30">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2494,10 +2230,10 @@
         <v>22</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2505,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2514,28 +2250,28 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="F31">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L31">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2544,10 +2280,10 @@
         <v>22</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2555,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>0.2</v>
@@ -2564,28 +2300,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L32">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2594,10 +2330,10 @@
         <v>22</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2605,37 +2341,37 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L33">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2644,10 +2380,10 @@
         <v>22</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2655,37 +2391,37 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C34">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="F34">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H34">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L34">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2694,10 +2430,10 @@
         <v>22</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2705,37 +2441,37 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="F35">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H35">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L35">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2744,10 +2480,10 @@
         <v>22</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2755,37 +2491,37 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="F36">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="H36">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L36">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2794,10 +2530,10 @@
         <v>22</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2805,37 +2541,37 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
         <v>29</v>
       </c>
-      <c r="G37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37">
-        <v>187</v>
-      </c>
-      <c r="I37" t="s">
-        <v>151</v>
-      </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="L37">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2844,10 +2580,10 @@
         <v>22</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2855,37 +2591,37 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="H38">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L38">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2894,10 +2630,10 @@
         <v>22</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2905,37 +2641,37 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="H39">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L39">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2944,10 +2680,10 @@
         <v>22</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2955,37 +2691,37 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="F40">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H40">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L40">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2994,10 +2730,10 @@
         <v>22</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3005,7 +2741,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3014,28 +2750,28 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="F41">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="H41">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L41">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3044,10 +2780,10 @@
         <v>22</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3055,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -3064,28 +2800,28 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="L42">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3094,10 +2830,10 @@
         <v>22</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3105,37 +2841,37 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="F43">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="J43">
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L43">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3144,10 +2880,10 @@
         <v>22</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3155,37 +2891,37 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C44">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="F44">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="J44">
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L44">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3194,10 +2930,10 @@
         <v>22</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3205,37 +2941,37 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="F45">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="H45">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="J45">
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L45">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3244,10 +2980,10 @@
         <v>22</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3255,37 +2991,37 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F46">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L46">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3294,10 +3030,10 @@
         <v>22</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3305,37 +3041,37 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="H47">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="J47">
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="L47">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3344,10 +3080,10 @@
         <v>22</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3355,37 +3091,37 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="H48">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="J48">
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="L48">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3394,10 +3130,10 @@
         <v>22</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3405,37 +3141,37 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C49">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="F49">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="H49">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="J49">
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3444,10 +3180,10 @@
         <v>22</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3455,37 +3191,37 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="F50">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="H50">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L50">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3494,10 +3230,10 @@
         <v>22</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3505,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3514,40 +3250,2540 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="F51">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="H51">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>100</v>
       </c>
       <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51">
+        <v>10</v>
+      </c>
+      <c r="P51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52">
+        <v>10</v>
+      </c>
+      <c r="P52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54">
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55">
+        <v>49</v>
+      </c>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55">
+        <v>100</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56">
+        <v>50</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0.6</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57">
+        <v>49</v>
+      </c>
+      <c r="I57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57">
+        <v>50</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58">
+        <v>0.8</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58">
+        <v>100</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59">
+        <v>49</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60">
+        <v>49</v>
+      </c>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61">
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <v>0.2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>49</v>
+      </c>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63">
+        <v>0.2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63">
+        <v>49</v>
+      </c>
+      <c r="I63" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63">
+        <v>100</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>0.4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64">
+        <v>49</v>
+      </c>
+      <c r="I64" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64">
+        <v>50</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64">
+        <v>10</v>
+      </c>
+      <c r="P64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>0.4</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65">
+        <v>10</v>
+      </c>
+      <c r="P65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66">
+        <v>49</v>
+      </c>
+      <c r="I66" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66">
+        <v>100</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>0.6</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67">
+        <v>49</v>
+      </c>
+      <c r="I67" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67">
+        <v>100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67">
+        <v>50</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68">
+        <v>0.8</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68">
+        <v>49</v>
+      </c>
+      <c r="I68" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68">
+        <v>50</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>0.8</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69">
+        <v>49</v>
+      </c>
+      <c r="I69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J71">
+        <v>100</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71">
+        <v>50</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72">
+        <v>0.2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <v>0.4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74">
+        <v>100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74">
+        <v>50</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>0.4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>93</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>0.6</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
         <v>41</v>
       </c>
-      <c r="L51">
-        <v>200</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51" t="s">
-        <v>204</v>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>94</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>0.6</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77">
+        <v>49</v>
+      </c>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>0.8</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78">
+        <v>49</v>
+      </c>
+      <c r="I78" t="s">
+        <v>95</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78">
+        <v>50</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>0.8</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79">
+        <v>49</v>
+      </c>
+      <c r="I79" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79">
+        <v>50</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H80">
+        <v>49</v>
+      </c>
+      <c r="I80" t="s">
+        <v>98</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <v>50</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80">
+        <v>10</v>
+      </c>
+      <c r="P80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
+      <c r="H81">
+        <v>49</v>
+      </c>
+      <c r="I81" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81">
+        <v>100</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>0.2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>100</v>
+      </c>
+      <c r="K82" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82">
+        <v>50</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82">
+        <v>10</v>
+      </c>
+      <c r="P82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83">
+        <v>49</v>
+      </c>
+      <c r="I83" t="s">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83">
+        <v>50</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <v>49</v>
+      </c>
+      <c r="I84" t="s">
+        <v>102</v>
+      </c>
+      <c r="J84">
+        <v>100</v>
+      </c>
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84">
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84">
+        <v>10</v>
+      </c>
+      <c r="P84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>0.4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <v>49</v>
+      </c>
+      <c r="I85" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85">
+        <v>100</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85">
+        <v>10</v>
+      </c>
+      <c r="P85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86">
+        <v>0.6</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H86">
+        <v>49</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86">
+        <v>50</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86">
+        <v>10</v>
+      </c>
+      <c r="P86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87">
+        <v>0.6</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H87">
+        <v>49</v>
+      </c>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87">
+        <v>50</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88">
+        <v>49</v>
+      </c>
+      <c r="I88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88">
+        <v>100</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88">
+        <v>50</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88">
+        <v>10</v>
+      </c>
+      <c r="P88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89">
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89">
+        <v>49</v>
+      </c>
+      <c r="I89" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89">
+        <v>100</v>
+      </c>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89">
+        <v>50</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89">
+        <v>10</v>
+      </c>
+      <c r="P89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
+      <c r="H90">
+        <v>49</v>
+      </c>
+      <c r="I90" t="s">
+        <v>105</v>
+      </c>
+      <c r="J90">
+        <v>100</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+      <c r="L90">
+        <v>50</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>103</v>
+      </c>
+      <c r="F91">
+        <v>48</v>
+      </c>
+      <c r="G91" t="s">
+        <v>104</v>
+      </c>
+      <c r="H91">
+        <v>49</v>
+      </c>
+      <c r="I91" t="s">
+        <v>105</v>
+      </c>
+      <c r="J91">
+        <v>100</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>22</v>
+      </c>
+      <c r="O91">
+        <v>10</v>
+      </c>
+      <c r="P91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92">
+        <v>49</v>
+      </c>
+      <c r="I92" t="s">
+        <v>108</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92">
+        <v>50</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92">
+        <v>10</v>
+      </c>
+      <c r="P92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93">
+        <v>49</v>
+      </c>
+      <c r="I93" t="s">
+        <v>108</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93">
+        <v>50</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>70</v>
+      </c>
+      <c r="H94">
+        <v>49</v>
+      </c>
+      <c r="I94" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94">
+        <v>50</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94">
+        <v>10</v>
+      </c>
+      <c r="P94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95">
+        <v>49</v>
+      </c>
+      <c r="I95" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95">
+        <v>50</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96">
+        <v>0.6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96">
+        <v>49</v>
+      </c>
+      <c r="I96" t="s">
+        <v>113</v>
+      </c>
+      <c r="J96">
+        <v>100</v>
+      </c>
+      <c r="K96" t="s">
+        <v>21</v>
+      </c>
+      <c r="L96">
+        <v>50</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97">
+        <v>0.6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97">
+        <v>49</v>
+      </c>
+      <c r="I97" t="s">
+        <v>113</v>
+      </c>
+      <c r="J97">
+        <v>100</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97">
+        <v>50</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98">
+        <v>0.8</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98">
+        <v>49</v>
+      </c>
+      <c r="I98" t="s">
+        <v>116</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98">
+        <v>10</v>
+      </c>
+      <c r="P98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>0.8</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99">
+        <v>49</v>
+      </c>
+      <c r="I99" t="s">
+        <v>116</v>
+      </c>
+      <c r="J99">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99">
+        <v>50</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99">
+        <v>10</v>
+      </c>
+      <c r="P99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s">
+        <v>118</v>
+      </c>
+      <c r="H100">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s">
+        <v>119</v>
+      </c>
+      <c r="J100">
+        <v>100</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100">
+        <v>50</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101">
+        <v>49</v>
+      </c>
+      <c r="I101" t="s">
+        <v>119</v>
+      </c>
+      <c r="J101">
+        <v>100</v>
+      </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101">
+        <v>50</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
